--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -785,6 +785,15 @@
     <t>2019-12-20T08:16:05.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
+  </si>
+  <si>
+    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T18:51:18.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
   </si>
   <si>
@@ -797,15 +806,6 @@
     <t>2019-12-06T09:09:52.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
   </si>
   <si>
@@ -1007,6 +1007,24 @@
     <t>2019-12-12T20:47:48.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=O_Ax717SQVw</t>
+  </si>
+  <si>
+    <t>I Média n°275 – Zemmour et Valeurs Actuelles attaqués   guerre totale contre la liberté d’expression</t>
+  </si>
+  <si>
+    <t>2019-12-05T21:13:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
   </si>
   <si>
@@ -1016,24 +1034,6 @@
     <t>2019-12-17T16:58:46.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=O_Ax717SQVw</t>
-  </si>
-  <si>
-    <t>I Média n°275 – Zemmour et Valeurs Actuelles attaqués   guerre totale contre la liberté d’expression</t>
-  </si>
-  <si>
-    <t>2019-12-05T21:13:16.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
   </si>
   <si>
@@ -1088,6 +1088,15 @@
     <t>2019-12-20T11:59:31.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
   </si>
   <si>
@@ -1097,15 +1106,6 @@
     <t>2019-12-10T13:10:03.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=LG4bgcxe68g</t>
   </si>
   <si>
@@ -1151,6 +1151,15 @@
     <t>2019-12-02T17:19:41.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=4iWhEvPavLA</t>
+  </si>
+  <si>
+    <t>Grève contre la réforme des retraites: les syndicats reprennent des couleurs</t>
+  </si>
+  <si>
+    <t>2019-12-09T16:55:42.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=SKlQCV2N0F8</t>
   </si>
   <si>
@@ -1163,15 +1172,6 @@
     <t>2019-11-29T16:14:54.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=4iWhEvPavLA</t>
-  </si>
-  <si>
-    <t>Grève contre la réforme des retraites: les syndicats reprennent des couleurs</t>
-  </si>
-  <si>
-    <t>2019-12-09T16:55:42.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
   </si>
   <si>
@@ -1226,6 +1226,15 @@
     <t>2019-12-20T14:05:57.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
+  </si>
+  <si>
+    <t>La réforme des retraites à la Une de l'Opinion: le making-of du dessin de la semaine</t>
+  </si>
+  <si>
+    <t>2019-12-06T17:22:00.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
   </si>
   <si>
@@ -1238,15 +1247,6 @@
     <t>2018-12-12T15:20:36.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
-  </si>
-  <si>
-    <t>La réforme des retraites à la Une de l'Opinion: le making-of du dessin de la semaine</t>
-  </si>
-  <si>
-    <t>2019-12-06T17:22:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
   </si>
   <si>
@@ -1274,6 +1274,27 @@
     <t>2019-12-04T16:10:34.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=_TEHesD6ckg</t>
+  </si>
+  <si>
+    <t>Plan d'Investissement dans les Compétences - Question à Muriel Pénicaud, Ministre du Travail</t>
+  </si>
+  <si>
+    <t>Laurent Pietraszewski Député du Nord</t>
+  </si>
+  <si>
+    <t>2019-12-03T10:17:14.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fo83Em0AtcU</t>
+  </si>
+  <si>
+    <t>Emmanuel Macron Avec Donald Trump au sommet de l'OTAN 2019</t>
+  </si>
+  <si>
+    <t>2019-12-03T20:42:26.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=wyUBcMp9jQY</t>
   </si>
   <si>
@@ -1283,27 +1304,6 @@
     <t>2019-11-25T08:54:50.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Fo83Em0AtcU</t>
-  </si>
-  <si>
-    <t>Emmanuel Macron Avec Donald Trump au sommet de l'OTAN 2019</t>
-  </si>
-  <si>
-    <t>2019-12-03T20:42:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_TEHesD6ckg</t>
-  </si>
-  <si>
-    <t>Plan d'Investissement dans les Compétences - Question à Muriel Pénicaud, Ministre du Travail</t>
-  </si>
-  <si>
-    <t>Laurent Pietraszewski Député du Nord</t>
-  </si>
-  <si>
-    <t>2019-12-03T10:17:14.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=4NAXkPQ9uzg</t>
   </si>
   <si>
@@ -1322,6 +1322,33 @@
     <t>2019-12-12T17:17:05.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iB1TmfgBYAY</t>
+  </si>
+  <si>
+    <t>Ukraine - Russie: une rencontre décisive à l'Elysée</t>
+  </si>
+  <si>
+    <t>2019-12-08T17:22:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
+  </si>
+  <si>
+    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
+  </si>
+  <si>
+    <t>2018-10-17T23:18:03.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=HW-8nUSbnN8</t>
   </si>
   <si>
@@ -1331,13 +1358,16 @@
     <t>2019-12-09T14:22:35.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=iB1TmfgBYAY</t>
-  </si>
-  <si>
-    <t>Ukraine - Russie: une rencontre décisive à l'Elysée</t>
-  </si>
-  <si>
-    <t>2019-12-08T17:22:06.000Z</t>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=J87kE8T12p8</t>
@@ -1346,36 +1376,6 @@
     <t>2019-12-19T13:22:37.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
-  </si>
-  <si>
-    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
-  </si>
-  <si>
-    <t>2018-10-17T23:18:03.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=6odkm5-bI0s</t>
   </si>
   <si>
@@ -1412,6 +1412,33 @@
     <t>2019-12-19T17:59:43.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=HILM6Rhxh_g</t>
+  </si>
+  <si>
+    <t>A l'Assemblée nationale de Corée</t>
+  </si>
+  <si>
+    <t>2019-12-04T10:25:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
+  </si>
+  <si>
+    <t>Un prêtre, un psy... tous GJ</t>
+  </si>
+  <si>
+    <t>2019-04-19T19:34:20.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=MhZJ08xOVeY</t>
   </si>
   <si>
@@ -1430,33 +1457,6 @@
     <t>2019-12-02T10:13:27.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=HILM6Rhxh_g</t>
-  </si>
-  <si>
-    <t>A l'Assemblée nationale de Corée</t>
-  </si>
-  <si>
-    <t>2019-12-04T10:25:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
-  </si>
-  <si>
-    <t>Un prêtre, un psy... tous GJ</t>
-  </si>
-  <si>
-    <t>2019-04-19T19:34:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
   </si>
   <si>
@@ -1469,6 +1469,30 @@
     <t>2019-12-12T13:19:08.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
+  </si>
+  <si>
+    <t>Protection maladie des personnes étrangères</t>
+  </si>
+  <si>
+    <t>Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2019-11-12T14:26:22.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=YXq4ejuvG0g</t>
   </si>
   <si>
@@ -1478,30 +1502,6 @@
     <t>2019-11-28T12:24:37.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
-  </si>
-  <si>
-    <t>Protection maladie des personnes étrangères</t>
-  </si>
-  <si>
-    <t>Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2019-11-12T14:26:22.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=3z96rB0K4WE</t>
   </si>
   <si>
@@ -1511,6 +1511,18 @@
     <t>2019-12-14T16:31:31.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
@@ -1520,18 +1532,6 @@
     <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
   </si>
   <si>
@@ -1544,43 +1544,442 @@
     <t>2017-05-12T12:03:56.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
+  </si>
+  <si>
+    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
+  </si>
+  <si>
+    <t>2018-09-17T13:20:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
+  </si>
+  <si>
+    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2016-01-24T17:05:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JztTImZkzlA</t>
+  </si>
+  <si>
+    <t>Question à Bertrand Badie</t>
+  </si>
+  <si>
+    <t>2019-10-09T13:17:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WcBP2NKdvso</t>
+  </si>
+  <si>
+    <t>Pourquoi Palmyre est un joyau antique</t>
+  </si>
+  <si>
+    <t>Le Monde TV</t>
+  </si>
+  <si>
+    <t>2015-05-22T13:49:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
+  </si>
+  <si>
+    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2018-11-14T10:21:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
+  </si>
+  <si>
+    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-02-28T18:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dB0AWh5y4wU</t>
+  </si>
+  <si>
+    <t>ZER - Laisse Moi Faire 💔</t>
+  </si>
+  <si>
+    <t>2019-09-27T19:29:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
+  </si>
+  <si>
+    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
+  </si>
+  <si>
+    <t>2018-09-07T09:19:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
+  </si>
+  <si>
+    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
+  </si>
+  <si>
+    <t>2019-11-19T12:31:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
+  </si>
+  <si>
+    <t>Pot pourri médiatique</t>
+  </si>
+  <si>
+    <t>2019-03-21T23:00:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wTzzS-8gsWE</t>
+  </si>
+  <si>
+    <t>LE PRESIDENT TRUMP AVOUE HILLARY CLINTON A CREE ISIS AL QUAIDA (TERRORISTE ISLAMISTE ) !!!</t>
+  </si>
+  <si>
+    <t>2019-11-02T20:26:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
+  </si>
+  <si>
+    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
+  </si>
+  <si>
+    <t>2018-11-22T17:23:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=htZiGZhk0l0</t>
   </si>
   <si>
     <t>Réforme du collège : un passage en force</t>
   </si>
   <si>
-    <t>Le Monde TV</t>
-  </si>
-  <si>
     <t>2015-05-21T16:54:14.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
-  </si>
-  <si>
-    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2016-01-24T17:05:54.000Z</t>
+    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
+  </si>
+  <si>
+    <t>ZER - Face A Moi Même</t>
+  </si>
+  <si>
+    <t>2016-10-30T19:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
+  </si>
+  <si>
+    <t>Un ex associé de Francis Lalanne</t>
+  </si>
+  <si>
+    <t>2019-05-23T10:05:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
+  </si>
+  <si>
+    <t>ZER - T'es La Bonne (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-05-15T16:28:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
+  </si>
+  <si>
+    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2013-11-08T18:25:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
+  </si>
+  <si>
+    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-08-01T17:58:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
+  </si>
+  <si>
+    <t>Installation Photovoltaïque à Guérande</t>
+  </si>
+  <si>
+    <t>2019-11-22T14:45:23.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
+  </si>
+  <si>
+    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
+  </si>
+  <si>
+    <t>2013-08-20T18:23:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
+  </si>
+  <si>
+    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
+  </si>
+  <si>
+    <t>2019-03-27T22:40:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WryNw50lYNU</t>
+  </si>
+  <si>
+    <t>Mieux comprendre ma journée de députée</t>
+  </si>
+  <si>
+    <t>2019-11-19T15:43:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
+  </si>
+  <si>
+    <t>29 10 BFMTV 2019</t>
+  </si>
+  <si>
+    <t>2019-11-15T10:08:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
+  </si>
+  <si>
+    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-03-06T18:02:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1DH7PGLEm8Q</t>
+  </si>
+  <si>
+    <t>l'échange d'Emmanuel Macron avec les étudiants de l'Université de Picardie</t>
+  </si>
+  <si>
+    <t>2019-11-22T09:19:18.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
@@ -1592,61 +1991,22 @@
     <t>2019-04-28T13:50:21.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
-  </si>
-  <si>
-    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2013-11-08T18:25:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
-  </si>
-  <si>
-    <t>ZER - T'es La Bonne (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-05-15T16:28:13.000Z</t>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
@@ -1656,366 +2016,6 @@
   </si>
   <si>
     <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
-  </si>
-  <si>
-    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
-  </si>
-  <si>
-    <t>2013-08-20T18:23:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
-  </si>
-  <si>
-    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
-  </si>
-  <si>
-    <t>2019-03-27T22:40:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
-  </si>
-  <si>
-    <t>Installation Photovoltaïque à Guérande</t>
-  </si>
-  <si>
-    <t>2019-11-22T14:45:23.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dB0AWh5y4wU</t>
-  </si>
-  <si>
-    <t>ZER - Laisse Moi Faire 💔</t>
-  </si>
-  <si>
-    <t>2019-09-27T19:29:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WryNw50lYNU</t>
-  </si>
-  <si>
-    <t>Mieux comprendre ma journée de députée</t>
-  </si>
-  <si>
-    <t>2019-11-19T15:43:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JztTImZkzlA</t>
-  </si>
-  <si>
-    <t>Question à Bertrand Badie</t>
-  </si>
-  <si>
-    <t>2019-10-09T13:17:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
-  </si>
-  <si>
-    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-03-06T18:02:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WcBP2NKdvso</t>
-  </si>
-  <si>
-    <t>Pourquoi Palmyre est un joyau antique</t>
-  </si>
-  <si>
-    <t>2015-05-22T13:49:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
-  </si>
-  <si>
-    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
-  </si>
-  <si>
-    <t>2018-09-07T09:19:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1DH7PGLEm8Q</t>
-  </si>
-  <si>
-    <t>l'échange d'Emmanuel Macron avec les étudiants de l'Université de Picardie</t>
-  </si>
-  <si>
-    <t>2019-11-22T09:19:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
-  </si>
-  <si>
-    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-02-28T18:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wTzzS-8gsWE</t>
-  </si>
-  <si>
-    <t>LE PRESIDENT TRUMP AVOUE HILLARY CLINTON A CREE ISIS AL QUAIDA (TERRORISTE ISLAMISTE ) !!!</t>
-  </si>
-  <si>
-    <t>2019-11-02T20:26:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
-  </si>
-  <si>
-    <t>Un ex associé de Francis Lalanne</t>
-  </si>
-  <si>
-    <t>2019-05-23T10:05:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
-  </si>
-  <si>
-    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
-  </si>
-  <si>
-    <t>2018-09-17T13:20:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
-  </si>
-  <si>
-    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
-  </si>
-  <si>
-    <t>2019-11-19T12:31:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
-  </si>
-  <si>
-    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-08-01T17:58:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
-  </si>
-  <si>
-    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2018-11-14T10:21:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
-  </si>
-  <si>
-    <t>29 10 BFMTV 2019</t>
-  </si>
-  <si>
-    <t>2019-11-15T10:08:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
-  </si>
-  <si>
-    <t>ZER - Face A Moi Même</t>
-  </si>
-  <si>
-    <t>2016-10-30T19:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
-  </si>
-  <si>
-    <t>Pot pourri médiatique</t>
-  </si>
-  <si>
-    <t>2019-03-21T23:00:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
-  </si>
-  <si>
-    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
-  </si>
-  <si>
-    <t>2018-11-22T17:23:27.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -5102,16 +5102,16 @@
         <v>257</v>
       </c>
       <c r="C79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" t="s">
         <v>258</v>
-      </c>
-      <c r="D79" t="s">
-        <v>259</v>
       </c>
       <c r="E79" s="3">
         <v>152</v>
       </c>
       <c r="F79" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
@@ -5131,13 +5131,13 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B80" t="s">
         <v>260</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>261</v>
-      </c>
-      <c r="C80" t="s">
-        <v>221</v>
       </c>
       <c r="D80" t="s">
         <v>262</v>
@@ -5146,7 +5146,7 @@
         <v>152</v>
       </c>
       <c r="F80" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G80" s="3">
         <v>0</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
@@ -5907,7 +5907,7 @@
         <v>331</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="D102" t="s">
         <v>332</v>
@@ -5916,7 +5916,7 @@
         <v>52</v>
       </c>
       <c r="F102" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -5942,7 +5942,7 @@
         <v>334</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D103" t="s">
         <v>335</v>
@@ -5977,7 +5977,7 @@
         <v>337</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="D104" t="s">
         <v>338</v>
@@ -5986,7 +5986,7 @@
         <v>52</v>
       </c>
       <c r="F104" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G104" s="3">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
@@ -6047,7 +6047,7 @@
         <v>343</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D106" t="s">
         <v>344</v>
@@ -6082,7 +6082,7 @@
         <v>346</v>
       </c>
       <c r="C107" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D107" t="s">
         <v>347</v>
@@ -6117,7 +6117,7 @@
         <v>349</v>
       </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D108" t="s">
         <v>350</v>
@@ -6222,7 +6222,7 @@
         <v>358</v>
       </c>
       <c r="C111" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="D111" t="s">
         <v>359</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -6257,7 +6257,7 @@
         <v>361</v>
       </c>
       <c r="C112" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="D112" t="s">
         <v>362</v>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -6467,16 +6467,16 @@
         <v>379</v>
       </c>
       <c r="C118" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" t="s">
         <v>380</v>
-      </c>
-      <c r="D118" t="s">
-        <v>381</v>
       </c>
       <c r="E118" s="3">
         <v>25</v>
       </c>
       <c r="F118" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -6496,13 +6496,13 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B119" t="s">
         <v>382</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>383</v>
-      </c>
-      <c r="C119" t="s">
-        <v>56</v>
       </c>
       <c r="D119" t="s">
         <v>384</v>
@@ -6511,7 +6511,7 @@
         <v>25</v>
       </c>
       <c r="F119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="3">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>389</v>
       </c>
       <c r="C121" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D121" t="s">
         <v>390</v>
@@ -6712,7 +6712,7 @@
         <v>401</v>
       </c>
       <c r="C125" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D125" t="s">
         <v>402</v>
@@ -6747,19 +6747,19 @@
         <v>404</v>
       </c>
       <c r="C126" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" t="s">
         <v>405</v>
       </c>
-      <c r="D126" t="s">
-        <v>406</v>
-      </c>
       <c r="E126" s="3">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
       </c>
       <c r="G126" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" t="s">
         <v>16</v>
@@ -6776,34 +6776,34 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B127" t="s">
         <v>407</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>408</v>
-      </c>
-      <c r="C127" t="s">
-        <v>56</v>
       </c>
       <c r="D127" t="s">
         <v>409</v>
       </c>
       <c r="E127" s="3">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
       </c>
       <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
         <v>1</v>
-      </c>
-      <c r="H127" s="3">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -6922,19 +6922,19 @@
         <v>420</v>
       </c>
       <c r="C131" t="s">
-        <v>214</v>
+        <v>421</v>
       </c>
       <c r="D131" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E131" s="3">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="3">
         <v>1</v>
-      </c>
-      <c r="G131" s="3">
-        <v>0</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
@@ -6951,16 +6951,16 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B132" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C132" t="s">
         <v>204</v>
       </c>
       <c r="D132" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E132" s="3">
         <v>15</v>
@@ -6986,25 +6986,25 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B133" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C133" t="s">
-        <v>427</v>
+        <v>214</v>
       </c>
       <c r="D133" t="s">
         <v>428</v>
       </c>
       <c r="E133" s="3">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -7097,19 +7097,19 @@
         <v>436</v>
       </c>
       <c r="C136" t="s">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="D136" t="s">
         <v>437</v>
       </c>
       <c r="E136" s="3">
-        <v>10</v>
+        <v>732</v>
       </c>
       <c r="F136" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G136" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
@@ -7164,31 +7164,31 @@
         <v>441</v>
       </c>
       <c r="B138" t="s">
-        <v>309</v>
+        <v>442</v>
       </c>
       <c r="C138" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E138" s="3">
-        <v>10</v>
+        <v>60406</v>
       </c>
       <c r="F138" s="3">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="G138" s="3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="L138" t="s">
         <v>16</v>
@@ -7196,25 +7196,25 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B139" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C139" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="D139" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E139" s="3">
-        <v>732</v>
+        <v>10</v>
       </c>
       <c r="F139" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G139" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L139" t="s">
         <v>16</v>
@@ -7231,16 +7231,16 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B140" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C140" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D140" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E140" s="3">
         <v>656</v>
@@ -7266,34 +7266,34 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B141" t="s">
-        <v>451</v>
+        <v>309</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="D141" t="s">
         <v>452</v>
       </c>
       <c r="E141" s="3">
-        <v>60406</v>
+        <v>10</v>
       </c>
       <c r="F141" s="3">
-        <v>1073</v>
+        <v>0</v>
       </c>
       <c r="G141" s="3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="L141" t="s">
         <v>16</v>
@@ -7447,7 +7447,7 @@
         <v>466</v>
       </c>
       <c r="C146" t="s">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="D146" t="s">
         <v>467</v>
@@ -7456,7 +7456,7 @@
         <v>6</v>
       </c>
       <c r="F146" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G146" s="3">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>469</v>
       </c>
       <c r="C147" t="s">
-        <v>319</v>
+        <v>56</v>
       </c>
       <c r="D147" t="s">
         <v>470</v>
@@ -7517,28 +7517,28 @@
         <v>472</v>
       </c>
       <c r="C148" t="s">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="D148" t="s">
         <v>473</v>
       </c>
       <c r="E148" s="3">
-        <v>6</v>
+        <v>47483</v>
       </c>
       <c r="F148" s="3">
-        <v>2</v>
+        <v>1169</v>
       </c>
       <c r="G148" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H148" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="L148" t="s">
         <v>16</v>
@@ -7552,28 +7552,28 @@
         <v>475</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>383</v>
       </c>
       <c r="D149" t="s">
         <v>476</v>
       </c>
       <c r="E149" s="3">
-        <v>47483</v>
+        <v>6</v>
       </c>
       <c r="F149" s="3">
-        <v>1169</v>
+        <v>0</v>
       </c>
       <c r="G149" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H149" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K149">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="L149" t="s">
         <v>16</v>
@@ -7587,7 +7587,7 @@
         <v>478</v>
       </c>
       <c r="C150" t="s">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="D150" t="s">
         <v>479</v>
@@ -7657,19 +7657,19 @@
         <v>485</v>
       </c>
       <c r="C152" t="s">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="D152" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E152" s="3">
-        <v>23</v>
+        <v>1921</v>
       </c>
       <c r="F152" s="3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G152" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H152" s="3">
         <v>0</v>
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L152" t="s">
         <v>16</v>
@@ -7686,25 +7686,25 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B153" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C153" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D153" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E153" s="3">
-        <v>1921</v>
+        <v>14</v>
       </c>
       <c r="F153" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G153" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L153" t="s">
         <v>16</v>
@@ -7721,19 +7721,19 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B154" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C154" t="s">
-        <v>493</v>
+        <v>319</v>
       </c>
       <c r="D154" t="s">
         <v>494</v>
       </c>
       <c r="E154" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -7797,16 +7797,16 @@
         <v>499</v>
       </c>
       <c r="C156" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="D156" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E156" s="3">
+        <v>110</v>
+      </c>
+      <c r="F156" s="3">
         <v>2</v>
-      </c>
-      <c r="F156" s="3">
-        <v>0</v>
       </c>
       <c r="G156" s="3">
         <v>0</v>
@@ -7826,22 +7826,22 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B157" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C157" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="D157" t="s">
         <v>504</v>
       </c>
       <c r="E157" s="3">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="F157" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G157" s="3">
         <v>0</v>
@@ -7902,16 +7902,16 @@
         <v>510</v>
       </c>
       <c r="C159" t="s">
+        <v>261</v>
+      </c>
+      <c r="D159" t="s">
         <v>511</v>
       </c>
-      <c r="D159" t="s">
-        <v>512</v>
-      </c>
       <c r="E159" s="3">
-        <v>77</v>
+        <v>2053</v>
       </c>
       <c r="F159" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G159" s="3">
         <v>0</v>
@@ -7931,25 +7931,25 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B160" t="s">
         <v>513</v>
-      </c>
-      <c r="B160" t="s">
-        <v>514</v>
       </c>
       <c r="C160" t="s">
         <v>22</v>
       </c>
       <c r="D160" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E160" s="3">
-        <v>3080</v>
+        <v>8968</v>
       </c>
       <c r="F160" s="3">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="G160" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H160" s="3">
         <v>1</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L160" t="s">
         <v>16</v>
@@ -7966,25 +7966,25 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B161" t="s">
         <v>516</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
+        <v>490</v>
+      </c>
+      <c r="D161" t="s">
         <v>517</v>
       </c>
-      <c r="C161" t="s">
-        <v>22</v>
-      </c>
-      <c r="D161" t="s">
-        <v>518</v>
-      </c>
       <c r="E161" s="3">
-        <v>8968</v>
+        <v>95</v>
       </c>
       <c r="F161" s="3">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G161" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H161" s="3">
         <v>1</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="K161">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L161" t="s">
         <v>16</v>
@@ -8001,25 +8001,25 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B162" t="s">
         <v>519</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" t="s">
         <v>520</v>
       </c>
-      <c r="C162" t="s">
-        <v>191</v>
-      </c>
-      <c r="D162" t="s">
-        <v>521</v>
-      </c>
       <c r="E162" s="3">
-        <v>218426</v>
+        <v>4759</v>
       </c>
       <c r="F162" s="3">
-        <v>2691</v>
+        <v>129</v>
       </c>
       <c r="G162" s="3">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="H162" s="3">
         <v>1</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="K162">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L162" t="s">
         <v>16</v>
@@ -8036,25 +8036,25 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B163" t="s">
         <v>522</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" t="s">
         <v>523</v>
       </c>
-      <c r="C163" t="s">
-        <v>26</v>
-      </c>
-      <c r="D163" t="s">
-        <v>524</v>
-      </c>
       <c r="E163" s="3">
-        <v>125335</v>
+        <v>3080</v>
       </c>
       <c r="F163" s="3">
-        <v>3458</v>
+        <v>58</v>
       </c>
       <c r="G163" s="3">
-        <v>566</v>
+        <v>5</v>
       </c>
       <c r="H163" s="3">
         <v>1</v>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="K163">
-        <v>1955</v>
+        <v>13</v>
       </c>
       <c r="L163" t="s">
         <v>16</v>
@@ -8071,34 +8071,34 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B164" t="s">
         <v>525</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
+        <v>191</v>
+      </c>
+      <c r="D164" t="s">
         <v>526</v>
       </c>
-      <c r="C164" t="s">
-        <v>482</v>
-      </c>
-      <c r="D164" t="s">
-        <v>527</v>
-      </c>
       <c r="E164" s="3">
-        <v>6</v>
+        <v>218426</v>
       </c>
       <c r="F164" s="3">
-        <v>0</v>
+        <v>2691</v>
       </c>
       <c r="G164" s="3">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H164" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L164" t="s">
         <v>16</v>
@@ -8106,25 +8106,25 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B165" t="s">
         <v>528</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
+        <v>319</v>
+      </c>
+      <c r="D165" t="s">
         <v>529</v>
       </c>
-      <c r="C165" t="s">
-        <v>191</v>
-      </c>
-      <c r="D165" t="s">
-        <v>530</v>
-      </c>
       <c r="E165" s="3">
-        <v>443934</v>
+        <v>106</v>
       </c>
       <c r="F165" s="3">
-        <v>3514</v>
+        <v>4</v>
       </c>
       <c r="G165" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L165" t="s">
         <v>16</v>
@@ -8141,16 +8141,16 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B166" t="s">
         <v>531</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
+        <v>261</v>
+      </c>
+      <c r="D166" t="s">
         <v>532</v>
-      </c>
-      <c r="C166" t="s">
-        <v>258</v>
-      </c>
-      <c r="D166" t="s">
-        <v>533</v>
       </c>
       <c r="E166" s="3">
         <v>8644</v>
@@ -8176,25 +8176,25 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B167" t="s">
         <v>534</v>
-      </c>
-      <c r="B167" t="s">
-        <v>535</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E167" s="3">
-        <v>511312</v>
+        <v>222595</v>
       </c>
       <c r="F167" s="3">
-        <v>15167</v>
+        <v>9022</v>
       </c>
       <c r="G167" s="3">
-        <v>402</v>
+        <v>147</v>
       </c>
       <c r="H167" s="3">
         <v>1</v>
@@ -8203,33 +8203,33 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="L167" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B168" t="s">
         <v>538</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
+        <v>300</v>
+      </c>
+      <c r="D168" t="s">
         <v>539</v>
       </c>
-      <c r="C168" t="s">
-        <v>265</v>
-      </c>
-      <c r="D168" t="s">
-        <v>540</v>
-      </c>
       <c r="E168" s="3">
-        <v>18665</v>
+        <v>239</v>
       </c>
       <c r="F168" s="3">
-        <v>659</v>
+        <v>2</v>
       </c>
       <c r="G168" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H168" s="3">
         <v>1</v>
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="K168">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L168" t="s">
         <v>16</v>
@@ -8246,34 +8246,34 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B169" t="s">
         <v>541</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>542</v>
-      </c>
-      <c r="C169" t="s">
-        <v>191</v>
       </c>
       <c r="D169" t="s">
         <v>543</v>
       </c>
       <c r="E169" s="3">
-        <v>401869</v>
+        <v>310</v>
       </c>
       <c r="F169" s="3">
-        <v>4640</v>
+        <v>1</v>
       </c>
       <c r="G169" s="3">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="H169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="L169" t="s">
         <v>16</v>
@@ -8287,19 +8287,19 @@
         <v>545</v>
       </c>
       <c r="C170" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D170" t="s">
         <v>546</v>
       </c>
       <c r="E170" s="3">
-        <v>428</v>
+        <v>2883</v>
       </c>
       <c r="F170" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G170" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L170" t="s">
         <v>16</v>
@@ -8322,19 +8322,19 @@
         <v>548</v>
       </c>
       <c r="C171" t="s">
-        <v>191</v>
+        <v>490</v>
       </c>
       <c r="D171" t="s">
         <v>549</v>
       </c>
       <c r="E171" s="3">
-        <v>275148</v>
+        <v>60</v>
       </c>
       <c r="F171" s="3">
-        <v>2343</v>
+        <v>1</v>
       </c>
       <c r="G171" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="K171">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L171" t="s">
         <v>16</v>
@@ -8357,19 +8357,19 @@
         <v>551</v>
       </c>
       <c r="C172" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
         <v>552</v>
       </c>
       <c r="E172" s="3">
-        <v>282666</v>
+        <v>25592</v>
       </c>
       <c r="F172" s="3">
-        <v>4159</v>
+        <v>221</v>
       </c>
       <c r="G172" s="3">
-        <v>1024</v>
+        <v>29</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
@@ -8378,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>2992</v>
+        <v>79</v>
       </c>
       <c r="L172" t="s">
         <v>16</v>
@@ -8392,19 +8392,19 @@
         <v>554</v>
       </c>
       <c r="C173" t="s">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
         <v>555</v>
       </c>
       <c r="E173" s="3">
-        <v>74</v>
+        <v>566966</v>
       </c>
       <c r="F173" s="3">
-        <v>0</v>
+        <v>18782</v>
       </c>
       <c r="G173" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H173" s="3">
         <v>1</v>
@@ -8413,10 +8413,10 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L173" t="s">
-        <v>16</v>
+        <v>536</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8427,19 +8427,19 @@
         <v>557</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="D174" t="s">
         <v>558</v>
       </c>
       <c r="E174" s="3">
-        <v>25592</v>
+        <v>549058</v>
       </c>
       <c r="F174" s="3">
-        <v>221</v>
+        <v>4324</v>
       </c>
       <c r="G174" s="3">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="H174" s="3">
         <v>1</v>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="L174" t="s">
         <v>16</v>
@@ -8462,16 +8462,16 @@
         <v>560</v>
       </c>
       <c r="C175" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="D175" t="s">
         <v>561</v>
       </c>
       <c r="E175" s="3">
-        <v>72</v>
+        <v>844</v>
       </c>
       <c r="F175" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G175" s="3">
         <v>0</v>
@@ -8497,31 +8497,31 @@
         <v>563</v>
       </c>
       <c r="C176" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="D176" t="s">
         <v>564</v>
       </c>
       <c r="E176" s="3">
-        <v>4183126</v>
+        <v>2418</v>
       </c>
       <c r="F176" s="3">
-        <v>49430</v>
+        <v>126</v>
       </c>
       <c r="G176" s="3">
-        <v>5701</v>
+        <v>12</v>
       </c>
       <c r="H176" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176">
-        <v>1196</v>
+        <v>33</v>
       </c>
       <c r="L176" t="s">
-        <v>537</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8532,13 +8532,13 @@
         <v>566</v>
       </c>
       <c r="C177" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D177" t="s">
         <v>567</v>
       </c>
       <c r="E177" s="3">
-        <v>617</v>
+        <v>4640</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
@@ -8567,19 +8567,19 @@
         <v>569</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="D178" t="s">
         <v>570</v>
       </c>
       <c r="E178" s="3">
-        <v>2883</v>
+        <v>69498</v>
       </c>
       <c r="F178" s="3">
-        <v>42</v>
+        <v>1189</v>
       </c>
       <c r="G178" s="3">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H178" s="3">
         <v>1</v>
@@ -8588,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="K178">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="L178" t="s">
         <v>16</v>
@@ -8602,28 +8602,28 @@
         <v>572</v>
       </c>
       <c r="C179" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="D179" t="s">
         <v>573</v>
       </c>
       <c r="E179" s="3">
-        <v>2418</v>
+        <v>18665</v>
       </c>
       <c r="F179" s="3">
-        <v>126</v>
+        <v>659</v>
       </c>
       <c r="G179" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H179" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179">
         <v>0</v>
       </c>
       <c r="K179">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="L179" t="s">
         <v>16</v>
@@ -8637,16 +8637,16 @@
         <v>575</v>
       </c>
       <c r="C180" t="s">
-        <v>507</v>
+        <v>300</v>
       </c>
       <c r="D180" t="s">
         <v>576</v>
       </c>
       <c r="E180" s="3">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F180" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G180" s="3">
         <v>0</v>
@@ -8672,19 +8672,19 @@
         <v>578</v>
       </c>
       <c r="C181" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D181" t="s">
         <v>579</v>
       </c>
       <c r="E181" s="3">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c r="F181" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G181" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
@@ -8707,16 +8707,16 @@
         <v>581</v>
       </c>
       <c r="C182" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D182" t="s">
         <v>582</v>
       </c>
       <c r="E182" s="3">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F182" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G182" s="3">
         <v>0</v>
@@ -8742,19 +8742,19 @@
         <v>584</v>
       </c>
       <c r="C183" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="D183" t="s">
         <v>585</v>
       </c>
       <c r="E183" s="3">
-        <v>411533</v>
+        <v>39</v>
       </c>
       <c r="F183" s="3">
-        <v>4290</v>
+        <v>1</v>
       </c>
       <c r="G183" s="3">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="H183" s="3">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="K183">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="L183" t="s">
         <v>16</v>
@@ -8777,16 +8777,16 @@
         <v>587</v>
       </c>
       <c r="C184" t="s">
-        <v>511</v>
+        <v>300</v>
       </c>
       <c r="D184" t="s">
         <v>588</v>
       </c>
       <c r="E184" s="3">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="F184" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" s="3">
         <v>0</v>
@@ -8812,19 +8812,19 @@
         <v>590</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D185" t="s">
         <v>591</v>
       </c>
       <c r="E185" s="3">
-        <v>222595</v>
+        <v>110227</v>
       </c>
       <c r="F185" s="3">
-        <v>9022</v>
+        <v>1800</v>
       </c>
       <c r="G185" s="3">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
@@ -8833,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>130</v>
+        <v>691</v>
       </c>
       <c r="L185" t="s">
-        <v>537</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8847,28 +8847,28 @@
         <v>593</v>
       </c>
       <c r="C186" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="D186" t="s">
         <v>594</v>
       </c>
       <c r="E186" s="3">
-        <v>39</v>
+        <v>2087</v>
       </c>
       <c r="F186" s="3">
+        <v>100</v>
+      </c>
+      <c r="G186" s="3">
         <v>1</v>
       </c>
-      <c r="G186" s="3">
-        <v>0</v>
-      </c>
       <c r="H186" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186">
         <v>0</v>
       </c>
       <c r="K186">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L186" t="s">
         <v>16</v>
@@ -8882,31 +8882,31 @@
         <v>596</v>
       </c>
       <c r="C187" t="s">
-        <v>14</v>
+        <v>482</v>
       </c>
       <c r="D187" t="s">
         <v>597</v>
       </c>
       <c r="E187" s="3">
-        <v>566966</v>
+        <v>6</v>
       </c>
       <c r="F187" s="3">
-        <v>18782</v>
+        <v>0</v>
       </c>
       <c r="G187" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H187" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>537</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8917,19 +8917,19 @@
         <v>599</v>
       </c>
       <c r="C188" t="s">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="D188" t="s">
         <v>600</v>
       </c>
       <c r="E188" s="3">
-        <v>844</v>
+        <v>511312</v>
       </c>
       <c r="F188" s="3">
-        <v>0</v>
+        <v>15167</v>
       </c>
       <c r="G188" s="3">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="H188" s="3">
         <v>1</v>
@@ -8938,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L188" t="s">
-        <v>16</v>
+        <v>536</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8952,16 +8952,16 @@
         <v>602</v>
       </c>
       <c r="C189" t="s">
-        <v>258</v>
+        <v>507</v>
       </c>
       <c r="D189" t="s">
         <v>603</v>
       </c>
       <c r="E189" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F189" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G189" s="3">
         <v>0</v>
@@ -8987,16 +8987,16 @@
         <v>605</v>
       </c>
       <c r="C190" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="D190" t="s">
         <v>606</v>
       </c>
       <c r="E190" s="3">
-        <v>239</v>
+        <v>617</v>
       </c>
       <c r="F190" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G190" s="3">
         <v>0</v>
@@ -9022,22 +9022,22 @@
         <v>608</v>
       </c>
       <c r="C191" t="s">
-        <v>204</v>
+        <v>408</v>
       </c>
       <c r="D191" t="s">
         <v>609</v>
       </c>
       <c r="E191" s="3">
-        <v>58</v>
+        <v>345</v>
       </c>
       <c r="F191" s="3">
+        <v>6</v>
+      </c>
+      <c r="G191" s="3">
+        <v>2</v>
+      </c>
+      <c r="H191" s="3">
         <v>1</v>
-      </c>
-      <c r="G191" s="3">
-        <v>0</v>
-      </c>
-      <c r="H191" s="3">
-        <v>0</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -9057,19 +9057,19 @@
         <v>611</v>
       </c>
       <c r="C192" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="D192" t="s">
         <v>612</v>
       </c>
       <c r="E192" s="3">
-        <v>69498</v>
+        <v>472979</v>
       </c>
       <c r="F192" s="3">
-        <v>1189</v>
+        <v>20185</v>
       </c>
       <c r="G192" s="3">
-        <v>45</v>
+        <v>515</v>
       </c>
       <c r="H192" s="3">
         <v>1</v>
@@ -9078,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="L192" t="s">
-        <v>16</v>
+        <v>536</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9092,16 +9092,16 @@
         <v>614</v>
       </c>
       <c r="C193" t="s">
-        <v>300</v>
+        <v>542</v>
       </c>
       <c r="D193" t="s">
         <v>615</v>
       </c>
       <c r="E193" s="3">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F193" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G193" s="3">
         <v>0</v>
@@ -9133,13 +9133,13 @@
         <v>618</v>
       </c>
       <c r="E194" s="3">
-        <v>549058</v>
+        <v>21005</v>
       </c>
       <c r="F194" s="3">
-        <v>4324</v>
+        <v>478</v>
       </c>
       <c r="G194" s="3">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="H194" s="3">
         <v>1</v>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="K194">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c r="L194" t="s">
         <v>16</v>
@@ -9162,19 +9162,19 @@
         <v>620</v>
       </c>
       <c r="C195" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="D195" t="s">
         <v>621</v>
       </c>
       <c r="E195" s="3">
-        <v>2053</v>
+        <v>125374</v>
       </c>
       <c r="F195" s="3">
-        <v>0</v>
+        <v>2544</v>
       </c>
       <c r="G195" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H195" s="3">
         <v>1</v>
@@ -9183,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>1213</v>
       </c>
       <c r="L195" t="s">
         <v>16</v>
@@ -9197,28 +9197,28 @@
         <v>623</v>
       </c>
       <c r="C196" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="D196" t="s">
         <v>624</v>
       </c>
       <c r="E196" s="3">
-        <v>2087</v>
+        <v>401869</v>
       </c>
       <c r="F196" s="3">
-        <v>100</v>
+        <v>4640</v>
       </c>
       <c r="G196" s="3">
+        <v>151</v>
+      </c>
+      <c r="H196" s="3">
         <v>1</v>
       </c>
-      <c r="H196" s="3">
-        <v>0</v>
-      </c>
       <c r="J196">
         <v>0</v>
       </c>
       <c r="K196">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="L196" t="s">
         <v>16</v>
@@ -9232,19 +9232,19 @@
         <v>626</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="D197" t="s">
         <v>627</v>
       </c>
       <c r="E197" s="3">
-        <v>472979</v>
+        <v>443934</v>
       </c>
       <c r="F197" s="3">
-        <v>20185</v>
+        <v>3514</v>
       </c>
       <c r="G197" s="3">
-        <v>515</v>
+        <v>128</v>
       </c>
       <c r="H197" s="3">
         <v>1</v>
@@ -9253,10 +9253,10 @@
         <v>0</v>
       </c>
       <c r="K197">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="L197" t="s">
-        <v>537</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9267,19 +9267,19 @@
         <v>629</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="D198" t="s">
         <v>630</v>
       </c>
       <c r="E198" s="3">
-        <v>4759</v>
+        <v>850122</v>
       </c>
       <c r="F198" s="3">
-        <v>129</v>
+        <v>7412</v>
       </c>
       <c r="G198" s="3">
-        <v>6</v>
+        <v>349</v>
       </c>
       <c r="H198" s="3">
         <v>1</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="L198" t="s">
         <v>16</v>
@@ -9302,19 +9302,19 @@
         <v>632</v>
       </c>
       <c r="C199" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="D199" t="s">
         <v>633</v>
       </c>
       <c r="E199" s="3">
-        <v>125374</v>
+        <v>72</v>
       </c>
       <c r="F199" s="3">
-        <v>2544</v>
+        <v>3</v>
       </c>
       <c r="G199" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H199" s="3">
         <v>1</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="L199" t="s">
         <v>16</v>
@@ -9337,19 +9337,19 @@
         <v>635</v>
       </c>
       <c r="C200" t="s">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="D200" t="s">
         <v>636</v>
       </c>
       <c r="E200" s="3">
-        <v>4640</v>
+        <v>4183126</v>
       </c>
       <c r="F200" s="3">
-        <v>0</v>
+        <v>49430</v>
       </c>
       <c r="G200" s="3">
-        <v>0</v>
+        <v>5701</v>
       </c>
       <c r="H200" s="3">
         <v>1</v>
@@ -9358,10 +9358,10 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="L200" t="s">
-        <v>16</v>
+        <v>536</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9372,19 +9372,19 @@
         <v>638</v>
       </c>
       <c r="C201" t="s">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="D201" t="s">
         <v>639</v>
       </c>
       <c r="E201" s="3">
-        <v>23</v>
+        <v>275148</v>
       </c>
       <c r="F201" s="3">
-        <v>1</v>
+        <v>2343</v>
       </c>
       <c r="G201" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H201" s="3">
         <v>1</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L201" t="s">
         <v>16</v>
@@ -9407,19 +9407,19 @@
         <v>641</v>
       </c>
       <c r="C202" t="s">
-        <v>493</v>
+        <v>26</v>
       </c>
       <c r="D202" t="s">
         <v>642</v>
       </c>
       <c r="E202" s="3">
-        <v>95</v>
+        <v>282666</v>
       </c>
       <c r="F202" s="3">
-        <v>1</v>
+        <v>4159</v>
       </c>
       <c r="G202" s="3">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="H202" s="3">
         <v>1</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="K202">
-        <v>0</v>
+        <v>2992</v>
       </c>
       <c r="L202" t="s">
         <v>16</v>
@@ -9442,22 +9442,22 @@
         <v>644</v>
       </c>
       <c r="C203" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="D203" t="s">
         <v>645</v>
       </c>
       <c r="E203" s="3">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="F203" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G203" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>647</v>
       </c>
       <c r="C204" t="s">
-        <v>191</v>
+        <v>421</v>
       </c>
       <c r="D204" t="s">
         <v>648</v>
       </c>
       <c r="E204" s="3">
-        <v>850122</v>
+        <v>2</v>
       </c>
       <c r="F204" s="3">
-        <v>7412</v>
+        <v>0</v>
       </c>
       <c r="G204" s="3">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="H204" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
       <c r="K204">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="L204" t="s">
         <v>16</v>
@@ -9512,19 +9512,19 @@
         <v>650</v>
       </c>
       <c r="C205" t="s">
-        <v>493</v>
+        <v>191</v>
       </c>
       <c r="D205" t="s">
         <v>651</v>
       </c>
       <c r="E205" s="3">
-        <v>60</v>
+        <v>411533</v>
       </c>
       <c r="F205" s="3">
-        <v>1</v>
+        <v>4290</v>
       </c>
       <c r="G205" s="3">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="H205" s="3">
         <v>1</v>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="K205">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="L205" t="s">
         <v>16</v>
@@ -9547,16 +9547,16 @@
         <v>653</v>
       </c>
       <c r="C206" t="s">
-        <v>427</v>
+        <v>204</v>
       </c>
       <c r="D206" t="s">
         <v>654</v>
       </c>
       <c r="E206" s="3">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F206" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206" s="3">
         <v>0</v>
@@ -9582,19 +9582,19 @@
         <v>656</v>
       </c>
       <c r="C207" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D207" t="s">
         <v>657</v>
       </c>
       <c r="E207" s="3">
-        <v>21005</v>
+        <v>125335</v>
       </c>
       <c r="F207" s="3">
-        <v>478</v>
+        <v>3458</v>
       </c>
       <c r="G207" s="3">
-        <v>25</v>
+        <v>566</v>
       </c>
       <c r="H207" s="3">
         <v>1</v>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="K207">
-        <v>61</v>
+        <v>1955</v>
       </c>
       <c r="L207" t="s">
         <v>16</v>
@@ -9617,19 +9617,19 @@
         <v>659</v>
       </c>
       <c r="C208" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D208" t="s">
         <v>660</v>
       </c>
       <c r="E208" s="3">
-        <v>24890</v>
+        <v>87</v>
       </c>
       <c r="F208" s="3">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="G208" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H208" s="3">
         <v>1</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K208">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L208" t="s">
         <v>16</v>
@@ -9652,19 +9652,19 @@
         <v>662</v>
       </c>
       <c r="C209" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="D209" t="s">
         <v>663</v>
       </c>
       <c r="E209" s="3">
-        <v>110227</v>
+        <v>24890</v>
       </c>
       <c r="F209" s="3">
-        <v>1800</v>
+        <v>1321</v>
       </c>
       <c r="G209" s="3">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="H209" s="3">
         <v>1</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="K209">
-        <v>691</v>
+        <v>154</v>
       </c>
       <c r="L209" t="s">
         <v>16</v>
@@ -9687,19 +9687,19 @@
         <v>665</v>
       </c>
       <c r="C210" t="s">
-        <v>405</v>
+        <v>261</v>
       </c>
       <c r="D210" t="s">
         <v>666</v>
       </c>
       <c r="E210" s="3">
-        <v>345</v>
+        <v>428</v>
       </c>
       <c r="F210" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G210" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H210" s="3">
         <v>1</v>
@@ -10063,7 +10063,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B16">
         <v>336</v>
@@ -10103,7 +10103,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B21">
         <v>72</v>
@@ -10111,7 +10111,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B22">
         <v>18</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B23">
         <v>15</v>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -10143,7 +10143,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="B30">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="656">
   <si>
     <t>URL</t>
   </si>
@@ -179,6 +179,93 @@
     <t>2019-12-10T12:12:49.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
+  </si>
+  <si>
+    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
+  </si>
+  <si>
+    <t>2019-12-03T11:35:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7uudTHzVLWg</t>
+  </si>
+  <si>
+    <t>Live : Fin de l'esclavagisme avec Yves Chouard, Maitre Philippe Fortabat Labatut, Lorelÿ</t>
+  </si>
+  <si>
+    <t>Dajjal Magazine</t>
+  </si>
+  <si>
+    <t>2019-12-21T23:04:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BsuuSPxRLE</t>
+  </si>
+  <si>
+    <t>La Guerre des mots</t>
+  </si>
+  <si>
+    <t>2019-12-15T23:14:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=D7-Mfkbf7O8</t>
   </si>
   <si>
@@ -191,93 +278,6 @@
     <t>2019-11-29T16:55:36.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
-  </si>
-  <si>
-    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
-  </si>
-  <si>
-    <t>2019-12-03T11:35:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7uudTHzVLWg</t>
-  </si>
-  <si>
-    <t>Live : Fin de l'esclavagisme avec Yves Chouard, Maitre Philippe Fortabat Labatut, Lorelÿ</t>
-  </si>
-  <si>
-    <t>Dajjal Magazine</t>
-  </si>
-  <si>
-    <t>2019-12-21T23:04:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BsuuSPxRLE</t>
-  </si>
-  <si>
-    <t>La Guerre des mots</t>
-  </si>
-  <si>
-    <t>2019-12-15T23:14:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
   </si>
   <si>
@@ -308,6 +308,15 @@
     <t>2019-12-27T06:32:48.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=sjmFJdoZX3Y</t>
   </si>
   <si>
@@ -317,15 +326,6 @@
     <t>2019-05-26T08:15:43.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
   </si>
   <si>
@@ -362,15 +362,6 @@
     <t>2019-12-06T13:05:10.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=RbqFN6tV5q8</t>
-  </si>
-  <si>
-    <t>Gilets jaunes 1 an. Un air de révolte ? / Paris - France 16 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-11-29T10:29:09.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
   </si>
   <si>
@@ -389,6 +380,90 @@
     <t>2019-12-01T04:09:12.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=H-jpGp862t0</t>
+  </si>
+  <si>
+    <t>UN HACKER DENONCE LE DARK NET LA MANIPULATION DE L ISLAM ET LE TRAFFIC NUMERIQUE !!!</t>
+  </si>
+  <si>
+    <t>ANTILLUMINATI KEMAR 2</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:25:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4iD2oP3kKaI</t>
+  </si>
+  <si>
+    <t>FRANC MACON CONVERTIE CONFIRME LEURS DOCTRINE LUCIFERIENNE INCOMPATIBLE AVEC LES RELIGIONS !!!</t>
+  </si>
+  <si>
+    <t>2019-12-03T11:32:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kob-ZZSn_2A</t>
+  </si>
+  <si>
+    <t>PACTE SATANIQUE AVEC LUCIFER PAR LE SANG POUR LA GLOIRE EN FRANCE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-15T11:01:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oTmENRbauHw</t>
+  </si>
+  <si>
+    <t>COLUCHE UN HUMOURISTE TUE PAR LES ELITES PARCE QU IL DENONCAIT LA POLITIQUE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-13T11:14:24.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B4I6NTggH04</t>
+  </si>
+  <si>
+    <t>FRANCE 2 : EXORCISME DE DEMONS EN DIRECT A LA TELEVISION FRANCAISE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-16T11:03:30.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ojMd3jAHsZY</t>
+  </si>
+  <si>
+    <t>Les pompiers en colère prennent leurs quartiers à Paris / Paris - France 02 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-03T04:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AXfch8K4UQU</t>
+  </si>
+  <si>
+    <t>EXPLICATION DE PRATIQUE MAGIQUE OCCULTE SATANIQUE PAR UN ANCIEN SORCIER REPENTI !!!</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:09:54.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=JC0KeE0oNx0</t>
   </si>
   <si>
@@ -398,90 +473,6 @@
     <t>2019-11-25T08:00:10.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=H-jpGp862t0</t>
-  </si>
-  <si>
-    <t>UN HACKER DENONCE LE DARK NET LA MANIPULATION DE L ISLAM ET LE TRAFFIC NUMERIQUE !!!</t>
-  </si>
-  <si>
-    <t>ANTILLUMINATI KEMAR 2</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:25:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4iD2oP3kKaI</t>
-  </si>
-  <si>
-    <t>FRANC MACON CONVERTIE CONFIRME LEURS DOCTRINE LUCIFERIENNE INCOMPATIBLE AVEC LES RELIGIONS !!!</t>
-  </si>
-  <si>
-    <t>2019-12-03T11:32:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kob-ZZSn_2A</t>
-  </si>
-  <si>
-    <t>PACTE SATANIQUE AVEC LUCIFER PAR LE SANG POUR LA GLOIRE EN FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-15T11:01:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oTmENRbauHw</t>
-  </si>
-  <si>
-    <t>COLUCHE UN HUMOURISTE TUE PAR LES ELITES PARCE QU IL DENONCAIT LA POLITIQUE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-13T11:14:24.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B4I6NTggH04</t>
-  </si>
-  <si>
-    <t>FRANCE 2 : EXORCISME DE DEMONS EN DIRECT A LA TELEVISION FRANCAISE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-16T11:03:30.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ojMd3jAHsZY</t>
-  </si>
-  <si>
-    <t>Les pompiers en colère prennent leurs quartiers à Paris / Paris - France 02 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-03T04:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AXfch8K4UQU</t>
-  </si>
-  <si>
-    <t>EXPLICATION DE PRATIQUE MAGIQUE OCCULTE SATANIQUE PAR UN ANCIEN SORCIER REPENTI !!!</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:09:54.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=XfZF5AT3UDo</t>
   </si>
   <si>
@@ -518,6 +509,24 @@
     <t>2019-12-22T11:29:10.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=HXiOLJ48sXc</t>
+  </si>
+  <si>
+    <t>SANTE : LES ALIMENTS QUI RESSEMBLE AUX ORGANES QUI GUERISSENT !!!</t>
+  </si>
+  <si>
+    <t>2019-12-06T18:35:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dz18LZY7NEI</t>
+  </si>
+  <si>
+    <t>LEBRON JAMES SIGNE SATANIQUE MACONNIQUE LE CHAMPION DE LA NBA REMERCIE CES MAITRES !!!</t>
+  </si>
+  <si>
+    <t>2019-12-02T12:17:40.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
   </si>
   <si>
@@ -530,22 +539,1438 @@
     <t>2019-11-26T22:20:47.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=HXiOLJ48sXc</t>
-  </si>
-  <si>
-    <t>SANTE : LES ALIMENTS QUI RESSEMBLE AUX ORGANES QUI GUERISSENT !!!</t>
-  </si>
-  <si>
-    <t>2019-12-06T18:35:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dz18LZY7NEI</t>
-  </si>
-  <si>
-    <t>LEBRON JAMES SIGNE SATANIQUE MACONNIQUE LE CHAMPION DE LA NBA REMERCIE CES MAITRES !!!</t>
-  </si>
-  <si>
-    <t>2019-12-02T12:17:40.000Z</t>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rQrovRkPyRg</t>
+  </si>
+  <si>
+    <t>KANYE WEST DENONCE LE RECRUTEMENT DU DIABLE DANS L INDUSTRIE DE LA MUSIC ET DE LA TELEVISION !!!</t>
+  </si>
+  <si>
+    <t>2019-12-01T19:49:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
+  </si>
+  <si>
+    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
+  </si>
+  <si>
+    <t>2019-12-13T20:13:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nd4DuWxUFDM</t>
+  </si>
+  <si>
+    <t>Fin de cette chaine, j'invite les vrais à rejoindre ma nouvelle chaine! (Liens dans la description)</t>
+  </si>
+  <si>
+    <t>ZER</t>
+  </si>
+  <si>
+    <t>2019-11-30T22:16:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HQBmk6j_bYc</t>
+  </si>
+  <si>
+    <t>AU SEUIL DE LA LOGE MACONNIQUE INITIATION DU RITE ECOSSAIS EN LIVE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T11:51:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BY13VqpjJFI</t>
+  </si>
+  <si>
+    <t>Conférence de presse d'Emmanuel Macron avec le president Ivoirien</t>
+  </si>
+  <si>
+    <t>Brefnews info</t>
+  </si>
+  <si>
+    <t>2019-12-21T20:30:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gzht8SVnYG8</t>
+  </si>
+  <si>
+    <t>Lorsque les Justes Lois (ad-din) d'Allah conquirent la France</t>
+  </si>
+  <si>
+    <t>2019-12-20T13:48:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o53Sh7F_D0o</t>
+  </si>
+  <si>
+    <t>En garde à vue pour avoir traversé au rouge</t>
+  </si>
+  <si>
+    <t>2019-11-24T08:00:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VU3BBT2JMac</t>
+  </si>
+  <si>
+    <t>En direct : vote du budget 2020 (mardi après-midi)</t>
+  </si>
+  <si>
+    <t>Département Loire-Atlantique</t>
+  </si>
+  <si>
+    <t>2019-12-17T19:41:24.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GMx5oVGnNsw</t>
+  </si>
+  <si>
+    <t>Merci aux vrais et rappel de la nouvelle chaine 💪</t>
+  </si>
+  <si>
+    <t>2019-12-06T18:30:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
+  </si>
+  <si>
+    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
+  </si>
+  <si>
+    <t>Fred Bes</t>
+  </si>
+  <si>
+    <t>2019-12-20T19:28:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
+  </si>
+  <si>
+    <t>#FAQ17 - Posez vos questions</t>
+  </si>
+  <si>
+    <t>2019-11-24T14:47:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qkSPz5RldLg</t>
+  </si>
+  <si>
+    <t>En direct : vote du budget 2020 (lundi matin)</t>
+  </si>
+  <si>
+    <t>2019-12-16T12:35:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LHq3bNb53UA</t>
+  </si>
+  <si>
+    <t>Grève du 5 décembre   et après    Journal du vendredi 6 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T19:30:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=loX_BGQ4-kg</t>
+  </si>
+  <si>
+    <t>Kemarl1fam - Bonhomme de neige</t>
+  </si>
+  <si>
+    <t>2019-12-25T14:52:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
+  </si>
+  <si>
+    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
+  </si>
+  <si>
+    <t>2019-11-22T03:31:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
+  </si>
+  <si>
+    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-13T22:06:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
+  </si>
+  <si>
+    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:18:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
+  </si>
+  <si>
+    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-24T19:30:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
+  </si>
+  <si>
+    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T18:51:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
+  </si>
+  <si>
+    <t>Women in Finance // 3rd Shadowing Day</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-12-06T09:09:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
+  </si>
+  <si>
+    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
+  </si>
+  <si>
+    <t>2019-12-28T08:24:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y4PduURvOpw</t>
+  </si>
+  <si>
+    <t>L’exécutif à l’épreuve de la grève   Journal du 9 décembre 2019   Vidéo dailymotion</t>
+  </si>
+  <si>
+    <t>2019-12-09T19:39:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T19:13:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tAe7pJA9330</t>
+  </si>
+  <si>
+    <t>Echange Vif entre Mathlide Panot et Sibeth Ndiaye sur la réforme de retraitre</t>
+  </si>
+  <si>
+    <t>Axel Macky</t>
+  </si>
+  <si>
+    <t>2019-12-17T18:20:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
+  </si>
+  <si>
+    <t>comment lire les articles du parisien gratuitement</t>
+  </si>
+  <si>
+    <t>2019-12-19T11:02:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
+  </si>
+  <si>
+    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T18:41:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
+  </si>
+  <si>
+    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T18:44:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
+  </si>
+  <si>
+    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T19:07:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
+  </si>
+  <si>
+    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:48:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M_M2IgFYPiw</t>
+  </si>
+  <si>
+    <t>RE OUVERTURE DE LA CHAINE ANITLLUMINATI 2 !!! RECORD DU MONDE DE CENSURE</t>
+  </si>
+  <si>
+    <t>2019-11-30T22:29:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
+  </si>
+  <si>
+    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
+  </si>
+  <si>
+    <t>Ministère Territoires et Collectivités</t>
+  </si>
+  <si>
+    <t>2019-12-09T12:38:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsbiF8wfs8w</t>
+  </si>
+  <si>
+    <t>Grève du 5 décembre   vers un Jeudi noir dans les transports   Journal du mercredi 4 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-04T21:38:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c9i6Gpg4JOs</t>
+  </si>
+  <si>
+    <t>Un sommet de l’OTAN sous tension   Journal du mardi 3 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-03T21:25:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6pPRnvtRH6Y</t>
+  </si>
+  <si>
+    <t>RÉ-INVENTONS, 2 jours pour construire des projets collectifs et des solutions innovantes !</t>
+  </si>
+  <si>
+    <t>2019-12-20T10:48:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
+  </si>
+  <si>
+    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
+  </si>
+  <si>
+    <t>2019-12-11T17:08:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TSBaqXzv4ag</t>
+  </si>
+  <si>
+    <t>Treize militaires honorés par la France   Journal du Lundi 02 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-02T20:30:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0m9P5cSEWlY</t>
+  </si>
+  <si>
+    <t>ZER - Ma Bulma (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2017-09-27T17:39:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
+  </si>
+  <si>
+    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
+  </si>
+  <si>
+    <t>2019-12-12T20:47:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O_Ax717SQVw</t>
+  </si>
+  <si>
+    <t>I Média n°275 – Zemmour et Valeurs Actuelles attaqués   guerre totale contre la liberté d’expression</t>
+  </si>
+  <si>
+    <t>2019-12-05T21:13:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
+  </si>
+  <si>
+    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T20:32:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oleMaXmPHpI</t>
+  </si>
+  <si>
+    <t>Avec son «euro digital», la Banque de France se lance dans la bataille des cryptomonnaies</t>
+  </si>
+  <si>
+    <t>2019-12-05T11:56:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
+  </si>
+  <si>
+    <t>Le conflit Ukranien entre Poutine vs Zelensky en présence de Macron et Merkel</t>
+  </si>
+  <si>
+    <t>2019-12-10T13:10:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
+  </si>
+  <si>
+    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:09:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MUfxs9WKZEA</t>
+  </si>
+  <si>
+    <t>Cérémonies d’hommage aux militaires: imagine-t-on de Gaulle en faire autant ?</t>
+  </si>
+  <si>
+    <t>2019-12-02T17:19:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4iWhEvPavLA</t>
+  </si>
+  <si>
+    <t>Grève contre la réforme des retraites: les syndicats reprennent des couleurs</t>
+  </si>
+  <si>
+    <t>2019-12-09T16:55:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LG4bgcxe68g</t>
+  </si>
+  <si>
+    <t>Echange Vif entre Mansour Kamardine et Christophe Castaner sur la sécurité à Mayotte</t>
+  </si>
+  <si>
+    <t>2019-11-27T21:56:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uAi7BgQ-ayA</t>
+  </si>
+  <si>
+    <t>La minute RSE : ENEDIS</t>
+  </si>
+  <si>
+    <t>Télénantes</t>
+  </si>
+  <si>
+    <t>2019-12-09T13:53:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VGv8ke9kC1Q</t>
+  </si>
+  <si>
+    <t>Conférence de presse d'Emmanuel Macron au sommet de l'OTAN à Londres</t>
+  </si>
+  <si>
+    <t>2019-12-04T18:37:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ysbbsso_Ld0</t>
+  </si>
+  <si>
+    <t>🌍 Climate Finance Day 2019 // Interview of François Riahi, CEO</t>
+  </si>
+  <si>
+    <t>2019-11-29T15:13:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bF4Bv8vzBZ4</t>
+  </si>
+  <si>
+    <t>Education: les enseignements cachés de l’enquête Pisa</t>
+  </si>
+  <si>
+    <t>2019-12-03T17:14:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
+  </si>
+  <si>
+    <t>Sophie Cluzel, secrétaire d'État chargée des Personnes handicapées.</t>
+  </si>
+  <si>
+    <t>Secrétariat d'Etat chargé de l'égalité</t>
+  </si>
+  <si>
+    <t>2018-12-12T15:20:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
+  </si>
+  <si>
+    <t>La réforme des retraites à la Une de l'Opinion: le making-of du dessin de la semaine</t>
+  </si>
+  <si>
+    <t>2019-12-06T17:22:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kTcO7NBn80U</t>
+  </si>
+  <si>
+    <t>Les Innovateurs #9 : SYSTOVI</t>
+  </si>
+  <si>
+    <t>2019-12-20T14:05:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_TEHesD6ckg</t>
+  </si>
+  <si>
+    <t>Plan d'Investissement dans les Compétences - Question à Muriel Pénicaud, Ministre du Travail</t>
+  </si>
+  <si>
+    <t>Laurent Pietraszewski Député du Nord</t>
+  </si>
+  <si>
+    <t>2019-12-03T10:17:14.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wyUBcMp9jQY</t>
+  </si>
+  <si>
+    <t>Inspection par drone du Viaduc de Saint-Nicolas-de-Redon</t>
+  </si>
+  <si>
+    <t>2019-11-25T08:54:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
+  </si>
+  <si>
+    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
+  </si>
+  <si>
+    <t>2019-12-04T16:10:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fo83Em0AtcU</t>
+  </si>
+  <si>
+    <t>Emmanuel Macron Avec Donald Trump au sommet de l'OTAN 2019</t>
+  </si>
+  <si>
+    <t>2019-12-03T20:42:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4NAXkPQ9uzg</t>
+  </si>
+  <si>
+    <t>Conférence de presse d'Emmanuel Macron au conseil européen</t>
+  </si>
+  <si>
+    <t>2019-12-13T19:15:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
+  </si>
+  <si>
+    <t>Bientôt de la publicité sur Netflix ?</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:17:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J87kE8T12p8</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:22:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iB1TmfgBYAY</t>
+  </si>
+  <si>
+    <t>Ukraine - Russie: une rencontre décisive à l'Elysée</t>
+  </si>
+  <si>
+    <t>2019-12-08T17:22:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
+  </si>
+  <si>
+    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
+  </si>
+  <si>
+    <t>2018-10-17T23:18:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HW-8nUSbnN8</t>
+  </si>
+  <si>
+    <t>On parle d'Europe avec Chrysoula Zacharopoulou</t>
+  </si>
+  <si>
+    <t>2019-12-09T14:22:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6odkm5-bI0s</t>
+  </si>
+  <si>
+    <t>Emmanuel Macron aux Assises de l'Économie de la Mer 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T20:27:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2qjtBDyFV8s</t>
+  </si>
+  <si>
+    <t>Catherine Nay: «Pour comprendre un homme politique, il faut le voir lors de crises sociales»</t>
+  </si>
+  <si>
+    <t>2019-12-04T16:38:45.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1m6k2ptoE9o</t>
+  </si>
+  <si>
+    <t>L'hommage national aux 13 soldats morts au Mali</t>
+  </si>
+  <si>
+    <t>2019-12-02T16:30:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
+  </si>
+  <si>
+    <t>Un prêtre, un psy... tous GJ</t>
+  </si>
+  <si>
+    <t>2019-04-19T19:34:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HILM6Rhxh_g</t>
+  </si>
+  <si>
+    <t>A l'Assemblée nationale de Corée</t>
+  </si>
+  <si>
+    <t>2019-12-04T10:25:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MhZJ08xOVeY</t>
+  </si>
+  <si>
+    <t>Damien Poisson: un électricien économe</t>
+  </si>
+  <si>
+    <t>2019-12-02T09:16:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EsC1Bafw9ME</t>
+  </si>
+  <si>
+    <t>La générosité française n’a pas de frontière</t>
+  </si>
+  <si>
+    <t>2019-12-02T10:13:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
+  </si>
+  <si>
+    <t>Protection maladie des personnes étrangères</t>
+  </si>
+  <si>
+    <t>Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2019-11-12T14:26:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SKlQCV2N0F8</t>
+  </si>
+  <si>
+    <t>Franck Dépériers : un boulanger très local</t>
+  </si>
+  <si>
+    <t>2019-11-29T16:14:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3z96rB0K4WE</t>
+  </si>
+  <si>
+    <t>La Baïse après les intempéries</t>
+  </si>
+  <si>
+    <t>2019-12-14T16:31:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YXq4ejuvG0g</t>
+  </si>
+  <si>
+    <t>Questions à Jean-Yves Le Drian</t>
+  </si>
+  <si>
+    <t>2019-11-28T12:24:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
+  </si>
+  <si>
+    <t>Installation Photovoltaïque à Guérande</t>
+  </si>
+  <si>
+    <t>2019-11-22T14:45:23.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
+  </si>
+  <si>
+    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
+  </si>
+  <si>
+    <t>2019-03-27T22:40:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
+  </si>
+  <si>
+    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2018-11-14T10:21:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
+  </si>
+  <si>
+    <t>Pot pourri médiatique</t>
+  </si>
+  <si>
+    <t>2019-03-21T23:00:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
+  </si>
+  <si>
+    <t>ZER - T'es La Bonne (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-05-15T16:28:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
+  </si>
+  <si>
+    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
+  </si>
+  <si>
+    <t>2019-11-19T12:31:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1DH7PGLEm8Q</t>
+  </si>
+  <si>
+    <t>l'échange d'Emmanuel Macron avec les étudiants de l'Université de Picardie</t>
+  </si>
+  <si>
+    <t>2019-11-22T09:19:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
+  </si>
+  <si>
+    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-03-06T18:02:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WcBP2NKdvso</t>
+  </si>
+  <si>
+    <t>Pourquoi Palmyre est un joyau antique</t>
+  </si>
+  <si>
+    <t>Le Monde TV</t>
+  </si>
+  <si>
+    <t>2015-05-22T13:49:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
+  </si>
+  <si>
+    <t>François le Français... euh non, l’ami des oligarques...</t>
+  </si>
+  <si>
+    <t>2019-04-28T13:50:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
+  </si>
+  <si>
+    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
+  </si>
+  <si>
+    <t>2018-09-17T13:20:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=htZiGZhk0l0</t>
+  </si>
+  <si>
+    <t>Réforme du collège : un passage en force</t>
+  </si>
+  <si>
+    <t>2015-05-21T16:54:14.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JztTImZkzlA</t>
+  </si>
+  <si>
+    <t>Question à Bertrand Badie</t>
+  </si>
+  <si>
+    <t>2019-10-09T13:17:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
+  </si>
+  <si>
+    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
+  </si>
+  <si>
+    <t>2018-09-07T09:19:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
+  </si>
+  <si>
+    <t>29 10 BFMTV 2019</t>
+  </si>
+  <si>
+    <t>2019-11-15T10:08:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
+  </si>
+  <si>
+    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-02-28T18:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WryNw50lYNU</t>
+  </si>
+  <si>
+    <t>Mieux comprendre ma journée de députée</t>
+  </si>
+  <si>
+    <t>2019-11-19T15:43:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
+  </si>
+  <si>
+    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
+  </si>
+  <si>
+    <t>2013-08-20T18:23:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
+  </si>
+  <si>
+    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-08-01T17:58:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
+  </si>
+  <si>
+    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2013-11-08T18:25:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
+  </si>
+  <si>
+    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
+  </si>
+  <si>
+    <t>2018-11-22T17:23:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
+  </si>
+  <si>
+    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2016-01-24T17:05:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
+  </si>
+  <si>
+    <t>ZER - Face A Moi Même</t>
+  </si>
+  <si>
+    <t>2016-10-30T19:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
+  </si>
+  <si>
+    <t>Un ex associé de Francis Lalanne</t>
+  </si>
+  <si>
+    <t>2019-05-23T10:05:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
@@ -555,1467 +1980,6 @@
   </si>
   <si>
     <t>2019-11-28T19:28:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rQrovRkPyRg</t>
-  </si>
-  <si>
-    <t>KANYE WEST DENONCE LE RECRUTEMENT DU DIABLE DANS L INDUSTRIE DE LA MUSIC ET DE LA TELEVISION !!!</t>
-  </si>
-  <si>
-    <t>2019-12-01T19:49:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nd4DuWxUFDM</t>
-  </si>
-  <si>
-    <t>Fin de cette chaine, j'invite les vrais à rejoindre ma nouvelle chaine! (Liens dans la description)</t>
-  </si>
-  <si>
-    <t>ZER</t>
-  </si>
-  <si>
-    <t>2019-11-30T22:16:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=o53Sh7F_D0o</t>
-  </si>
-  <si>
-    <t>En garde à vue pour avoir traversé au rouge</t>
-  </si>
-  <si>
-    <t>2019-11-24T08:00:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HQBmk6j_bYc</t>
-  </si>
-  <si>
-    <t>AU SEUIL DE LA LOGE MACONNIQUE INITIATION DU RITE ECOSSAIS EN LIVE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T11:51:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BY13VqpjJFI</t>
-  </si>
-  <si>
-    <t>Conférence de presse d'Emmanuel Macron avec le president Ivoirien</t>
-  </si>
-  <si>
-    <t>Brefnews info</t>
-  </si>
-  <si>
-    <t>2019-12-21T20:30:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Gzht8SVnYG8</t>
-  </si>
-  <si>
-    <t>Lorsque les Justes Lois (ad-din) d'Allah conquirent la France</t>
-  </si>
-  <si>
-    <t>2019-12-20T13:48:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
-  </si>
-  <si>
-    <t>#FAQ17 - Posez vos questions</t>
-  </si>
-  <si>
-    <t>2019-11-24T14:47:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VU3BBT2JMac</t>
-  </si>
-  <si>
-    <t>En direct : vote du budget 2020 (mardi après-midi)</t>
-  </si>
-  <si>
-    <t>Département Loire-Atlantique</t>
-  </si>
-  <si>
-    <t>2019-12-17T19:41:24.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GMx5oVGnNsw</t>
-  </si>
-  <si>
-    <t>Merci aux vrais et rappel de la nouvelle chaine 💪</t>
-  </si>
-  <si>
-    <t>2019-12-06T18:30:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
-  </si>
-  <si>
-    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
-  </si>
-  <si>
-    <t>Fred Bes</t>
-  </si>
-  <si>
-    <t>2019-12-20T19:28:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qkSPz5RldLg</t>
-  </si>
-  <si>
-    <t>En direct : vote du budget 2020 (lundi matin)</t>
-  </si>
-  <si>
-    <t>2019-12-16T12:35:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
-  </si>
-  <si>
-    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
-  </si>
-  <si>
-    <t>2019-11-22T03:31:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LHq3bNb53UA</t>
-  </si>
-  <si>
-    <t>Grève du 5 décembre   et après    Journal du vendredi 6 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T19:30:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=loX_BGQ4-kg</t>
-  </si>
-  <si>
-    <t>Kemarl1fam - Bonhomme de neige</t>
-  </si>
-  <si>
-    <t>2019-12-25T14:52:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
-  </si>
-  <si>
-    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-13T22:06:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
-  </si>
-  <si>
-    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:18:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
-  </si>
-  <si>
-    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-24T19:30:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
-  </si>
-  <si>
-    <t>Women in Finance // 3rd Shadowing Day</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2019-12-06T09:09:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
-  </si>
-  <si>
-    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
-  </si>
-  <si>
-    <t>2019-12-28T08:24:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y4PduURvOpw</t>
-  </si>
-  <si>
-    <t>L’exécutif à l’épreuve de la grève   Journal du 9 décembre 2019   Vidéo dailymotion</t>
-  </si>
-  <si>
-    <t>2019-12-09T19:39:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tAe7pJA9330</t>
-  </si>
-  <si>
-    <t>Echange Vif entre Mathlide Panot et Sibeth Ndiaye sur la réforme de retraitre</t>
-  </si>
-  <si>
-    <t>Axel Macky</t>
-  </si>
-  <si>
-    <t>2019-12-17T18:20:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
-  </si>
-  <si>
-    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T18:41:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=M_M2IgFYPiw</t>
-  </si>
-  <si>
-    <t>RE OUVERTURE DE LA CHAINE ANITLLUMINATI 2 !!! RECORD DU MONDE DE CENSURE</t>
-  </si>
-  <si>
-    <t>2019-11-30T22:29:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsbiF8wfs8w</t>
-  </si>
-  <si>
-    <t>Grève du 5 décembre   vers un Jeudi noir dans les transports   Journal du mercredi 4 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-04T21:38:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=c9i6Gpg4JOs</t>
-  </si>
-  <si>
-    <t>Un sommet de l’OTAN sous tension   Journal du mardi 3 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-03T21:25:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6pPRnvtRH6Y</t>
-  </si>
-  <si>
-    <t>RÉ-INVENTONS, 2 jours pour construire des projets collectifs et des solutions innovantes !</t>
-  </si>
-  <si>
-    <t>2019-12-20T10:48:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
-  </si>
-  <si>
-    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
-  </si>
-  <si>
-    <t>2019-12-11T17:08:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TSBaqXzv4ag</t>
-  </si>
-  <si>
-    <t>Treize militaires honorés par la France   Journal du Lundi 02 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-02T20:30:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0m9P5cSEWlY</t>
-  </si>
-  <si>
-    <t>ZER - Ma Bulma (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2017-09-27T17:39:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=O_Ax717SQVw</t>
-  </si>
-  <si>
-    <t>I Média n°275 – Zemmour et Valeurs Actuelles attaqués   guerre totale contre la liberté d’expression</t>
-  </si>
-  <si>
-    <t>2019-12-05T21:13:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ysbbsso_Ld0</t>
-  </si>
-  <si>
-    <t>🌍 Climate Finance Day 2019 // Interview of François Riahi, CEO</t>
-  </si>
-  <si>
-    <t>2019-11-29T15:13:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oleMaXmPHpI</t>
-  </si>
-  <si>
-    <t>Avec son «euro digital», la Banque de France se lance dans la bataille des cryptomonnaies</t>
-  </si>
-  <si>
-    <t>2019-12-05T11:56:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
-  </si>
-  <si>
-    <t>Le conflit Ukranien entre Poutine vs Zelensky en présence de Macron et Merkel</t>
-  </si>
-  <si>
-    <t>2019-12-10T13:10:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LG4bgcxe68g</t>
-  </si>
-  <si>
-    <t>Echange Vif entre Mansour Kamardine et Christophe Castaner sur la sécurité à Mayotte</t>
-  </si>
-  <si>
-    <t>2019-11-27T21:56:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8pTy-f_ZQLo</t>
-  </si>
-  <si>
-    <t>Immigration   et revoilà les quotas   Journal du Vendredi 29 Novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-11-29T22:31:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
-  </si>
-  <si>
-    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:09:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MUfxs9WKZEA</t>
-  </si>
-  <si>
-    <t>Cérémonies d’hommage aux militaires: imagine-t-on de Gaulle en faire autant ?</t>
-  </si>
-  <si>
-    <t>2019-12-02T17:19:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4iWhEvPavLA</t>
-  </si>
-  <si>
-    <t>Grève contre la réforme des retraites: les syndicats reprennent des couleurs</t>
-  </si>
-  <si>
-    <t>2019-12-09T16:55:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SKlQCV2N0F8</t>
-  </si>
-  <si>
-    <t>Franck Dépériers : un boulanger très local</t>
-  </si>
-  <si>
-    <t>Télénantes</t>
-  </si>
-  <si>
-    <t>2019-11-29T16:14:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uAi7BgQ-ayA</t>
-  </si>
-  <si>
-    <t>La minute RSE : ENEDIS</t>
-  </si>
-  <si>
-    <t>2019-12-09T13:53:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VGv8ke9kC1Q</t>
-  </si>
-  <si>
-    <t>Conférence de presse d'Emmanuel Macron au sommet de l'OTAN à Londres</t>
-  </si>
-  <si>
-    <t>2019-12-04T18:37:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bF4Bv8vzBZ4</t>
-  </si>
-  <si>
-    <t>Education: les enseignements cachés de l’enquête Pisa</t>
-  </si>
-  <si>
-    <t>2019-12-03T17:14:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kTcO7NBn80U</t>
-  </si>
-  <si>
-    <t>Les Innovateurs #9 : SYSTOVI</t>
-  </si>
-  <si>
-    <t>2019-12-20T14:05:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
-  </si>
-  <si>
-    <t>La réforme des retraites à la Une de l'Opinion: le making-of du dessin de la semaine</t>
-  </si>
-  <si>
-    <t>2019-12-06T17:22:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
-  </si>
-  <si>
-    <t>Sophie Cluzel, secrétaire d'État chargée des Personnes handicapées.</t>
-  </si>
-  <si>
-    <t>Secrétariat d'Etat chargé de l'égalité</t>
-  </si>
-  <si>
-    <t>2018-12-12T15:20:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
-  </si>
-  <si>
-    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
-  </si>
-  <si>
-    <t>2019-12-04T16:10:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_TEHesD6ckg</t>
-  </si>
-  <si>
-    <t>Plan d'Investissement dans les Compétences - Question à Muriel Pénicaud, Ministre du Travail</t>
-  </si>
-  <si>
-    <t>Laurent Pietraszewski Député du Nord</t>
-  </si>
-  <si>
-    <t>2019-12-03T10:17:14.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Fo83Em0AtcU</t>
-  </si>
-  <si>
-    <t>Emmanuel Macron Avec Donald Trump au sommet de l'OTAN 2019</t>
-  </si>
-  <si>
-    <t>2019-12-03T20:42:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wyUBcMp9jQY</t>
-  </si>
-  <si>
-    <t>Inspection par drone du Viaduc de Saint-Nicolas-de-Redon</t>
-  </si>
-  <si>
-    <t>2019-11-25T08:54:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4NAXkPQ9uzg</t>
-  </si>
-  <si>
-    <t>Conférence de presse d'Emmanuel Macron au conseil européen</t>
-  </si>
-  <si>
-    <t>2019-12-13T19:15:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iB1TmfgBYAY</t>
-  </si>
-  <si>
-    <t>Ukraine - Russie: une rencontre décisive à l'Elysée</t>
-  </si>
-  <si>
-    <t>2019-12-08T17:22:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
-  </si>
-  <si>
-    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
-  </si>
-  <si>
-    <t>2018-10-17T23:18:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HW-8nUSbnN8</t>
-  </si>
-  <si>
-    <t>On parle d'Europe avec Chrysoula Zacharopoulou</t>
-  </si>
-  <si>
-    <t>2019-12-09T14:22:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=J87kE8T12p8</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:22:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6odkm5-bI0s</t>
-  </si>
-  <si>
-    <t>Emmanuel Macron aux Assises de l'Économie de la Mer 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T20:27:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2qjtBDyFV8s</t>
-  </si>
-  <si>
-    <t>Catherine Nay: «Pour comprendre un homme politique, il faut le voir lors de crises sociales»</t>
-  </si>
-  <si>
-    <t>2019-12-04T16:38:45.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1m6k2ptoE9o</t>
-  </si>
-  <si>
-    <t>L'hommage national aux 13 soldats morts au Mali</t>
-  </si>
-  <si>
-    <t>2019-12-02T16:30:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HILM6Rhxh_g</t>
-  </si>
-  <si>
-    <t>A l'Assemblée nationale de Corée</t>
-  </si>
-  <si>
-    <t>2019-12-04T10:25:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
-  </si>
-  <si>
-    <t>Un prêtre, un psy... tous GJ</t>
-  </si>
-  <si>
-    <t>2019-04-19T19:34:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MhZJ08xOVeY</t>
-  </si>
-  <si>
-    <t>Damien Poisson: un électricien économe</t>
-  </si>
-  <si>
-    <t>2019-12-02T09:16:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EsC1Bafw9ME</t>
-  </si>
-  <si>
-    <t>La générosité française n’a pas de frontière</t>
-  </si>
-  <si>
-    <t>2019-12-02T10:13:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
-  </si>
-  <si>
-    <t>Protection maladie des personnes étrangères</t>
-  </si>
-  <si>
-    <t>Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2019-11-12T14:26:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YXq4ejuvG0g</t>
-  </si>
-  <si>
-    <t>Questions à Jean-Yves Le Drian</t>
-  </si>
-  <si>
-    <t>2019-11-28T12:24:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3z96rB0K4WE</t>
-  </si>
-  <si>
-    <t>La Baïse après les intempéries</t>
-  </si>
-  <si>
-    <t>2019-12-14T16:31:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
-  </si>
-  <si>
-    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
-  </si>
-  <si>
-    <t>2018-09-17T13:20:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
-  </si>
-  <si>
-    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2016-01-24T17:05:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JztTImZkzlA</t>
-  </si>
-  <si>
-    <t>Question à Bertrand Badie</t>
-  </si>
-  <si>
-    <t>2019-10-09T13:17:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WcBP2NKdvso</t>
-  </si>
-  <si>
-    <t>Pourquoi Palmyre est un joyau antique</t>
-  </si>
-  <si>
-    <t>Le Monde TV</t>
-  </si>
-  <si>
-    <t>2015-05-22T13:49:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
-  </si>
-  <si>
-    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2018-11-14T10:21:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
-  </si>
-  <si>
-    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-02-28T18:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dB0AWh5y4wU</t>
-  </si>
-  <si>
-    <t>ZER - Laisse Moi Faire 💔</t>
-  </si>
-  <si>
-    <t>2019-09-27T19:29:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
-  </si>
-  <si>
-    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
-  </si>
-  <si>
-    <t>2018-09-07T09:19:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
-  </si>
-  <si>
-    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
-  </si>
-  <si>
-    <t>2019-11-19T12:31:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
-  </si>
-  <si>
-    <t>Pot pourri médiatique</t>
-  </si>
-  <si>
-    <t>2019-03-21T23:00:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wTzzS-8gsWE</t>
-  </si>
-  <si>
-    <t>LE PRESIDENT TRUMP AVOUE HILLARY CLINTON A CREE ISIS AL QUAIDA (TERRORISTE ISLAMISTE ) !!!</t>
-  </si>
-  <si>
-    <t>2019-11-02T20:26:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
-  </si>
-  <si>
-    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
-  </si>
-  <si>
-    <t>2018-11-22T17:23:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=htZiGZhk0l0</t>
-  </si>
-  <si>
-    <t>Réforme du collège : un passage en force</t>
-  </si>
-  <si>
-    <t>2015-05-21T16:54:14.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
-  </si>
-  <si>
-    <t>ZER - Face A Moi Même</t>
-  </si>
-  <si>
-    <t>2016-10-30T19:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
-  </si>
-  <si>
-    <t>Un ex associé de Francis Lalanne</t>
-  </si>
-  <si>
-    <t>2019-05-23T10:05:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
-  </si>
-  <si>
-    <t>ZER - T'es La Bonne (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-05-15T16:28:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
-  </si>
-  <si>
-    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2013-11-08T18:25:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
-  </si>
-  <si>
-    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-08-01T17:58:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
-  </si>
-  <si>
-    <t>Installation Photovoltaïque à Guérande</t>
-  </si>
-  <si>
-    <t>2019-11-22T14:45:23.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
-  </si>
-  <si>
-    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
-  </si>
-  <si>
-    <t>2013-08-20T18:23:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
-  </si>
-  <si>
-    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
-  </si>
-  <si>
-    <t>2019-03-27T22:40:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WryNw50lYNU</t>
-  </si>
-  <si>
-    <t>Mieux comprendre ma journée de députée</t>
-  </si>
-  <si>
-    <t>2019-11-19T15:43:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
-  </si>
-  <si>
-    <t>29 10 BFMTV 2019</t>
-  </si>
-  <si>
-    <t>2019-11-15T10:08:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
-  </si>
-  <si>
-    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-03-06T18:02:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1DH7PGLEm8Q</t>
-  </si>
-  <si>
-    <t>l'échange d'Emmanuel Macron avec les étudiants de l'Université de Picardie</t>
-  </si>
-  <si>
-    <t>2019-11-22T09:19:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
-  </si>
-  <si>
-    <t>François le Français... euh non, l’ami des oligarques...</t>
-  </si>
-  <si>
-    <t>2019-04-28T13:50:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -2376,7 +2340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L210"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2673,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -2862,19 +2826,19 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
       <c r="E15" s="3">
-        <v>5529</v>
+        <v>5083</v>
       </c>
       <c r="F15" s="3">
-        <v>101</v>
+        <v>594</v>
       </c>
       <c r="G15" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -2883,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -2891,25 +2855,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3">
-        <v>5083</v>
+        <v>4899</v>
       </c>
       <c r="F16" s="3">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="G16" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -2918,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -2926,25 +2890,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
         <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3">
-        <v>4899</v>
+        <v>3021</v>
       </c>
       <c r="F17" s="3">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="G17" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -2953,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -2961,25 +2925,25 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
       <c r="E18" s="3">
-        <v>3021</v>
+        <v>2959</v>
       </c>
       <c r="F18" s="3">
-        <v>580</v>
+        <v>38</v>
       </c>
       <c r="G18" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -2988,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2996,25 +2960,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
       <c r="E19" s="3">
-        <v>2959</v>
+        <v>2848</v>
       </c>
       <c r="F19" s="3">
-        <v>38</v>
+        <v>523</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -3023,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -3031,25 +2995,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="3">
-        <v>2848</v>
+        <v>2562</v>
       </c>
       <c r="F20" s="3">
-        <v>523</v>
+        <v>181</v>
       </c>
       <c r="G20" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -3072,19 +3036,19 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
       <c r="E21" s="3">
-        <v>2562</v>
+        <v>2432</v>
       </c>
       <c r="F21" s="3">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="G21" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -3093,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -3101,34 +3065,34 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="3">
-        <v>2432</v>
+        <v>2078</v>
       </c>
       <c r="F22" s="3">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="G22" s="3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -3142,28 +3106,28 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
       <c r="E23" s="3">
-        <v>2078</v>
+        <v>1803</v>
       </c>
       <c r="F23" s="3">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G23" s="3">
         <v>9</v>
       </c>
       <c r="H23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -3171,25 +3135,25 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
       </c>
       <c r="D24" t="s">
         <v>86</v>
       </c>
       <c r="E24" s="3">
-        <v>1803</v>
+        <v>5529</v>
       </c>
       <c r="F24" s="3">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="G24" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -3198,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -3282,7 +3246,7 @@
         <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>96</v>
@@ -3317,19 +3281,19 @@
         <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="3">
-        <v>61816</v>
+        <v>1517</v>
       </c>
       <c r="F28" s="3">
-        <v>782</v>
+        <v>162</v>
       </c>
       <c r="G28" s="3">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -3338,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1209</v>
+        <v>13</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -3352,19 +3316,19 @@
         <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>102</v>
       </c>
       <c r="E29" s="3">
-        <v>1517</v>
+        <v>61816</v>
       </c>
       <c r="F29" s="3">
-        <v>162</v>
+        <v>782</v>
       </c>
       <c r="G29" s="3">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -3373,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>13</v>
+        <v>1211</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -3387,7 +3351,7 @@
         <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
         <v>105</v>
@@ -3457,7 +3421,7 @@
         <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>111</v>
@@ -3492,7 +3456,7 @@
         <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
         <v>114</v>
@@ -3527,19 +3491,19 @@
         <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
         <v>117</v>
       </c>
       <c r="E34" s="3">
-        <v>1274</v>
+        <v>1254</v>
       </c>
       <c r="F34" s="3">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="G34" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -3548,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -3562,28 +3526,28 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
       </c>
       <c r="E35" s="3">
-        <v>1254</v>
+        <v>1237</v>
       </c>
       <c r="F35" s="3">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="G35" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -3597,28 +3561,28 @@
         <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E36" s="3">
-        <v>1237</v>
+        <v>1188</v>
       </c>
       <c r="F36" s="3">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -3626,25 +3590,25 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E37" s="3">
-        <v>5663</v>
+        <v>1108</v>
       </c>
       <c r="F37" s="3">
-        <v>445</v>
+        <v>74</v>
       </c>
       <c r="G37" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -3653,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -3661,25 +3625,25 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
         <v>130</v>
       </c>
       <c r="E38" s="3">
-        <v>1188</v>
+        <v>1084</v>
       </c>
       <c r="F38" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -3688,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -3702,19 +3666,19 @@
         <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
         <v>133</v>
       </c>
       <c r="E39" s="3">
-        <v>1108</v>
+        <v>995</v>
       </c>
       <c r="F39" s="3">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="G39" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -3723,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -3737,19 +3701,19 @@
         <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
         <v>136</v>
       </c>
       <c r="E40" s="3">
-        <v>1084</v>
+        <v>987</v>
       </c>
       <c r="F40" s="3">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G40" s="3">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -3758,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -3772,19 +3736,19 @@
         <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
         <v>139</v>
       </c>
       <c r="E41" s="3">
-        <v>995</v>
+        <v>961</v>
       </c>
       <c r="F41" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G41" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -3793,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -3807,19 +3771,19 @@
         <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
         <v>142</v>
       </c>
       <c r="E42" s="3">
-        <v>987</v>
+        <v>957</v>
       </c>
       <c r="F42" s="3">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G42" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3828,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3842,16 +3806,16 @@
         <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
         <v>145</v>
       </c>
       <c r="E43" s="3">
-        <v>961</v>
+        <v>925</v>
       </c>
       <c r="F43" s="3">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="G43" s="3">
         <v>2</v>
@@ -3863,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -3877,19 +3841,19 @@
         <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>148</v>
       </c>
       <c r="E44" s="3">
-        <v>957</v>
+        <v>912</v>
       </c>
       <c r="F44" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G44" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3898,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3912,19 +3876,19 @@
         <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
         <v>151</v>
       </c>
       <c r="E45" s="3">
-        <v>925</v>
+        <v>5663</v>
       </c>
       <c r="F45" s="3">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="G45" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3933,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -3947,19 +3911,19 @@
         <v>153</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
         <v>154</v>
       </c>
       <c r="E46" s="3">
-        <v>912</v>
+        <v>836</v>
       </c>
       <c r="F46" s="3">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G46" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3968,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -3982,19 +3946,19 @@
         <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
         <v>157</v>
       </c>
       <c r="E47" s="3">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="F47" s="3">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="G47" s="3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -4003,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -4017,19 +3981,19 @@
         <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
         <v>160</v>
       </c>
       <c r="E48" s="3">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F48" s="3">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G48" s="3">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -4038,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -4052,19 +4016,19 @@
         <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>163</v>
       </c>
       <c r="E49" s="3">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="F49" s="3">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G49" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -4073,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
@@ -4087,19 +4051,19 @@
         <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
         <v>166</v>
       </c>
       <c r="E50" s="3">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F50" s="3">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G50" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -4108,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
@@ -4122,16 +4086,16 @@
         <v>168</v>
       </c>
       <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
         <v>169</v>
       </c>
-      <c r="D51" t="s">
-        <v>170</v>
-      </c>
       <c r="E51" s="3">
-        <v>1162</v>
+        <v>713</v>
       </c>
       <c r="F51" s="3">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -4143,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
@@ -4151,25 +4115,25 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" t="s">
         <v>171</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>172</v>
-      </c>
-      <c r="C52" t="s">
-        <v>129</v>
       </c>
       <c r="D52" t="s">
         <v>173</v>
       </c>
       <c r="E52" s="3">
-        <v>783</v>
+        <v>1162</v>
       </c>
       <c r="F52" s="3">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="G52" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -4178,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
@@ -4192,19 +4156,19 @@
         <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
         <v>176</v>
       </c>
       <c r="E53" s="3">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="F53" s="3">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G53" s="3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -4213,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -4227,19 +4191,19 @@
         <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
         <v>179</v>
       </c>
       <c r="E54" s="3">
-        <v>3716</v>
+        <v>672</v>
       </c>
       <c r="F54" s="3">
-        <v>426</v>
+        <v>83</v>
       </c>
       <c r="G54" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -4248,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -4268,13 +4232,13 @@
         <v>182</v>
       </c>
       <c r="E55" s="3">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="F55" s="3">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G55" s="3">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -4297,19 +4261,19 @@
         <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E56" s="3">
-        <v>672</v>
+        <v>629</v>
       </c>
       <c r="F56" s="3">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="G56" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -4318,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -4326,25 +4290,25 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E57" s="3">
-        <v>644</v>
+        <v>579</v>
       </c>
       <c r="F57" s="3">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="G57" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -4353,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
@@ -4361,25 +4325,25 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
         <v>192</v>
       </c>
       <c r="E58" s="3">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="F58" s="3">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G58" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -4388,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
@@ -4402,19 +4366,19 @@
         <v>194</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E59" s="3">
-        <v>3462</v>
+        <v>475</v>
       </c>
       <c r="F59" s="3">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -4423,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
@@ -4431,25 +4395,25 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E60" s="3">
-        <v>579</v>
+        <v>473</v>
       </c>
       <c r="F60" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -4458,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
@@ -4466,25 +4430,25 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E61" s="3">
-        <v>578</v>
+        <v>3462</v>
       </c>
       <c r="F61" s="3">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="G61" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4493,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
@@ -4501,25 +4465,25 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E62" s="3">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="F62" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4536,25 +4500,25 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E63" s="3">
-        <v>473</v>
+        <v>394</v>
       </c>
       <c r="F63" s="3">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G63" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -4563,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
@@ -4571,25 +4535,25 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E64" s="3">
-        <v>1760</v>
+        <v>366</v>
       </c>
       <c r="F64" s="3">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="G64" s="3">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -4598,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
@@ -4606,25 +4570,25 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E65" s="3">
-        <v>452</v>
+        <v>1760</v>
       </c>
       <c r="F65" s="3">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -4633,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
@@ -4641,25 +4605,25 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E66" s="3">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="F66" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -4668,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -4676,22 +4640,22 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
         <v>222</v>
       </c>
       <c r="E67" s="3">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="F67" s="3">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
@@ -4717,19 +4681,19 @@
         <v>224</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
         <v>225</v>
       </c>
       <c r="E68" s="3">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="F68" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -4738,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -4752,19 +4716,19 @@
         <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
         <v>228</v>
       </c>
       <c r="E69" s="3">
-        <v>5194</v>
+        <v>319</v>
       </c>
       <c r="F69" s="3">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="G69" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -4773,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
@@ -4787,19 +4751,19 @@
         <v>230</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="D70" t="s">
         <v>231</v>
       </c>
       <c r="E70" s="3">
-        <v>324</v>
+        <v>5194</v>
       </c>
       <c r="F70" s="3">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="G70" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4808,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
@@ -4822,19 +4786,19 @@
         <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="D71" t="s">
         <v>234</v>
       </c>
       <c r="E71" s="3">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="F71" s="3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G71" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4843,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
@@ -4857,19 +4821,19 @@
         <v>236</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
         <v>237</v>
       </c>
       <c r="E72" s="3">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="F72" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G72" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4878,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
@@ -4892,16 +4856,16 @@
         <v>239</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D73" t="s">
         <v>240</v>
       </c>
       <c r="E73" s="3">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="F73" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G73" s="3">
         <v>2</v>
@@ -4913,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
@@ -4927,16 +4891,16 @@
         <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="D74" t="s">
         <v>243</v>
       </c>
       <c r="E74" s="3">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="F74" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G74" s="3">
         <v>2</v>
@@ -4948,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
@@ -4962,19 +4926,19 @@
         <v>245</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
         <v>246</v>
       </c>
       <c r="E75" s="3">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="F75" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G75" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4983,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
@@ -4997,28 +4961,28 @@
         <v>248</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="D76" t="s">
         <v>249</v>
       </c>
       <c r="E76" s="3">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="F76" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G76" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
@@ -5032,16 +4996,16 @@
         <v>251</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
         <v>252</v>
       </c>
       <c r="E77" s="3">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F77" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G77" s="3">
         <v>0</v>
@@ -5067,28 +5031,28 @@
         <v>254</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="D78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E78" s="3">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F78" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
@@ -5096,25 +5060,25 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E79" s="3">
-        <v>152</v>
+        <v>4711</v>
       </c>
       <c r="F79" s="3">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="G79" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -5123,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
@@ -5131,22 +5095,22 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E80" s="3">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F80" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G80" s="3">
         <v>0</v>
@@ -5158,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
@@ -5166,25 +5130,25 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="D81" t="s">
         <v>266</v>
       </c>
       <c r="E81" s="3">
-        <v>4711</v>
+        <v>143</v>
       </c>
       <c r="F81" s="3">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="G81" s="3">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -5193,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
@@ -5207,16 +5171,16 @@
         <v>268</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D82" t="s">
         <v>269</v>
       </c>
       <c r="E82" s="3">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F82" s="3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
@@ -5228,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
@@ -5242,19 +5206,19 @@
         <v>271</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E83" s="3">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F83" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5263,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="s">
         <v>16</v>
@@ -5271,25 +5235,25 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B84" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C84" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="D84" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E84" s="3">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F84" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -5298,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -5306,22 +5270,22 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B85" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C85" t="s">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="D85" t="s">
         <v>279</v>
       </c>
       <c r="E85" s="3">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F85" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G85" s="3">
         <v>0</v>
@@ -5333,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
@@ -5347,19 +5311,19 @@
         <v>281</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="D86" t="s">
         <v>282</v>
       </c>
       <c r="E86" s="3">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F86" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -5368,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
@@ -5382,16 +5346,16 @@
         <v>284</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
         <v>285</v>
       </c>
       <c r="E87" s="3">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F87" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87" s="3">
         <v>0</v>
@@ -5403,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L87" t="s">
         <v>16</v>
@@ -5417,19 +5381,19 @@
         <v>287</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
         <v>288</v>
       </c>
       <c r="E88" s="3">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F88" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -5438,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
@@ -5452,19 +5416,19 @@
         <v>290</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
         <v>291</v>
       </c>
       <c r="E89" s="3">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F89" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5473,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
@@ -5487,19 +5451,19 @@
         <v>293</v>
       </c>
       <c r="C90" t="s">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="D90" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E90" s="3">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F90" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -5516,22 +5480,22 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C91" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="D91" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E91" s="3">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F91" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -5543,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
@@ -5551,22 +5515,22 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B92" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="D92" t="s">
         <v>301</v>
       </c>
       <c r="E92" s="3">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F92" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G92" s="3">
         <v>0</v>
@@ -5578,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
@@ -5592,19 +5556,19 @@
         <v>303</v>
       </c>
       <c r="C93" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D93" t="s">
         <v>304</v>
       </c>
       <c r="E93" s="3">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F93" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -5613,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
@@ -5627,16 +5591,16 @@
         <v>306</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="D94" t="s">
         <v>307</v>
       </c>
       <c r="E94" s="3">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F94" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5662,16 +5626,16 @@
         <v>309</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D95" t="s">
         <v>310</v>
       </c>
       <c r="E95" s="3">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F95" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G95" s="3">
         <v>0</v>
@@ -5683,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -5697,13 +5661,13 @@
         <v>312</v>
       </c>
       <c r="C96" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="D96" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E96" s="3">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -5718,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -5726,25 +5690,25 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B97" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="D97" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E97" s="3">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F97" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -5753,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
@@ -5761,25 +5725,25 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C98" t="s">
-        <v>319</v>
+        <v>185</v>
       </c>
       <c r="D98" t="s">
         <v>320</v>
       </c>
       <c r="E98" s="3">
-        <v>61</v>
+        <v>19679</v>
       </c>
       <c r="F98" s="3">
-        <v>1</v>
+        <v>510</v>
       </c>
       <c r="G98" s="3">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -5788,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
@@ -5802,19 +5766,19 @@
         <v>322</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="D99" t="s">
         <v>323</v>
       </c>
       <c r="E99" s="3">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F99" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -5823,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
@@ -5837,19 +5801,19 @@
         <v>325</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="D100" t="s">
         <v>326</v>
       </c>
       <c r="E100" s="3">
-        <v>19679</v>
+        <v>52</v>
       </c>
       <c r="F100" s="3">
-        <v>510</v>
+        <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5858,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
@@ -5872,16 +5836,16 @@
         <v>328</v>
       </c>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D101" t="s">
         <v>329</v>
       </c>
       <c r="E101" s="3">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F101" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5907,7 +5871,7 @@
         <v>331</v>
       </c>
       <c r="C102" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="D102" t="s">
         <v>332</v>
@@ -5916,7 +5880,7 @@
         <v>52</v>
       </c>
       <c r="F102" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5942,16 +5906,16 @@
         <v>334</v>
       </c>
       <c r="C103" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="D103" t="s">
         <v>335</v>
       </c>
       <c r="E103" s="3">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F103" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G103" s="3">
         <v>0</v>
@@ -5963,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
@@ -5977,28 +5941,28 @@
         <v>337</v>
       </c>
       <c r="C104" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="D104" t="s">
         <v>338</v>
       </c>
       <c r="E104" s="3">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
         <v>1</v>
       </c>
-      <c r="G104" s="3">
-        <v>0</v>
-      </c>
-      <c r="H104" s="3">
-        <v>0</v>
-      </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
@@ -6012,16 +5976,16 @@
         <v>340</v>
       </c>
       <c r="C105" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="D105" t="s">
         <v>341</v>
       </c>
       <c r="E105" s="3">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F105" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G105" s="3">
         <v>0</v>
@@ -6033,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
@@ -6047,28 +6011,28 @@
         <v>343</v>
       </c>
       <c r="C106" t="s">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c r="D106" t="s">
         <v>344</v>
       </c>
       <c r="E106" s="3">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
         <v>1</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
       </c>
       <c r="L106" t="s">
         <v>16</v>
@@ -6082,19 +6046,19 @@
         <v>346</v>
       </c>
       <c r="C107" t="s">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c r="D107" t="s">
         <v>347</v>
       </c>
       <c r="E107" s="3">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
       </c>
       <c r="G107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -6103,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" t="s">
         <v>16</v>
@@ -6117,19 +6081,19 @@
         <v>349</v>
       </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c r="D108" t="s">
         <v>350</v>
       </c>
       <c r="E108" s="3">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
       </c>
       <c r="G108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -6152,19 +6116,19 @@
         <v>352</v>
       </c>
       <c r="C109" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="D109" t="s">
         <v>353</v>
       </c>
       <c r="E109" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -6173,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" t="s">
         <v>16</v>
@@ -6187,28 +6151,28 @@
         <v>355</v>
       </c>
       <c r="C110" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D110" t="s">
         <v>356</v>
       </c>
       <c r="E110" s="3">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
         <v>1</v>
       </c>
-      <c r="H110" s="3">
-        <v>0</v>
-      </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L110" t="s">
         <v>16</v>
@@ -6222,19 +6186,19 @@
         <v>358</v>
       </c>
       <c r="C111" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D111" t="s">
         <v>359</v>
       </c>
       <c r="E111" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F111" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G111" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -6257,16 +6221,16 @@
         <v>361</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="D112" t="s">
         <v>362</v>
       </c>
       <c r="E112" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F112" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G112" s="3">
         <v>0</v>
@@ -6292,16 +6256,16 @@
         <v>364</v>
       </c>
       <c r="C113" t="s">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="D113" t="s">
         <v>365</v>
       </c>
       <c r="E113" s="3">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="3">
         <v>0</v>
@@ -6327,16 +6291,16 @@
         <v>367</v>
       </c>
       <c r="C114" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="D114" t="s">
         <v>368</v>
       </c>
       <c r="E114" s="3">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F114" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G114" s="3">
         <v>0</v>
@@ -6362,13 +6326,13 @@
         <v>370</v>
       </c>
       <c r="C115" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="D115" t="s">
         <v>371</v>
       </c>
       <c r="E115" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F115" s="3">
         <v>1</v>
@@ -6377,13 +6341,13 @@
         <v>0</v>
       </c>
       <c r="H115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L115" t="s">
         <v>16</v>
@@ -6397,16 +6361,16 @@
         <v>373</v>
       </c>
       <c r="C116" t="s">
-        <v>56</v>
+        <v>374</v>
       </c>
       <c r="D116" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E116" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F116" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G116" s="3">
         <v>0</v>
@@ -6426,22 +6390,22 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B117" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C117" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="D117" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E117" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
@@ -6461,22 +6425,22 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B118" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C118" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="D118" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E118" s="3">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -6496,19 +6460,19 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B119" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C119" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
       <c r="D119" t="s">
         <v>384</v>
       </c>
       <c r="E119" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -6537,16 +6501,16 @@
         <v>386</v>
       </c>
       <c r="C120" t="s">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="D120" t="s">
         <v>387</v>
       </c>
       <c r="E120" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -6572,13 +6536,13 @@
         <v>389</v>
       </c>
       <c r="C121" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D121" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E121" s="3">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -6593,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -6601,25 +6565,25 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B122" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C122" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="D122" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E122" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="3">
         <v>1</v>
-      </c>
-      <c r="G122" s="3">
-        <v>0</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
@@ -6636,19 +6600,19 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B123" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C123" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="D123" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E123" s="3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -6671,19 +6635,19 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B124" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D124" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E124" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -6706,19 +6670,19 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B125" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C125" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="D125" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E125" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -6733,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
@@ -6741,19 +6705,19 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B126" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C126" t="s">
-        <v>56</v>
+        <v>406</v>
       </c>
       <c r="D126" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E126" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -6776,22 +6740,22 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B127" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C127" t="s">
-        <v>408</v>
+        <v>205</v>
       </c>
       <c r="D127" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E127" s="3">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="F127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>0</v>
@@ -6803,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -6811,22 +6775,22 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B128" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C128" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="D128" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E128" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="3">
         <v>0</v>
@@ -6846,19 +6810,19 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B129" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C129" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="D129" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E129" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -6873,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" t="s">
         <v>16</v>
@@ -6881,22 +6845,22 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B130" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C130" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="D130" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E130" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" s="3">
         <v>0</v>
@@ -6916,25 +6880,25 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B131" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C131" t="s">
-        <v>421</v>
+        <v>85</v>
       </c>
       <c r="D131" t="s">
         <v>422</v>
       </c>
       <c r="E131" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
       </c>
       <c r="G131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
@@ -6957,19 +6921,19 @@
         <v>424</v>
       </c>
       <c r="C132" t="s">
-        <v>204</v>
+        <v>425</v>
       </c>
       <c r="D132" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E132" s="3">
-        <v>15</v>
+        <v>656</v>
       </c>
       <c r="F132" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G132" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
@@ -6978,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L132" t="s">
         <v>16</v>
@@ -6986,22 +6950,22 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B133" t="s">
-        <v>427</v>
+        <v>303</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D133" t="s">
         <v>428</v>
       </c>
       <c r="E133" s="3">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F133" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
@@ -7027,16 +6991,16 @@
         <v>430</v>
       </c>
       <c r="C134" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="D134" t="s">
         <v>431</v>
       </c>
       <c r="E134" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F134" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
@@ -7062,28 +7026,28 @@
         <v>433</v>
       </c>
       <c r="C135" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D135" t="s">
         <v>434</v>
       </c>
       <c r="E135" s="3">
-        <v>11</v>
+        <v>60406</v>
       </c>
       <c r="F135" s="3">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="G135" s="3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H135" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="L135" t="s">
         <v>16</v>
@@ -7097,7 +7061,7 @@
         <v>436</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D136" t="s">
         <v>437</v>
@@ -7132,7 +7096,7 @@
         <v>439</v>
       </c>
       <c r="C137" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D137" t="s">
         <v>440</v>
@@ -7141,7 +7105,7 @@
         <v>10</v>
       </c>
       <c r="F137" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -7167,28 +7131,28 @@
         <v>442</v>
       </c>
       <c r="C138" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="D138" t="s">
         <v>443</v>
       </c>
       <c r="E138" s="3">
-        <v>60406</v>
+        <v>9</v>
       </c>
       <c r="F138" s="3">
-        <v>1073</v>
+        <v>0</v>
       </c>
       <c r="G138" s="3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H138" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="L138" t="s">
         <v>16</v>
@@ -7202,13 +7166,13 @@
         <v>445</v>
       </c>
       <c r="C139" t="s">
-        <v>319</v>
+        <v>85</v>
       </c>
       <c r="D139" t="s">
         <v>446</v>
       </c>
       <c r="E139" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -7237,19 +7201,19 @@
         <v>448</v>
       </c>
       <c r="C140" t="s">
+        <v>85</v>
+      </c>
+      <c r="D140" t="s">
         <v>449</v>
       </c>
-      <c r="D140" t="s">
-        <v>450</v>
-      </c>
       <c r="E140" s="3">
-        <v>656</v>
+        <v>8</v>
       </c>
       <c r="F140" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G140" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
@@ -7258,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L140" t="s">
         <v>16</v>
@@ -7266,19 +7230,19 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B141" t="s">
         <v>451</v>
       </c>
-      <c r="B141" t="s">
-        <v>309</v>
-      </c>
       <c r="C141" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D141" t="s">
         <v>452</v>
       </c>
       <c r="E141" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -7307,13 +7271,13 @@
         <v>454</v>
       </c>
       <c r="C142" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="D142" t="s">
         <v>455</v>
       </c>
       <c r="E142" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -7342,28 +7306,28 @@
         <v>457</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D143" t="s">
         <v>458</v>
       </c>
       <c r="E143" s="3">
-        <v>9</v>
+        <v>47483</v>
       </c>
       <c r="F143" s="3">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="G143" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H143" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="L143" t="s">
         <v>16</v>
@@ -7377,16 +7341,16 @@
         <v>460</v>
       </c>
       <c r="C144" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="D144" t="s">
         <v>461</v>
       </c>
       <c r="E144" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F144" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G144" s="3">
         <v>0</v>
@@ -7412,13 +7376,13 @@
         <v>463</v>
       </c>
       <c r="C145" t="s">
-        <v>56</v>
+        <v>374</v>
       </c>
       <c r="D145" t="s">
         <v>464</v>
       </c>
       <c r="E145" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -7447,7 +7411,7 @@
         <v>466</v>
       </c>
       <c r="C146" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D146" t="s">
         <v>467</v>
@@ -7456,7 +7420,7 @@
         <v>6</v>
       </c>
       <c r="F146" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G146" s="3">
         <v>0</v>
@@ -7482,13 +7446,13 @@
         <v>469</v>
       </c>
       <c r="C147" t="s">
-        <v>56</v>
+        <v>470</v>
       </c>
       <c r="D147" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E147" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -7511,34 +7475,34 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B148" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C148" t="s">
-        <v>26</v>
+        <v>474</v>
       </c>
       <c r="D148" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E148" s="3">
-        <v>47483</v>
+        <v>1921</v>
       </c>
       <c r="F148" s="3">
-        <v>1169</v>
+        <v>64</v>
       </c>
       <c r="G148" s="3">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="H148" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K148">
-        <v>417</v>
+        <v>9</v>
       </c>
       <c r="L148" t="s">
         <v>16</v>
@@ -7546,19 +7510,19 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B149" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C149" t="s">
-        <v>383</v>
+        <v>478</v>
       </c>
       <c r="D149" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E149" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -7581,19 +7545,19 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B150" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C150" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="D150" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E150" s="3">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -7616,19 +7580,19 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B151" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C151" t="s">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="D151" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E151" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -7651,25 +7615,25 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B152" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C152" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D152" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E152" s="3">
-        <v>1921</v>
+        <v>110</v>
       </c>
       <c r="F152" s="3">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="G152" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H152" s="3">
         <v>0</v>
@@ -7678,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L152" t="s">
         <v>16</v>
@@ -7686,19 +7650,19 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B153" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C153" t="s">
-        <v>490</v>
+        <v>313</v>
       </c>
       <c r="D153" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E153" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
@@ -7721,19 +7685,19 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B154" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C154" t="s">
-        <v>319</v>
+        <v>470</v>
       </c>
       <c r="D154" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E154" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -7756,25 +7720,25 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B155" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C155" t="s">
-        <v>278</v>
+        <v>498</v>
       </c>
       <c r="D155" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E155" s="3">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="F155" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G155" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H155" s="3">
         <v>0</v>
@@ -7791,28 +7755,28 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B156" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C156" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
       <c r="D156" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E156" s="3">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="F156" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G156" s="3">
         <v>0</v>
       </c>
       <c r="H156" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -7826,34 +7790,34 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B157" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C157" t="s">
-        <v>482</v>
+        <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E157" s="3">
-        <v>2</v>
+        <v>282666</v>
       </c>
       <c r="F157" s="3">
-        <v>0</v>
+        <v>4159</v>
       </c>
       <c r="G157" s="3">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="H157" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157">
-        <v>0</v>
+        <v>2992</v>
       </c>
       <c r="L157" t="s">
         <v>16</v>
@@ -7861,28 +7825,28 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B158" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C158" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="D158" t="s">
         <v>508</v>
       </c>
       <c r="E158" s="3">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F158" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G158" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H158" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -7902,19 +7866,19 @@
         <v>510</v>
       </c>
       <c r="C159" t="s">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="D159" t="s">
         <v>511</v>
       </c>
       <c r="E159" s="3">
-        <v>2053</v>
+        <v>110227</v>
       </c>
       <c r="F159" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G159" s="3">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="H159" s="3">
         <v>1</v>
@@ -7923,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="L159" t="s">
         <v>16</v>
@@ -7937,19 +7901,19 @@
         <v>513</v>
       </c>
       <c r="C160" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="D160" t="s">
         <v>514</v>
       </c>
       <c r="E160" s="3">
-        <v>8968</v>
+        <v>401869</v>
       </c>
       <c r="F160" s="3">
-        <v>117</v>
+        <v>4640</v>
       </c>
       <c r="G160" s="3">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="H160" s="3">
         <v>1</v>
@@ -7958,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="L160" t="s">
         <v>16</v>
@@ -7972,22 +7936,22 @@
         <v>516</v>
       </c>
       <c r="C161" t="s">
-        <v>490</v>
+        <v>294</v>
       </c>
       <c r="D161" t="s">
         <v>517</v>
       </c>
       <c r="E161" s="3">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="F161" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161" s="3">
         <v>0</v>
       </c>
       <c r="H161" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -8007,28 +7971,28 @@
         <v>519</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D162" t="s">
         <v>520</v>
       </c>
       <c r="E162" s="3">
-        <v>4759</v>
+        <v>58</v>
       </c>
       <c r="F162" s="3">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="G162" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H162" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L162" t="s">
         <v>16</v>
@@ -8048,13 +8012,13 @@
         <v>523</v>
       </c>
       <c r="E163" s="3">
-        <v>3080</v>
+        <v>4759</v>
       </c>
       <c r="F163" s="3">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G163" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H163" s="3">
         <v>1</v>
@@ -8063,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="K163">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L163" t="s">
         <v>16</v>
@@ -8077,19 +8041,19 @@
         <v>525</v>
       </c>
       <c r="C164" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="D164" t="s">
         <v>526</v>
       </c>
       <c r="E164" s="3">
-        <v>218426</v>
+        <v>2883</v>
       </c>
       <c r="F164" s="3">
-        <v>2691</v>
+        <v>42</v>
       </c>
       <c r="G164" s="3">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="H164" s="3">
         <v>1</v>
@@ -8098,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="L164" t="s">
         <v>16</v>
@@ -8112,19 +8076,19 @@
         <v>528</v>
       </c>
       <c r="C165" t="s">
-        <v>319</v>
+        <v>185</v>
       </c>
       <c r="D165" t="s">
         <v>529</v>
       </c>
       <c r="E165" s="3">
-        <v>106</v>
+        <v>411533</v>
       </c>
       <c r="F165" s="3">
-        <v>4</v>
+        <v>4290</v>
       </c>
       <c r="G165" s="3">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
@@ -8133,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="L165" t="s">
         <v>16</v>
@@ -8147,7 +8111,7 @@
         <v>531</v>
       </c>
       <c r="C166" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D166" t="s">
         <v>532</v>
@@ -8188,13 +8152,13 @@
         <v>535</v>
       </c>
       <c r="E167" s="3">
-        <v>222595</v>
+        <v>511312</v>
       </c>
       <c r="F167" s="3">
-        <v>9022</v>
+        <v>15167</v>
       </c>
       <c r="G167" s="3">
-        <v>147</v>
+        <v>402</v>
       </c>
       <c r="H167" s="3">
         <v>1</v>
@@ -8203,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="L167" t="s">
         <v>536</v>
@@ -8217,16 +8181,16 @@
         <v>538</v>
       </c>
       <c r="C168" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="D168" t="s">
         <v>539</v>
       </c>
       <c r="E168" s="3">
-        <v>239</v>
+        <v>844</v>
       </c>
       <c r="F168" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G168" s="3">
         <v>0</v>
@@ -8287,19 +8251,19 @@
         <v>545</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="D170" t="s">
         <v>546</v>
       </c>
       <c r="E170" s="3">
-        <v>2883</v>
+        <v>95</v>
       </c>
       <c r="F170" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G170" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
@@ -8308,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="K170">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L170" t="s">
         <v>16</v>
@@ -8322,19 +8286,19 @@
         <v>548</v>
       </c>
       <c r="C171" t="s">
-        <v>490</v>
+        <v>259</v>
       </c>
       <c r="D171" t="s">
         <v>549</v>
       </c>
       <c r="E171" s="3">
-        <v>60</v>
+        <v>69498</v>
       </c>
       <c r="F171" s="3">
-        <v>1</v>
+        <v>1189</v>
       </c>
       <c r="G171" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
@@ -8343,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="K171">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L171" t="s">
         <v>16</v>
@@ -8357,19 +8321,19 @@
         <v>551</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="D172" t="s">
         <v>552</v>
       </c>
       <c r="E172" s="3">
-        <v>25592</v>
+        <v>239</v>
       </c>
       <c r="F172" s="3">
-        <v>221</v>
+        <v>2</v>
       </c>
       <c r="G172" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
@@ -8378,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L172" t="s">
         <v>16</v>
@@ -8398,13 +8362,13 @@
         <v>555</v>
       </c>
       <c r="E173" s="3">
-        <v>566966</v>
+        <v>222595</v>
       </c>
       <c r="F173" s="3">
-        <v>18782</v>
+        <v>9022</v>
       </c>
       <c r="G173" s="3">
-        <v>416</v>
+        <v>147</v>
       </c>
       <c r="H173" s="3">
         <v>1</v>
@@ -8413,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="L173" t="s">
         <v>536</v>
@@ -8427,19 +8391,19 @@
         <v>557</v>
       </c>
       <c r="C174" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D174" t="s">
         <v>558</v>
       </c>
       <c r="E174" s="3">
-        <v>549058</v>
+        <v>125335</v>
       </c>
       <c r="F174" s="3">
-        <v>4324</v>
+        <v>3458</v>
       </c>
       <c r="G174" s="3">
-        <v>204</v>
+        <v>566</v>
       </c>
       <c r="H174" s="3">
         <v>1</v>
@@ -8448,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>229</v>
+        <v>1955</v>
       </c>
       <c r="L174" t="s">
         <v>16</v>
@@ -8462,13 +8426,13 @@
         <v>560</v>
       </c>
       <c r="C175" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D175" t="s">
         <v>561</v>
       </c>
       <c r="E175" s="3">
-        <v>844</v>
+        <v>2053</v>
       </c>
       <c r="F175" s="3">
         <v>0</v>
@@ -8497,28 +8461,28 @@
         <v>563</v>
       </c>
       <c r="C176" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
         <v>564</v>
       </c>
       <c r="E176" s="3">
-        <v>2418</v>
+        <v>8968</v>
       </c>
       <c r="F176" s="3">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G176" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H176" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L176" t="s">
         <v>16</v>
@@ -8532,16 +8496,16 @@
         <v>566</v>
       </c>
       <c r="C177" t="s">
-        <v>261</v>
+        <v>478</v>
       </c>
       <c r="D177" t="s">
         <v>567</v>
       </c>
       <c r="E177" s="3">
-        <v>4640</v>
+        <v>95</v>
       </c>
       <c r="F177" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" s="3">
         <v>0</v>
@@ -8567,19 +8531,19 @@
         <v>569</v>
       </c>
       <c r="C178" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D178" t="s">
         <v>570</v>
       </c>
       <c r="E178" s="3">
-        <v>69498</v>
+        <v>428</v>
       </c>
       <c r="F178" s="3">
-        <v>1189</v>
+        <v>0</v>
       </c>
       <c r="G178" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H178" s="3">
         <v>1</v>
@@ -8588,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="K178">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="L178" t="s">
         <v>16</v>
@@ -8602,19 +8566,19 @@
         <v>572</v>
       </c>
       <c r="C179" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="D179" t="s">
         <v>573</v>
       </c>
       <c r="E179" s="3">
-        <v>18665</v>
+        <v>74</v>
       </c>
       <c r="F179" s="3">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G179" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H179" s="3">
         <v>1</v>
@@ -8623,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="K179">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L179" t="s">
         <v>16</v>
@@ -8637,16 +8601,16 @@
         <v>575</v>
       </c>
       <c r="C180" t="s">
-        <v>300</v>
+        <v>542</v>
       </c>
       <c r="D180" t="s">
         <v>576</v>
       </c>
       <c r="E180" s="3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F180" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G180" s="3">
         <v>0</v>
@@ -8672,19 +8636,19 @@
         <v>578</v>
       </c>
       <c r="C181" t="s">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="D181" t="s">
         <v>579</v>
       </c>
       <c r="E181" s="3">
-        <v>23</v>
+        <v>566966</v>
       </c>
       <c r="F181" s="3">
-        <v>1</v>
+        <v>18782</v>
       </c>
       <c r="G181" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
@@ -8693,10 +8657,10 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L181" t="s">
-        <v>16</v>
+        <v>536</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8707,16 +8671,16 @@
         <v>581</v>
       </c>
       <c r="C182" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D182" t="s">
         <v>582</v>
       </c>
       <c r="E182" s="3">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F182" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G182" s="3">
         <v>0</v>
@@ -8742,7 +8706,7 @@
         <v>584</v>
       </c>
       <c r="C183" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D183" t="s">
         <v>585</v>
@@ -8777,13 +8741,13 @@
         <v>587</v>
       </c>
       <c r="C184" t="s">
-        <v>300</v>
+        <v>406</v>
       </c>
       <c r="D184" t="s">
         <v>588</v>
       </c>
       <c r="E184" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F184" s="3">
         <v>0</v>
@@ -8812,19 +8776,19 @@
         <v>590</v>
       </c>
       <c r="C185" t="s">
-        <v>26</v>
+        <v>294</v>
       </c>
       <c r="D185" t="s">
         <v>591</v>
       </c>
       <c r="E185" s="3">
-        <v>110227</v>
+        <v>23</v>
       </c>
       <c r="F185" s="3">
-        <v>1800</v>
+        <v>1</v>
       </c>
       <c r="G185" s="3">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
@@ -8833,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="L185" t="s">
         <v>16</v>
@@ -8847,31 +8811,31 @@
         <v>593</v>
       </c>
       <c r="C186" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="D186" t="s">
         <v>594</v>
       </c>
       <c r="E186" s="3">
-        <v>2087</v>
+        <v>472979</v>
       </c>
       <c r="F186" s="3">
-        <v>100</v>
+        <v>20185</v>
       </c>
       <c r="G186" s="3">
+        <v>515</v>
+      </c>
+      <c r="H186" s="3">
         <v>1</v>
       </c>
-      <c r="H186" s="3">
-        <v>0</v>
-      </c>
       <c r="J186">
         <v>0</v>
       </c>
       <c r="K186">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="L186" t="s">
-        <v>16</v>
+        <v>536</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8882,28 +8846,28 @@
         <v>596</v>
       </c>
       <c r="C187" t="s">
-        <v>482</v>
+        <v>185</v>
       </c>
       <c r="D187" t="s">
         <v>597</v>
       </c>
       <c r="E187" s="3">
-        <v>6</v>
+        <v>549058</v>
       </c>
       <c r="F187" s="3">
-        <v>0</v>
+        <v>4324</v>
       </c>
       <c r="G187" s="3">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="H187" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="L187" t="s">
         <v>16</v>
@@ -8917,19 +8881,19 @@
         <v>599</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="D188" t="s">
         <v>600</v>
       </c>
       <c r="E188" s="3">
-        <v>511312</v>
+        <v>617</v>
       </c>
       <c r="F188" s="3">
-        <v>15167</v>
+        <v>0</v>
       </c>
       <c r="G188" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H188" s="3">
         <v>1</v>
@@ -8938,10 +8902,10 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L188" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8952,19 +8916,19 @@
         <v>602</v>
       </c>
       <c r="C189" t="s">
-        <v>507</v>
+        <v>259</v>
       </c>
       <c r="D189" t="s">
         <v>603</v>
       </c>
       <c r="E189" s="3">
-        <v>88</v>
+        <v>24890</v>
       </c>
       <c r="F189" s="3">
-        <v>3</v>
+        <v>1321</v>
       </c>
       <c r="G189" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H189" s="3">
         <v>1</v>
@@ -8973,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L189" t="s">
         <v>16</v>
@@ -8987,19 +8951,19 @@
         <v>605</v>
       </c>
       <c r="C190" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="D190" t="s">
         <v>606</v>
       </c>
       <c r="E190" s="3">
-        <v>617</v>
+        <v>25592</v>
       </c>
       <c r="F190" s="3">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G190" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H190" s="3">
         <v>1</v>
@@ -9008,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L190" t="s">
         <v>16</v>
@@ -9022,19 +8986,19 @@
         <v>608</v>
       </c>
       <c r="C191" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="D191" t="s">
         <v>609</v>
       </c>
       <c r="E191" s="3">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="F191" s="3">
         <v>6</v>
       </c>
       <c r="G191" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191" s="3">
         <v>1</v>
@@ -9057,19 +9021,19 @@
         <v>611</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="D192" t="s">
         <v>612</v>
       </c>
       <c r="E192" s="3">
-        <v>472979</v>
+        <v>275148</v>
       </c>
       <c r="F192" s="3">
-        <v>20185</v>
+        <v>2343</v>
       </c>
       <c r="G192" s="3">
-        <v>515</v>
+        <v>58</v>
       </c>
       <c r="H192" s="3">
         <v>1</v>
@@ -9078,10 +9042,10 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="L192" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9092,19 +9056,19 @@
         <v>614</v>
       </c>
       <c r="C193" t="s">
-        <v>542</v>
+        <v>185</v>
       </c>
       <c r="D193" t="s">
         <v>615</v>
       </c>
       <c r="E193" s="3">
-        <v>77</v>
+        <v>850122</v>
       </c>
       <c r="F193" s="3">
-        <v>2</v>
+        <v>7412</v>
       </c>
       <c r="G193" s="3">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="H193" s="3">
         <v>1</v>
@@ -9113,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="L193" t="s">
         <v>16</v>
@@ -9127,19 +9091,19 @@
         <v>617</v>
       </c>
       <c r="C194" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D194" t="s">
         <v>618</v>
       </c>
       <c r="E194" s="3">
-        <v>21005</v>
+        <v>443934</v>
       </c>
       <c r="F194" s="3">
-        <v>478</v>
+        <v>3514</v>
       </c>
       <c r="G194" s="3">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="H194" s="3">
         <v>1</v>
@@ -9148,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="K194">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="L194" t="s">
         <v>16</v>
@@ -9162,19 +9126,19 @@
         <v>620</v>
       </c>
       <c r="C195" t="s">
-        <v>26</v>
+        <v>390</v>
       </c>
       <c r="D195" t="s">
         <v>621</v>
       </c>
       <c r="E195" s="3">
-        <v>125374</v>
+        <v>345</v>
       </c>
       <c r="F195" s="3">
-        <v>2544</v>
+        <v>6</v>
       </c>
       <c r="G195" s="3">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="H195" s="3">
         <v>1</v>
@@ -9183,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="K195">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="L195" t="s">
         <v>16</v>
@@ -9197,19 +9161,19 @@
         <v>623</v>
       </c>
       <c r="C196" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="D196" t="s">
         <v>624</v>
       </c>
       <c r="E196" s="3">
-        <v>401869</v>
+        <v>4640</v>
       </c>
       <c r="F196" s="3">
-        <v>4640</v>
+        <v>0</v>
       </c>
       <c r="G196" s="3">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="H196" s="3">
         <v>1</v>
@@ -9218,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="L196" t="s">
         <v>16</v>
@@ -9232,28 +9196,28 @@
         <v>626</v>
       </c>
       <c r="C197" t="s">
-        <v>191</v>
+        <v>470</v>
       </c>
       <c r="D197" t="s">
         <v>627</v>
       </c>
       <c r="E197" s="3">
-        <v>443934</v>
+        <v>6</v>
       </c>
       <c r="F197" s="3">
-        <v>3514</v>
+        <v>0</v>
       </c>
       <c r="G197" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H197" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L197" t="s">
         <v>16</v>
@@ -9267,19 +9231,19 @@
         <v>629</v>
       </c>
       <c r="C198" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="D198" t="s">
         <v>630</v>
       </c>
       <c r="E198" s="3">
-        <v>850122</v>
+        <v>4183126</v>
       </c>
       <c r="F198" s="3">
-        <v>7412</v>
+        <v>49430</v>
       </c>
       <c r="G198" s="3">
-        <v>349</v>
+        <v>5701</v>
       </c>
       <c r="H198" s="3">
         <v>1</v>
@@ -9288,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <v>326</v>
+        <v>1196</v>
       </c>
       <c r="L198" t="s">
-        <v>16</v>
+        <v>536</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9302,13 +9266,13 @@
         <v>632</v>
       </c>
       <c r="C199" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="D199" t="s">
         <v>633</v>
       </c>
       <c r="E199" s="3">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F199" s="3">
         <v>3</v>
@@ -9337,19 +9301,19 @@
         <v>635</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="D200" t="s">
         <v>636</v>
       </c>
       <c r="E200" s="3">
-        <v>4183126</v>
+        <v>18665</v>
       </c>
       <c r="F200" s="3">
-        <v>49430</v>
+        <v>659</v>
       </c>
       <c r="G200" s="3">
-        <v>5701</v>
+        <v>14</v>
       </c>
       <c r="H200" s="3">
         <v>1</v>
@@ -9358,10 +9322,10 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <v>1196</v>
+        <v>109</v>
       </c>
       <c r="L200" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9372,19 +9336,19 @@
         <v>638</v>
       </c>
       <c r="C201" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D201" t="s">
         <v>639</v>
       </c>
       <c r="E201" s="3">
-        <v>275148</v>
+        <v>218426</v>
       </c>
       <c r="F201" s="3">
-        <v>2343</v>
+        <v>2691</v>
       </c>
       <c r="G201" s="3">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H201" s="3">
         <v>1</v>
@@ -9393,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="L201" t="s">
         <v>16</v>
@@ -9407,19 +9371,19 @@
         <v>641</v>
       </c>
       <c r="C202" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="D202" t="s">
         <v>642</v>
       </c>
       <c r="E202" s="3">
-        <v>282666</v>
+        <v>21005</v>
       </c>
       <c r="F202" s="3">
-        <v>4159</v>
+        <v>478</v>
       </c>
       <c r="G202" s="3">
-        <v>1024</v>
+        <v>25</v>
       </c>
       <c r="H202" s="3">
         <v>1</v>
@@ -9428,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="K202">
-        <v>2992</v>
+        <v>61</v>
       </c>
       <c r="L202" t="s">
         <v>16</v>
@@ -9442,19 +9406,19 @@
         <v>644</v>
       </c>
       <c r="C203" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="D203" t="s">
         <v>645</v>
       </c>
       <c r="E203" s="3">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="F203" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G203" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" s="3">
         <v>1</v>
@@ -9477,28 +9441,28 @@
         <v>647</v>
       </c>
       <c r="C204" t="s">
-        <v>421</v>
+        <v>26</v>
       </c>
       <c r="D204" t="s">
         <v>648</v>
       </c>
       <c r="E204" s="3">
-        <v>2</v>
+        <v>125374</v>
       </c>
       <c r="F204" s="3">
-        <v>0</v>
+        <v>2544</v>
       </c>
       <c r="G204" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H204" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>1213</v>
       </c>
       <c r="L204" t="s">
         <v>16</v>
@@ -9512,19 +9476,19 @@
         <v>650</v>
       </c>
       <c r="C205" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="D205" t="s">
         <v>651</v>
       </c>
       <c r="E205" s="3">
-        <v>411533</v>
+        <v>3080</v>
       </c>
       <c r="F205" s="3">
-        <v>4290</v>
+        <v>58</v>
       </c>
       <c r="G205" s="3">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="H205" s="3">
         <v>1</v>
@@ -9533,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="K205">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="L205" t="s">
         <v>16</v>
@@ -9547,19 +9511,19 @@
         <v>653</v>
       </c>
       <c r="C206" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="D206" t="s">
         <v>654</v>
       </c>
       <c r="E206" s="3">
-        <v>58</v>
+        <v>3716</v>
       </c>
       <c r="F206" s="3">
-        <v>1</v>
+        <v>426</v>
       </c>
       <c r="G206" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H206" s="3">
         <v>0</v>
@@ -9568,149 +9532,9 @@
         <v>0</v>
       </c>
       <c r="K206">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="L206" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12">
-      <c r="A207" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B207" t="s">
-        <v>656</v>
-      </c>
-      <c r="C207" t="s">
-        <v>26</v>
-      </c>
-      <c r="D207" t="s">
-        <v>657</v>
-      </c>
-      <c r="E207" s="3">
-        <v>125335</v>
-      </c>
-      <c r="F207" s="3">
-        <v>3458</v>
-      </c>
-      <c r="G207" s="3">
-        <v>566</v>
-      </c>
-      <c r="H207" s="3">
-        <v>1</v>
-      </c>
-      <c r="J207">
-        <v>0</v>
-      </c>
-      <c r="K207">
-        <v>1955</v>
-      </c>
-      <c r="L207" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
-      <c r="A208" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B208" t="s">
-        <v>659</v>
-      </c>
-      <c r="C208" t="s">
-        <v>261</v>
-      </c>
-      <c r="D208" t="s">
-        <v>660</v>
-      </c>
-      <c r="E208" s="3">
-        <v>87</v>
-      </c>
-      <c r="F208" s="3">
-        <v>0</v>
-      </c>
-      <c r="G208" s="3">
-        <v>0</v>
-      </c>
-      <c r="H208" s="3">
-        <v>1</v>
-      </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
-      <c r="K208">
-        <v>0</v>
-      </c>
-      <c r="L208" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12">
-      <c r="A209" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B209" t="s">
-        <v>662</v>
-      </c>
-      <c r="C209" t="s">
-        <v>265</v>
-      </c>
-      <c r="D209" t="s">
-        <v>663</v>
-      </c>
-      <c r="E209" s="3">
-        <v>24890</v>
-      </c>
-      <c r="F209" s="3">
-        <v>1321</v>
-      </c>
-      <c r="G209" s="3">
-        <v>34</v>
-      </c>
-      <c r="H209" s="3">
-        <v>1</v>
-      </c>
-      <c r="J209">
-        <v>0</v>
-      </c>
-      <c r="K209">
-        <v>154</v>
-      </c>
-      <c r="L209" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12">
-      <c r="A210" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="B210" t="s">
-        <v>665</v>
-      </c>
-      <c r="C210" t="s">
-        <v>261</v>
-      </c>
-      <c r="D210" t="s">
-        <v>666</v>
-      </c>
-      <c r="E210" s="3">
-        <v>428</v>
-      </c>
-      <c r="F210" s="3">
-        <v>0</v>
-      </c>
-      <c r="G210" s="3">
-        <v>0</v>
-      </c>
-      <c r="H210" s="3">
-        <v>1</v>
-      </c>
-      <c r="J210">
-        <v>0</v>
-      </c>
-      <c r="K210">
-        <v>0</v>
-      </c>
-      <c r="L210" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9920,10 +9744,6 @@
     <hyperlink ref="A204" r:id="rId202"/>
     <hyperlink ref="A205" r:id="rId203"/>
     <hyperlink ref="A206" r:id="rId204"/>
-    <hyperlink ref="A207" r:id="rId205"/>
-    <hyperlink ref="A208" r:id="rId206"/>
-    <hyperlink ref="A209" r:id="rId207"/>
-    <hyperlink ref="A210" r:id="rId208"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9946,7 +9766,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>251415</v>
+        <v>250002</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9954,7 +9774,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>90843</v>
+        <v>90707</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9962,7 +9782,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>51851</v>
+        <v>51152</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9970,20 +9790,20 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>49768</v>
+        <v>49710</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>13012</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>11719</v>
@@ -9994,44 +9814,44 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>10263</v>
+        <v>10160</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8">
-        <v>7981</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>6469</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="B10">
-        <v>5898</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="B11">
-        <v>2909</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B12">
         <v>1081</v>
@@ -10039,23 +9859,23 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="B13">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B14">
-        <v>910</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B15">
         <v>571</v>
@@ -10063,31 +9883,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B16">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B17">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B18">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B19">
         <v>135</v>
@@ -10095,23 +9915,23 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B20">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B22">
         <v>18</v>
@@ -10119,7 +9939,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B23">
         <v>15</v>
@@ -10127,7 +9947,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -10135,7 +9955,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -10143,7 +9963,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -10151,7 +9971,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -10159,7 +9979,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -10167,7 +9987,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B29">
         <v>1</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -989,6 +989,24 @@
     <t>2019-12-12T20:47:48.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=O_Ax717SQVw</t>
+  </si>
+  <si>
+    <t>I Média n°275 – Zemmour et Valeurs Actuelles attaqués   guerre totale contre la liberté d’expression</t>
+  </si>
+  <si>
+    <t>2019-12-05T21:13:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
   </si>
   <si>
@@ -998,24 +1016,6 @@
     <t>2019-12-17T16:58:46.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=O_Ax717SQVw</t>
-  </si>
-  <si>
-    <t>I Média n°275 – Zemmour et Valeurs Actuelles attaqués   guerre totale contre la liberté d’expression</t>
-  </si>
-  <si>
-    <t>2019-12-05T21:13:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
   </si>
   <si>
@@ -1061,6 +1061,15 @@
     <t>2019-12-05T11:56:34.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
+  </si>
+  <si>
+    <t>Le conflit Ukranien entre Poutine vs Zelensky en présence de Macron et Merkel</t>
+  </si>
+  <si>
+    <t>2019-12-10T13:10:03.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
   </si>
   <si>
@@ -1070,15 +1079,6 @@
     <t>2019-12-13T16:42:52.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
-  </si>
-  <si>
-    <t>Le conflit Ukranien entre Poutine vs Zelensky en présence de Macron et Merkel</t>
-  </si>
-  <si>
-    <t>2019-12-10T13:10:03.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
   </si>
   <si>
@@ -1115,6 +1115,15 @@
     <t>2019-12-09T16:55:42.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=LG4bgcxe68g</t>
   </si>
   <si>
@@ -1124,15 +1133,6 @@
     <t>2019-11-27T21:56:53.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=uAi7BgQ-ayA</t>
   </si>
   <si>
@@ -1145,6 +1145,15 @@
     <t>2019-12-09T13:53:07.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Ysbbsso_Ld0</t>
+  </si>
+  <si>
+    <t>🌍 Climate Finance Day 2019 // Interview of François Riahi, CEO</t>
+  </si>
+  <si>
+    <t>2019-11-29T15:13:43.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=VGv8ke9kC1Q</t>
   </si>
   <si>
@@ -1154,15 +1163,6 @@
     <t>2019-12-04T18:37:46.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Ysbbsso_Ld0</t>
-  </si>
-  <si>
-    <t>🌍 Climate Finance Day 2019 // Interview of François Riahi, CEO</t>
-  </si>
-  <si>
-    <t>2019-11-29T15:13:43.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
   </si>
   <si>
@@ -1181,6 +1181,15 @@
     <t>2019-12-03T17:14:10.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
+  </si>
+  <si>
+    <t>La réforme des retraites à la Une de l'Opinion: le making-of du dessin de la semaine</t>
+  </si>
+  <si>
+    <t>2019-12-06T17:22:00.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
   </si>
   <si>
@@ -1193,15 +1202,6 @@
     <t>2018-12-12T15:20:36.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
-  </si>
-  <si>
-    <t>La réforme des retraites à la Une de l'Opinion: le making-of du dessin de la semaine</t>
-  </si>
-  <si>
-    <t>2019-12-06T17:22:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=kTcO7NBn80U</t>
   </si>
   <si>
@@ -1211,6 +1211,15 @@
     <t>2019-12-20T14:05:57.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
   </si>
   <si>
@@ -1220,13 +1229,31 @@
     <t>2019-12-23T11:56:32.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
+    <t>https://www.youtube.com/watch?v=Fo83Em0AtcU</t>
+  </si>
+  <si>
+    <t>Emmanuel Macron Avec Donald Trump au sommet de l'OTAN 2019</t>
+  </si>
+  <si>
+    <t>2019-12-03T20:42:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wyUBcMp9jQY</t>
+  </si>
+  <si>
+    <t>Inspection par drone du Viaduc de Saint-Nicolas-de-Redon</t>
+  </si>
+  <si>
+    <t>2019-11-25T08:54:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
+  </si>
+  <si>
+    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
+  </si>
+  <si>
+    <t>2019-12-04T16:10:34.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=_TEHesD6ckg</t>
@@ -1241,33 +1268,6 @@
     <t>2019-12-03T10:17:14.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wyUBcMp9jQY</t>
-  </si>
-  <si>
-    <t>Inspection par drone du Viaduc de Saint-Nicolas-de-Redon</t>
-  </si>
-  <si>
-    <t>2019-11-25T08:54:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
-  </si>
-  <si>
-    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
-  </si>
-  <si>
-    <t>2019-12-04T16:10:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Fo83Em0AtcU</t>
-  </si>
-  <si>
-    <t>Emmanuel Macron Avec Donald Trump au sommet de l'OTAN 2019</t>
-  </si>
-  <si>
-    <t>2019-12-03T20:42:26.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=4NAXkPQ9uzg</t>
   </si>
   <si>
@@ -1286,6 +1286,21 @@
     <t>2019-12-12T17:17:05.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=J87kE8T12p8</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:22:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
   </si>
   <si>
@@ -1298,12 +1313,6 @@
     <t>2018-02-12T11:51:48.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=J87kE8T12p8</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:22:37.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=iB1TmfgBYAY</t>
   </si>
   <si>
@@ -1313,6 +1322,15 @@
     <t>2019-12-08T17:22:06.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=HW-8nUSbnN8</t>
+  </si>
+  <si>
+    <t>On parle d'Europe avec Chrysoula Zacharopoulou</t>
+  </si>
+  <si>
+    <t>2019-12-09T14:22:35.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
   </si>
   <si>
@@ -1322,24 +1340,6 @@
     <t>2018-10-17T23:18:03.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HW-8nUSbnN8</t>
-  </si>
-  <si>
-    <t>On parle d'Europe avec Chrysoula Zacharopoulou</t>
-  </si>
-  <si>
-    <t>2019-12-09T14:22:35.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=6odkm5-bI0s</t>
   </si>
   <si>
@@ -1376,6 +1376,24 @@
     <t>2019-12-02T16:30:58.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=EsC1Bafw9ME</t>
+  </si>
+  <si>
+    <t>La générosité française n’a pas de frontière</t>
+  </si>
+  <si>
+    <t>2019-12-02T10:13:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MhZJ08xOVeY</t>
+  </si>
+  <si>
+    <t>Damien Poisson: un électricien économe</t>
+  </si>
+  <si>
+    <t>2019-12-02T09:16:56.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
   </si>
   <si>
@@ -1385,6 +1403,15 @@
     <t>2019-12-16T17:24:22.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=HILM6Rhxh_g</t>
+  </si>
+  <si>
+    <t>A l'Assemblée nationale de Corée</t>
+  </si>
+  <si>
+    <t>2019-12-04T10:25:40.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
   </si>
   <si>
@@ -1394,33 +1421,6 @@
     <t>2019-04-19T19:34:20.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=HILM6Rhxh_g</t>
-  </si>
-  <si>
-    <t>A l'Assemblée nationale de Corée</t>
-  </si>
-  <si>
-    <t>2019-12-04T10:25:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MhZJ08xOVeY</t>
-  </si>
-  <si>
-    <t>Damien Poisson: un électricien économe</t>
-  </si>
-  <si>
-    <t>2019-12-02T09:16:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EsC1Bafw9ME</t>
-  </si>
-  <si>
-    <t>La générosité française n’a pas de frontière</t>
-  </si>
-  <si>
-    <t>2019-12-02T10:13:27.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
   </si>
   <si>
@@ -1517,6 +1517,210 @@
     <t>2017-05-12T12:03:56.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
+  </si>
+  <si>
+    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2018-11-14T10:21:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
+  </si>
+  <si>
+    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
+  </si>
+  <si>
+    <t>2018-11-22T17:23:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
+  </si>
+  <si>
+    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-08-01T17:58:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
+  </si>
+  <si>
+    <t>François le Français... euh non, l’ami des oligarques...</t>
+  </si>
+  <si>
+    <t>2019-04-28T13:50:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
+  </si>
+  <si>
+    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2013-11-08T18:25:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WcBP2NKdvso</t>
+  </si>
+  <si>
+    <t>Pourquoi Palmyre est un joyau antique</t>
+  </si>
+  <si>
+    <t>Le Monde TV</t>
+  </si>
+  <si>
+    <t>2015-05-22T13:49:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
+  </si>
+  <si>
+    <t>29 10 BFMTV 2019</t>
+  </si>
+  <si>
+    <t>2019-11-15T10:08:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
+  </si>
+  <si>
+    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
+  </si>
+  <si>
+    <t>2018-09-07T09:19:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1DH7PGLEm8Q</t>
+  </si>
+  <si>
+    <t>l'échange d'Emmanuel Macron avec les étudiants de l'Université de Picardie</t>
+  </si>
+  <si>
+    <t>2019-11-22T09:19:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=htZiGZhk0l0</t>
+  </si>
+  <si>
+    <t>Réforme du collège : un passage en force</t>
+  </si>
+  <si>
+    <t>2015-05-21T16:54:14.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
+  </si>
+  <si>
+    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-03-06T18:02:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
+  </si>
+  <si>
+    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
+  </si>
+  <si>
+    <t>2019-11-19T12:31:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
+  </si>
+  <si>
+    <t>Un ex associé de Francis Lalanne</t>
+  </si>
+  <si>
+    <t>2019-05-23T10:05:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
+  </si>
+  <si>
+    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
+  </si>
+  <si>
+    <t>2018-09-17T13:20:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
+  </si>
+  <si>
+    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
+  </si>
+  <si>
+    <t>2013-08-20T18:23:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
+  </si>
+  <si>
+    <t>ZER - Face A Moi Même</t>
+  </si>
+  <si>
+    <t>2016-10-30T19:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
   </si>
   <si>
@@ -1526,6 +1730,69 @@
     <t>2019-11-22T14:45:23.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WryNw50lYNU</t>
+  </si>
+  <si>
+    <t>Mieux comprendre ma journée de députée</t>
+  </si>
+  <si>
+    <t>2019-11-19T15:43:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
+  </si>
+  <si>
+    <t>Philosophons sur l'égo</t>
+  </si>
+  <si>
+    <t>2019-11-28T19:28:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
+  </si>
+  <si>
+    <t>Pot pourri médiatique</t>
+  </si>
+  <si>
+    <t>2019-03-21T23:00:42.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
   </si>
   <si>
@@ -1535,22 +1802,67 @@
     <t>2019-03-27T22:40:53.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
-  </si>
-  <si>
-    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2018-11-14T10:21:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
-  </si>
-  <si>
-    <t>Pot pourri médiatique</t>
-  </si>
-  <si>
-    <t>2019-03-21T23:00:42.000Z</t>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
@@ -1562,33 +1874,6 @@
     <t>2015-05-15T16:28:13.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
-  </si>
-  <si>
-    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
-  </si>
-  <si>
-    <t>2019-11-19T12:31:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1DH7PGLEm8Q</t>
-  </si>
-  <si>
-    <t>l'échange d'Emmanuel Macron avec les étudiants de l'Université de Picardie</t>
-  </si>
-  <si>
-    <t>2019-11-22T09:19:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
   </si>
   <si>
@@ -1598,22 +1883,40 @@
     <t>2019-10-12T07:00:07.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
-  </si>
-  <si>
-    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-03-06T18:02:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
+  </si>
+  <si>
+    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-02-28T18:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
@@ -1625,100 +1928,40 @@
     <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WcBP2NKdvso</t>
-  </si>
-  <si>
-    <t>Pourquoi Palmyre est un joyau antique</t>
-  </si>
-  <si>
-    <t>Le Monde TV</t>
-  </si>
-  <si>
-    <t>2015-05-22T13:49:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
-  </si>
-  <si>
-    <t>François le Français... euh non, l’ami des oligarques...</t>
-  </si>
-  <si>
-    <t>2019-04-28T13:50:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
-  </si>
-  <si>
-    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
-  </si>
-  <si>
-    <t>2018-09-17T13:20:49.000Z</t>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JztTImZkzlA</t>
+  </si>
+  <si>
+    <t>Question à Bertrand Badie</t>
+  </si>
+  <si>
+    <t>2019-10-09T13:17:13.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
@@ -1730,204 +1973,6 @@
     <t>2018-07-13T15:56:33.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=htZiGZhk0l0</t>
-  </si>
-  <si>
-    <t>Réforme du collège : un passage en force</t>
-  </si>
-  <si>
-    <t>2015-05-21T16:54:14.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JztTImZkzlA</t>
-  </si>
-  <si>
-    <t>Question à Bertrand Badie</t>
-  </si>
-  <si>
-    <t>2019-10-09T13:17:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
-  </si>
-  <si>
-    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
-  </si>
-  <si>
-    <t>2018-09-07T09:19:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
-  </si>
-  <si>
-    <t>29 10 BFMTV 2019</t>
-  </si>
-  <si>
-    <t>2019-11-15T10:08:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
-  </si>
-  <si>
-    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-02-28T18:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WryNw50lYNU</t>
-  </si>
-  <si>
-    <t>Mieux comprendre ma journée de députée</t>
-  </si>
-  <si>
-    <t>2019-11-19T15:43:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
-  </si>
-  <si>
-    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
-  </si>
-  <si>
-    <t>2013-08-20T18:23:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
-  </si>
-  <si>
-    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-08-01T17:58:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
-  </si>
-  <si>
-    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2013-11-08T18:25:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
-  </si>
-  <si>
-    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
-  </si>
-  <si>
-    <t>2018-11-22T17:23:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
   </si>
   <si>
@@ -1935,51 +1980,6 @@
   </si>
   <si>
     <t>2016-01-24T17:05:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
-  </si>
-  <si>
-    <t>ZER - Face A Moi Même</t>
-  </si>
-  <si>
-    <t>2016-10-30T19:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
-  </si>
-  <si>
-    <t>Un ex associé de Francis Lalanne</t>
-  </si>
-  <si>
-    <t>2019-05-23T10:05:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
-  </si>
-  <si>
-    <t>Philosophons sur l'égo</t>
-  </si>
-  <si>
-    <t>2019-11-28T19:28:28.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -5801,7 +5801,7 @@
         <v>325</v>
       </c>
       <c r="C100" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="D100" t="s">
         <v>326</v>
@@ -5810,7 +5810,7 @@
         <v>52</v>
       </c>
       <c r="F100" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
@@ -5836,7 +5836,7 @@
         <v>328</v>
       </c>
       <c r="C101" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="D101" t="s">
         <v>329</v>
@@ -5845,7 +5845,7 @@
         <v>52</v>
       </c>
       <c r="F101" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5871,7 +5871,7 @@
         <v>331</v>
       </c>
       <c r="C102" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="D102" t="s">
         <v>332</v>
@@ -5880,7 +5880,7 @@
         <v>52</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -6081,7 +6081,7 @@
         <v>349</v>
       </c>
       <c r="C108" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="D108" t="s">
         <v>350</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -6116,7 +6116,7 @@
         <v>352</v>
       </c>
       <c r="C109" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="D109" t="s">
         <v>353</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -6291,16 +6291,16 @@
         <v>367</v>
       </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="D114" t="s">
         <v>368</v>
       </c>
       <c r="E114" s="3">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F114" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" s="3">
         <v>0</v>
@@ -6326,16 +6326,16 @@
         <v>370</v>
       </c>
       <c r="C115" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D115" t="s">
         <v>371</v>
       </c>
       <c r="E115" s="3">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="F115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="3">
         <v>0</v>
@@ -6396,16 +6396,16 @@
         <v>377</v>
       </c>
       <c r="C117" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="D117" t="s">
         <v>378</v>
       </c>
       <c r="E117" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
@@ -6431,16 +6431,16 @@
         <v>380</v>
       </c>
       <c r="C118" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="D118" t="s">
         <v>381</v>
       </c>
       <c r="E118" s="3">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F118" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -6536,19 +6536,19 @@
         <v>389</v>
       </c>
       <c r="C121" t="s">
+        <v>85</v>
+      </c>
+      <c r="D121" t="s">
         <v>390</v>
       </c>
-      <c r="D121" t="s">
-        <v>391</v>
-      </c>
       <c r="E121" s="3">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
       </c>
       <c r="G121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -6565,34 +6565,34 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B122" t="s">
         <v>392</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>393</v>
-      </c>
-      <c r="C122" t="s">
-        <v>85</v>
       </c>
       <c r="D122" t="s">
         <v>394</v>
       </c>
       <c r="E122" s="3">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
       </c>
       <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
         <v>1</v>
-      </c>
-      <c r="H122" s="3">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
@@ -6711,10 +6711,10 @@
         <v>405</v>
       </c>
       <c r="C126" t="s">
+        <v>195</v>
+      </c>
+      <c r="D126" t="s">
         <v>406</v>
-      </c>
-      <c r="D126" t="s">
-        <v>407</v>
       </c>
       <c r="E126" s="3">
         <v>15</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -6740,16 +6740,16 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B127" t="s">
         <v>408</v>
-      </c>
-      <c r="B127" t="s">
-        <v>409</v>
       </c>
       <c r="C127" t="s">
         <v>205</v>
       </c>
       <c r="D127" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E127" s="3">
         <v>57</v>
@@ -6775,16 +6775,16 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B128" t="s">
         <v>411</v>
-      </c>
-      <c r="B128" t="s">
-        <v>412</v>
       </c>
       <c r="C128" t="s">
         <v>294</v>
       </c>
       <c r="D128" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E128" s="3">
         <v>15</v>
@@ -6810,13 +6810,13 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B129" t="s">
         <v>414</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>415</v>
-      </c>
-      <c r="C129" t="s">
-        <v>195</v>
       </c>
       <c r="D129" t="s">
         <v>416</v>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
@@ -6918,22 +6918,22 @@
         <v>423</v>
       </c>
       <c r="B132" t="s">
+        <v>303</v>
+      </c>
+      <c r="C132" t="s">
+        <v>205</v>
+      </c>
+      <c r="D132" t="s">
         <v>424</v>
       </c>
-      <c r="C132" t="s">
-        <v>425</v>
-      </c>
-      <c r="D132" t="s">
-        <v>426</v>
-      </c>
       <c r="E132" s="3">
-        <v>656</v>
+        <v>10</v>
       </c>
       <c r="F132" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G132" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L132" t="s">
         <v>16</v>
@@ -6950,25 +6950,25 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B133" t="s">
+        <v>426</v>
+      </c>
+      <c r="C133" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" t="s">
         <v>427</v>
       </c>
-      <c r="B133" t="s">
-        <v>303</v>
-      </c>
-      <c r="C133" t="s">
-        <v>205</v>
-      </c>
-      <c r="D133" t="s">
-        <v>428</v>
-      </c>
       <c r="E133" s="3">
-        <v>10</v>
+        <v>732</v>
       </c>
       <c r="F133" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G133" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L133" t="s">
         <v>16</v>
@@ -6985,25 +6985,25 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B134" t="s">
         <v>429</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>430</v>
-      </c>
-      <c r="C134" t="s">
-        <v>313</v>
       </c>
       <c r="D134" t="s">
         <v>431</v>
       </c>
       <c r="E134" s="3">
-        <v>10</v>
+        <v>656</v>
       </c>
       <c r="F134" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G134" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L134" t="s">
         <v>16</v>
@@ -7026,28 +7026,28 @@
         <v>433</v>
       </c>
       <c r="C135" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="D135" t="s">
         <v>434</v>
       </c>
       <c r="E135" s="3">
-        <v>60406</v>
+        <v>10</v>
       </c>
       <c r="F135" s="3">
-        <v>1073</v>
+        <v>2</v>
       </c>
       <c r="G135" s="3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="L135" t="s">
         <v>16</v>
@@ -7061,19 +7061,19 @@
         <v>436</v>
       </c>
       <c r="C136" t="s">
-        <v>172</v>
+        <v>313</v>
       </c>
       <c r="D136" t="s">
         <v>437</v>
       </c>
       <c r="E136" s="3">
-        <v>732</v>
+        <v>10</v>
       </c>
       <c r="F136" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G136" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
@@ -7096,28 +7096,28 @@
         <v>439</v>
       </c>
       <c r="C137" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="D137" t="s">
         <v>440</v>
       </c>
       <c r="E137" s="3">
-        <v>10</v>
+        <v>60406</v>
       </c>
       <c r="F137" s="3">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="G137" s="3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="L137" t="s">
         <v>16</v>
@@ -7271,7 +7271,7 @@
         <v>454</v>
       </c>
       <c r="C142" t="s">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="D142" t="s">
         <v>455</v>
@@ -7306,28 +7306,28 @@
         <v>457</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>374</v>
       </c>
       <c r="D143" t="s">
         <v>458</v>
       </c>
       <c r="E143" s="3">
-        <v>47483</v>
+        <v>6</v>
       </c>
       <c r="F143" s="3">
-        <v>1169</v>
+        <v>0</v>
       </c>
       <c r="G143" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H143" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K143">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="L143" t="s">
         <v>16</v>
@@ -7341,7 +7341,7 @@
         <v>460</v>
       </c>
       <c r="C144" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="D144" t="s">
         <v>461</v>
@@ -7350,7 +7350,7 @@
         <v>6</v>
       </c>
       <c r="F144" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G144" s="3">
         <v>0</v>
@@ -7376,7 +7376,7 @@
         <v>463</v>
       </c>
       <c r="C145" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="D145" t="s">
         <v>464</v>
@@ -7385,7 +7385,7 @@
         <v>6</v>
       </c>
       <c r="F145" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -7411,28 +7411,28 @@
         <v>466</v>
       </c>
       <c r="C146" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="D146" t="s">
         <v>467</v>
       </c>
       <c r="E146" s="3">
-        <v>6</v>
+        <v>47483</v>
       </c>
       <c r="F146" s="3">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="G146" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H146" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="L146" t="s">
         <v>16</v>
@@ -7761,16 +7761,16 @@
         <v>501</v>
       </c>
       <c r="C156" t="s">
-        <v>205</v>
+        <v>478</v>
       </c>
       <c r="D156" t="s">
         <v>502</v>
       </c>
       <c r="E156" s="3">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F156" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G156" s="3">
         <v>0</v>
@@ -7796,19 +7796,19 @@
         <v>504</v>
       </c>
       <c r="C157" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D157" t="s">
         <v>505</v>
       </c>
       <c r="E157" s="3">
-        <v>282666</v>
+        <v>8968</v>
       </c>
       <c r="F157" s="3">
-        <v>4159</v>
+        <v>117</v>
       </c>
       <c r="G157" s="3">
-        <v>1024</v>
+        <v>15</v>
       </c>
       <c r="H157" s="3">
         <v>1</v>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <v>2992</v>
+        <v>43</v>
       </c>
       <c r="L157" t="s">
         <v>16</v>
@@ -7831,16 +7831,16 @@
         <v>507</v>
       </c>
       <c r="C158" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="D158" t="s">
         <v>508</v>
       </c>
       <c r="E158" s="3">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F158" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G158" s="3">
         <v>0</v>
@@ -7866,19 +7866,19 @@
         <v>510</v>
       </c>
       <c r="C159" t="s">
-        <v>26</v>
+        <v>393</v>
       </c>
       <c r="D159" t="s">
         <v>511</v>
       </c>
       <c r="E159" s="3">
-        <v>110227</v>
+        <v>345</v>
       </c>
       <c r="F159" s="3">
-        <v>1800</v>
+        <v>6</v>
       </c>
       <c r="G159" s="3">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="H159" s="3">
         <v>1</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="L159" t="s">
         <v>16</v>
@@ -7907,13 +7907,13 @@
         <v>514</v>
       </c>
       <c r="E160" s="3">
-        <v>401869</v>
+        <v>850122</v>
       </c>
       <c r="F160" s="3">
-        <v>4640</v>
+        <v>7412</v>
       </c>
       <c r="G160" s="3">
-        <v>151</v>
+        <v>349</v>
       </c>
       <c r="H160" s="3">
         <v>1</v>
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>178</v>
+        <v>326</v>
       </c>
       <c r="L160" t="s">
         <v>16</v>
@@ -7936,28 +7936,28 @@
         <v>516</v>
       </c>
       <c r="C161" t="s">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="D161" t="s">
         <v>517</v>
       </c>
       <c r="E161" s="3">
-        <v>20</v>
+        <v>125335</v>
       </c>
       <c r="F161" s="3">
-        <v>0</v>
+        <v>3458</v>
       </c>
       <c r="G161" s="3">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="H161" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>1955</v>
       </c>
       <c r="L161" t="s">
         <v>16</v>
@@ -7971,28 +7971,28 @@
         <v>519</v>
       </c>
       <c r="C162" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D162" t="s">
         <v>520</v>
       </c>
       <c r="E162" s="3">
-        <v>58</v>
+        <v>443934</v>
       </c>
       <c r="F162" s="3">
+        <v>3514</v>
+      </c>
+      <c r="G162" s="3">
+        <v>128</v>
+      </c>
+      <c r="H162" s="3">
         <v>1</v>
       </c>
-      <c r="G162" s="3">
-        <v>0</v>
-      </c>
-      <c r="H162" s="3">
-        <v>0</v>
-      </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L162" t="s">
         <v>16</v>
@@ -8006,28 +8006,28 @@
         <v>522</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>523</v>
       </c>
       <c r="D163" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E163" s="3">
-        <v>4759</v>
+        <v>310</v>
       </c>
       <c r="F163" s="3">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="G163" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L163" t="s">
         <v>16</v>
@@ -8035,34 +8035,34 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B164" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>415</v>
       </c>
       <c r="D164" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E164" s="3">
-        <v>2883</v>
+        <v>2</v>
       </c>
       <c r="F164" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G164" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H164" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L164" t="s">
         <v>16</v>
@@ -8070,25 +8070,25 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B165" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C165" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E165" s="3">
-        <v>411533</v>
+        <v>222595</v>
       </c>
       <c r="F165" s="3">
-        <v>4290</v>
+        <v>9022</v>
       </c>
       <c r="G165" s="3">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
@@ -8097,30 +8097,30 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L165" t="s">
-        <v>16</v>
+        <v>531</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B166" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C166" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="D166" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E166" s="3">
-        <v>8644</v>
+        <v>39</v>
       </c>
       <c r="F166" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" s="3">
         <v>0</v>
@@ -8140,57 +8140,57 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B167" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C167" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="D167" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E167" s="3">
-        <v>511312</v>
+        <v>58</v>
       </c>
       <c r="F167" s="3">
-        <v>15167</v>
+        <v>1</v>
       </c>
       <c r="G167" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H167" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167">
         <v>0</v>
       </c>
       <c r="K167">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B168" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C168" t="s">
-        <v>255</v>
+        <v>523</v>
       </c>
       <c r="D168" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E168" s="3">
-        <v>844</v>
+        <v>77</v>
       </c>
       <c r="F168" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G168" s="3">
         <v>0</v>
@@ -8210,34 +8210,34 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B169" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C169" t="s">
-        <v>542</v>
+        <v>185</v>
       </c>
       <c r="D169" t="s">
         <v>543</v>
       </c>
       <c r="E169" s="3">
-        <v>310</v>
+        <v>411533</v>
       </c>
       <c r="F169" s="3">
+        <v>4290</v>
+      </c>
+      <c r="G169" s="3">
+        <v>171</v>
+      </c>
+      <c r="H169" s="3">
         <v>1</v>
       </c>
-      <c r="G169" s="3">
-        <v>0</v>
-      </c>
-      <c r="H169" s="3">
-        <v>0</v>
-      </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="L169" t="s">
         <v>16</v>
@@ -8257,7 +8257,7 @@
         <v>546</v>
       </c>
       <c r="E170" s="3">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="F170" s="3">
         <v>0</v>
@@ -8266,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="H170" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -8286,19 +8286,19 @@
         <v>548</v>
       </c>
       <c r="C171" t="s">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="D171" t="s">
         <v>549</v>
       </c>
       <c r="E171" s="3">
-        <v>69498</v>
+        <v>125374</v>
       </c>
       <c r="F171" s="3">
-        <v>1189</v>
+        <v>2544</v>
       </c>
       <c r="G171" s="3">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="K171">
-        <v>220</v>
+        <v>1213</v>
       </c>
       <c r="L171" t="s">
         <v>16</v>
@@ -8321,16 +8321,16 @@
         <v>551</v>
       </c>
       <c r="C172" t="s">
-        <v>294</v>
+        <v>478</v>
       </c>
       <c r="D172" t="s">
         <v>552</v>
       </c>
       <c r="E172" s="3">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="F172" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G172" s="3">
         <v>0</v>
@@ -8356,19 +8356,19 @@
         <v>554</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="D173" t="s">
         <v>555</v>
       </c>
       <c r="E173" s="3">
-        <v>222595</v>
+        <v>617</v>
       </c>
       <c r="F173" s="3">
-        <v>9022</v>
+        <v>0</v>
       </c>
       <c r="G173" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H173" s="3">
         <v>1</v>
@@ -8377,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8391,19 +8391,19 @@
         <v>557</v>
       </c>
       <c r="C174" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="D174" t="s">
         <v>558</v>
       </c>
       <c r="E174" s="3">
-        <v>125335</v>
+        <v>275148</v>
       </c>
       <c r="F174" s="3">
-        <v>3458</v>
+        <v>2343</v>
       </c>
       <c r="G174" s="3">
-        <v>566</v>
+        <v>58</v>
       </c>
       <c r="H174" s="3">
         <v>1</v>
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>1955</v>
+        <v>99</v>
       </c>
       <c r="L174" t="s">
         <v>16</v>
@@ -8426,19 +8426,19 @@
         <v>560</v>
       </c>
       <c r="C175" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D175" t="s">
         <v>561</v>
       </c>
       <c r="E175" s="3">
-        <v>2053</v>
+        <v>18665</v>
       </c>
       <c r="F175" s="3">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G175" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H175" s="3">
         <v>1</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L175" t="s">
         <v>16</v>
@@ -8461,19 +8461,19 @@
         <v>563</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="D176" t="s">
         <v>564</v>
       </c>
       <c r="E176" s="3">
-        <v>8968</v>
+        <v>21005</v>
       </c>
       <c r="F176" s="3">
-        <v>117</v>
+        <v>478</v>
       </c>
       <c r="G176" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H176" s="3">
         <v>1</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="K176">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="L176" t="s">
         <v>16</v>
@@ -8496,16 +8496,16 @@
         <v>566</v>
       </c>
       <c r="C177" t="s">
-        <v>478</v>
+        <v>255</v>
       </c>
       <c r="D177" t="s">
         <v>567</v>
       </c>
       <c r="E177" s="3">
-        <v>95</v>
+        <v>8644</v>
       </c>
       <c r="F177" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" s="3">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>569</v>
       </c>
       <c r="C178" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="D178" t="s">
         <v>570</v>
       </c>
       <c r="E178" s="3">
-        <v>428</v>
+        <v>72</v>
       </c>
       <c r="F178" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G178" s="3">
         <v>0</v>
@@ -8601,19 +8601,19 @@
         <v>575</v>
       </c>
       <c r="C180" t="s">
-        <v>542</v>
+        <v>22</v>
       </c>
       <c r="D180" t="s">
         <v>576</v>
       </c>
       <c r="E180" s="3">
-        <v>77</v>
+        <v>4759</v>
       </c>
       <c r="F180" s="3">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="G180" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H180" s="3">
         <v>1</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L180" t="s">
         <v>16</v>
@@ -8636,19 +8636,19 @@
         <v>578</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="D181" t="s">
         <v>579</v>
       </c>
       <c r="E181" s="3">
-        <v>566966</v>
+        <v>266</v>
       </c>
       <c r="F181" s="3">
-        <v>18782</v>
+        <v>6</v>
       </c>
       <c r="G181" s="3">
-        <v>416</v>
+        <v>1</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
@@ -8657,10 +8657,10 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8671,16 +8671,16 @@
         <v>581</v>
       </c>
       <c r="C182" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="D182" t="s">
         <v>582</v>
       </c>
       <c r="E182" s="3">
-        <v>106</v>
+        <v>2053</v>
       </c>
       <c r="F182" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G182" s="3">
         <v>0</v>
@@ -8706,19 +8706,19 @@
         <v>584</v>
       </c>
       <c r="C183" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="D183" t="s">
         <v>585</v>
       </c>
       <c r="E183" s="3">
-        <v>39</v>
+        <v>69498</v>
       </c>
       <c r="F183" s="3">
-        <v>1</v>
+        <v>1189</v>
       </c>
       <c r="G183" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H183" s="3">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L183" t="s">
         <v>16</v>
@@ -8741,19 +8741,19 @@
         <v>587</v>
       </c>
       <c r="C184" t="s">
-        <v>406</v>
+        <v>30</v>
       </c>
       <c r="D184" t="s">
         <v>588</v>
       </c>
       <c r="E184" s="3">
-        <v>2</v>
+        <v>3716</v>
       </c>
       <c r="F184" s="3">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="G184" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H184" s="3">
         <v>0</v>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="K184">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="L184" t="s">
         <v>16</v>
@@ -8776,19 +8776,19 @@
         <v>590</v>
       </c>
       <c r="C185" t="s">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="D185" t="s">
         <v>591</v>
       </c>
       <c r="E185" s="3">
-        <v>23</v>
+        <v>110227</v>
       </c>
       <c r="F185" s="3">
-        <v>1</v>
+        <v>1800</v>
       </c>
       <c r="G185" s="3">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="L185" t="s">
         <v>16</v>
@@ -8811,19 +8811,19 @@
         <v>593</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D186" t="s">
         <v>594</v>
       </c>
       <c r="E186" s="3">
-        <v>472979</v>
+        <v>282666</v>
       </c>
       <c r="F186" s="3">
-        <v>20185</v>
+        <v>4159</v>
       </c>
       <c r="G186" s="3">
-        <v>515</v>
+        <v>1024</v>
       </c>
       <c r="H186" s="3">
         <v>1</v>
@@ -8832,10 +8832,10 @@
         <v>0</v>
       </c>
       <c r="K186">
-        <v>260</v>
+        <v>2992</v>
       </c>
       <c r="L186" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8846,19 +8846,19 @@
         <v>596</v>
       </c>
       <c r="C187" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="D187" t="s">
         <v>597</v>
       </c>
       <c r="E187" s="3">
-        <v>549058</v>
+        <v>95</v>
       </c>
       <c r="F187" s="3">
-        <v>4324</v>
+        <v>0</v>
       </c>
       <c r="G187" s="3">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="H187" s="3">
         <v>1</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="K187">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="L187" t="s">
         <v>16</v>
@@ -8881,13 +8881,13 @@
         <v>599</v>
       </c>
       <c r="C188" t="s">
-        <v>255</v>
+        <v>470</v>
       </c>
       <c r="D188" t="s">
         <v>600</v>
       </c>
       <c r="E188" s="3">
-        <v>617</v>
+        <v>6</v>
       </c>
       <c r="F188" s="3">
         <v>0</v>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="H188" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -8916,19 +8916,19 @@
         <v>602</v>
       </c>
       <c r="C189" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="D189" t="s">
         <v>603</v>
       </c>
       <c r="E189" s="3">
-        <v>24890</v>
+        <v>239</v>
       </c>
       <c r="F189" s="3">
-        <v>1321</v>
+        <v>2</v>
       </c>
       <c r="G189" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H189" s="3">
         <v>1</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L189" t="s">
         <v>16</v>
@@ -8951,19 +8951,19 @@
         <v>605</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D190" t="s">
         <v>606</v>
       </c>
       <c r="E190" s="3">
-        <v>25592</v>
+        <v>566966</v>
       </c>
       <c r="F190" s="3">
-        <v>221</v>
+        <v>18782</v>
       </c>
       <c r="G190" s="3">
-        <v>29</v>
+        <v>416</v>
       </c>
       <c r="H190" s="3">
         <v>1</v>
@@ -8972,10 +8972,10 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="L190" t="s">
-        <v>16</v>
+        <v>531</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8986,19 +8986,19 @@
         <v>608</v>
       </c>
       <c r="C191" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="D191" t="s">
         <v>609</v>
       </c>
       <c r="E191" s="3">
-        <v>266</v>
+        <v>24890</v>
       </c>
       <c r="F191" s="3">
-        <v>6</v>
+        <v>1321</v>
       </c>
       <c r="G191" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H191" s="3">
         <v>1</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L191" t="s">
         <v>16</v>
@@ -9021,19 +9021,19 @@
         <v>611</v>
       </c>
       <c r="C192" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="D192" t="s">
         <v>612</v>
       </c>
       <c r="E192" s="3">
-        <v>275148</v>
+        <v>4640</v>
       </c>
       <c r="F192" s="3">
-        <v>2343</v>
+        <v>0</v>
       </c>
       <c r="G192" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H192" s="3">
         <v>1</v>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L192" t="s">
         <v>16</v>
@@ -9056,19 +9056,19 @@
         <v>614</v>
       </c>
       <c r="C193" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="D193" t="s">
         <v>615</v>
       </c>
       <c r="E193" s="3">
-        <v>850122</v>
+        <v>472979</v>
       </c>
       <c r="F193" s="3">
-        <v>7412</v>
+        <v>20185</v>
       </c>
       <c r="G193" s="3">
-        <v>349</v>
+        <v>515</v>
       </c>
       <c r="H193" s="3">
         <v>1</v>
@@ -9077,10 +9077,10 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="L193" t="s">
-        <v>16</v>
+        <v>531</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9097,13 +9097,13 @@
         <v>618</v>
       </c>
       <c r="E194" s="3">
-        <v>443934</v>
+        <v>401869</v>
       </c>
       <c r="F194" s="3">
-        <v>3514</v>
+        <v>4640</v>
       </c>
       <c r="G194" s="3">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="H194" s="3">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="K194">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="L194" t="s">
         <v>16</v>
@@ -9126,19 +9126,19 @@
         <v>620</v>
       </c>
       <c r="C195" t="s">
-        <v>390</v>
+        <v>22</v>
       </c>
       <c r="D195" t="s">
         <v>621</v>
       </c>
       <c r="E195" s="3">
-        <v>345</v>
+        <v>2883</v>
       </c>
       <c r="F195" s="3">
+        <v>42</v>
+      </c>
+      <c r="G195" s="3">
         <v>6</v>
-      </c>
-      <c r="G195" s="3">
-        <v>2</v>
       </c>
       <c r="H195" s="3">
         <v>1</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L195" t="s">
         <v>16</v>
@@ -9161,16 +9161,16 @@
         <v>623</v>
       </c>
       <c r="C196" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="D196" t="s">
         <v>624</v>
       </c>
       <c r="E196" s="3">
-        <v>4640</v>
+        <v>23</v>
       </c>
       <c r="F196" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" s="3">
         <v>0</v>
@@ -9196,13 +9196,13 @@
         <v>626</v>
       </c>
       <c r="C197" t="s">
-        <v>470</v>
+        <v>255</v>
       </c>
       <c r="D197" t="s">
         <v>627</v>
       </c>
       <c r="E197" s="3">
-        <v>6</v>
+        <v>844</v>
       </c>
       <c r="F197" s="3">
         <v>0</v>
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H197" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -9231,19 +9231,19 @@
         <v>629</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="D198" t="s">
         <v>630</v>
       </c>
       <c r="E198" s="3">
-        <v>4183126</v>
+        <v>549058</v>
       </c>
       <c r="F198" s="3">
-        <v>49430</v>
+        <v>4324</v>
       </c>
       <c r="G198" s="3">
-        <v>5701</v>
+        <v>204</v>
       </c>
       <c r="H198" s="3">
         <v>1</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <v>1196</v>
+        <v>229</v>
       </c>
       <c r="L198" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9266,19 +9266,19 @@
         <v>632</v>
       </c>
       <c r="C199" t="s">
-        <v>498</v>
+        <v>22</v>
       </c>
       <c r="D199" t="s">
         <v>633</v>
       </c>
       <c r="E199" s="3">
-        <v>88</v>
+        <v>25592</v>
       </c>
       <c r="F199" s="3">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="G199" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H199" s="3">
         <v>1</v>
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L199" t="s">
         <v>16</v>
@@ -9301,19 +9301,19 @@
         <v>635</v>
       </c>
       <c r="C200" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="D200" t="s">
         <v>636</v>
       </c>
       <c r="E200" s="3">
-        <v>18665</v>
+        <v>511312</v>
       </c>
       <c r="F200" s="3">
-        <v>659</v>
+        <v>15167</v>
       </c>
       <c r="G200" s="3">
-        <v>14</v>
+        <v>402</v>
       </c>
       <c r="H200" s="3">
         <v>1</v>
@@ -9322,10 +9322,10 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="L200" t="s">
-        <v>16</v>
+        <v>531</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9336,19 +9336,19 @@
         <v>638</v>
       </c>
       <c r="C201" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="D201" t="s">
         <v>639</v>
       </c>
       <c r="E201" s="3">
-        <v>218426</v>
+        <v>87</v>
       </c>
       <c r="F201" s="3">
-        <v>2691</v>
+        <v>0</v>
       </c>
       <c r="G201" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H201" s="3">
         <v>1</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L201" t="s">
         <v>16</v>
@@ -9371,19 +9371,19 @@
         <v>641</v>
       </c>
       <c r="C202" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="D202" t="s">
         <v>642</v>
       </c>
       <c r="E202" s="3">
-        <v>21005</v>
+        <v>4183126</v>
       </c>
       <c r="F202" s="3">
-        <v>478</v>
+        <v>49430</v>
       </c>
       <c r="G202" s="3">
-        <v>25</v>
+        <v>5701</v>
       </c>
       <c r="H202" s="3">
         <v>1</v>
@@ -9392,10 +9392,10 @@
         <v>0</v>
       </c>
       <c r="K202">
-        <v>61</v>
+        <v>1196</v>
       </c>
       <c r="L202" t="s">
-        <v>16</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9406,19 +9406,19 @@
         <v>644</v>
       </c>
       <c r="C203" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
         <v>645</v>
       </c>
       <c r="E203" s="3">
-        <v>87</v>
+        <v>3080</v>
       </c>
       <c r="F203" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G203" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H203" s="3">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="K203">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L203" t="s">
         <v>16</v>
@@ -9441,19 +9441,19 @@
         <v>647</v>
       </c>
       <c r="C204" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="D204" t="s">
         <v>648</v>
       </c>
       <c r="E204" s="3">
-        <v>125374</v>
+        <v>106</v>
       </c>
       <c r="F204" s="3">
-        <v>2544</v>
+        <v>4</v>
       </c>
       <c r="G204" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H204" s="3">
         <v>1</v>
@@ -9462,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="K204">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="L204" t="s">
         <v>16</v>
@@ -9476,19 +9476,19 @@
         <v>650</v>
       </c>
       <c r="C205" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="D205" t="s">
         <v>651</v>
       </c>
       <c r="E205" s="3">
-        <v>3080</v>
+        <v>428</v>
       </c>
       <c r="F205" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G205" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H205" s="3">
         <v>1</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="K205">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L205" t="s">
         <v>16</v>
@@ -9511,28 +9511,28 @@
         <v>653</v>
       </c>
       <c r="C206" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="D206" t="s">
         <v>654</v>
       </c>
       <c r="E206" s="3">
-        <v>3716</v>
+        <v>218426</v>
       </c>
       <c r="F206" s="3">
-        <v>426</v>
+        <v>2691</v>
       </c>
       <c r="G206" s="3">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H206" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206">
         <v>0</v>
       </c>
       <c r="K206">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="L206" t="s">
         <v>16</v>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B22">
         <v>18</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B23">
         <v>15</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="B30">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -1181,6 +1181,27 @@
     <t>2019-12-03T17:14:10.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
+  </si>
+  <si>
+    <t>Sophie Cluzel, secrétaire d'État chargée des Personnes handicapées.</t>
+  </si>
+  <si>
+    <t>Secrétariat d'Etat chargé de l'égalité</t>
+  </si>
+  <si>
+    <t>2018-12-12T15:20:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kTcO7NBn80U</t>
+  </si>
+  <si>
+    <t>Les Innovateurs #9 : SYSTOVI</t>
+  </si>
+  <si>
+    <t>2019-12-20T14:05:57.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
   </si>
   <si>
@@ -1190,25 +1211,13 @@
     <t>2019-12-06T17:22:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
-  </si>
-  <si>
-    <t>Sophie Cluzel, secrétaire d'État chargée des Personnes handicapées.</t>
-  </si>
-  <si>
-    <t>Secrétariat d'Etat chargé de l'égalité</t>
-  </si>
-  <si>
-    <t>2018-12-12T15:20:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kTcO7NBn80U</t>
-  </si>
-  <si>
-    <t>Les Innovateurs #9 : SYSTOVI</t>
-  </si>
-  <si>
-    <t>2019-12-20T14:05:57.000Z</t>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
@@ -1220,13 +1229,34 @@
     <t>2019-12-18T17:08:49.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
+    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
+  </si>
+  <si>
+    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
+  </si>
+  <si>
+    <t>2019-12-04T16:10:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_TEHesD6ckg</t>
+  </si>
+  <si>
+    <t>Plan d'Investissement dans les Compétences - Question à Muriel Pénicaud, Ministre du Travail</t>
+  </si>
+  <si>
+    <t>Laurent Pietraszewski Député du Nord</t>
+  </si>
+  <si>
+    <t>2019-12-03T10:17:14.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wyUBcMp9jQY</t>
+  </si>
+  <si>
+    <t>Inspection par drone du Viaduc de Saint-Nicolas-de-Redon</t>
+  </si>
+  <si>
+    <t>2019-11-25T08:54:50.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Fo83Em0AtcU</t>
@@ -1238,36 +1268,6 @@
     <t>2019-12-03T20:42:26.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wyUBcMp9jQY</t>
-  </si>
-  <si>
-    <t>Inspection par drone du Viaduc de Saint-Nicolas-de-Redon</t>
-  </si>
-  <si>
-    <t>2019-11-25T08:54:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
-  </si>
-  <si>
-    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
-  </si>
-  <si>
-    <t>2019-12-04T16:10:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_TEHesD6ckg</t>
-  </si>
-  <si>
-    <t>Plan d'Investissement dans les Compétences - Question à Muriel Pénicaud, Ministre du Travail</t>
-  </si>
-  <si>
-    <t>Laurent Pietraszewski Député du Nord</t>
-  </si>
-  <si>
-    <t>2019-12-03T10:17:14.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=4NAXkPQ9uzg</t>
   </si>
   <si>
@@ -1286,12 +1286,39 @@
     <t>2019-12-12T17:17:05.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=HW-8nUSbnN8</t>
+  </si>
+  <si>
+    <t>On parle d'Europe avec Chrysoula Zacharopoulou</t>
+  </si>
+  <si>
+    <t>2019-12-09T14:22:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
+  </si>
+  <si>
+    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
+  </si>
+  <si>
+    <t>2018-10-17T23:18:03.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=J87kE8T12p8</t>
   </si>
   <si>
     <t>2019-12-19T13:22:37.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=iB1TmfgBYAY</t>
+  </si>
+  <si>
+    <t>Ukraine - Russie: une rencontre décisive à l'Elysée</t>
+  </si>
+  <si>
+    <t>2019-12-08T17:22:06.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
   </si>
   <si>
@@ -1313,33 +1340,6 @@
     <t>2018-02-12T11:51:48.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=iB1TmfgBYAY</t>
-  </si>
-  <si>
-    <t>Ukraine - Russie: une rencontre décisive à l'Elysée</t>
-  </si>
-  <si>
-    <t>2019-12-08T17:22:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HW-8nUSbnN8</t>
-  </si>
-  <si>
-    <t>On parle d'Europe avec Chrysoula Zacharopoulou</t>
-  </si>
-  <si>
-    <t>2019-12-09T14:22:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
-  </si>
-  <si>
-    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
-  </si>
-  <si>
-    <t>2018-10-17T23:18:03.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=6odkm5-bI0s</t>
   </si>
   <si>
@@ -1376,6 +1376,24 @@
     <t>2019-12-02T16:30:58.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
+  </si>
+  <si>
+    <t>Un prêtre, un psy... tous GJ</t>
+  </si>
+  <si>
+    <t>2019-04-19T19:34:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MhZJ08xOVeY</t>
+  </si>
+  <si>
+    <t>Damien Poisson: un électricien économe</t>
+  </si>
+  <si>
+    <t>2019-12-02T09:16:56.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=EsC1Bafw9ME</t>
   </si>
   <si>
@@ -1385,13 +1403,13 @@
     <t>2019-12-02T10:13:27.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MhZJ08xOVeY</t>
-  </si>
-  <si>
-    <t>Damien Poisson: un électricien économe</t>
-  </si>
-  <si>
-    <t>2019-12-02T09:16:56.000Z</t>
+    <t>https://www.youtube.com/watch?v=HILM6Rhxh_g</t>
+  </si>
+  <si>
+    <t>A l'Assemblée nationale de Corée</t>
+  </si>
+  <si>
+    <t>2019-12-04T10:25:40.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
@@ -1403,24 +1421,6 @@
     <t>2019-12-16T17:24:22.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=HILM6Rhxh_g</t>
-  </si>
-  <si>
-    <t>A l'Assemblée nationale de Corée</t>
-  </si>
-  <si>
-    <t>2019-12-04T10:25:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
-  </si>
-  <si>
-    <t>Un prêtre, un psy... tous GJ</t>
-  </si>
-  <si>
-    <t>2019-04-19T19:34:20.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
   </si>
   <si>
@@ -1433,6 +1433,18 @@
     <t>2019-12-12T13:19:08.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
+  </si>
+  <si>
+    <t>Protection maladie des personnes étrangères</t>
+  </si>
+  <si>
+    <t>Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2019-11-12T14:26:22.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
   </si>
   <si>
@@ -1445,18 +1457,6 @@
     <t>2019-04-23T22:53:10.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
-  </si>
-  <si>
-    <t>Protection maladie des personnes étrangères</t>
-  </si>
-  <si>
-    <t>Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2019-11-12T14:26:22.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=SKlQCV2N0F8</t>
   </si>
   <si>
@@ -1475,6 +1475,15 @@
     <t>2019-12-14T16:31:31.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=YXq4ejuvG0g</t>
+  </si>
+  <si>
+    <t>Questions à Jean-Yves Le Drian</t>
+  </si>
+  <si>
+    <t>2019-11-28T12:24:37.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
   </si>
   <si>
@@ -1487,15 +1496,6 @@
     <t>2019-01-28T18:58:55.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YXq4ejuvG0g</t>
-  </si>
-  <si>
-    <t>Questions à Jean-Yves Le Drian</t>
-  </si>
-  <si>
-    <t>2019-11-28T12:24:37.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
@@ -1517,6 +1517,390 @@
     <t>2017-05-12T12:03:56.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
+  </si>
+  <si>
+    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2013-11-08T18:25:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
+  </si>
+  <si>
+    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
+  </si>
+  <si>
+    <t>2013-08-20T18:23:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
+  </si>
+  <si>
+    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
+  </si>
+  <si>
+    <t>2018-09-17T13:20:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
+  </si>
+  <si>
+    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
+  </si>
+  <si>
+    <t>2019-11-19T12:31:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JztTImZkzlA</t>
+  </si>
+  <si>
+    <t>Question à Bertrand Badie</t>
+  </si>
+  <si>
+    <t>2019-10-09T13:17:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
+  </si>
+  <si>
+    <t>Philosophons sur l'égo</t>
+  </si>
+  <si>
+    <t>2019-11-28T19:28:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WcBP2NKdvso</t>
+  </si>
+  <si>
+    <t>Pourquoi Palmyre est un joyau antique</t>
+  </si>
+  <si>
+    <t>Le Monde TV</t>
+  </si>
+  <si>
+    <t>2015-05-22T13:49:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
+  </si>
+  <si>
+    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
+  </si>
+  <si>
+    <t>2018-09-07T09:19:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1DH7PGLEm8Q</t>
+  </si>
+  <si>
+    <t>l'échange d'Emmanuel Macron avec les étudiants de l'Université de Picardie</t>
+  </si>
+  <si>
+    <t>2019-11-22T09:19:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
+  </si>
+  <si>
+    <t>François le Français... euh non, l’ami des oligarques...</t>
+  </si>
+  <si>
+    <t>2019-04-28T13:50:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
+  </si>
+  <si>
+    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-02-28T18:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=htZiGZhk0l0</t>
+  </si>
+  <si>
+    <t>Réforme du collège : un passage en force</t>
+  </si>
+  <si>
+    <t>2015-05-21T16:54:14.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
+  </si>
+  <si>
+    <t>ZER - T'es La Bonne (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-05-15T16:28:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
+  </si>
+  <si>
+    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
+  </si>
+  <si>
+    <t>2019-03-27T22:40:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
+  </si>
+  <si>
+    <t>Pot pourri médiatique</t>
+  </si>
+  <si>
+    <t>2019-03-21T23:00:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
+  </si>
+  <si>
+    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-08-01T17:58:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WryNw50lYNU</t>
+  </si>
+  <si>
+    <t>Mieux comprendre ma journée de députée</t>
+  </si>
+  <si>
+    <t>2019-11-19T15:43:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
+  </si>
+  <si>
+    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-03-06T18:02:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
+  </si>
+  <si>
+    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2016-01-24T17:05:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
+  </si>
+  <si>
+    <t>ZER - Face A Moi Même</t>
+  </si>
+  <si>
+    <t>2016-10-30T19:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
+  </si>
+  <si>
+    <t>29 10 BFMTV 2019</t>
+  </si>
+  <si>
+    <t>2019-11-15T10:08:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
+  </si>
+  <si>
+    <t>Installation Photovoltaïque à Guérande</t>
+  </si>
+  <si>
+    <t>2019-11-22T14:45:23.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
+  </si>
+  <si>
+    <t>Un ex associé de Francis Lalanne</t>
+  </si>
+  <si>
+    <t>2019-05-23T10:05:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
   </si>
   <si>
@@ -1526,22 +1910,40 @@
     <t>2018-11-14T10:21:51.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
@@ -1553,253 +1955,22 @@
     <t>2018-11-22T17:23:27.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
-  </si>
-  <si>
-    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-08-01T17:58:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
-  </si>
-  <si>
-    <t>François le Français... euh non, l’ami des oligarques...</t>
-  </si>
-  <si>
-    <t>2019-04-28T13:50:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
-  </si>
-  <si>
-    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2013-11-08T18:25:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WcBP2NKdvso</t>
-  </si>
-  <si>
-    <t>Pourquoi Palmyre est un joyau antique</t>
-  </si>
-  <si>
-    <t>Le Monde TV</t>
-  </si>
-  <si>
-    <t>2015-05-22T13:49:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
-  </si>
-  <si>
-    <t>29 10 BFMTV 2019</t>
-  </si>
-  <si>
-    <t>2019-11-15T10:08:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
-  </si>
-  <si>
-    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
-  </si>
-  <si>
-    <t>2018-09-07T09:19:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1DH7PGLEm8Q</t>
-  </si>
-  <si>
-    <t>l'échange d'Emmanuel Macron avec les étudiants de l'Université de Picardie</t>
-  </si>
-  <si>
-    <t>2019-11-22T09:19:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=htZiGZhk0l0</t>
-  </si>
-  <si>
-    <t>Réforme du collège : un passage en force</t>
-  </si>
-  <si>
-    <t>2015-05-21T16:54:14.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
-  </si>
-  <si>
-    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-03-06T18:02:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
-  </si>
-  <si>
-    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
-  </si>
-  <si>
-    <t>2019-11-19T12:31:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
-  </si>
-  <si>
-    <t>Un ex associé de Francis Lalanne</t>
-  </si>
-  <si>
-    <t>2019-05-23T10:05:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
-  </si>
-  <si>
-    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
-  </si>
-  <si>
-    <t>2018-09-17T13:20:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
-  </si>
-  <si>
-    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
-  </si>
-  <si>
-    <t>2013-08-20T18:23:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
-  </si>
-  <si>
-    <t>ZER - Face A Moi Même</t>
-  </si>
-  <si>
-    <t>2016-10-30T19:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
-  </si>
-  <si>
-    <t>Installation Photovoltaïque à Guérande</t>
-  </si>
-  <si>
-    <t>2019-11-22T14:45:23.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WryNw50lYNU</t>
-  </si>
-  <si>
-    <t>Mieux comprendre ma journée de députée</t>
-  </si>
-  <si>
-    <t>2019-11-19T15:43:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
-  </si>
-  <si>
-    <t>Philosophons sur l'égo</t>
-  </si>
-  <si>
-    <t>2019-11-28T19:28:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
-  </si>
-  <si>
-    <t>Pot pourri médiatique</t>
-  </si>
-  <si>
-    <t>2019-03-21T23:00:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
-  </si>
-  <si>
-    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
-  </si>
-  <si>
-    <t>2019-03-27T22:40:53.000Z</t>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
@@ -1809,177 +1980,6 @@
   </si>
   <si>
     <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
-  </si>
-  <si>
-    <t>ZER - T'es La Bonne (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-05-15T16:28:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
-  </si>
-  <si>
-    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-02-28T18:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JztTImZkzlA</t>
-  </si>
-  <si>
-    <t>Question à Bertrand Badie</t>
-  </si>
-  <si>
-    <t>2019-10-09T13:17:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
-  </si>
-  <si>
-    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2016-01-24T17:05:54.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -6536,28 +6536,28 @@
         <v>389</v>
       </c>
       <c r="C121" t="s">
-        <v>85</v>
+        <v>390</v>
       </c>
       <c r="D121" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E121" s="3">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
       </c>
       <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
         <v>1</v>
-      </c>
-      <c r="H121" s="3">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -6565,19 +6565,19 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B122" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C122" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="D122" t="s">
         <v>394</v>
       </c>
       <c r="E122" s="3">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
@@ -6606,7 +6606,7 @@
         <v>396</v>
       </c>
       <c r="C123" t="s">
-        <v>374</v>
+        <v>85</v>
       </c>
       <c r="D123" t="s">
         <v>397</v>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
@@ -6711,7 +6711,7 @@
         <v>405</v>
       </c>
       <c r="C126" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="D126" t="s">
         <v>406</v>
@@ -6720,7 +6720,7 @@
         <v>15</v>
       </c>
       <c r="F126" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="3">
         <v>0</v>
@@ -6746,19 +6746,19 @@
         <v>408</v>
       </c>
       <c r="C127" t="s">
-        <v>205</v>
+        <v>409</v>
       </c>
       <c r="D127" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E127" s="3">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F127" s="3">
+        <v>0</v>
+      </c>
+      <c r="G127" s="3">
         <v>1</v>
-      </c>
-      <c r="G127" s="3">
-        <v>0</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
@@ -6775,19 +6775,19 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B128" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C128" t="s">
-        <v>294</v>
+        <v>205</v>
       </c>
       <c r="D128" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E128" s="3">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -6810,13 +6810,13 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B129" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C129" t="s">
-        <v>415</v>
+        <v>195</v>
       </c>
       <c r="D129" t="s">
         <v>416</v>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
@@ -6918,13 +6918,13 @@
         <v>423</v>
       </c>
       <c r="B132" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="C132" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="D132" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E132" s="3">
         <v>10</v>
@@ -6950,34 +6950,34 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B133" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C133" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E133" s="3">
-        <v>732</v>
+        <v>60406</v>
       </c>
       <c r="F133" s="3">
-        <v>29</v>
+        <v>1073</v>
       </c>
       <c r="G133" s="3">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K133">
-        <v>15</v>
+        <v>607</v>
       </c>
       <c r="L133" t="s">
         <v>16</v>
@@ -6985,25 +6985,25 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B134" t="s">
-        <v>429</v>
+        <v>303</v>
       </c>
       <c r="C134" t="s">
+        <v>205</v>
+      </c>
+      <c r="D134" t="s">
         <v>430</v>
       </c>
-      <c r="D134" t="s">
-        <v>431</v>
-      </c>
       <c r="E134" s="3">
-        <v>656</v>
+        <v>10</v>
       </c>
       <c r="F134" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G134" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L134" t="s">
         <v>16</v>
@@ -7020,16 +7020,16 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B135" t="s">
         <v>432</v>
-      </c>
-      <c r="B135" t="s">
-        <v>433</v>
       </c>
       <c r="C135" t="s">
         <v>313</v>
       </c>
       <c r="D135" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E135" s="3">
         <v>10</v>
@@ -7055,25 +7055,25 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B136" t="s">
         <v>435</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
+        <v>172</v>
+      </c>
+      <c r="D136" t="s">
         <v>436</v>
       </c>
-      <c r="C136" t="s">
-        <v>313</v>
-      </c>
-      <c r="D136" t="s">
-        <v>437</v>
-      </c>
       <c r="E136" s="3">
-        <v>10</v>
+        <v>732</v>
       </c>
       <c r="F136" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G136" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
@@ -7090,34 +7090,34 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B137" t="s">
         <v>438</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>439</v>
-      </c>
-      <c r="C137" t="s">
-        <v>26</v>
       </c>
       <c r="D137" t="s">
         <v>440</v>
       </c>
       <c r="E137" s="3">
-        <v>60406</v>
+        <v>656</v>
       </c>
       <c r="F137" s="3">
-        <v>1073</v>
+        <v>30</v>
       </c>
       <c r="G137" s="3">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="H137" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K137">
-        <v>607</v>
+        <v>7</v>
       </c>
       <c r="L137" t="s">
         <v>16</v>
@@ -7271,28 +7271,28 @@
         <v>454</v>
       </c>
       <c r="C142" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="D142" t="s">
         <v>455</v>
       </c>
       <c r="E142" s="3">
-        <v>6</v>
+        <v>47483</v>
       </c>
       <c r="F142" s="3">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="G142" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H142" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="L142" t="s">
         <v>16</v>
@@ -7341,7 +7341,7 @@
         <v>460</v>
       </c>
       <c r="C144" t="s">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="D144" t="s">
         <v>461</v>
@@ -7411,28 +7411,28 @@
         <v>466</v>
       </c>
       <c r="C146" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D146" t="s">
         <v>467</v>
       </c>
       <c r="E146" s="3">
-        <v>47483</v>
+        <v>6</v>
       </c>
       <c r="F146" s="3">
-        <v>1169</v>
+        <v>0</v>
       </c>
       <c r="G146" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H146" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K146">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="L146" t="s">
         <v>16</v>
@@ -7487,13 +7487,13 @@
         <v>475</v>
       </c>
       <c r="E148" s="3">
-        <v>1921</v>
+        <v>14</v>
       </c>
       <c r="F148" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G148" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L148" t="s">
         <v>16</v>
@@ -7522,13 +7522,13 @@
         <v>479</v>
       </c>
       <c r="E149" s="3">
-        <v>14</v>
+        <v>1921</v>
       </c>
       <c r="F149" s="3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G149" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L149" t="s">
         <v>16</v>
@@ -7621,16 +7621,16 @@
         <v>487</v>
       </c>
       <c r="C152" t="s">
+        <v>313</v>
+      </c>
+      <c r="D152" t="s">
         <v>488</v>
       </c>
-      <c r="D152" t="s">
-        <v>489</v>
-      </c>
       <c r="E152" s="3">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F152" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G152" s="3">
         <v>0</v>
@@ -7650,22 +7650,22 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B153" t="s">
         <v>490</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>491</v>
-      </c>
-      <c r="C153" t="s">
-        <v>313</v>
       </c>
       <c r="D153" t="s">
         <v>492</v>
       </c>
       <c r="E153" s="3">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="F153" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G153" s="3">
         <v>0</v>
@@ -7761,19 +7761,19 @@
         <v>501</v>
       </c>
       <c r="C156" t="s">
-        <v>478</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
         <v>502</v>
       </c>
       <c r="E156" s="3">
-        <v>60</v>
+        <v>511312</v>
       </c>
       <c r="F156" s="3">
-        <v>1</v>
+        <v>15167</v>
       </c>
       <c r="G156" s="3">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="H156" s="3">
         <v>1</v>
@@ -7782,33 +7782,33 @@
         <v>0</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L156" t="s">
-        <v>16</v>
+        <v>503</v>
       </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B157" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C157" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="D157" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E157" s="3">
-        <v>8968</v>
+        <v>428</v>
       </c>
       <c r="F157" s="3">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G157" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H157" s="3">
         <v>1</v>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L157" t="s">
         <v>16</v>
@@ -7825,25 +7825,25 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B158" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C158" t="s">
-        <v>498</v>
+        <v>185</v>
       </c>
       <c r="D158" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E158" s="3">
-        <v>88</v>
+        <v>443934</v>
       </c>
       <c r="F158" s="3">
-        <v>3</v>
+        <v>3514</v>
       </c>
       <c r="G158" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H158" s="3">
         <v>1</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="K158">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L158" t="s">
         <v>16</v>
@@ -7860,25 +7860,25 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B159" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C159" t="s">
-        <v>393</v>
+        <v>185</v>
       </c>
       <c r="D159" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E159" s="3">
-        <v>345</v>
+        <v>275148</v>
       </c>
       <c r="F159" s="3">
-        <v>6</v>
+        <v>2343</v>
       </c>
       <c r="G159" s="3">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="H159" s="3">
         <v>1</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L159" t="s">
         <v>16</v>
@@ -7895,25 +7895,25 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B160" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C160" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E160" s="3">
-        <v>850122</v>
+        <v>566966</v>
       </c>
       <c r="F160" s="3">
-        <v>7412</v>
+        <v>18782</v>
       </c>
       <c r="G160" s="3">
-        <v>349</v>
+        <v>416</v>
       </c>
       <c r="H160" s="3">
         <v>1</v>
@@ -7922,33 +7922,33 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="L160" t="s">
-        <v>16</v>
+        <v>503</v>
       </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B161" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C161" t="s">
-        <v>26</v>
+        <v>474</v>
       </c>
       <c r="D161" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E161" s="3">
-        <v>125335</v>
+        <v>95</v>
       </c>
       <c r="F161" s="3">
-        <v>3458</v>
+        <v>1</v>
       </c>
       <c r="G161" s="3">
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="H161" s="3">
         <v>1</v>
@@ -7957,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="K161">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="L161" t="s">
         <v>16</v>
@@ -7965,25 +7965,25 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B162" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C162" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="D162" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E162" s="3">
-        <v>443934</v>
+        <v>3080</v>
       </c>
       <c r="F162" s="3">
-        <v>3514</v>
+        <v>58</v>
       </c>
       <c r="G162" s="3">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="H162" s="3">
         <v>1</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="K162">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="L162" t="s">
         <v>16</v>
@@ -8000,22 +8000,22 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B163" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C163" t="s">
-        <v>523</v>
+        <v>294</v>
       </c>
       <c r="D163" t="s">
         <v>524</v>
       </c>
       <c r="E163" s="3">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="F163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" s="3">
         <v>0</v>
@@ -8041,28 +8041,28 @@
         <v>526</v>
       </c>
       <c r="C164" t="s">
-        <v>415</v>
+        <v>259</v>
       </c>
       <c r="D164" t="s">
         <v>527</v>
       </c>
       <c r="E164" s="3">
-        <v>2</v>
+        <v>18665</v>
       </c>
       <c r="F164" s="3">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G164" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H164" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L164" t="s">
         <v>16</v>
@@ -8076,19 +8076,19 @@
         <v>529</v>
       </c>
       <c r="C165" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="D165" t="s">
         <v>530</v>
       </c>
       <c r="E165" s="3">
-        <v>222595</v>
+        <v>844</v>
       </c>
       <c r="F165" s="3">
-        <v>9022</v>
+        <v>0</v>
       </c>
       <c r="G165" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
@@ -8097,30 +8097,30 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>531</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B166" t="s">
         <v>532</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
+        <v>255</v>
+      </c>
+      <c r="D166" t="s">
         <v>533</v>
       </c>
-      <c r="C166" t="s">
-        <v>85</v>
-      </c>
-      <c r="D166" t="s">
-        <v>534</v>
-      </c>
       <c r="E166" s="3">
-        <v>39</v>
+        <v>2053</v>
       </c>
       <c r="F166" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" s="3">
         <v>0</v>
@@ -8140,34 +8140,34 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B167" t="s">
         <v>535</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" t="s">
         <v>536</v>
       </c>
-      <c r="C167" t="s">
-        <v>195</v>
-      </c>
-      <c r="D167" t="s">
-        <v>537</v>
-      </c>
       <c r="E167" s="3">
-        <v>58</v>
+        <v>2883</v>
       </c>
       <c r="F167" s="3">
+        <v>42</v>
+      </c>
+      <c r="G167" s="3">
+        <v>6</v>
+      </c>
+      <c r="H167" s="3">
         <v>1</v>
       </c>
-      <c r="G167" s="3">
-        <v>0</v>
-      </c>
-      <c r="H167" s="3">
-        <v>0</v>
-      </c>
       <c r="J167">
         <v>0</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L167" t="s">
         <v>16</v>
@@ -8175,22 +8175,22 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B168" t="s">
         <v>538</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
+        <v>313</v>
+      </c>
+      <c r="D168" t="s">
         <v>539</v>
       </c>
-      <c r="C168" t="s">
-        <v>523</v>
-      </c>
-      <c r="D168" t="s">
-        <v>540</v>
-      </c>
       <c r="E168" s="3">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F168" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G168" s="3">
         <v>0</v>
@@ -8210,34 +8210,34 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B169" t="s">
         <v>541</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" t="s">
         <v>542</v>
       </c>
-      <c r="C169" t="s">
-        <v>185</v>
-      </c>
-      <c r="D169" t="s">
-        <v>543</v>
-      </c>
       <c r="E169" s="3">
-        <v>411533</v>
+        <v>3716</v>
       </c>
       <c r="F169" s="3">
-        <v>4290</v>
+        <v>426</v>
       </c>
       <c r="G169" s="3">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="L169" t="s">
         <v>16</v>
@@ -8245,22 +8245,22 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B170" t="s">
         <v>544</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>545</v>
-      </c>
-      <c r="C170" t="s">
-        <v>294</v>
       </c>
       <c r="D170" t="s">
         <v>546</v>
       </c>
       <c r="E170" s="3">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="F170" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" s="3">
         <v>0</v>
@@ -8286,28 +8286,28 @@
         <v>548</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>470</v>
       </c>
       <c r="D171" t="s">
         <v>549</v>
       </c>
       <c r="E171" s="3">
-        <v>125374</v>
+        <v>6</v>
       </c>
       <c r="F171" s="3">
-        <v>2544</v>
+        <v>0</v>
       </c>
       <c r="G171" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H171" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171">
         <v>0</v>
       </c>
       <c r="K171">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="L171" t="s">
         <v>16</v>
@@ -8321,19 +8321,19 @@
         <v>551</v>
       </c>
       <c r="C172" t="s">
-        <v>478</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
         <v>552</v>
       </c>
       <c r="E172" s="3">
-        <v>95</v>
+        <v>4759</v>
       </c>
       <c r="F172" s="3">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="G172" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L172" t="s">
         <v>16</v>
@@ -8356,16 +8356,16 @@
         <v>554</v>
       </c>
       <c r="C173" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="D173" t="s">
         <v>555</v>
       </c>
       <c r="E173" s="3">
-        <v>617</v>
+        <v>39</v>
       </c>
       <c r="F173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" s="3">
         <v>0</v>
@@ -8391,28 +8391,28 @@
         <v>557</v>
       </c>
       <c r="C174" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D174" t="s">
         <v>558</v>
       </c>
       <c r="E174" s="3">
-        <v>275148</v>
+        <v>58</v>
       </c>
       <c r="F174" s="3">
-        <v>2343</v>
+        <v>1</v>
       </c>
       <c r="G174" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H174" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L174" t="s">
         <v>16</v>
@@ -8426,19 +8426,19 @@
         <v>560</v>
       </c>
       <c r="C175" t="s">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="D175" t="s">
         <v>561</v>
       </c>
       <c r="E175" s="3">
-        <v>18665</v>
+        <v>125335</v>
       </c>
       <c r="F175" s="3">
-        <v>659</v>
+        <v>3458</v>
       </c>
       <c r="G175" s="3">
-        <v>14</v>
+        <v>566</v>
       </c>
       <c r="H175" s="3">
         <v>1</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <v>109</v>
+        <v>1955</v>
       </c>
       <c r="L175" t="s">
         <v>16</v>
@@ -8467,13 +8467,13 @@
         <v>564</v>
       </c>
       <c r="E176" s="3">
-        <v>21005</v>
+        <v>549058</v>
       </c>
       <c r="F176" s="3">
-        <v>478</v>
+        <v>4324</v>
       </c>
       <c r="G176" s="3">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="H176" s="3">
         <v>1</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="K176">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="L176" t="s">
         <v>16</v>
@@ -8496,16 +8496,16 @@
         <v>566</v>
       </c>
       <c r="C177" t="s">
-        <v>255</v>
+        <v>498</v>
       </c>
       <c r="D177" t="s">
         <v>567</v>
       </c>
       <c r="E177" s="3">
-        <v>8644</v>
+        <v>88</v>
       </c>
       <c r="F177" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G177" s="3">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>569</v>
       </c>
       <c r="C178" t="s">
-        <v>205</v>
+        <v>545</v>
       </c>
       <c r="D178" t="s">
         <v>570</v>
       </c>
       <c r="E178" s="3">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F178" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G178" s="3">
         <v>0</v>
@@ -8566,19 +8566,19 @@
         <v>572</v>
       </c>
       <c r="C179" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="D179" t="s">
         <v>573</v>
       </c>
       <c r="E179" s="3">
-        <v>74</v>
+        <v>472979</v>
       </c>
       <c r="F179" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G179" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H179" s="3">
         <v>1</v>
@@ -8587,10 +8587,10 @@
         <v>0</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L179" t="s">
-        <v>16</v>
+        <v>503</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8601,19 +8601,19 @@
         <v>575</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="D180" t="s">
         <v>576</v>
       </c>
       <c r="E180" s="3">
-        <v>4759</v>
+        <v>69498</v>
       </c>
       <c r="F180" s="3">
-        <v>129</v>
+        <v>1189</v>
       </c>
       <c r="G180" s="3">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H180" s="3">
         <v>1</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="K180">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="L180" t="s">
         <v>16</v>
@@ -8636,19 +8636,19 @@
         <v>578</v>
       </c>
       <c r="C181" t="s">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="D181" t="s">
         <v>579</v>
       </c>
       <c r="E181" s="3">
-        <v>266</v>
+        <v>401869</v>
       </c>
       <c r="F181" s="3">
-        <v>6</v>
+        <v>4640</v>
       </c>
       <c r="G181" s="3">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="L181" t="s">
         <v>16</v>
@@ -8671,19 +8671,19 @@
         <v>581</v>
       </c>
       <c r="C182" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="D182" t="s">
         <v>582</v>
       </c>
       <c r="E182" s="3">
-        <v>2053</v>
+        <v>282666</v>
       </c>
       <c r="F182" s="3">
-        <v>0</v>
+        <v>4159</v>
       </c>
       <c r="G182" s="3">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="H182" s="3">
         <v>1</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K182">
-        <v>0</v>
+        <v>2992</v>
       </c>
       <c r="L182" t="s">
         <v>16</v>
@@ -8706,19 +8706,19 @@
         <v>584</v>
       </c>
       <c r="C183" t="s">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="D183" t="s">
         <v>585</v>
       </c>
       <c r="E183" s="3">
-        <v>69498</v>
+        <v>110227</v>
       </c>
       <c r="F183" s="3">
-        <v>1189</v>
+        <v>1800</v>
       </c>
       <c r="G183" s="3">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="H183" s="3">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="K183">
-        <v>220</v>
+        <v>691</v>
       </c>
       <c r="L183" t="s">
         <v>16</v>
@@ -8741,28 +8741,28 @@
         <v>587</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="D184" t="s">
         <v>588</v>
       </c>
       <c r="E184" s="3">
-        <v>3716</v>
+        <v>23</v>
       </c>
       <c r="F184" s="3">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="G184" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H184" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="K184">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="L184" t="s">
         <v>16</v>
@@ -8776,19 +8776,19 @@
         <v>590</v>
       </c>
       <c r="C185" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="D185" t="s">
         <v>591</v>
       </c>
       <c r="E185" s="3">
-        <v>110227</v>
+        <v>850122</v>
       </c>
       <c r="F185" s="3">
-        <v>1800</v>
+        <v>7412</v>
       </c>
       <c r="G185" s="3">
-        <v>157</v>
+        <v>349</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>691</v>
+        <v>326</v>
       </c>
       <c r="L185" t="s">
         <v>16</v>
@@ -8811,19 +8811,19 @@
         <v>593</v>
       </c>
       <c r="C186" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="D186" t="s">
         <v>594</v>
       </c>
       <c r="E186" s="3">
-        <v>282666</v>
+        <v>266</v>
       </c>
       <c r="F186" s="3">
-        <v>4159</v>
+        <v>6</v>
       </c>
       <c r="G186" s="3">
-        <v>1024</v>
+        <v>1</v>
       </c>
       <c r="H186" s="3">
         <v>1</v>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="K186">
-        <v>2992</v>
+        <v>0</v>
       </c>
       <c r="L186" t="s">
         <v>16</v>
@@ -8846,19 +8846,19 @@
         <v>596</v>
       </c>
       <c r="C187" t="s">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="D187" t="s">
         <v>597</v>
       </c>
       <c r="E187" s="3">
-        <v>95</v>
+        <v>411533</v>
       </c>
       <c r="F187" s="3">
-        <v>0</v>
+        <v>4290</v>
       </c>
       <c r="G187" s="3">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="H187" s="3">
         <v>1</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="L187" t="s">
         <v>16</v>
@@ -8881,28 +8881,28 @@
         <v>599</v>
       </c>
       <c r="C188" t="s">
-        <v>470</v>
+        <v>185</v>
       </c>
       <c r="D188" t="s">
         <v>600</v>
       </c>
       <c r="E188" s="3">
-        <v>6</v>
+        <v>218426</v>
       </c>
       <c r="F188" s="3">
-        <v>0</v>
+        <v>2691</v>
       </c>
       <c r="G188" s="3">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H188" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L188" t="s">
         <v>16</v>
@@ -8916,19 +8916,19 @@
         <v>602</v>
       </c>
       <c r="C189" t="s">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="D189" t="s">
         <v>603</v>
       </c>
       <c r="E189" s="3">
-        <v>239</v>
+        <v>21005</v>
       </c>
       <c r="F189" s="3">
-        <v>2</v>
+        <v>478</v>
       </c>
       <c r="G189" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H189" s="3">
         <v>1</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="L189" t="s">
         <v>16</v>
@@ -8951,19 +8951,19 @@
         <v>605</v>
       </c>
       <c r="C190" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="D190" t="s">
         <v>606</v>
       </c>
       <c r="E190" s="3">
-        <v>566966</v>
+        <v>8644</v>
       </c>
       <c r="F190" s="3">
-        <v>18782</v>
+        <v>0</v>
       </c>
       <c r="G190" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H190" s="3">
         <v>1</v>
@@ -8972,10 +8972,10 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>531</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8986,19 +8986,19 @@
         <v>608</v>
       </c>
       <c r="C191" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="D191" t="s">
         <v>609</v>
       </c>
       <c r="E191" s="3">
-        <v>24890</v>
+        <v>222595</v>
       </c>
       <c r="F191" s="3">
-        <v>1321</v>
+        <v>9022</v>
       </c>
       <c r="G191" s="3">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="H191" s="3">
         <v>1</v>
@@ -9007,10 +9007,10 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="L191" t="s">
-        <v>16</v>
+        <v>503</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9021,13 +9021,13 @@
         <v>611</v>
       </c>
       <c r="C192" t="s">
-        <v>255</v>
+        <v>409</v>
       </c>
       <c r="D192" t="s">
         <v>612</v>
       </c>
       <c r="E192" s="3">
-        <v>4640</v>
+        <v>2</v>
       </c>
       <c r="F192" s="3">
         <v>0</v>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="H192" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -9056,19 +9056,19 @@
         <v>614</v>
       </c>
       <c r="C193" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="D193" t="s">
         <v>615</v>
       </c>
       <c r="E193" s="3">
-        <v>472979</v>
+        <v>72</v>
       </c>
       <c r="F193" s="3">
-        <v>20185</v>
+        <v>3</v>
       </c>
       <c r="G193" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H193" s="3">
         <v>1</v>
@@ -9077,10 +9077,10 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L193" t="s">
-        <v>531</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9091,19 +9091,19 @@
         <v>617</v>
       </c>
       <c r="C194" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="D194" t="s">
         <v>618</v>
       </c>
       <c r="E194" s="3">
-        <v>401869</v>
+        <v>4183126</v>
       </c>
       <c r="F194" s="3">
-        <v>4640</v>
+        <v>49430</v>
       </c>
       <c r="G194" s="3">
-        <v>151</v>
+        <v>5701</v>
       </c>
       <c r="H194" s="3">
         <v>1</v>
@@ -9112,10 +9112,10 @@
         <v>0</v>
       </c>
       <c r="K194">
-        <v>178</v>
+        <v>1196</v>
       </c>
       <c r="L194" t="s">
-        <v>16</v>
+        <v>503</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9126,19 +9126,19 @@
         <v>620</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="D195" t="s">
         <v>621</v>
       </c>
       <c r="E195" s="3">
-        <v>2883</v>
+        <v>74</v>
       </c>
       <c r="F195" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G195" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H195" s="3">
         <v>1</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="K195">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L195" t="s">
         <v>16</v>
@@ -9161,19 +9161,19 @@
         <v>623</v>
       </c>
       <c r="C196" t="s">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="D196" t="s">
         <v>624</v>
       </c>
       <c r="E196" s="3">
-        <v>23</v>
+        <v>125374</v>
       </c>
       <c r="F196" s="3">
-        <v>1</v>
+        <v>2544</v>
       </c>
       <c r="G196" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H196" s="3">
         <v>1</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <v>0</v>
+        <v>1213</v>
       </c>
       <c r="L196" t="s">
         <v>16</v>
@@ -9196,19 +9196,19 @@
         <v>626</v>
       </c>
       <c r="C197" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="D197" t="s">
         <v>627</v>
       </c>
       <c r="E197" s="3">
-        <v>844</v>
+        <v>8968</v>
       </c>
       <c r="F197" s="3">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G197" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H197" s="3">
         <v>1</v>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L197" t="s">
         <v>16</v>
@@ -9231,19 +9231,19 @@
         <v>629</v>
       </c>
       <c r="C198" t="s">
-        <v>185</v>
+        <v>474</v>
       </c>
       <c r="D198" t="s">
         <v>630</v>
       </c>
       <c r="E198" s="3">
-        <v>549058</v>
+        <v>60</v>
       </c>
       <c r="F198" s="3">
-        <v>4324</v>
+        <v>1</v>
       </c>
       <c r="G198" s="3">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="H198" s="3">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="L198" t="s">
         <v>16</v>
@@ -9301,19 +9301,19 @@
         <v>635</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="D200" t="s">
         <v>636</v>
       </c>
       <c r="E200" s="3">
-        <v>511312</v>
+        <v>617</v>
       </c>
       <c r="F200" s="3">
-        <v>15167</v>
+        <v>0</v>
       </c>
       <c r="G200" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H200" s="3">
         <v>1</v>
@@ -9322,10 +9322,10 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L200" t="s">
-        <v>531</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9336,16 +9336,16 @@
         <v>638</v>
       </c>
       <c r="C201" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="D201" t="s">
         <v>639</v>
       </c>
       <c r="E201" s="3">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="F201" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G201" s="3">
         <v>0</v>
@@ -9371,19 +9371,19 @@
         <v>641</v>
       </c>
       <c r="C202" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="D202" t="s">
         <v>642</v>
       </c>
       <c r="E202" s="3">
-        <v>4183126</v>
+        <v>4640</v>
       </c>
       <c r="F202" s="3">
-        <v>49430</v>
+        <v>0</v>
       </c>
       <c r="G202" s="3">
-        <v>5701</v>
+        <v>0</v>
       </c>
       <c r="H202" s="3">
         <v>1</v>
@@ -9392,10 +9392,10 @@
         <v>0</v>
       </c>
       <c r="K202">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="L202" t="s">
-        <v>531</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9406,19 +9406,19 @@
         <v>644</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>390</v>
       </c>
       <c r="D203" t="s">
         <v>645</v>
       </c>
       <c r="E203" s="3">
-        <v>3080</v>
+        <v>345</v>
       </c>
       <c r="F203" s="3">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="G203" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H203" s="3">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="K203">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L203" t="s">
         <v>16</v>
@@ -9441,19 +9441,19 @@
         <v>647</v>
       </c>
       <c r="C204" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="D204" t="s">
         <v>648</v>
       </c>
       <c r="E204" s="3">
-        <v>106</v>
+        <v>24890</v>
       </c>
       <c r="F204" s="3">
-        <v>4</v>
+        <v>1321</v>
       </c>
       <c r="G204" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H204" s="3">
         <v>1</v>
@@ -9462,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L204" t="s">
         <v>16</v>
@@ -9482,7 +9482,7 @@
         <v>651</v>
       </c>
       <c r="E205" s="3">
-        <v>428</v>
+        <v>87</v>
       </c>
       <c r="F205" s="3">
         <v>0</v>
@@ -9511,19 +9511,19 @@
         <v>653</v>
       </c>
       <c r="C206" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="D206" t="s">
         <v>654</v>
       </c>
       <c r="E206" s="3">
-        <v>218426</v>
+        <v>95</v>
       </c>
       <c r="F206" s="3">
-        <v>2691</v>
+        <v>0</v>
       </c>
       <c r="G206" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H206" s="3">
         <v>1</v>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="K206">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L206" t="s">
         <v>16</v>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B22">
         <v>18</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B23">
         <v>15</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="B30">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="641">
   <si>
     <t>URL</t>
   </si>
@@ -266,1213 +266,1504 @@
     <t>2019-12-19T03:07:38.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sjmFJdoZX3Y</t>
+  </si>
+  <si>
+    <t>Versailles-Paris Pin Pon Pin Pon, v'la le bras aérien!</t>
+  </si>
+  <si>
+    <t>2019-05-26T08:15:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
+  </si>
+  <si>
+    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
+  </si>
+  <si>
+    <t>2019-12-11T21:32:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eQVUB3odtrQ</t>
+  </si>
+  <si>
+    <t>ESCLAVE HORROR STORY le Hors-Série PÔLE POT EMPLOI n°4</t>
+  </si>
+  <si>
+    <t>2019-12-06T13:05:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H-jpGp862t0</t>
+  </si>
+  <si>
+    <t>UN HACKER DENONCE LE DARK NET LA MANIPULATION DE L ISLAM ET LE TRAFFIC NUMERIQUE !!!</t>
+  </si>
+  <si>
+    <t>ANTILLUMINATI KEMAR 2</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:25:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4iD2oP3kKaI</t>
+  </si>
+  <si>
+    <t>FRANC MACON CONVERTIE CONFIRME LEURS DOCTRINE LUCIFERIENNE INCOMPATIBLE AVEC LES RELIGIONS !!!</t>
+  </si>
+  <si>
+    <t>2019-12-03T11:32:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kob-ZZSn_2A</t>
+  </si>
+  <si>
+    <t>PACTE SATANIQUE AVEC LUCIFER PAR LE SANG POUR LA GLOIRE EN FRANCE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-15T11:01:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oTmENRbauHw</t>
+  </si>
+  <si>
+    <t>COLUCHE UN HUMOURISTE TUE PAR LES ELITES PARCE QU IL DENONCAIT LA POLITIQUE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-13T11:14:24.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B4I6NTggH04</t>
+  </si>
+  <si>
+    <t>FRANCE 2 : EXORCISME DE DEMONS EN DIRECT A LA TELEVISION FRANCAISE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-16T11:03:30.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ojMd3jAHsZY</t>
+  </si>
+  <si>
+    <t>Les pompiers en colère prennent leurs quartiers à Paris / Paris - France 02 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-03T04:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AXfch8K4UQU</t>
+  </si>
+  <si>
+    <t>EXPLICATION DE PRATIQUE MAGIQUE OCCULTE SATANIQUE PAR UN ANCIEN SORCIER REPENTI !!!</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:09:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XfZF5AT3UDo</t>
+  </si>
+  <si>
+    <t>RESEAU PEDOPHILE INTERNATIONALE SNUFF MOVIE ORGANISE PAS DES MILITAIRES ET POLICIERS DE FRANCE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:17:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KXlmzXtG4-A</t>
+  </si>
+  <si>
+    <t>RITUEL OCCULTE DES SATANISTES PARLENT AVEC LE DIABLE EN FRANCE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-18T11:00:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aQ8uCEx-rSk</t>
+  </si>
+  <si>
+    <t>FAT JOE DENONCE LA MAFIA GAY DANS L INDUSTRIE MUSICALE DE LA DEBAUCHE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-22T11:29:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HXiOLJ48sXc</t>
+  </si>
+  <si>
+    <t>SANTE : LES ALIMENTS QUI RESSEMBLE AUX ORGANES QUI GUERISSENT !!!</t>
+  </si>
+  <si>
+    <t>2019-12-06T18:35:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dz18LZY7NEI</t>
+  </si>
+  <si>
+    <t>LEBRON JAMES SIGNE SATANIQUE MACONNIQUE LE CHAMPION DE LA NBA REMERCIE CES MAITRES !!!</t>
+  </si>
+  <si>
+    <t>2019-12-02T12:17:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rQrovRkPyRg</t>
+  </si>
+  <si>
+    <t>KANYE WEST DENONCE LE RECRUTEMENT DU DIABLE DANS L INDUSTRIE DE LA MUSIC ET DE LA TELEVISION !!!</t>
+  </si>
+  <si>
+    <t>2019-12-01T19:49:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
+  </si>
+  <si>
+    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
+  </si>
+  <si>
+    <t>2019-12-13T20:13:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
+  </si>
+  <si>
+    <t>Daniel Dupont</t>
+  </si>
+  <si>
+    <t>2019-11-26T22:20:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JC0KeE0oNx0</t>
+  </si>
+  <si>
+    <t>🔊Les lois doivent être promulguées par le roi ⚖️ ITW Exclusive de Maître Philippe Fortabat Labatut</t>
+  </si>
+  <si>
+    <t>2019-11-25T08:00:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HQBmk6j_bYc</t>
+  </si>
+  <si>
+    <t>AU SEUIL DE LA LOGE MACONNIQUE INITIATION DU RITE ECOSSAIS EN LIVE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T11:51:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BY13VqpjJFI</t>
+  </si>
+  <si>
+    <t>Conférence de presse d'Emmanuel Macron avec le president Ivoirien</t>
+  </si>
+  <si>
+    <t>Brefnews info</t>
+  </si>
+  <si>
+    <t>2019-12-21T20:30:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gzht8SVnYG8</t>
+  </si>
+  <si>
+    <t>Lorsque les Justes Lois (ad-din) d'Allah conquirent la France</t>
+  </si>
+  <si>
+    <t>2019-12-20T13:48:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VU3BBT2JMac</t>
+  </si>
+  <si>
+    <t>En direct : vote du budget 2020 (mardi après-midi)</t>
+  </si>
+  <si>
+    <t>Département Loire-Atlantique</t>
+  </si>
+  <si>
+    <t>2019-12-17T19:41:24.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GMx5oVGnNsw</t>
+  </si>
+  <si>
+    <t>Merci aux vrais et rappel de la nouvelle chaine 💪</t>
+  </si>
+  <si>
+    <t>ZER</t>
+  </si>
+  <si>
+    <t>2019-12-06T18:30:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
+  </si>
+  <si>
+    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
+  </si>
+  <si>
+    <t>Fred Bes</t>
+  </si>
+  <si>
+    <t>2019-12-20T19:28:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qkSPz5RldLg</t>
+  </si>
+  <si>
+    <t>En direct : vote du budget 2020 (lundi matin)</t>
+  </si>
+  <si>
+    <t>2019-12-16T12:35:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LHq3bNb53UA</t>
+  </si>
+  <si>
+    <t>Grève du 5 décembre   et après    Journal du vendredi 6 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T19:30:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=loX_BGQ4-kg</t>
+  </si>
+  <si>
+    <t>Kemarl1fam - Bonhomme de neige</t>
+  </si>
+  <si>
+    <t>2019-12-25T14:52:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
+  </si>
+  <si>
+    <t>#FAQ17 - Posez vos questions</t>
+  </si>
+  <si>
+    <t>2019-11-24T14:47:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
+  </si>
+  <si>
+    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-13T22:06:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
+  </si>
+  <si>
+    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:18:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o53Sh7F_D0o</t>
+  </si>
+  <si>
+    <t>En garde à vue pour avoir traversé au rouge</t>
+  </si>
+  <si>
+    <t>2019-11-24T08:00:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
+  </si>
+  <si>
+    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
+  </si>
+  <si>
+    <t>2019-11-22T03:31:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
+  </si>
+  <si>
+    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-24T19:30:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
+  </si>
+  <si>
+    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T18:51:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
+  </si>
+  <si>
+    <t>Women in Finance // 3rd Shadowing Day</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-12-06T09:09:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
+  </si>
+  <si>
+    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
+  </si>
+  <si>
+    <t>2019-12-28T08:24:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y4PduURvOpw</t>
+  </si>
+  <si>
+    <t>L’exécutif à l’épreuve de la grève   Journal du 9 décembre 2019   Vidéo dailymotion</t>
+  </si>
+  <si>
+    <t>2019-12-09T19:39:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nd4DuWxUFDM</t>
+  </si>
+  <si>
+    <t>Fin de cette chaine, j'invite les vrais à rejoindre ma nouvelle chaine! (Liens dans la description)</t>
+  </si>
+  <si>
+    <t>2019-11-30T22:16:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T19:13:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tAe7pJA9330</t>
+  </si>
+  <si>
+    <t>Echange Vif entre Mathlide Panot et Sibeth Ndiaye sur la réforme de retraitre</t>
+  </si>
+  <si>
+    <t>Axel Macky</t>
+  </si>
+  <si>
+    <t>2019-12-17T18:20:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
+  </si>
+  <si>
+    <t>comment lire les articles du parisien gratuitement</t>
+  </si>
+  <si>
+    <t>2019-12-19T11:02:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
+  </si>
+  <si>
+    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T18:41:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
+  </si>
+  <si>
+    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T18:44:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
+  </si>
+  <si>
+    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T19:07:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
+  </si>
+  <si>
+    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:48:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
+  </si>
+  <si>
+    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
+  </si>
+  <si>
+    <t>Ministère Territoires et Collectivités</t>
+  </si>
+  <si>
+    <t>2019-12-09T12:38:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsbiF8wfs8w</t>
+  </si>
+  <si>
+    <t>Grève du 5 décembre   vers un Jeudi noir dans les transports   Journal du mercredi 4 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-04T21:38:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c9i6Gpg4JOs</t>
+  </si>
+  <si>
+    <t>Un sommet de l’OTAN sous tension   Journal du mardi 3 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-03T21:25:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6pPRnvtRH6Y</t>
+  </si>
+  <si>
+    <t>RÉ-INVENTONS, 2 jours pour construire des projets collectifs et des solutions innovantes !</t>
+  </si>
+  <si>
+    <t>2019-12-20T10:48:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
+  </si>
+  <si>
+    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
+  </si>
+  <si>
+    <t>2019-12-11T17:08:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TSBaqXzv4ag</t>
+  </si>
+  <si>
+    <t>Treize militaires honorés par la France   Journal du Lundi 02 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-02T20:30:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0m9P5cSEWlY</t>
+  </si>
+  <si>
+    <t>ZER - Ma Bulma (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2017-09-27T17:39:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
+  </si>
+  <si>
+    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
+  </si>
+  <si>
+    <t>2019-12-12T20:47:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O_Ax717SQVw</t>
+  </si>
+  <si>
+    <t>I Média n°275 – Zemmour et Valeurs Actuelles attaqués   guerre totale contre la liberté d’expression</t>
+  </si>
+  <si>
+    <t>2019-12-05T21:13:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
+  </si>
+  <si>
+    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T20:32:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oleMaXmPHpI</t>
+  </si>
+  <si>
+    <t>Avec son «euro digital», la Banque de France se lance dans la bataille des cryptomonnaies</t>
+  </si>
+  <si>
+    <t>2019-12-05T11:56:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
+  </si>
+  <si>
+    <t>Le conflit Ukranien entre Poutine vs Zelensky en présence de Macron et Merkel</t>
+  </si>
+  <si>
+    <t>2019-12-10T13:10:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
+  </si>
+  <si>
+    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:09:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4iWhEvPavLA</t>
+  </si>
+  <si>
+    <t>Grève contre la réforme des retraites: les syndicats reprennent des couleurs</t>
+  </si>
+  <si>
+    <t>2019-12-09T16:55:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MUfxs9WKZEA</t>
+  </si>
+  <si>
+    <t>Cérémonies d’hommage aux militaires: imagine-t-on de Gaulle en faire autant ?</t>
+  </si>
+  <si>
+    <t>2019-12-02T17:19:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VGv8ke9kC1Q</t>
+  </si>
+  <si>
+    <t>Conférence de presse d'Emmanuel Macron au sommet de l'OTAN à Londres</t>
+  </si>
+  <si>
+    <t>2019-12-04T18:37:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ysbbsso_Ld0</t>
+  </si>
+  <si>
+    <t>🌍 Climate Finance Day 2019 // Interview of François Riahi, CEO</t>
+  </si>
+  <si>
+    <t>2019-11-29T15:13:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bF4Bv8vzBZ4</t>
+  </si>
+  <si>
+    <t>Education: les enseignements cachés de l’enquête Pisa</t>
+  </si>
+  <si>
+    <t>2019-12-03T17:14:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LG4bgcxe68g</t>
+  </si>
+  <si>
+    <t>Echange Vif entre Mansour Kamardine et Christophe Castaner sur la sécurité à Mayotte</t>
+  </si>
+  <si>
+    <t>2019-11-27T21:56:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
+  </si>
+  <si>
+    <t>La réforme des retraites à la Une de l'Opinion: le making-of du dessin de la semaine</t>
+  </si>
+  <si>
+    <t>2019-12-06T17:22:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
+  </si>
+  <si>
+    <t>Sophie Cluzel, secrétaire d'État chargée des Personnes handicapées.</t>
+  </si>
+  <si>
+    <t>Secrétariat d'Etat chargé de l'égalité</t>
+  </si>
+  <si>
+    <t>2018-12-12T15:20:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wyUBcMp9jQY</t>
+  </si>
+  <si>
+    <t>Inspection par drone du Viaduc de Saint-Nicolas-de-Redon</t>
+  </si>
+  <si>
+    <t>2019-11-25T08:54:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fo83Em0AtcU</t>
+  </si>
+  <si>
+    <t>Emmanuel Macron Avec Donald Trump au sommet de l'OTAN 2019</t>
+  </si>
+  <si>
+    <t>2019-12-03T20:42:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_TEHesD6ckg</t>
+  </si>
+  <si>
+    <t>Plan d'Investissement dans les Compétences - Question à Muriel Pénicaud, Ministre du Travail</t>
+  </si>
+  <si>
+    <t>Laurent Pietraszewski Député du Nord</t>
+  </si>
+  <si>
+    <t>2019-12-03T10:17:14.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
+  </si>
+  <si>
+    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
+  </si>
+  <si>
+    <t>2019-12-04T16:10:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4NAXkPQ9uzg</t>
+  </si>
+  <si>
+    <t>Conférence de presse d'Emmanuel Macron au conseil européen</t>
+  </si>
+  <si>
+    <t>2019-12-13T19:15:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
+  </si>
+  <si>
+    <t>Bientôt de la publicité sur Netflix ?</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:17:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J87kE8T12p8</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:22:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
+  </si>
+  <si>
+    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
+  </si>
+  <si>
+    <t>2018-10-17T23:18:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HW-8nUSbnN8</t>
+  </si>
+  <si>
+    <t>On parle d'Europe avec Chrysoula Zacharopoulou</t>
+  </si>
+  <si>
+    <t>2019-12-09T14:22:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iB1TmfgBYAY</t>
+  </si>
+  <si>
+    <t>Ukraine - Russie: une rencontre décisive à l'Elysée</t>
+  </si>
+  <si>
+    <t>2019-12-08T17:22:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6odkm5-bI0s</t>
+  </si>
+  <si>
+    <t>Emmanuel Macron aux Assises de l'Économie de la Mer 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T20:27:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2qjtBDyFV8s</t>
+  </si>
+  <si>
+    <t>Catherine Nay: «Pour comprendre un homme politique, il faut le voir lors de crises sociales»</t>
+  </si>
+  <si>
+    <t>2019-12-04T16:38:45.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1m6k2ptoE9o</t>
+  </si>
+  <si>
+    <t>L'hommage national aux 13 soldats morts au Mali</t>
+  </si>
+  <si>
+    <t>2019-12-02T16:30:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EsC1Bafw9ME</t>
+  </si>
+  <si>
+    <t>La générosité française n’a pas de frontière</t>
+  </si>
+  <si>
+    <t>2019-12-02T10:13:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
+  </si>
+  <si>
+    <t>Un prêtre, un psy... tous GJ</t>
+  </si>
+  <si>
+    <t>2019-04-19T19:34:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HILM6Rhxh_g</t>
+  </si>
+  <si>
+    <t>A l'Assemblée nationale de Corée</t>
+  </si>
+  <si>
+    <t>2019-12-04T10:25:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
+  </si>
+  <si>
+    <t>Protection maladie des personnes étrangères</t>
+  </si>
+  <si>
+    <t>Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2019-11-12T14:26:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3z96rB0K4WE</t>
+  </si>
+  <si>
+    <t>La Baïse après les intempéries</t>
+  </si>
+  <si>
+    <t>2019-12-14T16:31:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=D7-Mfkbf7O8</t>
   </si>
   <si>
     <t>Erdogan s’attaque à Macron après ses propos sur l’Otan</t>
   </si>
   <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
     <t>2019-11-29T16:55:36.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sjmFJdoZX3Y</t>
-  </si>
-  <si>
-    <t>Versailles-Paris Pin Pon Pin Pon, v'la le bras aérien!</t>
-  </si>
-  <si>
-    <t>2019-05-26T08:15:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
-  </si>
-  <si>
-    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
-  </si>
-  <si>
-    <t>2019-12-11T21:32:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eQVUB3odtrQ</t>
-  </si>
-  <si>
-    <t>ESCLAVE HORROR STORY le Hors-Série PÔLE POT EMPLOI n°4</t>
-  </si>
-  <si>
-    <t>2019-12-06T13:05:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=H-jpGp862t0</t>
-  </si>
-  <si>
-    <t>UN HACKER DENONCE LE DARK NET LA MANIPULATION DE L ISLAM ET LE TRAFFIC NUMERIQUE !!!</t>
-  </si>
-  <si>
-    <t>ANTILLUMINATI KEMAR 2</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:25:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4iD2oP3kKaI</t>
-  </si>
-  <si>
-    <t>FRANC MACON CONVERTIE CONFIRME LEURS DOCTRINE LUCIFERIENNE INCOMPATIBLE AVEC LES RELIGIONS !!!</t>
-  </si>
-  <si>
-    <t>2019-12-03T11:32:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kob-ZZSn_2A</t>
-  </si>
-  <si>
-    <t>PACTE SATANIQUE AVEC LUCIFER PAR LE SANG POUR LA GLOIRE EN FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-15T11:01:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oTmENRbauHw</t>
-  </si>
-  <si>
-    <t>COLUCHE UN HUMOURISTE TUE PAR LES ELITES PARCE QU IL DENONCAIT LA POLITIQUE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-13T11:14:24.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B4I6NTggH04</t>
-  </si>
-  <si>
-    <t>FRANCE 2 : EXORCISME DE DEMONS EN DIRECT A LA TELEVISION FRANCAISE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-16T11:03:30.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ojMd3jAHsZY</t>
-  </si>
-  <si>
-    <t>Les pompiers en colère prennent leurs quartiers à Paris / Paris - France 02 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-03T04:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AXfch8K4UQU</t>
-  </si>
-  <si>
-    <t>EXPLICATION DE PRATIQUE MAGIQUE OCCULTE SATANIQUE PAR UN ANCIEN SORCIER REPENTI !!!</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:09:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JC0KeE0oNx0</t>
-  </si>
-  <si>
-    <t>🔊Les lois doivent être promulguées par le roi ⚖️ ITW Exclusive de Maître Philippe Fortabat Labatut</t>
-  </si>
-  <si>
-    <t>2019-11-25T08:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XfZF5AT3UDo</t>
-  </si>
-  <si>
-    <t>RESEAU PEDOPHILE INTERNATIONALE SNUFF MOVIE ORGANISE PAS DES MILITAIRES ET POLICIERS DE FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:17:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0vRokbq5pHY</t>
-  </si>
-  <si>
-    <t>Émotion place d'Italie à Paris après les émeutes / Paris - France 18 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-11-30T00:36:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KXlmzXtG4-A</t>
-  </si>
-  <si>
-    <t>RITUEL OCCULTE DES SATANISTES PARLENT AVEC LE DIABLE EN FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-18T11:00:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aQ8uCEx-rSk</t>
-  </si>
-  <si>
-    <t>FAT JOE DENONCE LA MAFIA GAY DANS L INDUSTRIE MUSICALE DE LA DEBAUCHE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-22T11:29:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HXiOLJ48sXc</t>
-  </si>
-  <si>
-    <t>SANTE : LES ALIMENTS QUI RESSEMBLE AUX ORGANES QUI GUERISSENT !!!</t>
-  </si>
-  <si>
-    <t>2019-12-06T18:35:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dz18LZY7NEI</t>
-  </si>
-  <si>
-    <t>LEBRON JAMES SIGNE SATANIQUE MACONNIQUE LE CHAMPION DE LA NBA REMERCIE CES MAITRES !!!</t>
-  </si>
-  <si>
-    <t>2019-12-02T12:17:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
-  </si>
-  <si>
-    <t>Daniel Dupont</t>
-  </si>
-  <si>
-    <t>2019-11-26T22:20:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rQrovRkPyRg</t>
-  </si>
-  <si>
-    <t>KANYE WEST DENONCE LE RECRUTEMENT DU DIABLE DANS L INDUSTRIE DE LA MUSIC ET DE LA TELEVISION !!!</t>
-  </si>
-  <si>
-    <t>2019-12-01T19:49:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nd4DuWxUFDM</t>
-  </si>
-  <si>
-    <t>Fin de cette chaine, j'invite les vrais à rejoindre ma nouvelle chaine! (Liens dans la description)</t>
-  </si>
-  <si>
-    <t>ZER</t>
-  </si>
-  <si>
-    <t>2019-11-30T22:16:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HQBmk6j_bYc</t>
-  </si>
-  <si>
-    <t>AU SEUIL DE LA LOGE MACONNIQUE INITIATION DU RITE ECOSSAIS EN LIVE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T11:51:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BY13VqpjJFI</t>
-  </si>
-  <si>
-    <t>Conférence de presse d'Emmanuel Macron avec le president Ivoirien</t>
-  </si>
-  <si>
-    <t>Brefnews info</t>
-  </si>
-  <si>
-    <t>2019-12-21T20:30:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Gzht8SVnYG8</t>
-  </si>
-  <si>
-    <t>Lorsque les Justes Lois (ad-din) d'Allah conquirent la France</t>
-  </si>
-  <si>
-    <t>2019-12-20T13:48:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=o53Sh7F_D0o</t>
-  </si>
-  <si>
-    <t>En garde à vue pour avoir traversé au rouge</t>
-  </si>
-  <si>
-    <t>2019-11-24T08:00:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VU3BBT2JMac</t>
-  </si>
-  <si>
-    <t>En direct : vote du budget 2020 (mardi après-midi)</t>
-  </si>
-  <si>
-    <t>Département Loire-Atlantique</t>
-  </si>
-  <si>
-    <t>2019-12-17T19:41:24.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GMx5oVGnNsw</t>
-  </si>
-  <si>
-    <t>Merci aux vrais et rappel de la nouvelle chaine 💪</t>
-  </si>
-  <si>
-    <t>2019-12-06T18:30:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
-  </si>
-  <si>
-    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
-  </si>
-  <si>
-    <t>Fred Bes</t>
-  </si>
-  <si>
-    <t>2019-12-20T19:28:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
-  </si>
-  <si>
-    <t>#FAQ17 - Posez vos questions</t>
-  </si>
-  <si>
-    <t>2019-11-24T14:47:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qkSPz5RldLg</t>
-  </si>
-  <si>
-    <t>En direct : vote du budget 2020 (lundi matin)</t>
-  </si>
-  <si>
-    <t>2019-12-16T12:35:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LHq3bNb53UA</t>
-  </si>
-  <si>
-    <t>Grève du 5 décembre   et après    Journal du vendredi 6 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T19:30:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=loX_BGQ4-kg</t>
-  </si>
-  <si>
-    <t>Kemarl1fam - Bonhomme de neige</t>
-  </si>
-  <si>
-    <t>2019-12-25T14:52:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
-  </si>
-  <si>
-    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
-  </si>
-  <si>
-    <t>2019-11-22T03:31:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
-  </si>
-  <si>
-    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-13T22:06:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
-  </si>
-  <si>
-    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:18:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
-  </si>
-  <si>
-    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-24T19:30:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
-  </si>
-  <si>
-    <t>Women in Finance // 3rd Shadowing Day</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2019-12-06T09:09:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
-  </si>
-  <si>
-    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
-  </si>
-  <si>
-    <t>2019-12-28T08:24:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y4PduURvOpw</t>
-  </si>
-  <si>
-    <t>L’exécutif à l’épreuve de la grève   Journal du 9 décembre 2019   Vidéo dailymotion</t>
-  </si>
-  <si>
-    <t>2019-12-09T19:39:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tAe7pJA9330</t>
-  </si>
-  <si>
-    <t>Echange Vif entre Mathlide Panot et Sibeth Ndiaye sur la réforme de retraitre</t>
-  </si>
-  <si>
-    <t>Axel Macky</t>
-  </si>
-  <si>
-    <t>2019-12-17T18:20:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
-  </si>
-  <si>
-    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T18:41:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=M_M2IgFYPiw</t>
-  </si>
-  <si>
-    <t>RE OUVERTURE DE LA CHAINE ANITLLUMINATI 2 !!! RECORD DU MONDE DE CENSURE</t>
-  </si>
-  <si>
-    <t>2019-11-30T22:29:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsbiF8wfs8w</t>
-  </si>
-  <si>
-    <t>Grève du 5 décembre   vers un Jeudi noir dans les transports   Journal du mercredi 4 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-04T21:38:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=c9i6Gpg4JOs</t>
-  </si>
-  <si>
-    <t>Un sommet de l’OTAN sous tension   Journal du mardi 3 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-03T21:25:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6pPRnvtRH6Y</t>
-  </si>
-  <si>
-    <t>RÉ-INVENTONS, 2 jours pour construire des projets collectifs et des solutions innovantes !</t>
-  </si>
-  <si>
-    <t>2019-12-20T10:48:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
-  </si>
-  <si>
-    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
-  </si>
-  <si>
-    <t>2019-12-11T17:08:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TSBaqXzv4ag</t>
-  </si>
-  <si>
-    <t>Treize militaires honorés par la France   Journal du Lundi 02 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-02T20:30:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0m9P5cSEWlY</t>
-  </si>
-  <si>
-    <t>ZER - Ma Bulma (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2017-09-27T17:39:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=O_Ax717SQVw</t>
-  </si>
-  <si>
-    <t>I Média n°275 – Zemmour et Valeurs Actuelles attaqués   guerre totale contre la liberté d’expression</t>
-  </si>
-  <si>
-    <t>2019-12-05T21:13:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oleMaXmPHpI</t>
-  </si>
-  <si>
-    <t>Avec son «euro digital», la Banque de France se lance dans la bataille des cryptomonnaies</t>
-  </si>
-  <si>
-    <t>2019-12-05T11:56:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
-  </si>
-  <si>
-    <t>Le conflit Ukranien entre Poutine vs Zelensky en présence de Macron et Merkel</t>
-  </si>
-  <si>
-    <t>2019-12-10T13:10:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
-  </si>
-  <si>
-    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:09:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MUfxs9WKZEA</t>
-  </si>
-  <si>
-    <t>Cérémonies d’hommage aux militaires: imagine-t-on de Gaulle en faire autant ?</t>
-  </si>
-  <si>
-    <t>2019-12-02T17:19:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4iWhEvPavLA</t>
-  </si>
-  <si>
-    <t>Grève contre la réforme des retraites: les syndicats reprennent des couleurs</t>
-  </si>
-  <si>
-    <t>2019-12-09T16:55:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LG4bgcxe68g</t>
-  </si>
-  <si>
-    <t>Echange Vif entre Mansour Kamardine et Christophe Castaner sur la sécurité à Mayotte</t>
-  </si>
-  <si>
-    <t>2019-11-27T21:56:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uAi7BgQ-ayA</t>
-  </si>
-  <si>
-    <t>La minute RSE : ENEDIS</t>
-  </si>
-  <si>
-    <t>Télénantes</t>
-  </si>
-  <si>
-    <t>2019-12-09T13:53:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ysbbsso_Ld0</t>
-  </si>
-  <si>
-    <t>🌍 Climate Finance Day 2019 // Interview of François Riahi, CEO</t>
-  </si>
-  <si>
-    <t>2019-11-29T15:13:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VGv8ke9kC1Q</t>
-  </si>
-  <si>
-    <t>Conférence de presse d'Emmanuel Macron au sommet de l'OTAN à Londres</t>
-  </si>
-  <si>
-    <t>2019-12-04T18:37:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bF4Bv8vzBZ4</t>
-  </si>
-  <si>
-    <t>Education: les enseignements cachés de l’enquête Pisa</t>
-  </si>
-  <si>
-    <t>2019-12-03T17:14:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
-  </si>
-  <si>
-    <t>Sophie Cluzel, secrétaire d'État chargée des Personnes handicapées.</t>
-  </si>
-  <si>
-    <t>Secrétariat d'Etat chargé de l'égalité</t>
-  </si>
-  <si>
-    <t>2018-12-12T15:20:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kTcO7NBn80U</t>
-  </si>
-  <si>
-    <t>Les Innovateurs #9 : SYSTOVI</t>
-  </si>
-  <si>
-    <t>2019-12-20T14:05:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
-  </si>
-  <si>
-    <t>La réforme des retraites à la Une de l'Opinion: le making-of du dessin de la semaine</t>
-  </si>
-  <si>
-    <t>2019-12-06T17:22:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
-  </si>
-  <si>
-    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
-  </si>
-  <si>
-    <t>2019-12-04T16:10:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_TEHesD6ckg</t>
-  </si>
-  <si>
-    <t>Plan d'Investissement dans les Compétences - Question à Muriel Pénicaud, Ministre du Travail</t>
-  </si>
-  <si>
-    <t>Laurent Pietraszewski Député du Nord</t>
-  </si>
-  <si>
-    <t>2019-12-03T10:17:14.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wyUBcMp9jQY</t>
-  </si>
-  <si>
-    <t>Inspection par drone du Viaduc de Saint-Nicolas-de-Redon</t>
-  </si>
-  <si>
-    <t>2019-11-25T08:54:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Fo83Em0AtcU</t>
-  </si>
-  <si>
-    <t>Emmanuel Macron Avec Donald Trump au sommet de l'OTAN 2019</t>
-  </si>
-  <si>
-    <t>2019-12-03T20:42:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4NAXkPQ9uzg</t>
-  </si>
-  <si>
-    <t>Conférence de presse d'Emmanuel Macron au conseil européen</t>
-  </si>
-  <si>
-    <t>2019-12-13T19:15:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HW-8nUSbnN8</t>
-  </si>
-  <si>
-    <t>On parle d'Europe avec Chrysoula Zacharopoulou</t>
-  </si>
-  <si>
-    <t>2019-12-09T14:22:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
-  </si>
-  <si>
-    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
-  </si>
-  <si>
-    <t>2018-10-17T23:18:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=J87kE8T12p8</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:22:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iB1TmfgBYAY</t>
-  </si>
-  <si>
-    <t>Ukraine - Russie: une rencontre décisive à l'Elysée</t>
-  </si>
-  <si>
-    <t>2019-12-08T17:22:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6odkm5-bI0s</t>
-  </si>
-  <si>
-    <t>Emmanuel Macron aux Assises de l'Économie de la Mer 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T20:27:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2qjtBDyFV8s</t>
-  </si>
-  <si>
-    <t>Catherine Nay: «Pour comprendre un homme politique, il faut le voir lors de crises sociales»</t>
-  </si>
-  <si>
-    <t>2019-12-04T16:38:45.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1m6k2ptoE9o</t>
-  </si>
-  <si>
-    <t>L'hommage national aux 13 soldats morts au Mali</t>
-  </si>
-  <si>
-    <t>2019-12-02T16:30:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
-  </si>
-  <si>
-    <t>Un prêtre, un psy... tous GJ</t>
-  </si>
-  <si>
-    <t>2019-04-19T19:34:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MhZJ08xOVeY</t>
-  </si>
-  <si>
-    <t>Damien Poisson: un électricien économe</t>
-  </si>
-  <si>
-    <t>2019-12-02T09:16:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EsC1Bafw9ME</t>
-  </si>
-  <si>
-    <t>La générosité française n’a pas de frontière</t>
-  </si>
-  <si>
-    <t>2019-12-02T10:13:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HILM6Rhxh_g</t>
-  </si>
-  <si>
-    <t>A l'Assemblée nationale de Corée</t>
-  </si>
-  <si>
-    <t>2019-12-04T10:25:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
-  </si>
-  <si>
-    <t>Protection maladie des personnes étrangères</t>
-  </si>
-  <si>
-    <t>Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2019-11-12T14:26:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SKlQCV2N0F8</t>
-  </si>
-  <si>
-    <t>Franck Dépériers : un boulanger très local</t>
-  </si>
-  <si>
-    <t>2019-11-29T16:14:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3z96rB0K4WE</t>
-  </si>
-  <si>
-    <t>La Baïse après les intempéries</t>
-  </si>
-  <si>
-    <t>2019-12-14T16:31:31.000Z</t>
+    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
+  </si>
+  <si>
+    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-03-06T18:02:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
+  </si>
+  <si>
+    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2013-11-08T18:25:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
+  </si>
+  <si>
+    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-08-01T17:58:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
+  </si>
+  <si>
+    <t>Installation Photovoltaïque à Guérande</t>
+  </si>
+  <si>
+    <t>2019-11-22T14:45:23.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
+  </si>
+  <si>
+    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2018-11-14T10:21:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
+  </si>
+  <si>
+    <t>Un ex associé de Francis Lalanne</t>
+  </si>
+  <si>
+    <t>2019-05-23T10:05:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=htZiGZhk0l0</t>
+  </si>
+  <si>
+    <t>Réforme du collège : un passage en force</t>
+  </si>
+  <si>
+    <t>Le Monde TV</t>
+  </si>
+  <si>
+    <t>2015-05-21T16:54:14.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
+  </si>
+  <si>
+    <t>ZER - T'es La Bonne (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-05-15T16:28:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
+  </si>
+  <si>
+    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
+  </si>
+  <si>
+    <t>2018-11-22T17:23:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1DH7PGLEm8Q</t>
+  </si>
+  <si>
+    <t>l'échange d'Emmanuel Macron avec les étudiants de l'Université de Picardie</t>
+  </si>
+  <si>
+    <t>2019-11-22T09:19:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
+  </si>
+  <si>
+    <t>François le Français... euh non, l’ami des oligarques...</t>
+  </si>
+  <si>
+    <t>2019-04-28T13:50:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WryNw50lYNU</t>
+  </si>
+  <si>
+    <t>Mieux comprendre ma journée de députée</t>
+  </si>
+  <si>
+    <t>2019-11-19T15:43:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
+  </si>
+  <si>
+    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
+  </si>
+  <si>
+    <t>2019-11-19T12:31:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
+  </si>
+  <si>
+    <t>29 10 BFMTV 2019</t>
+  </si>
+  <si>
+    <t>2019-11-15T10:08:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
+  </si>
+  <si>
+    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
+  </si>
+  <si>
+    <t>2019-03-27T22:40:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
+  </si>
+  <si>
+    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-02-28T18:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=YXq4ejuvG0g</t>
@@ -1484,67 +1775,94 @@
     <t>2019-11-28T12:24:37.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
-  </si>
-  <si>
-    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2013-11-08T18:25:08.000Z</t>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WcBP2NKdvso</t>
+  </si>
+  <si>
+    <t>Pourquoi Palmyre est un joyau antique</t>
+  </si>
+  <si>
+    <t>2015-05-22T13:49:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
+  </si>
+  <si>
+    <t>Pot pourri médiatique</t>
+  </si>
+  <si>
+    <t>2019-03-21T23:00:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
+  </si>
+  <si>
+    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2016-01-24T17:05:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
+  </si>
+  <si>
+    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
+  </si>
+  <si>
+    <t>2018-09-07T09:19:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
@@ -1556,13 +1874,22 @@
     <t>2013-08-20T18:23:36.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JztTImZkzlA</t>
+  </si>
+  <si>
+    <t>Question à Bertrand Badie</t>
+  </si>
+  <si>
+    <t>2019-10-09T13:17:13.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
@@ -1574,160 +1901,22 @@
     <t>2018-09-17T13:20:49.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
-  </si>
-  <si>
-    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
-  </si>
-  <si>
-    <t>2019-11-19T12:31:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JztTImZkzlA</t>
-  </si>
-  <si>
-    <t>Question à Bertrand Badie</t>
-  </si>
-  <si>
-    <t>2019-10-09T13:17:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
-  </si>
-  <si>
-    <t>Philosophons sur l'égo</t>
-  </si>
-  <si>
-    <t>2019-11-28T19:28:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WcBP2NKdvso</t>
-  </si>
-  <si>
-    <t>Pourquoi Palmyre est un joyau antique</t>
-  </si>
-  <si>
-    <t>Le Monde TV</t>
-  </si>
-  <si>
-    <t>2015-05-22T13:49:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
-  </si>
-  <si>
-    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
-  </si>
-  <si>
-    <t>2018-09-07T09:19:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1DH7PGLEm8Q</t>
-  </si>
-  <si>
-    <t>l'échange d'Emmanuel Macron avec les étudiants de l'Université de Picardie</t>
-  </si>
-  <si>
-    <t>2019-11-22T09:19:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
-  </si>
-  <si>
-    <t>François le Français... euh non, l’ami des oligarques...</t>
-  </si>
-  <si>
-    <t>2019-04-28T13:50:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
-  </si>
-  <si>
-    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-02-28T18:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=htZiGZhk0l0</t>
-  </si>
-  <si>
-    <t>Réforme du collège : un passage en force</t>
-  </si>
-  <si>
-    <t>2015-05-21T16:54:14.000Z</t>
+    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
+  </si>
+  <si>
+    <t>ZER - Face A Moi Même</t>
+  </si>
+  <si>
+    <t>2016-10-30T19:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
@@ -1739,204 +1928,6 @@
     <t>2019-10-14T15:30:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
-  </si>
-  <si>
-    <t>ZER - T'es La Bonne (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-05-15T16:28:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
-  </si>
-  <si>
-    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
-  </si>
-  <si>
-    <t>2019-03-27T22:40:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
-  </si>
-  <si>
-    <t>Pot pourri médiatique</t>
-  </si>
-  <si>
-    <t>2019-03-21T23:00:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
-  </si>
-  <si>
-    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-08-01T17:58:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WryNw50lYNU</t>
-  </si>
-  <si>
-    <t>Mieux comprendre ma journée de députée</t>
-  </si>
-  <si>
-    <t>2019-11-19T15:43:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
-  </si>
-  <si>
-    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-03-06T18:02:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
-  </si>
-  <si>
-    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2016-01-24T17:05:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
-  </si>
-  <si>
-    <t>ZER - Face A Moi Même</t>
-  </si>
-  <si>
-    <t>2016-10-30T19:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
-  </si>
-  <si>
-    <t>29 10 BFMTV 2019</t>
-  </si>
-  <si>
-    <t>2019-11-15T10:08:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
-  </si>
-  <si>
-    <t>Installation Photovoltaïque à Guérande</t>
-  </si>
-  <si>
-    <t>2019-11-22T14:45:23.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
-  </si>
-  <si>
-    <t>Un ex associé de Francis Lalanne</t>
-  </si>
-  <si>
-    <t>2019-05-23T10:05:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
-  </si>
-  <si>
-    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2018-11-14T10:21:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
   </si>
   <si>
@@ -1944,42 +1935,6 @@
   </si>
   <si>
     <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
-  </si>
-  <si>
-    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
-  </si>
-  <si>
-    <t>2018-11-22T17:23:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -2340,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L206"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3147,13 +3102,13 @@
         <v>86</v>
       </c>
       <c r="E24" s="3">
-        <v>5529</v>
+        <v>1663</v>
       </c>
       <c r="F24" s="3">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="G24" s="3">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -3162,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -3176,19 +3131,19 @@
         <v>88</v>
       </c>
       <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
         <v>89</v>
       </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
       <c r="E25" s="3">
-        <v>1663</v>
+        <v>1593</v>
       </c>
       <c r="F25" s="3">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="G25" s="3">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -3197,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -3205,25 +3160,25 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
         <v>91</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
       <c r="E26" s="3">
-        <v>1593</v>
+        <v>1556</v>
       </c>
       <c r="F26" s="3">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -3232,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -3240,25 +3195,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
         <v>94</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
       <c r="E27" s="3">
-        <v>1556</v>
+        <v>1517</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="G27" s="3">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -3267,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -3275,25 +3230,25 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
         <v>97</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
-      </c>
       <c r="E28" s="3">
-        <v>1517</v>
+        <v>1493</v>
       </c>
       <c r="F28" s="3">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="G28" s="3">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -3302,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -3310,16 +3265,16 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
         <v>100</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="3">
         <v>61816</v>
@@ -3345,25 +3300,25 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
         <v>103</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
         <v>104</v>
       </c>
-      <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
       <c r="E30" s="3">
-        <v>1493</v>
+        <v>1372</v>
       </c>
       <c r="F30" s="3">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="G30" s="3">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -3372,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -3380,25 +3335,25 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
         <v>106</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
         <v>107</v>
       </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>108</v>
-      </c>
       <c r="E31" s="3">
-        <v>1372</v>
+        <v>1330</v>
       </c>
       <c r="F31" s="3">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="G31" s="3">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -3407,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -3415,25 +3370,25 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
         <v>110</v>
       </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>111</v>
-      </c>
       <c r="E32" s="3">
-        <v>1330</v>
+        <v>1283</v>
       </c>
       <c r="F32" s="3">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="G32" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -3442,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -3450,25 +3405,25 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s">
         <v>112</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
         <v>113</v>
       </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
       <c r="E33" s="3">
-        <v>1283</v>
+        <v>1254</v>
       </c>
       <c r="F33" s="3">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G33" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -3477,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -3485,34 +3440,34 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
         <v>115</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
         <v>116</v>
       </c>
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
       <c r="E34" s="3">
-        <v>1254</v>
+        <v>1237</v>
       </c>
       <c r="F34" s="3">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="G34" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -3520,34 +3475,34 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
         <v>118</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>119</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
       </c>
       <c r="E35" s="3">
-        <v>1237</v>
+        <v>1188</v>
       </c>
       <c r="F35" s="3">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="G35" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -3561,19 +3516,19 @@
         <v>122</v>
       </c>
       <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
         <v>123</v>
       </c>
-      <c r="D36" t="s">
-        <v>124</v>
-      </c>
       <c r="E36" s="3">
-        <v>1188</v>
+        <v>1108</v>
       </c>
       <c r="F36" s="3">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -3582,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -3590,25 +3545,25 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
         <v>125</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
         <v>126</v>
       </c>
-      <c r="C37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" t="s">
-        <v>127</v>
-      </c>
       <c r="E37" s="3">
-        <v>1108</v>
+        <v>1084</v>
       </c>
       <c r="F37" s="3">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="G37" s="3">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -3617,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -3625,25 +3580,25 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
         <v>128</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
         <v>129</v>
       </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" t="s">
-        <v>130</v>
-      </c>
       <c r="E38" s="3">
-        <v>1084</v>
+        <v>995</v>
       </c>
       <c r="F38" s="3">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G38" s="3">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -3652,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -3660,25 +3615,25 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
         <v>131</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
         <v>132</v>
       </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>133</v>
-      </c>
       <c r="E39" s="3">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="F39" s="3">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="G39" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -3687,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -3695,22 +3650,22 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
         <v>134</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" t="s">
         <v>135</v>
       </c>
-      <c r="C40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" t="s">
-        <v>136</v>
-      </c>
       <c r="E40" s="3">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="F40" s="3">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="G40" s="3">
         <v>2</v>
@@ -3722,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -3730,25 +3685,25 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" t="s">
         <v>137</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
         <v>138</v>
       </c>
-      <c r="C41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" t="s">
-        <v>139</v>
-      </c>
       <c r="E41" s="3">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F41" s="3">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="G41" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -3765,25 +3720,25 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
         <v>140</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
         <v>141</v>
       </c>
-      <c r="C42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" t="s">
-        <v>142</v>
-      </c>
       <c r="E42" s="3">
-        <v>957</v>
+        <v>925</v>
       </c>
       <c r="F42" s="3">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G42" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3792,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3800,25 +3755,25 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
         <v>143</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" t="s">
         <v>144</v>
       </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" t="s">
-        <v>145</v>
-      </c>
       <c r="E43" s="3">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="F43" s="3">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="G43" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3835,25 +3790,25 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
         <v>146</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
         <v>147</v>
       </c>
-      <c r="C44" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" t="s">
-        <v>148</v>
-      </c>
       <c r="E44" s="3">
-        <v>912</v>
+        <v>836</v>
       </c>
       <c r="F44" s="3">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G44" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3862,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3870,25 +3825,25 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" t="s">
         <v>149</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
         <v>150</v>
       </c>
-      <c r="C45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" t="s">
-        <v>151</v>
-      </c>
       <c r="E45" s="3">
-        <v>5663</v>
+        <v>810</v>
       </c>
       <c r="F45" s="3">
-        <v>445</v>
+        <v>54</v>
       </c>
       <c r="G45" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3897,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -3905,25 +3860,25 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
         <v>152</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" t="s">
         <v>153</v>
       </c>
-      <c r="C46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" t="s">
-        <v>154</v>
-      </c>
       <c r="E46" s="3">
-        <v>836</v>
+        <v>791</v>
       </c>
       <c r="F46" s="3">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="G46" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3932,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -3940,25 +3895,25 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" t="s">
         <v>155</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
         <v>156</v>
       </c>
-      <c r="C47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" t="s">
-        <v>157</v>
-      </c>
       <c r="E47" s="3">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="F47" s="3">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G47" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3967,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -3975,25 +3930,25 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" t="s">
         <v>158</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
         <v>159</v>
       </c>
-      <c r="C48" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" t="s">
-        <v>160</v>
-      </c>
       <c r="E48" s="3">
-        <v>810</v>
+        <v>713</v>
       </c>
       <c r="F48" s="3">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G48" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -4002,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -4010,25 +3965,25 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
         <v>161</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" t="s">
         <v>162</v>
       </c>
-      <c r="C49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" t="s">
-        <v>163</v>
-      </c>
       <c r="E49" s="3">
-        <v>791</v>
+        <v>691</v>
       </c>
       <c r="F49" s="3">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="G49" s="3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -4037,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
@@ -4045,25 +4000,25 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" t="s">
         <v>164</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" t="s">
         <v>165</v>
       </c>
-      <c r="C50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" t="s">
-        <v>166</v>
-      </c>
       <c r="E50" s="3">
-        <v>783</v>
+        <v>672</v>
       </c>
       <c r="F50" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G50" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -4072,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
@@ -4080,25 +4035,25 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
         <v>167</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" t="s">
         <v>168</v>
       </c>
-      <c r="C51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" t="s">
-        <v>169</v>
-      </c>
       <c r="E51" s="3">
-        <v>713</v>
+        <v>644</v>
       </c>
       <c r="F51" s="3">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -4107,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
@@ -4115,16 +4070,16 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
         <v>170</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>171</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>172</v>
-      </c>
-      <c r="D52" t="s">
-        <v>173</v>
       </c>
       <c r="E52" s="3">
         <v>1162</v>
@@ -4150,25 +4105,25 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" t="s">
         <v>174</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" t="s">
         <v>175</v>
       </c>
-      <c r="C53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" t="s">
-        <v>176</v>
-      </c>
       <c r="E53" s="3">
-        <v>691</v>
+        <v>5663</v>
       </c>
       <c r="F53" s="3">
-        <v>130</v>
+        <v>445</v>
       </c>
       <c r="G53" s="3">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -4177,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -4185,25 +4140,25 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
         <v>177</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
         <v>178</v>
       </c>
-      <c r="C54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" t="s">
-        <v>179</v>
-      </c>
       <c r="E54" s="3">
-        <v>672</v>
+        <v>579</v>
       </c>
       <c r="F54" s="3">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -4212,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -4220,25 +4175,25 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" t="s">
         <v>180</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
         <v>181</v>
       </c>
-      <c r="C55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" t="s">
-        <v>182</v>
-      </c>
       <c r="E55" s="3">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="F55" s="3">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="G55" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -4247,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -4255,22 +4210,22 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
         <v>183</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>184</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>185</v>
       </c>
-      <c r="D56" t="s">
-        <v>186</v>
-      </c>
       <c r="E56" s="3">
-        <v>629</v>
+        <v>475</v>
       </c>
       <c r="F56" s="3">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G56" s="3">
         <v>3</v>
@@ -4282,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -4290,25 +4245,25 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" t="s">
         <v>187</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" t="s">
         <v>188</v>
       </c>
-      <c r="C57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" t="s">
-        <v>189</v>
-      </c>
       <c r="E57" s="3">
-        <v>579</v>
+        <v>473</v>
       </c>
       <c r="F57" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -4317,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
@@ -4325,25 +4280,25 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" t="s">
         <v>190</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>191</v>
-      </c>
-      <c r="C58" t="s">
-        <v>89</v>
       </c>
       <c r="D58" t="s">
         <v>192</v>
       </c>
       <c r="E58" s="3">
-        <v>578</v>
+        <v>452</v>
       </c>
       <c r="F58" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -4352,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
@@ -4372,13 +4327,13 @@
         <v>196</v>
       </c>
       <c r="E59" s="3">
-        <v>475</v>
+        <v>394</v>
       </c>
       <c r="F59" s="3">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G59" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -4387,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
@@ -4401,19 +4356,19 @@
         <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>473</v>
+        <v>366</v>
       </c>
       <c r="F60" s="3">
         <v>43</v>
       </c>
       <c r="G60" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -4422,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
@@ -4430,25 +4385,25 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="D61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E61" s="3">
-        <v>3462</v>
+        <v>356</v>
       </c>
       <c r="F61" s="3">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4457,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
@@ -4465,25 +4420,25 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
         <v>206</v>
       </c>
       <c r="E62" s="3">
-        <v>452</v>
+        <v>324</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4492,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -4506,28 +4461,28 @@
         <v>208</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="D63" t="s">
         <v>209</v>
       </c>
       <c r="E63" s="3">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="F63" s="3">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G63" s="3">
+        <v>11</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
         <v>2</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>14</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
@@ -4541,16 +4496,16 @@
         <v>211</v>
       </c>
       <c r="C64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" t="s">
         <v>212</v>
       </c>
-      <c r="D64" t="s">
-        <v>213</v>
-      </c>
       <c r="E64" s="3">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="F64" s="3">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -4562,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
@@ -4570,16 +4525,16 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" t="s">
         <v>214</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
         <v>215</v>
-      </c>
-      <c r="C65" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" t="s">
-        <v>216</v>
       </c>
       <c r="E65" s="3">
         <v>1760</v>
@@ -4605,25 +4560,25 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" t="s">
         <v>217</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" t="s">
         <v>218</v>
       </c>
-      <c r="C66" t="s">
-        <v>205</v>
-      </c>
-      <c r="D66" t="s">
-        <v>219</v>
-      </c>
       <c r="E66" s="3">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -4640,25 +4595,25 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" t="s">
         <v>220</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>221</v>
-      </c>
-      <c r="C67" t="s">
-        <v>212</v>
       </c>
       <c r="D67" t="s">
         <v>222</v>
       </c>
       <c r="E67" s="3">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="F67" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -4667,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
@@ -4681,19 +4636,19 @@
         <v>224</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="D68" t="s">
         <v>225</v>
       </c>
       <c r="E68" s="3">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="F68" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G68" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -4702,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -4716,19 +4671,19 @@
         <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
         <v>228</v>
       </c>
       <c r="E69" s="3">
-        <v>319</v>
+        <v>3462</v>
       </c>
       <c r="F69" s="3">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="G69" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -4737,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
@@ -4786,16 +4741,16 @@
         <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D71" t="s">
         <v>234</v>
       </c>
       <c r="E71" s="3">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="F71" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G71" s="3">
         <v>2</v>
@@ -4807,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
@@ -4821,19 +4776,19 @@
         <v>236</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D72" t="s">
         <v>237</v>
       </c>
       <c r="E72" s="3">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="F72" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G72" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4842,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
@@ -4856,28 +4811,28 @@
         <v>239</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
         <v>240</v>
       </c>
       <c r="E73" s="3">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="F73" s="3">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G73" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
@@ -4891,19 +4846,19 @@
         <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
         <v>243</v>
       </c>
       <c r="E74" s="3">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="F74" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G74" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4912,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
@@ -4926,16 +4881,16 @@
         <v>245</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E75" s="3">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F75" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
@@ -4947,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
@@ -4955,34 +4910,34 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E76" s="3">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F76" s="3">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
@@ -4990,25 +4945,25 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E77" s="3">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F77" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G77" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -5017,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
@@ -5025,25 +4980,25 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E78" s="3">
-        <v>152</v>
+        <v>4711</v>
       </c>
       <c r="F78" s="3">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="G78" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -5052,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
@@ -5060,25 +5015,25 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="D79" t="s">
         <v>260</v>
       </c>
       <c r="E79" s="3">
-        <v>4711</v>
+        <v>629</v>
       </c>
       <c r="F79" s="3">
-        <v>387</v>
+        <v>32</v>
       </c>
       <c r="G79" s="3">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -5087,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
@@ -5101,16 +5056,16 @@
         <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D80" t="s">
         <v>263</v>
       </c>
       <c r="E80" s="3">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F80" s="3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G80" s="3">
         <v>0</v>
@@ -5122,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
@@ -5136,19 +5091,19 @@
         <v>265</v>
       </c>
       <c r="C81" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="D81" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E81" s="3">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F81" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -5157,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
@@ -5165,25 +5120,25 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C82" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E82" s="3">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F82" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -5192,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
@@ -5200,22 +5155,22 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B83" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="D83" t="s">
         <v>273</v>
       </c>
       <c r="E83" s="3">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F83" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5227,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83" t="s">
         <v>16</v>
@@ -5241,19 +5196,19 @@
         <v>275</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
         <v>276</v>
       </c>
       <c r="E84" s="3">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F84" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -5262,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -5276,16 +5231,16 @@
         <v>278</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D85" t="s">
         <v>279</v>
       </c>
       <c r="E85" s="3">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F85" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G85" s="3">
         <v>0</v>
@@ -5297,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
@@ -5311,19 +5266,19 @@
         <v>281</v>
       </c>
       <c r="C86" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D86" t="s">
         <v>282</v>
       </c>
       <c r="E86" s="3">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F86" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -5332,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
@@ -5346,16 +5301,16 @@
         <v>284</v>
       </c>
       <c r="C87" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="D87" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E87" s="3">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F87" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G87" s="3">
         <v>0</v>
@@ -5375,22 +5330,22 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E88" s="3">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F88" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -5402,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
@@ -5410,25 +5365,25 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B89" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E89" s="3">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F89" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5445,22 +5400,22 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B90" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C90" t="s">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="D90" t="s">
         <v>295</v>
       </c>
       <c r="E90" s="3">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="3">
         <v>0</v>
@@ -5486,19 +5441,19 @@
         <v>297</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D91" t="s">
         <v>298</v>
       </c>
       <c r="E91" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F91" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5507,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
@@ -5521,13 +5476,13 @@
         <v>300</v>
       </c>
       <c r="C92" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
         <v>301</v>
       </c>
       <c r="E92" s="3">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F92" s="3">
         <v>10</v>
@@ -5542,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
@@ -5556,16 +5511,16 @@
         <v>303</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="D93" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E93" s="3">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F93" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="3">
         <v>0</v>
@@ -5585,25 +5540,25 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C94" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="D94" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E94" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F94" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5620,25 +5575,25 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D95" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E95" s="3">
-        <v>65</v>
+        <v>19679</v>
       </c>
       <c r="F95" s="3">
-        <v>10</v>
+        <v>510</v>
       </c>
       <c r="G95" s="3">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -5647,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -5655,22 +5610,22 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C96" t="s">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="D96" t="s">
         <v>314</v>
       </c>
       <c r="E96" s="3">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F96" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5696,19 +5651,19 @@
         <v>316</v>
       </c>
       <c r="C97" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="D97" t="s">
         <v>317</v>
       </c>
       <c r="E97" s="3">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F97" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -5717,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
@@ -5731,19 +5686,19 @@
         <v>319</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
         <v>320</v>
       </c>
       <c r="E98" s="3">
-        <v>19679</v>
+        <v>52</v>
       </c>
       <c r="F98" s="3">
-        <v>510</v>
+        <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -5752,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
@@ -5766,16 +5721,16 @@
         <v>322</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D99" t="s">
         <v>323</v>
       </c>
       <c r="E99" s="3">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F99" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -5801,16 +5756,16 @@
         <v>325</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D100" t="s">
         <v>326</v>
       </c>
       <c r="E100" s="3">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F100" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5822,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
@@ -5836,13 +5791,13 @@
         <v>328</v>
       </c>
       <c r="C101" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D101" t="s">
         <v>329</v>
       </c>
       <c r="E101" s="3">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5851,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -5871,16 +5826,16 @@
         <v>331</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="D102" t="s">
         <v>332</v>
       </c>
       <c r="E102" s="3">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5892,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -5906,19 +5861,19 @@
         <v>334</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D103" t="s">
         <v>335</v>
       </c>
       <c r="E103" s="3">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F103" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5941,28 +5896,28 @@
         <v>337</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D104" t="s">
         <v>338</v>
       </c>
       <c r="E104" s="3">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
       </c>
       <c r="G104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
@@ -5976,19 +5931,19 @@
         <v>340</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D105" t="s">
         <v>341</v>
       </c>
       <c r="E105" s="3">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
       </c>
       <c r="G105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -6011,19 +5966,19 @@
         <v>343</v>
       </c>
       <c r="C106" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="D106" t="s">
         <v>344</v>
       </c>
       <c r="E106" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -6032,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" t="s">
         <v>16</v>
@@ -6046,28 +6001,28 @@
         <v>346</v>
       </c>
       <c r="C107" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="D107" t="s">
         <v>347</v>
       </c>
       <c r="E107" s="3">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L107" t="s">
         <v>16</v>
@@ -6081,16 +6036,16 @@
         <v>349</v>
       </c>
       <c r="C108" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="D108" t="s">
         <v>350</v>
       </c>
       <c r="E108" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F108" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G108" s="3">
         <v>0</v>
@@ -6116,19 +6071,19 @@
         <v>352</v>
       </c>
       <c r="C109" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="D109" t="s">
         <v>353</v>
       </c>
       <c r="E109" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -6151,28 +6106,28 @@
         <v>355</v>
       </c>
       <c r="C110" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="D110" t="s">
         <v>356</v>
       </c>
       <c r="E110" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F110" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110" s="3">
         <v>0</v>
       </c>
       <c r="H110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L110" t="s">
         <v>16</v>
@@ -6186,16 +6141,16 @@
         <v>358</v>
       </c>
       <c r="C111" t="s">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="D111" t="s">
         <v>359</v>
       </c>
       <c r="E111" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F111" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G111" s="3">
         <v>0</v>
@@ -6221,16 +6176,16 @@
         <v>361</v>
       </c>
       <c r="C112" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="D112" t="s">
         <v>362</v>
       </c>
       <c r="E112" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112" s="3">
         <v>0</v>
@@ -6256,16 +6211,16 @@
         <v>364</v>
       </c>
       <c r="C113" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="D113" t="s">
         <v>365</v>
       </c>
       <c r="E113" s="3">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" s="3">
         <v>0</v>
@@ -6291,16 +6246,16 @@
         <v>367</v>
       </c>
       <c r="C114" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D114" t="s">
         <v>368</v>
       </c>
       <c r="E114" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" s="3">
         <v>0</v>
@@ -6326,13 +6281,13 @@
         <v>370</v>
       </c>
       <c r="C115" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="D115" t="s">
         <v>371</v>
       </c>
       <c r="E115" s="3">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -6361,13 +6316,13 @@
         <v>373</v>
       </c>
       <c r="C116" t="s">
+        <v>266</v>
+      </c>
+      <c r="D116" t="s">
         <v>374</v>
       </c>
-      <c r="D116" t="s">
-        <v>375</v>
-      </c>
       <c r="E116" s="3">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -6390,25 +6345,25 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B117" t="s">
         <v>376</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>221</v>
+      </c>
+      <c r="D117" t="s">
         <v>377</v>
       </c>
-      <c r="C117" t="s">
-        <v>255</v>
-      </c>
-      <c r="D117" t="s">
-        <v>378</v>
-      </c>
       <c r="E117" s="3">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
       </c>
       <c r="G117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -6425,22 +6380,22 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B118" t="s">
         <v>379</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
+        <v>221</v>
+      </c>
+      <c r="D118" t="s">
         <v>380</v>
       </c>
-      <c r="C118" t="s">
-        <v>195</v>
-      </c>
-      <c r="D118" t="s">
-        <v>381</v>
-      </c>
       <c r="E118" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -6460,19 +6415,19 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B119" t="s">
         <v>382</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
+        <v>221</v>
+      </c>
+      <c r="D119" t="s">
         <v>383</v>
       </c>
-      <c r="C119" t="s">
-        <v>313</v>
-      </c>
-      <c r="D119" t="s">
-        <v>384</v>
-      </c>
       <c r="E119" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -6487,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" t="s">
         <v>16</v>
@@ -6495,19 +6450,19 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B120" t="s">
         <v>385</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>386</v>
-      </c>
-      <c r="C120" t="s">
-        <v>85</v>
       </c>
       <c r="D120" t="s">
         <v>387</v>
       </c>
       <c r="E120" s="3">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -6522,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" t="s">
         <v>16</v>
@@ -6536,16 +6491,16 @@
         <v>389</v>
       </c>
       <c r="C121" t="s">
+        <v>191</v>
+      </c>
+      <c r="D121" t="s">
         <v>390</v>
       </c>
-      <c r="D121" t="s">
-        <v>391</v>
-      </c>
       <c r="E121" s="3">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="F121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="3">
         <v>0</v>
@@ -6557,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -6565,19 +6520,19 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B122" t="s">
         <v>392</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
+        <v>184</v>
+      </c>
+      <c r="D122" t="s">
         <v>393</v>
       </c>
-      <c r="C122" t="s">
-        <v>374</v>
-      </c>
-      <c r="D122" t="s">
-        <v>394</v>
-      </c>
       <c r="E122" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -6600,19 +6555,19 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B123" t="s">
         <v>395</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>396</v>
-      </c>
-      <c r="C123" t="s">
-        <v>85</v>
       </c>
       <c r="D123" t="s">
         <v>397</v>
       </c>
       <c r="E123" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -6641,16 +6596,16 @@
         <v>399</v>
       </c>
       <c r="C124" t="s">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="D124" t="s">
         <v>400</v>
       </c>
       <c r="E124" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="3">
         <v>0</v>
@@ -6676,13 +6631,13 @@
         <v>402</v>
       </c>
       <c r="C125" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="D125" t="s">
         <v>403</v>
       </c>
       <c r="E125" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -6697,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
@@ -6711,16 +6666,16 @@
         <v>405</v>
       </c>
       <c r="C126" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="D126" t="s">
         <v>406</v>
       </c>
       <c r="E126" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F126" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" s="3">
         <v>0</v>
@@ -6743,22 +6698,22 @@
         <v>407</v>
       </c>
       <c r="B127" t="s">
+        <v>294</v>
+      </c>
+      <c r="C127" t="s">
+        <v>191</v>
+      </c>
+      <c r="D127" t="s">
         <v>408</v>
       </c>
-      <c r="C127" t="s">
-        <v>409</v>
-      </c>
-      <c r="D127" t="s">
-        <v>410</v>
-      </c>
       <c r="E127" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
       </c>
       <c r="G127" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
@@ -6775,34 +6730,34 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B128" t="s">
+        <v>410</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s">
         <v>411</v>
       </c>
-      <c r="B128" t="s">
-        <v>412</v>
-      </c>
-      <c r="C128" t="s">
-        <v>205</v>
-      </c>
-      <c r="D128" t="s">
-        <v>413</v>
-      </c>
       <c r="E128" s="3">
-        <v>57</v>
+        <v>60406</v>
       </c>
       <c r="F128" s="3">
-        <v>1</v>
+        <v>1073</v>
       </c>
       <c r="G128" s="3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="L128" t="s">
         <v>16</v>
@@ -6810,19 +6765,19 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B129" t="s">
+        <v>413</v>
+      </c>
+      <c r="C129" t="s">
+        <v>304</v>
+      </c>
+      <c r="D129" t="s">
         <v>414</v>
       </c>
-      <c r="B129" t="s">
-        <v>415</v>
-      </c>
-      <c r="C129" t="s">
-        <v>195</v>
-      </c>
-      <c r="D129" t="s">
-        <v>416</v>
-      </c>
       <c r="E129" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -6845,25 +6800,25 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B130" t="s">
+        <v>416</v>
+      </c>
+      <c r="C130" t="s">
+        <v>171</v>
+      </c>
+      <c r="D130" t="s">
         <v>417</v>
       </c>
-      <c r="B130" t="s">
-        <v>418</v>
-      </c>
-      <c r="C130" t="s">
-        <v>195</v>
-      </c>
-      <c r="D130" t="s">
-        <v>419</v>
-      </c>
       <c r="E130" s="3">
-        <v>12</v>
+        <v>732</v>
       </c>
       <c r="F130" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G130" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -6872,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L130" t="s">
         <v>16</v>
@@ -6880,22 +6835,22 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B131" t="s">
+        <v>419</v>
+      </c>
+      <c r="C131" t="s">
+        <v>304</v>
+      </c>
+      <c r="D131" t="s">
         <v>420</v>
       </c>
-      <c r="B131" t="s">
-        <v>421</v>
-      </c>
-      <c r="C131" t="s">
-        <v>85</v>
-      </c>
-      <c r="D131" t="s">
-        <v>422</v>
-      </c>
       <c r="E131" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F131" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
@@ -6915,19 +6870,19 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B132" t="s">
+        <v>422</v>
+      </c>
+      <c r="C132" t="s">
+        <v>184</v>
+      </c>
+      <c r="D132" t="s">
         <v>423</v>
       </c>
-      <c r="B132" t="s">
-        <v>424</v>
-      </c>
-      <c r="C132" t="s">
-        <v>313</v>
-      </c>
-      <c r="D132" t="s">
-        <v>425</v>
-      </c>
       <c r="E132" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -6950,34 +6905,34 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B133" t="s">
+        <v>425</v>
+      </c>
+      <c r="C133" t="s">
         <v>426</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
         <v>427</v>
       </c>
-      <c r="C133" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133" t="s">
-        <v>428</v>
-      </c>
       <c r="E133" s="3">
-        <v>60406</v>
+        <v>656</v>
       </c>
       <c r="F133" s="3">
-        <v>1073</v>
+        <v>30</v>
       </c>
       <c r="G133" s="3">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="H133" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>607</v>
+        <v>7</v>
       </c>
       <c r="L133" t="s">
         <v>16</v>
@@ -6985,19 +6940,19 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B134" t="s">
         <v>429</v>
       </c>
-      <c r="B134" t="s">
-        <v>303</v>
-      </c>
       <c r="C134" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D134" t="s">
         <v>430</v>
       </c>
       <c r="E134" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -7026,16 +6981,16 @@
         <v>432</v>
       </c>
       <c r="C135" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="D135" t="s">
         <v>433</v>
       </c>
       <c r="E135" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F135" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G135" s="3">
         <v>0</v>
@@ -7061,19 +7016,19 @@
         <v>435</v>
       </c>
       <c r="C136" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D136" t="s">
         <v>436</v>
       </c>
       <c r="E136" s="3">
-        <v>732</v>
+        <v>8</v>
       </c>
       <c r="F136" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G136" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
@@ -7082,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
@@ -7096,19 +7051,19 @@
         <v>438</v>
       </c>
       <c r="C137" t="s">
+        <v>304</v>
+      </c>
+      <c r="D137" t="s">
         <v>439</v>
       </c>
-      <c r="D137" t="s">
-        <v>440</v>
-      </c>
       <c r="E137" s="3">
-        <v>656</v>
+        <v>6</v>
       </c>
       <c r="F137" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G137" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
@@ -7117,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L137" t="s">
         <v>16</v>
@@ -7125,34 +7080,34 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B138" t="s">
         <v>441</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" t="s">
         <v>442</v>
       </c>
-      <c r="C138" t="s">
-        <v>195</v>
-      </c>
-      <c r="D138" t="s">
-        <v>443</v>
-      </c>
       <c r="E138" s="3">
-        <v>9</v>
+        <v>47483</v>
       </c>
       <c r="F138" s="3">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="G138" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="L138" t="s">
         <v>16</v>
@@ -7160,19 +7115,19 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B139" t="s">
         <v>444</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
+        <v>221</v>
+      </c>
+      <c r="D139" t="s">
         <v>445</v>
       </c>
-      <c r="C139" t="s">
-        <v>85</v>
-      </c>
-      <c r="D139" t="s">
-        <v>446</v>
-      </c>
       <c r="E139" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -7195,22 +7150,22 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B140" t="s">
         <v>447</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
+        <v>304</v>
+      </c>
+      <c r="D140" t="s">
         <v>448</v>
       </c>
-      <c r="C140" t="s">
-        <v>85</v>
-      </c>
-      <c r="D140" t="s">
-        <v>449</v>
-      </c>
       <c r="E140" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F140" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G140" s="3">
         <v>0</v>
@@ -7230,19 +7185,19 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B141" t="s">
         <v>450</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>451</v>
-      </c>
-      <c r="C141" t="s">
-        <v>195</v>
       </c>
       <c r="D141" t="s">
         <v>452</v>
       </c>
       <c r="E141" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -7271,28 +7226,28 @@
         <v>454</v>
       </c>
       <c r="C142" t="s">
-        <v>26</v>
+        <v>455</v>
       </c>
       <c r="D142" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E142" s="3">
-        <v>47483</v>
+        <v>14</v>
       </c>
       <c r="F142" s="3">
-        <v>1169</v>
+        <v>0</v>
       </c>
       <c r="G142" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H142" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="L142" t="s">
         <v>16</v>
@@ -7300,25 +7255,25 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B143" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C143" t="s">
-        <v>374</v>
+        <v>459</v>
       </c>
       <c r="D143" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E143" s="3">
-        <v>6</v>
+        <v>1921</v>
       </c>
       <c r="F143" s="3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G143" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
@@ -7327,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L143" t="s">
         <v>16</v>
@@ -7335,19 +7290,19 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B144" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C144" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="D144" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E144" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -7370,22 +7325,22 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B145" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C145" t="s">
-        <v>313</v>
+        <v>466</v>
       </c>
       <c r="D145" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E145" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F145" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -7405,19 +7360,19 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B146" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C146" t="s">
-        <v>85</v>
+        <v>451</v>
       </c>
       <c r="D146" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E146" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -7440,22 +7395,22 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B147" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C147" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D147" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E147" s="3">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="F147" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G147" s="3">
         <v>0</v>
@@ -7475,25 +7430,25 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B148" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C148" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D148" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E148" s="3">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F148" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G148" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
@@ -7510,34 +7465,34 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B149" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C149" t="s">
-        <v>478</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E149" s="3">
-        <v>1921</v>
+        <v>2883</v>
       </c>
       <c r="F149" s="3">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G149" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H149" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L149" t="s">
         <v>16</v>
@@ -7545,19 +7500,19 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B150" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C150" t="s">
-        <v>374</v>
+        <v>246</v>
       </c>
       <c r="D150" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E150" s="3">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -7566,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -7580,25 +7535,25 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B151" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C151" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="D151" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E151" s="3">
-        <v>3</v>
+        <v>5529</v>
       </c>
       <c r="F151" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G151" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H151" s="3">
         <v>0</v>
@@ -7607,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="K151">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="L151" t="s">
         <v>16</v>
@@ -7615,34 +7570,34 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B152" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C152" t="s">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="D152" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E152" s="3">
-        <v>23</v>
+        <v>411533</v>
       </c>
       <c r="F152" s="3">
-        <v>0</v>
+        <v>4290</v>
       </c>
       <c r="G152" s="3">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="H152" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="L152" t="s">
         <v>16</v>
@@ -7650,34 +7605,34 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B153" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C153" t="s">
-        <v>491</v>
+        <v>195</v>
       </c>
       <c r="D153" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E153" s="3">
-        <v>110</v>
+        <v>443934</v>
       </c>
       <c r="F153" s="3">
-        <v>2</v>
+        <v>3514</v>
       </c>
       <c r="G153" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H153" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L153" t="s">
         <v>16</v>
@@ -7685,34 +7640,34 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B154" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C154" t="s">
-        <v>470</v>
+        <v>22</v>
       </c>
       <c r="D154" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E154" s="3">
-        <v>2</v>
+        <v>25592</v>
       </c>
       <c r="F154" s="3">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G154" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H154" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L154" t="s">
         <v>16</v>
@@ -7720,60 +7675,60 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B155" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C155" t="s">
-        <v>498</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
         <v>499</v>
       </c>
       <c r="E155" s="3">
-        <v>94</v>
+        <v>511312</v>
       </c>
       <c r="F155" s="3">
-        <v>6</v>
+        <v>15167</v>
       </c>
       <c r="G155" s="3">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="H155" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L155" t="s">
-        <v>16</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B156" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="D156" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E156" s="3">
-        <v>511312</v>
+        <v>850122</v>
       </c>
       <c r="F156" s="3">
-        <v>15167</v>
+        <v>7412</v>
       </c>
       <c r="G156" s="3">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="H156" s="3">
         <v>1</v>
@@ -7782,10 +7737,10 @@
         <v>0</v>
       </c>
       <c r="K156">
-        <v>201</v>
+        <v>326</v>
       </c>
       <c r="L156" t="s">
-        <v>503</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7796,16 +7751,16 @@
         <v>505</v>
       </c>
       <c r="C157" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="D157" t="s">
         <v>506</v>
       </c>
       <c r="E157" s="3">
-        <v>428</v>
+        <v>72</v>
       </c>
       <c r="F157" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G157" s="3">
         <v>0</v>
@@ -7831,19 +7786,19 @@
         <v>508</v>
       </c>
       <c r="C158" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="D158" t="s">
         <v>509</v>
       </c>
       <c r="E158" s="3">
-        <v>443934</v>
+        <v>18665</v>
       </c>
       <c r="F158" s="3">
-        <v>3514</v>
+        <v>659</v>
       </c>
       <c r="G158" s="3">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H158" s="3">
         <v>1</v>
@@ -7866,19 +7821,19 @@
         <v>511</v>
       </c>
       <c r="C159" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="D159" t="s">
         <v>512</v>
       </c>
       <c r="E159" s="3">
-        <v>275148</v>
+        <v>617</v>
       </c>
       <c r="F159" s="3">
-        <v>2343</v>
+        <v>0</v>
       </c>
       <c r="G159" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H159" s="3">
         <v>1</v>
@@ -7887,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L159" t="s">
         <v>16</v>
@@ -7901,19 +7856,19 @@
         <v>514</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>455</v>
       </c>
       <c r="D160" t="s">
         <v>515</v>
       </c>
       <c r="E160" s="3">
-        <v>566966</v>
+        <v>60</v>
       </c>
       <c r="F160" s="3">
-        <v>18782</v>
+        <v>1</v>
       </c>
       <c r="G160" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H160" s="3">
         <v>1</v>
@@ -7922,10 +7877,10 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>503</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7936,19 +7891,19 @@
         <v>517</v>
       </c>
       <c r="C161" t="s">
-        <v>474</v>
+        <v>256</v>
       </c>
       <c r="D161" t="s">
         <v>518</v>
       </c>
       <c r="E161" s="3">
-        <v>95</v>
+        <v>24890</v>
       </c>
       <c r="F161" s="3">
-        <v>1</v>
+        <v>1321</v>
       </c>
       <c r="G161" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H161" s="3">
         <v>1</v>
@@ -7957,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L161" t="s">
         <v>16</v>
@@ -7971,19 +7926,19 @@
         <v>520</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="D162" t="s">
         <v>521</v>
       </c>
       <c r="E162" s="3">
-        <v>3080</v>
+        <v>74</v>
       </c>
       <c r="F162" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G162" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H162" s="3">
         <v>1</v>
@@ -7992,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="K162">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L162" t="s">
         <v>16</v>
@@ -8006,28 +7961,28 @@
         <v>523</v>
       </c>
       <c r="C163" t="s">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="D163" t="s">
         <v>524</v>
       </c>
       <c r="E163" s="3">
-        <v>20</v>
+        <v>125374</v>
       </c>
       <c r="F163" s="3">
-        <v>0</v>
+        <v>2544</v>
       </c>
       <c r="G163" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>1213</v>
       </c>
       <c r="L163" t="s">
         <v>16</v>
@@ -8041,19 +7996,19 @@
         <v>526</v>
       </c>
       <c r="C164" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="D164" t="s">
         <v>527</v>
       </c>
       <c r="E164" s="3">
-        <v>18665</v>
+        <v>239</v>
       </c>
       <c r="F164" s="3">
-        <v>659</v>
+        <v>2</v>
       </c>
       <c r="G164" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H164" s="3">
         <v>1</v>
@@ -8062,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L164" t="s">
         <v>16</v>
@@ -8076,19 +8031,19 @@
         <v>529</v>
       </c>
       <c r="C165" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="D165" t="s">
         <v>530</v>
       </c>
       <c r="E165" s="3">
-        <v>844</v>
+        <v>8968</v>
       </c>
       <c r="F165" s="3">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G165" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
@@ -8097,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L165" t="s">
         <v>16</v>
@@ -8111,19 +8066,19 @@
         <v>532</v>
       </c>
       <c r="C166" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="D166" t="s">
         <v>533</v>
       </c>
       <c r="E166" s="3">
-        <v>2053</v>
+        <v>3080</v>
       </c>
       <c r="F166" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G166" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H166" s="3">
         <v>1</v>
@@ -8132,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L166" t="s">
         <v>16</v>
@@ -8146,19 +8101,19 @@
         <v>535</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="D167" t="s">
         <v>536</v>
       </c>
       <c r="E167" s="3">
-        <v>2883</v>
+        <v>95</v>
       </c>
       <c r="F167" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G167" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H167" s="3">
         <v>1</v>
@@ -8167,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L167" t="s">
         <v>16</v>
@@ -8181,16 +8136,16 @@
         <v>538</v>
       </c>
       <c r="C168" t="s">
-        <v>313</v>
+        <v>539</v>
       </c>
       <c r="D168" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E168" s="3">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F168" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G168" s="3">
         <v>0</v>
@@ -8210,34 +8165,34 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B169" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="D169" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E169" s="3">
-        <v>3716</v>
+        <v>401869</v>
       </c>
       <c r="F169" s="3">
-        <v>426</v>
+        <v>4640</v>
       </c>
       <c r="G169" s="3">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H169" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="L169" t="s">
         <v>16</v>
@@ -8245,28 +8200,28 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B170" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C170" t="s">
-        <v>545</v>
+        <v>246</v>
       </c>
       <c r="D170" t="s">
         <v>546</v>
       </c>
       <c r="E170" s="3">
-        <v>310</v>
+        <v>428</v>
       </c>
       <c r="F170" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" s="3">
         <v>0</v>
       </c>
       <c r="H170" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -8286,22 +8241,22 @@
         <v>548</v>
       </c>
       <c r="C171" t="s">
-        <v>470</v>
+        <v>386</v>
       </c>
       <c r="D171" t="s">
         <v>549</v>
       </c>
       <c r="E171" s="3">
+        <v>345</v>
+      </c>
+      <c r="F171" s="3">
         <v>6</v>
       </c>
-      <c r="F171" s="3">
-        <v>0</v>
-      </c>
       <c r="G171" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H171" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -8321,19 +8276,19 @@
         <v>551</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="D172" t="s">
         <v>552</v>
       </c>
       <c r="E172" s="3">
-        <v>4759</v>
+        <v>8644</v>
       </c>
       <c r="F172" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="G172" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
@@ -8342,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L172" t="s">
         <v>16</v>
@@ -8356,13 +8311,13 @@
         <v>554</v>
       </c>
       <c r="C173" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="D173" t="s">
         <v>555</v>
       </c>
       <c r="E173" s="3">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F173" s="3">
         <v>1</v>
@@ -8371,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="H173" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -8391,28 +8346,28 @@
         <v>557</v>
       </c>
       <c r="C174" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="D174" t="s">
         <v>558</v>
       </c>
       <c r="E174" s="3">
-        <v>58</v>
+        <v>125335</v>
       </c>
       <c r="F174" s="3">
-        <v>1</v>
+        <v>3458</v>
       </c>
       <c r="G174" s="3">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="H174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>1955</v>
       </c>
       <c r="L174" t="s">
         <v>16</v>
@@ -8426,19 +8381,19 @@
         <v>560</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="D175" t="s">
         <v>561</v>
       </c>
       <c r="E175" s="3">
-        <v>125335</v>
+        <v>266</v>
       </c>
       <c r="F175" s="3">
-        <v>3458</v>
+        <v>6</v>
       </c>
       <c r="G175" s="3">
-        <v>566</v>
+        <v>1</v>
       </c>
       <c r="H175" s="3">
         <v>1</v>
@@ -8447,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="L175" t="s">
         <v>16</v>
@@ -8461,28 +8416,28 @@
         <v>563</v>
       </c>
       <c r="C176" t="s">
-        <v>185</v>
+        <v>451</v>
       </c>
       <c r="D176" t="s">
         <v>564</v>
       </c>
       <c r="E176" s="3">
-        <v>549058</v>
+        <v>6</v>
       </c>
       <c r="F176" s="3">
-        <v>4324</v>
+        <v>0</v>
       </c>
       <c r="G176" s="3">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="H176" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="L176" t="s">
         <v>16</v>
@@ -8496,22 +8451,22 @@
         <v>566</v>
       </c>
       <c r="C177" t="s">
-        <v>498</v>
+        <v>285</v>
       </c>
       <c r="D177" t="s">
         <v>567</v>
       </c>
       <c r="E177" s="3">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="F177" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G177" s="3">
         <v>0</v>
       </c>
       <c r="H177" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -8531,22 +8486,22 @@
         <v>569</v>
       </c>
       <c r="C178" t="s">
-        <v>545</v>
+        <v>396</v>
       </c>
       <c r="D178" t="s">
         <v>570</v>
       </c>
       <c r="E178" s="3">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="F178" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G178" s="3">
         <v>0</v>
       </c>
       <c r="H178" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -8566,19 +8521,19 @@
         <v>572</v>
       </c>
       <c r="C179" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D179" t="s">
         <v>573</v>
       </c>
       <c r="E179" s="3">
-        <v>472979</v>
+        <v>282666</v>
       </c>
       <c r="F179" s="3">
-        <v>20185</v>
+        <v>4159</v>
       </c>
       <c r="G179" s="3">
-        <v>515</v>
+        <v>1024</v>
       </c>
       <c r="H179" s="3">
         <v>1</v>
@@ -8587,10 +8542,10 @@
         <v>0</v>
       </c>
       <c r="K179">
-        <v>260</v>
+        <v>2992</v>
       </c>
       <c r="L179" t="s">
-        <v>503</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8601,7 +8556,7 @@
         <v>575</v>
       </c>
       <c r="C180" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D180" t="s">
         <v>576</v>
@@ -8636,19 +8591,19 @@
         <v>578</v>
       </c>
       <c r="C181" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D181" t="s">
         <v>579</v>
       </c>
       <c r="E181" s="3">
-        <v>401869</v>
+        <v>549058</v>
       </c>
       <c r="F181" s="3">
-        <v>4640</v>
+        <v>4324</v>
       </c>
       <c r="G181" s="3">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
@@ -8657,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="L181" t="s">
         <v>16</v>
@@ -8671,19 +8626,19 @@
         <v>581</v>
       </c>
       <c r="C182" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
         <v>582</v>
       </c>
       <c r="E182" s="3">
-        <v>282666</v>
+        <v>4183126</v>
       </c>
       <c r="F182" s="3">
-        <v>4159</v>
+        <v>49430</v>
       </c>
       <c r="G182" s="3">
-        <v>1024</v>
+        <v>5701</v>
       </c>
       <c r="H182" s="3">
         <v>1</v>
@@ -8692,10 +8647,10 @@
         <v>0</v>
       </c>
       <c r="K182">
-        <v>2992</v>
+        <v>1196</v>
       </c>
       <c r="L182" t="s">
-        <v>16</v>
+        <v>500</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8706,28 +8661,28 @@
         <v>584</v>
       </c>
       <c r="C183" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="D183" t="s">
         <v>585</v>
       </c>
       <c r="E183" s="3">
-        <v>110227</v>
+        <v>23</v>
       </c>
       <c r="F183" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G183" s="3">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="H183" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
       <c r="K183">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="L183" t="s">
         <v>16</v>
@@ -8741,16 +8696,16 @@
         <v>587</v>
       </c>
       <c r="C184" t="s">
-        <v>294</v>
+        <v>477</v>
       </c>
       <c r="D184" t="s">
         <v>588</v>
       </c>
       <c r="E184" s="3">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="F184" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G184" s="3">
         <v>0</v>
@@ -8776,19 +8731,19 @@
         <v>590</v>
       </c>
       <c r="C185" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="D185" t="s">
         <v>591</v>
       </c>
       <c r="E185" s="3">
-        <v>850122</v>
+        <v>2053</v>
       </c>
       <c r="F185" s="3">
-        <v>7412</v>
+        <v>0</v>
       </c>
       <c r="G185" s="3">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
@@ -8797,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="L185" t="s">
         <v>16</v>
@@ -8811,22 +8766,22 @@
         <v>593</v>
       </c>
       <c r="C186" t="s">
-        <v>313</v>
+        <v>466</v>
       </c>
       <c r="D186" t="s">
         <v>594</v>
       </c>
       <c r="E186" s="3">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="F186" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G186" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -8846,28 +8801,28 @@
         <v>596</v>
       </c>
       <c r="C187" t="s">
-        <v>185</v>
+        <v>539</v>
       </c>
       <c r="D187" t="s">
         <v>597</v>
       </c>
       <c r="E187" s="3">
-        <v>411533</v>
+        <v>310</v>
       </c>
       <c r="F187" s="3">
-        <v>4290</v>
+        <v>1</v>
       </c>
       <c r="G187" s="3">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="H187" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="L187" t="s">
         <v>16</v>
@@ -8881,19 +8836,19 @@
         <v>599</v>
       </c>
       <c r="C188" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="D188" t="s">
         <v>600</v>
       </c>
       <c r="E188" s="3">
-        <v>218426</v>
+        <v>110227</v>
       </c>
       <c r="F188" s="3">
-        <v>2691</v>
+        <v>1800</v>
       </c>
       <c r="G188" s="3">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="H188" s="3">
         <v>1</v>
@@ -8902,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>80</v>
+        <v>691</v>
       </c>
       <c r="L188" t="s">
         <v>16</v>
@@ -8916,19 +8871,19 @@
         <v>602</v>
       </c>
       <c r="C189" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D189" t="s">
         <v>603</v>
       </c>
       <c r="E189" s="3">
-        <v>21005</v>
+        <v>218426</v>
       </c>
       <c r="F189" s="3">
-        <v>478</v>
+        <v>2691</v>
       </c>
       <c r="G189" s="3">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="H189" s="3">
         <v>1</v>
@@ -8937,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="L189" t="s">
         <v>16</v>
@@ -8951,16 +8906,16 @@
         <v>605</v>
       </c>
       <c r="C190" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D190" t="s">
         <v>606</v>
       </c>
       <c r="E190" s="3">
-        <v>8644</v>
+        <v>39</v>
       </c>
       <c r="F190" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" s="3">
         <v>0</v>
@@ -8986,19 +8941,19 @@
         <v>608</v>
       </c>
       <c r="C191" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="D191" t="s">
         <v>609</v>
       </c>
       <c r="E191" s="3">
-        <v>222595</v>
+        <v>844</v>
       </c>
       <c r="F191" s="3">
-        <v>9022</v>
+        <v>0</v>
       </c>
       <c r="G191" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H191" s="3">
         <v>1</v>
@@ -9007,10 +8962,10 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L191" t="s">
-        <v>503</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9021,31 +8976,31 @@
         <v>611</v>
       </c>
       <c r="C192" t="s">
-        <v>409</v>
+        <v>14</v>
       </c>
       <c r="D192" t="s">
         <v>612</v>
       </c>
       <c r="E192" s="3">
-        <v>2</v>
+        <v>566966</v>
       </c>
       <c r="F192" s="3">
-        <v>0</v>
+        <v>18782</v>
       </c>
       <c r="G192" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H192" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192">
         <v>0</v>
       </c>
       <c r="K192">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L192" t="s">
-        <v>16</v>
+        <v>500</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9056,19 +9011,19 @@
         <v>614</v>
       </c>
       <c r="C193" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="D193" t="s">
         <v>615</v>
       </c>
       <c r="E193" s="3">
-        <v>72</v>
+        <v>4759</v>
       </c>
       <c r="F193" s="3">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="G193" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H193" s="3">
         <v>1</v>
@@ -9077,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L193" t="s">
         <v>16</v>
@@ -9091,19 +9046,19 @@
         <v>617</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="D194" t="s">
         <v>618</v>
       </c>
       <c r="E194" s="3">
-        <v>4183126</v>
+        <v>275148</v>
       </c>
       <c r="F194" s="3">
-        <v>49430</v>
+        <v>2343</v>
       </c>
       <c r="G194" s="3">
-        <v>5701</v>
+        <v>58</v>
       </c>
       <c r="H194" s="3">
         <v>1</v>
@@ -9112,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="K194">
-        <v>1196</v>
+        <v>99</v>
       </c>
       <c r="L194" t="s">
-        <v>503</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9126,16 +9081,16 @@
         <v>620</v>
       </c>
       <c r="C195" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D195" t="s">
         <v>621</v>
       </c>
       <c r="E195" s="3">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F195" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" s="3">
         <v>0</v>
@@ -9161,19 +9116,19 @@
         <v>623</v>
       </c>
       <c r="C196" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="D196" t="s">
         <v>624</v>
       </c>
       <c r="E196" s="3">
-        <v>125374</v>
+        <v>106</v>
       </c>
       <c r="F196" s="3">
-        <v>2544</v>
+        <v>4</v>
       </c>
       <c r="G196" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H196" s="3">
         <v>1</v>
@@ -9182,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="L196" t="s">
         <v>16</v>
@@ -9196,19 +9151,19 @@
         <v>626</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>455</v>
       </c>
       <c r="D197" t="s">
         <v>627</v>
       </c>
       <c r="E197" s="3">
-        <v>8968</v>
+        <v>95</v>
       </c>
       <c r="F197" s="3">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G197" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H197" s="3">
         <v>1</v>
@@ -9217,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="K197">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L197" t="s">
         <v>16</v>
@@ -9231,19 +9186,19 @@
         <v>629</v>
       </c>
       <c r="C198" t="s">
-        <v>474</v>
+        <v>195</v>
       </c>
       <c r="D198" t="s">
         <v>630</v>
       </c>
       <c r="E198" s="3">
-        <v>60</v>
+        <v>21005</v>
       </c>
       <c r="F198" s="3">
-        <v>1</v>
+        <v>478</v>
       </c>
       <c r="G198" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H198" s="3">
         <v>1</v>
@@ -9252,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="L198" t="s">
         <v>16</v>
@@ -9266,19 +9221,19 @@
         <v>632</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D199" t="s">
         <v>633</v>
       </c>
       <c r="E199" s="3">
-        <v>25592</v>
+        <v>222595</v>
       </c>
       <c r="F199" s="3">
-        <v>221</v>
+        <v>9022</v>
       </c>
       <c r="G199" s="3">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="H199" s="3">
         <v>1</v>
@@ -9287,10 +9242,10 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="L199" t="s">
-        <v>16</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9301,19 +9256,19 @@
         <v>635</v>
       </c>
       <c r="C200" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="D200" t="s">
         <v>636</v>
       </c>
       <c r="E200" s="3">
-        <v>617</v>
+        <v>472979</v>
       </c>
       <c r="F200" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G200" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H200" s="3">
         <v>1</v>
@@ -9322,10 +9277,10 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L200" t="s">
-        <v>16</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9336,16 +9291,16 @@
         <v>638</v>
       </c>
       <c r="C201" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="D201" t="s">
         <v>639</v>
       </c>
       <c r="E201" s="3">
-        <v>239</v>
+        <v>4640</v>
       </c>
       <c r="F201" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G201" s="3">
         <v>0</v>
@@ -9360,181 +9315,6 @@
         <v>0</v>
       </c>
       <c r="L201" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12">
-      <c r="A202" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B202" t="s">
-        <v>641</v>
-      </c>
-      <c r="C202" t="s">
-        <v>255</v>
-      </c>
-      <c r="D202" t="s">
-        <v>642</v>
-      </c>
-      <c r="E202" s="3">
-        <v>4640</v>
-      </c>
-      <c r="F202" s="3">
-        <v>0</v>
-      </c>
-      <c r="G202" s="3">
-        <v>0</v>
-      </c>
-      <c r="H202" s="3">
-        <v>1</v>
-      </c>
-      <c r="J202">
-        <v>0</v>
-      </c>
-      <c r="K202">
-        <v>0</v>
-      </c>
-      <c r="L202" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12">
-      <c r="A203" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B203" t="s">
-        <v>644</v>
-      </c>
-      <c r="C203" t="s">
-        <v>390</v>
-      </c>
-      <c r="D203" t="s">
-        <v>645</v>
-      </c>
-      <c r="E203" s="3">
-        <v>345</v>
-      </c>
-      <c r="F203" s="3">
-        <v>6</v>
-      </c>
-      <c r="G203" s="3">
-        <v>2</v>
-      </c>
-      <c r="H203" s="3">
-        <v>1</v>
-      </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
-      <c r="K203">
-        <v>0</v>
-      </c>
-      <c r="L203" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12">
-      <c r="A204" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="B204" t="s">
-        <v>647</v>
-      </c>
-      <c r="C204" t="s">
-        <v>259</v>
-      </c>
-      <c r="D204" t="s">
-        <v>648</v>
-      </c>
-      <c r="E204" s="3">
-        <v>24890</v>
-      </c>
-      <c r="F204" s="3">
-        <v>1321</v>
-      </c>
-      <c r="G204" s="3">
-        <v>34</v>
-      </c>
-      <c r="H204" s="3">
-        <v>1</v>
-      </c>
-      <c r="J204">
-        <v>0</v>
-      </c>
-      <c r="K204">
-        <v>154</v>
-      </c>
-      <c r="L204" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12">
-      <c r="A205" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B205" t="s">
-        <v>650</v>
-      </c>
-      <c r="C205" t="s">
-        <v>255</v>
-      </c>
-      <c r="D205" t="s">
-        <v>651</v>
-      </c>
-      <c r="E205" s="3">
-        <v>87</v>
-      </c>
-      <c r="F205" s="3">
-        <v>0</v>
-      </c>
-      <c r="G205" s="3">
-        <v>0</v>
-      </c>
-      <c r="H205" s="3">
-        <v>1</v>
-      </c>
-      <c r="J205">
-        <v>0</v>
-      </c>
-      <c r="K205">
-        <v>0</v>
-      </c>
-      <c r="L205" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12">
-      <c r="A206" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B206" t="s">
-        <v>653</v>
-      </c>
-      <c r="C206" t="s">
-        <v>294</v>
-      </c>
-      <c r="D206" t="s">
-        <v>654</v>
-      </c>
-      <c r="E206" s="3">
-        <v>95</v>
-      </c>
-      <c r="F206" s="3">
-        <v>0</v>
-      </c>
-      <c r="G206" s="3">
-        <v>0</v>
-      </c>
-      <c r="H206" s="3">
-        <v>1</v>
-      </c>
-      <c r="J206">
-        <v>0</v>
-      </c>
-      <c r="K206">
-        <v>0</v>
-      </c>
-      <c r="L206" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9739,11 +9519,6 @@
     <hyperlink ref="A199" r:id="rId197"/>
     <hyperlink ref="A200" r:id="rId198"/>
     <hyperlink ref="A201" r:id="rId199"/>
-    <hyperlink ref="A202" r:id="rId200"/>
-    <hyperlink ref="A203" r:id="rId201"/>
-    <hyperlink ref="A204" r:id="rId202"/>
-    <hyperlink ref="A205" r:id="rId203"/>
-    <hyperlink ref="A206" r:id="rId204"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9766,7 +9541,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>250002</v>
+        <v>248970</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9774,7 +9549,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>90707</v>
+        <v>90511</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9790,31 +9565,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>49710</v>
+        <v>49645</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B5">
-        <v>11738</v>
+        <v>11616</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="B6">
-        <v>11719</v>
+        <v>10919</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7">
-        <v>10160</v>
+        <v>10111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9822,7 +9597,7 @@
         <v>71</v>
       </c>
       <c r="B8">
-        <v>7612</v>
+        <v>7334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9830,12 +9605,12 @@
         <v>52</v>
       </c>
       <c r="B9">
-        <v>5866</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B10">
         <v>2881</v>
@@ -9843,39 +9618,39 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B11">
-        <v>2688</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B12">
-        <v>1081</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="B13">
-        <v>910</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="B14">
-        <v>837</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B15">
         <v>571</v>
@@ -9883,31 +9658,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B16">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B17">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B18">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B19">
         <v>135</v>
@@ -9915,55 +9690,55 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B20">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B21">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -9971,15 +9746,15 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -9987,7 +9762,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -9995,7 +9770,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B30">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -818,6 +818,15 @@
     <t>2019-12-28T08:24:58.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=y4PduURvOpw</t>
+  </si>
+  <si>
+    <t>L’exécutif à l’épreuve de la grève   Journal du 9 décembre 2019   Vidéo dailymotion</t>
+  </si>
+  <si>
+    <t>2019-12-09T19:39:35.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=o53Sh7F_D0o</t>
   </si>
   <si>
@@ -827,15 +836,6 @@
     <t>2019-11-24T08:00:11.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=y4PduURvOpw</t>
-  </si>
-  <si>
-    <t>L’exécutif à l’épreuve de la grève   Journal du 9 décembre 2019   Vidéo dailymotion</t>
-  </si>
-  <si>
-    <t>2019-12-09T19:39:35.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
   </si>
   <si>
@@ -1007,6 +1007,24 @@
     <t>2019-12-12T20:47:48.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=O_Ax717SQVw</t>
+  </si>
+  <si>
+    <t>I Média n°275 – Zemmour et Valeurs Actuelles attaqués   guerre totale contre la liberté d’expression</t>
+  </si>
+  <si>
+    <t>2019-12-05T21:13:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
   </si>
   <si>
@@ -1016,24 +1034,6 @@
     <t>2019-12-17T16:58:46.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=O_Ax717SQVw</t>
-  </si>
-  <si>
-    <t>I Média n°275 – Zemmour et Valeurs Actuelles attaqués   guerre totale contre la liberté d’expression</t>
-  </si>
-  <si>
-    <t>2019-12-05T21:13:16.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
   </si>
   <si>
@@ -1079,6 +1079,15 @@
     <t>2019-12-05T11:56:34.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
+  </si>
+  <si>
+    <t>Le conflit Ukranien entre Poutine vs Zelensky en présence de Macron et Merkel</t>
+  </si>
+  <si>
+    <t>2019-12-10T13:10:03.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
   </si>
   <si>
@@ -1088,15 +1097,6 @@
     <t>2019-12-13T16:42:52.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
-  </si>
-  <si>
-    <t>Le conflit Ukranien entre Poutine vs Zelensky en présence de Macron et Merkel</t>
-  </si>
-  <si>
-    <t>2019-12-10T13:10:03.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
   </si>
   <si>
@@ -1208,6 +1208,15 @@
     <t>2018-12-12T15:20:36.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
+  </si>
+  <si>
+    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
+  </si>
+  <si>
+    <t>2019-12-04T16:10:34.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=_TEHesD6ckg</t>
   </si>
   <si>
@@ -1220,15 +1229,6 @@
     <t>2019-12-03T10:17:14.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
-  </si>
-  <si>
-    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
-  </si>
-  <si>
-    <t>2019-12-04T16:10:34.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Fo83Em0AtcU</t>
   </si>
   <si>
@@ -1265,6 +1265,15 @@
     <t>2019-12-12T17:17:05.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=J87kE8T12p8</t>
   </si>
   <si>
@@ -1289,15 +1298,6 @@
     <t>2019-11-29T15:13:43.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
   </si>
   <si>
@@ -1328,6 +1328,15 @@
     <t>2019-12-16T20:27:57.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=1m6k2ptoE9o</t>
+  </si>
+  <si>
+    <t>L'hommage national aux 13 soldats morts au Mali</t>
+  </si>
+  <si>
+    <t>2019-12-02T16:30:58.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
   </si>
   <si>
@@ -1337,15 +1346,6 @@
     <t>2019-12-19T17:59:43.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=1m6k2ptoE9o</t>
-  </si>
-  <si>
-    <t>L'hommage national aux 13 soldats morts au Mali</t>
-  </si>
-  <si>
-    <t>2019-12-02T16:30:58.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
   </si>
   <si>
@@ -1376,6 +1376,27 @@
     <t>2019-12-12T13:19:08.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=3z96rB0K4WE</t>
+  </si>
+  <si>
+    <t>La Baïse après les intempéries</t>
+  </si>
+  <si>
+    <t>2019-12-14T16:31:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
   </si>
   <si>
@@ -1388,25 +1409,28 @@
     <t>2019-11-12T14:26:22.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3z96rB0K4WE</t>
-  </si>
-  <si>
-    <t>La Baïse après les intempéries</t>
-  </si>
-  <si>
-    <t>2019-12-14T16:31:31.000Z</t>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
@@ -1418,30 +1442,6 @@
     <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
   </si>
   <si>
@@ -1454,6 +1454,354 @@
     <t>2017-05-12T12:03:56.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
+  </si>
+  <si>
+    <t>29 10 BFMTV 2019</t>
+  </si>
+  <si>
+    <t>2019-11-15T10:08:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
+  </si>
+  <si>
+    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
+  </si>
+  <si>
+    <t>2018-09-07T09:19:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_HYW_NDXILY</t>
+  </si>
+  <si>
+    <t>Message personnel à M.Macron</t>
+  </si>
+  <si>
+    <t>2019-12-01T10:25:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
+  </si>
+  <si>
+    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
+  </si>
+  <si>
+    <t>2018-11-22T17:23:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
+  </si>
+  <si>
+    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-02-28T18:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
+  </si>
+  <si>
+    <t>ZER - Face A Moi Même</t>
+  </si>
+  <si>
+    <t>2016-10-30T19:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
+  </si>
+  <si>
+    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2013-11-08T18:25:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
+  </si>
+  <si>
+    <t>ZER - T'es La Bonne (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-05-15T16:28:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
+  </si>
+  <si>
+    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
+  </si>
+  <si>
+    <t>2018-09-17T13:20:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
+  </si>
+  <si>
+    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-03-06T18:02:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
+  </si>
+  <si>
+    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2018-11-14T10:21:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
+  </si>
+  <si>
+    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
+  </si>
+  <si>
+    <t>2019-11-19T12:31:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
+  </si>
+  <si>
+    <t>Un ex associé de Francis Lalanne</t>
+  </si>
+  <si>
+    <t>2019-05-23T10:05:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
+  </si>
+  <si>
+    <t>Installation Photovoltaïque à Guérande</t>
+  </si>
+  <si>
+    <t>2019-11-22T14:45:23.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
+  </si>
+  <si>
+    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-08-01T17:58:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
   </si>
   <si>
@@ -1463,6 +1811,78 @@
     <t>2013-08-20T18:23:36.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
+  </si>
+  <si>
+    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
+  </si>
+  <si>
+    <t>2019-03-27T22:40:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
+  </si>
+  <si>
+    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2016-01-24T17:05:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
+  </si>
+  <si>
+    <t>François le Français... euh non, l’ami des oligarques...</t>
+  </si>
+  <si>
+    <t>2019-04-28T13:50:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
   </si>
   <si>
@@ -1472,264 +1892,6 @@
     <t>2019-11-02T08:00:08.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
-  </si>
-  <si>
-    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
-  </si>
-  <si>
-    <t>2019-03-27T22:40:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
-  </si>
-  <si>
-    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
-  </si>
-  <si>
-    <t>2018-11-22T17:23:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
-  </si>
-  <si>
-    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
-  </si>
-  <si>
-    <t>2018-09-07T09:19:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
-  </si>
-  <si>
-    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
-  </si>
-  <si>
-    <t>2018-09-17T13:20:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
-  </si>
-  <si>
-    <t>François le Français... euh non, l’ami des oligarques...</t>
-  </si>
-  <si>
-    <t>2019-04-28T13:50:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
-  </si>
-  <si>
-    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2016-01-24T17:05:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
-  </si>
-  <si>
-    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
-  </si>
-  <si>
-    <t>2019-11-19T12:31:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
-  </si>
-  <si>
-    <t>ZER - T'es La Bonne (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-05-15T16:28:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
-  </si>
-  <si>
-    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-08-01T17:58:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_HYW_NDXILY</t>
-  </si>
-  <si>
-    <t>Message personnel à M.Macron</t>
-  </si>
-  <si>
-    <t>2019-12-01T10:25:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
-  </si>
-  <si>
-    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2018-11-14T10:21:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
   </si>
   <si>
@@ -1737,168 +1899,6 @@
   </si>
   <si>
     <t>2019-03-21T23:00:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
-  </si>
-  <si>
-    <t>ZER - Face A Moi Même</t>
-  </si>
-  <si>
-    <t>2016-10-30T19:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
-  </si>
-  <si>
-    <t>Installation Photovoltaïque à Guérande</t>
-  </si>
-  <si>
-    <t>2019-11-22T14:45:23.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
-  </si>
-  <si>
-    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-03-06T18:02:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
-  </si>
-  <si>
-    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2013-11-08T18:25:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
-  </si>
-  <si>
-    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-02-28T18:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tK3Ya97JvB4</t>
-  </si>
-  <si>
-    <t>29 10 BFMTV 2019</t>
-  </si>
-  <si>
-    <t>2019-11-15T10:08:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
-  </si>
-  <si>
-    <t>Un ex associé de Francis Lalanne</t>
-  </si>
-  <si>
-    <t>2019-05-23T10:05:27.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -5090,19 +5090,19 @@
         <v>268</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="D82" t="s">
         <v>269</v>
       </c>
       <c r="E82" s="3">
-        <v>3462</v>
+        <v>143</v>
       </c>
       <c r="F82" s="3">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G82" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
@@ -5125,19 +5125,19 @@
         <v>271</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="D83" t="s">
         <v>272</v>
       </c>
       <c r="E83" s="3">
-        <v>143</v>
+        <v>3462</v>
       </c>
       <c r="F83" s="3">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="G83" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="L83" t="s">
         <v>16</v>
@@ -5790,7 +5790,7 @@
         <v>331</v>
       </c>
       <c r="C102" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D102" t="s">
         <v>332</v>
@@ -5799,7 +5799,7 @@
         <v>52</v>
       </c>
       <c r="F102" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -5860,7 +5860,7 @@
         <v>337</v>
       </c>
       <c r="C104" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="D104" t="s">
         <v>338</v>
@@ -5869,7 +5869,7 @@
         <v>52</v>
       </c>
       <c r="F104" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G104" s="3">
         <v>0</v>
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
@@ -6070,7 +6070,7 @@
         <v>355</v>
       </c>
       <c r="C110" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="D110" t="s">
         <v>356</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>358</v>
       </c>
       <c r="C111" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="D111" t="s">
         <v>359</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -6560,19 +6560,19 @@
         <v>398</v>
       </c>
       <c r="C124" t="s">
+        <v>301</v>
+      </c>
+      <c r="D124" t="s">
         <v>399</v>
-      </c>
-      <c r="D124" t="s">
-        <v>400</v>
       </c>
       <c r="E124" s="3">
         <v>15</v>
       </c>
       <c r="F124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
@@ -6589,13 +6589,13 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B125" t="s">
         <v>401</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>402</v>
-      </c>
-      <c r="C125" t="s">
-        <v>301</v>
       </c>
       <c r="D125" t="s">
         <v>403</v>
@@ -6604,10 +6604,10 @@
         <v>15</v>
       </c>
       <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="3">
         <v>1</v>
-      </c>
-      <c r="G125" s="3">
-        <v>0</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
@@ -6767,22 +6767,22 @@
         <v>416</v>
       </c>
       <c r="B130" t="s">
-        <v>310</v>
+        <v>417</v>
       </c>
       <c r="C130" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D130" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E130" s="3">
-        <v>10</v>
+        <v>732</v>
       </c>
       <c r="F130" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G130" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L130" t="s">
         <v>16</v>
@@ -6799,34 +6799,34 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B131" t="s">
-        <v>419</v>
+        <v>310</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="D131" t="s">
         <v>420</v>
       </c>
       <c r="E131" s="3">
-        <v>60406</v>
+        <v>10</v>
       </c>
       <c r="F131" s="3">
-        <v>1073</v>
+        <v>0</v>
       </c>
       <c r="G131" s="3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="L131" t="s">
         <v>16</v>
@@ -6840,28 +6840,28 @@
         <v>422</v>
       </c>
       <c r="C132" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
         <v>423</v>
       </c>
       <c r="E132" s="3">
-        <v>44</v>
+        <v>60406</v>
       </c>
       <c r="F132" s="3">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="G132" s="3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H132" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="L132" t="s">
         <v>16</v>
@@ -6875,19 +6875,19 @@
         <v>425</v>
       </c>
       <c r="C133" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="D133" t="s">
         <v>426</v>
       </c>
       <c r="E133" s="3">
-        <v>732</v>
+        <v>44</v>
       </c>
       <c r="F133" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G133" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L133" t="s">
         <v>16</v>
@@ -7015,7 +7015,7 @@
         <v>438</v>
       </c>
       <c r="C137" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="D137" t="s">
         <v>439</v>
@@ -7050,7 +7050,7 @@
         <v>441</v>
       </c>
       <c r="C138" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="D138" t="s">
         <v>442</v>
@@ -7190,13 +7190,13 @@
         <v>454</v>
       </c>
       <c r="C142" t="s">
+        <v>282</v>
+      </c>
+      <c r="D142" t="s">
         <v>455</v>
       </c>
-      <c r="D142" t="s">
-        <v>456</v>
-      </c>
       <c r="E142" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -7219,16 +7219,16 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B143" t="s">
         <v>457</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>458</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>459</v>
-      </c>
-      <c r="D143" t="s">
-        <v>460</v>
       </c>
       <c r="E143" s="3">
         <v>1921</v>
@@ -7254,19 +7254,19 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B144" t="s">
         <v>461</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>462</v>
-      </c>
-      <c r="C144" t="s">
-        <v>282</v>
       </c>
       <c r="D144" t="s">
         <v>463</v>
       </c>
       <c r="E144" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -7295,16 +7295,16 @@
         <v>465</v>
       </c>
       <c r="C145" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D145" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E145" s="3">
+        <v>110</v>
+      </c>
+      <c r="F145" s="3">
         <v>2</v>
-      </c>
-      <c r="F145" s="3">
-        <v>0</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -7324,22 +7324,22 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B146" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C146" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D146" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E146" s="3">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="F146" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G146" s="3">
         <v>0</v>
@@ -7359,13 +7359,13 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B147" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C147" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="D147" t="s">
         <v>474</v>
@@ -7435,28 +7435,28 @@
         <v>480</v>
       </c>
       <c r="C149" t="s">
-        <v>211</v>
+        <v>402</v>
       </c>
       <c r="D149" t="s">
         <v>481</v>
       </c>
       <c r="E149" s="3">
-        <v>275148</v>
+        <v>2</v>
       </c>
       <c r="F149" s="3">
-        <v>2343</v>
+        <v>0</v>
       </c>
       <c r="G149" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H149" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L149" t="s">
         <v>16</v>
@@ -7470,19 +7470,19 @@
         <v>483</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="D150" t="s">
         <v>484</v>
       </c>
       <c r="E150" s="3">
-        <v>8968</v>
+        <v>39</v>
       </c>
       <c r="F150" s="3">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G150" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H150" s="3">
         <v>1</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L150" t="s">
         <v>16</v>
@@ -7505,28 +7505,28 @@
         <v>486</v>
       </c>
       <c r="C151" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D151" t="s">
         <v>487</v>
       </c>
       <c r="E151" s="3">
-        <v>282666</v>
+        <v>7161</v>
       </c>
       <c r="F151" s="3">
-        <v>4159</v>
+        <v>836</v>
       </c>
       <c r="G151" s="3">
-        <v>1024</v>
+        <v>26</v>
       </c>
       <c r="H151" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151">
-        <v>2992</v>
+        <v>0</v>
       </c>
       <c r="L151" t="s">
         <v>16</v>
@@ -7540,19 +7540,19 @@
         <v>489</v>
       </c>
       <c r="C152" t="s">
-        <v>395</v>
+        <v>259</v>
       </c>
       <c r="D152" t="s">
         <v>490</v>
       </c>
       <c r="E152" s="3">
-        <v>345</v>
+        <v>4640</v>
       </c>
       <c r="F152" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G152" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H152" s="3">
         <v>1</v>
@@ -7575,31 +7575,31 @@
         <v>492</v>
       </c>
       <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" t="s">
         <v>493</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" s="3">
+        <v>222595</v>
+      </c>
+      <c r="F153" s="3">
+        <v>9022</v>
+      </c>
+      <c r="G153" s="3">
+        <v>147</v>
+      </c>
+      <c r="H153" s="3">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>130</v>
+      </c>
+      <c r="L153" t="s">
         <v>494</v>
-      </c>
-      <c r="E153" s="3">
-        <v>3</v>
-      </c>
-      <c r="F153" s="3">
-        <v>0</v>
-      </c>
-      <c r="G153" s="3">
-        <v>0</v>
-      </c>
-      <c r="H153" s="3">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7610,19 +7610,19 @@
         <v>496</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="D154" t="s">
         <v>497</v>
       </c>
       <c r="E154" s="3">
-        <v>222595</v>
+        <v>95</v>
       </c>
       <c r="F154" s="3">
-        <v>9022</v>
+        <v>0</v>
       </c>
       <c r="G154" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H154" s="3">
         <v>1</v>
@@ -7631,33 +7631,33 @@
         <v>0</v>
       </c>
       <c r="K154">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>498</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B155" t="s">
         <v>499</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
+        <v>275</v>
+      </c>
+      <c r="D155" t="s">
         <v>500</v>
       </c>
-      <c r="C155" t="s">
-        <v>234</v>
-      </c>
-      <c r="D155" t="s">
-        <v>501</v>
-      </c>
       <c r="E155" s="3">
-        <v>39</v>
+        <v>69498</v>
       </c>
       <c r="F155" s="3">
-        <v>1</v>
+        <v>1189</v>
       </c>
       <c r="G155" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H155" s="3">
         <v>1</v>
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L155" t="s">
         <v>16</v>
@@ -7674,25 +7674,25 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B156" t="s">
         <v>502</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
+        <v>259</v>
+      </c>
+      <c r="D156" t="s">
         <v>503</v>
       </c>
-      <c r="C156" t="s">
-        <v>34</v>
-      </c>
-      <c r="D156" t="s">
-        <v>504</v>
-      </c>
       <c r="E156" s="3">
-        <v>2883</v>
+        <v>428</v>
       </c>
       <c r="F156" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G156" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H156" s="3">
         <v>1</v>
@@ -7701,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="K156">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L156" t="s">
         <v>16</v>
@@ -7709,34 +7709,34 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B157" t="s">
         <v>505</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
+        <v>451</v>
+      </c>
+      <c r="D157" t="s">
         <v>506</v>
       </c>
-      <c r="C157" t="s">
-        <v>275</v>
-      </c>
-      <c r="D157" t="s">
-        <v>507</v>
-      </c>
       <c r="E157" s="3">
-        <v>24890</v>
+        <v>6</v>
       </c>
       <c r="F157" s="3">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="G157" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H157" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L157" t="s">
         <v>16</v>
@@ -7744,25 +7744,25 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B158" t="s">
         <v>508</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" t="s">
         <v>509</v>
       </c>
-      <c r="C158" t="s">
-        <v>301</v>
-      </c>
-      <c r="D158" t="s">
-        <v>510</v>
-      </c>
       <c r="E158" s="3">
-        <v>239</v>
+        <v>25592</v>
       </c>
       <c r="F158" s="3">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="G158" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H158" s="3">
         <v>1</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="K158">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L158" t="s">
         <v>16</v>
@@ -7779,25 +7779,25 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B159" t="s">
         <v>511</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
+        <v>395</v>
+      </c>
+      <c r="D159" t="s">
         <v>512</v>
       </c>
-      <c r="C159" t="s">
-        <v>259</v>
-      </c>
-      <c r="D159" t="s">
-        <v>513</v>
-      </c>
       <c r="E159" s="3">
-        <v>428</v>
+        <v>345</v>
       </c>
       <c r="F159" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G159" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" s="3">
         <v>1</v>
@@ -7814,22 +7814,22 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B160" t="s">
         <v>514</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
+        <v>301</v>
+      </c>
+      <c r="D160" t="s">
         <v>515</v>
       </c>
-      <c r="C160" t="s">
-        <v>455</v>
-      </c>
-      <c r="D160" t="s">
-        <v>516</v>
-      </c>
       <c r="E160" s="3">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F160" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" s="3">
         <v>0</v>
@@ -7849,34 +7849,34 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B161" t="s">
         <v>517</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>518</v>
-      </c>
-      <c r="C161" t="s">
-        <v>22</v>
       </c>
       <c r="D161" t="s">
         <v>519</v>
       </c>
       <c r="E161" s="3">
-        <v>125335</v>
+        <v>3</v>
       </c>
       <c r="F161" s="3">
-        <v>3458</v>
+        <v>0</v>
       </c>
       <c r="G161" s="3">
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="H161" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
       <c r="K161">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="L161" t="s">
         <v>16</v>
@@ -7896,13 +7896,13 @@
         <v>522</v>
       </c>
       <c r="E162" s="3">
-        <v>218426</v>
+        <v>549058</v>
       </c>
       <c r="F162" s="3">
-        <v>2691</v>
+        <v>4324</v>
       </c>
       <c r="G162" s="3">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="H162" s="3">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="K162">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="L162" t="s">
         <v>16</v>
@@ -7925,13 +7925,13 @@
         <v>524</v>
       </c>
       <c r="C163" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="D163" t="s">
         <v>525</v>
       </c>
       <c r="E163" s="3">
-        <v>20</v>
+        <v>617</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="H163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -7960,19 +7960,19 @@
         <v>527</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="D164" t="s">
         <v>528</v>
       </c>
       <c r="E164" s="3">
-        <v>74953</v>
+        <v>21005</v>
       </c>
       <c r="F164" s="3">
-        <v>1016</v>
+        <v>478</v>
       </c>
       <c r="G164" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H164" s="3">
         <v>1</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="L164" t="s">
         <v>16</v>
@@ -7995,22 +7995,22 @@
         <v>530</v>
       </c>
       <c r="C165" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="D165" t="s">
         <v>531</v>
       </c>
       <c r="E165" s="3">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="F165" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G165" s="3">
         <v>0</v>
       </c>
       <c r="H165" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -8030,19 +8030,19 @@
         <v>533</v>
       </c>
       <c r="C166" t="s">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="D166" t="s">
         <v>534</v>
       </c>
       <c r="E166" s="3">
-        <v>74</v>
+        <v>443934</v>
       </c>
       <c r="F166" s="3">
-        <v>0</v>
+        <v>3514</v>
       </c>
       <c r="G166" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H166" s="3">
         <v>1</v>
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L166" t="s">
         <v>16</v>
@@ -8065,19 +8065,19 @@
         <v>536</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="D167" t="s">
         <v>537</v>
       </c>
       <c r="E167" s="3">
-        <v>3080</v>
+        <v>401869</v>
       </c>
       <c r="F167" s="3">
-        <v>58</v>
+        <v>4640</v>
       </c>
       <c r="G167" s="3">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="H167" s="3">
         <v>1</v>
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="L167" t="s">
         <v>16</v>
@@ -8100,19 +8100,19 @@
         <v>539</v>
       </c>
       <c r="C168" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="D168" t="s">
         <v>540</v>
       </c>
       <c r="E168" s="3">
-        <v>844</v>
+        <v>511312</v>
       </c>
       <c r="F168" s="3">
-        <v>0</v>
+        <v>15167</v>
       </c>
       <c r="G168" s="3">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="H168" s="3">
         <v>1</v>
@@ -8121,10 +8121,10 @@
         <v>0</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L168" t="s">
-        <v>16</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8135,19 +8135,19 @@
         <v>542</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="D169" t="s">
         <v>543</v>
       </c>
       <c r="E169" s="3">
-        <v>4759</v>
+        <v>87</v>
       </c>
       <c r="F169" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="G169" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H169" s="3">
         <v>1</v>
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="K169">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L169" t="s">
         <v>16</v>
@@ -8170,19 +8170,19 @@
         <v>545</v>
       </c>
       <c r="C170" t="s">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="D170" t="s">
         <v>546</v>
       </c>
       <c r="E170" s="3">
-        <v>401869</v>
+        <v>24890</v>
       </c>
       <c r="F170" s="3">
-        <v>4640</v>
+        <v>1321</v>
       </c>
       <c r="G170" s="3">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="K170">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="L170" t="s">
         <v>16</v>
@@ -8205,19 +8205,19 @@
         <v>548</v>
       </c>
       <c r="C171" t="s">
-        <v>211</v>
+        <v>462</v>
       </c>
       <c r="D171" t="s">
         <v>549</v>
       </c>
       <c r="E171" s="3">
-        <v>850122</v>
+        <v>95</v>
       </c>
       <c r="F171" s="3">
-        <v>7412</v>
+        <v>1</v>
       </c>
       <c r="G171" s="3">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="K171">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="L171" t="s">
         <v>16</v>
@@ -8240,19 +8240,19 @@
         <v>551</v>
       </c>
       <c r="C172" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="D172" t="s">
         <v>552</v>
       </c>
       <c r="E172" s="3">
-        <v>617</v>
+        <v>411533</v>
       </c>
       <c r="F172" s="3">
-        <v>0</v>
+        <v>4290</v>
       </c>
       <c r="G172" s="3">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="L172" t="s">
         <v>16</v>
@@ -8275,19 +8275,19 @@
         <v>554</v>
       </c>
       <c r="C173" t="s">
-        <v>301</v>
+        <v>34</v>
       </c>
       <c r="D173" t="s">
         <v>555</v>
       </c>
       <c r="E173" s="3">
-        <v>95</v>
+        <v>4759</v>
       </c>
       <c r="F173" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G173" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H173" s="3">
         <v>1</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L173" t="s">
         <v>16</v>
@@ -8310,22 +8310,22 @@
         <v>557</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>462</v>
       </c>
       <c r="D174" t="s">
         <v>558</v>
       </c>
       <c r="E174" s="3">
-        <v>7161</v>
+        <v>60</v>
       </c>
       <c r="F174" s="3">
-        <v>836</v>
+        <v>1</v>
       </c>
       <c r="G174" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -8345,22 +8345,22 @@
         <v>560</v>
       </c>
       <c r="C175" t="s">
-        <v>455</v>
+        <v>301</v>
       </c>
       <c r="D175" t="s">
         <v>561</v>
       </c>
       <c r="E175" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F175" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" s="3">
         <v>0</v>
       </c>
       <c r="H175" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -8380,19 +8380,19 @@
         <v>563</v>
       </c>
       <c r="C176" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D176" t="s">
         <v>564</v>
       </c>
       <c r="E176" s="3">
-        <v>4183126</v>
+        <v>3080</v>
       </c>
       <c r="F176" s="3">
-        <v>49430</v>
+        <v>58</v>
       </c>
       <c r="G176" s="3">
-        <v>5701</v>
+        <v>5</v>
       </c>
       <c r="H176" s="3">
         <v>1</v>
@@ -8401,10 +8401,10 @@
         <v>0</v>
       </c>
       <c r="K176">
-        <v>1196</v>
+        <v>13</v>
       </c>
       <c r="L176" t="s">
-        <v>498</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8421,7 +8421,7 @@
         <v>567</v>
       </c>
       <c r="E177" s="3">
-        <v>2053</v>
+        <v>844</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
@@ -8450,16 +8450,16 @@
         <v>569</v>
       </c>
       <c r="C178" t="s">
-        <v>477</v>
+        <v>259</v>
       </c>
       <c r="D178" t="s">
         <v>570</v>
       </c>
       <c r="E178" s="3">
-        <v>88</v>
+        <v>2053</v>
       </c>
       <c r="F178" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G178" s="3">
         <v>0</v>
@@ -8485,19 +8485,19 @@
         <v>572</v>
       </c>
       <c r="C179" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="D179" t="s">
         <v>573</v>
       </c>
       <c r="E179" s="3">
-        <v>110227</v>
+        <v>23</v>
       </c>
       <c r="F179" s="3">
-        <v>1800</v>
+        <v>1</v>
       </c>
       <c r="G179" s="3">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="H179" s="3">
         <v>1</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="K179">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="L179" t="s">
         <v>16</v>
@@ -8520,19 +8520,19 @@
         <v>575</v>
       </c>
       <c r="C180" t="s">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="D180" t="s">
         <v>576</v>
       </c>
       <c r="E180" s="3">
-        <v>566966</v>
+        <v>239</v>
       </c>
       <c r="F180" s="3">
-        <v>18782</v>
+        <v>2</v>
       </c>
       <c r="G180" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H180" s="3">
         <v>1</v>
@@ -8541,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="K180">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>498</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8555,19 +8555,19 @@
         <v>578</v>
       </c>
       <c r="C181" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="D181" t="s">
         <v>579</v>
       </c>
       <c r="E181" s="3">
-        <v>21005</v>
+        <v>125374</v>
       </c>
       <c r="F181" s="3">
-        <v>478</v>
+        <v>2544</v>
       </c>
       <c r="G181" s="3">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <v>61</v>
+        <v>1213</v>
       </c>
       <c r="L181" t="s">
         <v>16</v>
@@ -8590,19 +8590,19 @@
         <v>581</v>
       </c>
       <c r="C182" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
         <v>582</v>
       </c>
       <c r="E182" s="3">
-        <v>18665</v>
+        <v>472979</v>
       </c>
       <c r="F182" s="3">
-        <v>659</v>
+        <v>20185</v>
       </c>
       <c r="G182" s="3">
-        <v>14</v>
+        <v>515</v>
       </c>
       <c r="H182" s="3">
         <v>1</v>
@@ -8611,10 +8611,10 @@
         <v>0</v>
       </c>
       <c r="K182">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="L182" t="s">
-        <v>16</v>
+        <v>494</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8660,19 +8660,19 @@
         <v>587</v>
       </c>
       <c r="C184" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="D184" t="s">
         <v>588</v>
       </c>
       <c r="E184" s="3">
-        <v>8644</v>
+        <v>850122</v>
       </c>
       <c r="F184" s="3">
-        <v>0</v>
+        <v>7412</v>
       </c>
       <c r="G184" s="3">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="H184" s="3">
         <v>1</v>
@@ -8681,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="K184">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="L184" t="s">
         <v>16</v>
@@ -8695,19 +8695,19 @@
         <v>590</v>
       </c>
       <c r="C185" t="s">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="D185" t="s">
         <v>591</v>
       </c>
       <c r="E185" s="3">
-        <v>87</v>
+        <v>74953</v>
       </c>
       <c r="F185" s="3">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="G185" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L185" t="s">
         <v>16</v>
@@ -8730,19 +8730,19 @@
         <v>593</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="D186" t="s">
         <v>594</v>
       </c>
       <c r="E186" s="3">
-        <v>472979</v>
+        <v>18665</v>
       </c>
       <c r="F186" s="3">
-        <v>20185</v>
+        <v>659</v>
       </c>
       <c r="G186" s="3">
-        <v>515</v>
+        <v>14</v>
       </c>
       <c r="H186" s="3">
         <v>1</v>
@@ -8751,10 +8751,10 @@
         <v>0</v>
       </c>
       <c r="K186">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="L186" t="s">
-        <v>498</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8765,19 +8765,19 @@
         <v>596</v>
       </c>
       <c r="C187" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="D187" t="s">
         <v>597</v>
       </c>
       <c r="E187" s="3">
-        <v>4640</v>
+        <v>275148</v>
       </c>
       <c r="F187" s="3">
-        <v>0</v>
+        <v>2343</v>
       </c>
       <c r="G187" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H187" s="3">
         <v>1</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L187" t="s">
         <v>16</v>
@@ -8800,19 +8800,19 @@
         <v>599</v>
       </c>
       <c r="C188" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="D188" t="s">
         <v>600</v>
       </c>
       <c r="E188" s="3">
-        <v>411533</v>
+        <v>566966</v>
       </c>
       <c r="F188" s="3">
-        <v>4290</v>
+        <v>18782</v>
       </c>
       <c r="G188" s="3">
-        <v>171</v>
+        <v>416</v>
       </c>
       <c r="H188" s="3">
         <v>1</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="L188" t="s">
-        <v>16</v>
+        <v>494</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8835,19 +8835,19 @@
         <v>602</v>
       </c>
       <c r="C189" t="s">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="D189" t="s">
         <v>603</v>
       </c>
       <c r="E189" s="3">
-        <v>23</v>
+        <v>282666</v>
       </c>
       <c r="F189" s="3">
-        <v>1</v>
+        <v>4159</v>
       </c>
       <c r="G189" s="3">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="H189" s="3">
         <v>1</v>
@@ -8856,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>2992</v>
       </c>
       <c r="L189" t="s">
         <v>16</v>
@@ -8876,13 +8876,13 @@
         <v>606</v>
       </c>
       <c r="E190" s="3">
-        <v>443934</v>
+        <v>218426</v>
       </c>
       <c r="F190" s="3">
-        <v>3514</v>
+        <v>2691</v>
       </c>
       <c r="G190" s="3">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="H190" s="3">
         <v>1</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="L190" t="s">
         <v>16</v>
@@ -8911,13 +8911,13 @@
         <v>609</v>
       </c>
       <c r="E191" s="3">
-        <v>25592</v>
+        <v>2883</v>
       </c>
       <c r="F191" s="3">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="G191" s="3">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H191" s="3">
         <v>1</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="L191" t="s">
         <v>16</v>
@@ -8940,19 +8940,19 @@
         <v>611</v>
       </c>
       <c r="C192" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="D192" t="s">
         <v>612</v>
       </c>
       <c r="E192" s="3">
-        <v>69498</v>
+        <v>4183126</v>
       </c>
       <c r="F192" s="3">
-        <v>1189</v>
+        <v>49430</v>
       </c>
       <c r="G192" s="3">
-        <v>45</v>
+        <v>5701</v>
       </c>
       <c r="H192" s="3">
         <v>1</v>
@@ -8961,10 +8961,10 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <v>220</v>
+        <v>1196</v>
       </c>
       <c r="L192" t="s">
-        <v>16</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -8975,28 +8975,28 @@
         <v>614</v>
       </c>
       <c r="C193" t="s">
-        <v>211</v>
+        <v>470</v>
       </c>
       <c r="D193" t="s">
         <v>615</v>
       </c>
       <c r="E193" s="3">
-        <v>549058</v>
+        <v>1</v>
       </c>
       <c r="F193" s="3">
-        <v>4324</v>
+        <v>0</v>
       </c>
       <c r="G193" s="3">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="H193" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
         <v>0</v>
       </c>
       <c r="K193">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="L193" t="s">
         <v>16</v>
@@ -9010,28 +9010,28 @@
         <v>617</v>
       </c>
       <c r="C194" t="s">
-        <v>473</v>
+        <v>22</v>
       </c>
       <c r="D194" t="s">
         <v>618</v>
       </c>
       <c r="E194" s="3">
+        <v>125335</v>
+      </c>
+      <c r="F194" s="3">
+        <v>3458</v>
+      </c>
+      <c r="G194" s="3">
+        <v>566</v>
+      </c>
+      <c r="H194" s="3">
         <v>1</v>
       </c>
-      <c r="F194" s="3">
-        <v>0</v>
-      </c>
-      <c r="G194" s="3">
-        <v>0</v>
-      </c>
-      <c r="H194" s="3">
-        <v>0</v>
-      </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>1955</v>
       </c>
       <c r="L194" t="s">
         <v>16</v>
@@ -9045,13 +9045,13 @@
         <v>620</v>
       </c>
       <c r="C195" t="s">
-        <v>399</v>
+        <v>259</v>
       </c>
       <c r="D195" t="s">
         <v>621</v>
       </c>
       <c r="E195" s="3">
-        <v>2</v>
+        <v>8644</v>
       </c>
       <c r="F195" s="3">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="H195" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -9080,19 +9080,19 @@
         <v>623</v>
       </c>
       <c r="C196" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D196" t="s">
         <v>624</v>
       </c>
       <c r="E196" s="3">
-        <v>511312</v>
+        <v>8968</v>
       </c>
       <c r="F196" s="3">
-        <v>15167</v>
+        <v>117</v>
       </c>
       <c r="G196" s="3">
-        <v>402</v>
+        <v>15</v>
       </c>
       <c r="H196" s="3">
         <v>1</v>
@@ -9101,10 +9101,10 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="L196" t="s">
-        <v>498</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9121,13 +9121,13 @@
         <v>627</v>
       </c>
       <c r="E197" s="3">
-        <v>125374</v>
+        <v>110227</v>
       </c>
       <c r="F197" s="3">
-        <v>2544</v>
+        <v>1800</v>
       </c>
       <c r="G197" s="3">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="H197" s="3">
         <v>1</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="K197">
-        <v>1213</v>
+        <v>691</v>
       </c>
       <c r="L197" t="s">
         <v>16</v>
@@ -9526,7 +9526,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B22">
         <v>15</v>
@@ -9550,7 +9550,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -9566,7 +9566,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -9574,7 +9574,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="B30">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -1055,6 +1055,15 @@
     <t>2019-12-17T16:58:46.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=o53Sh7F_D0o</t>
+  </si>
+  <si>
+    <t>En garde à vue pour avoir traversé au rouge</t>
+  </si>
+  <si>
+    <t>2019-11-24T08:00:11.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=O_Ax717SQVw</t>
   </si>
   <si>
@@ -1064,15 +1073,6 @@
     <t>2019-12-05T21:13:16.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=o53Sh7F_D0o</t>
-  </si>
-  <si>
-    <t>En garde à vue pour avoir traversé au rouge</t>
-  </si>
-  <si>
-    <t>2019-11-24T08:00:11.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
   </si>
   <si>
@@ -1109,6 +1109,15 @@
     <t>2019-12-11T11:48:28.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=oleMaXmPHpI</t>
+  </si>
+  <si>
+    <t>Avec son «euro digital», la Banque de France se lance dans la bataille des cryptomonnaies</t>
+  </si>
+  <si>
+    <t>2019-12-05T11:56:34.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
   </si>
   <si>
@@ -1118,13 +1127,13 @@
     <t>2019-12-20T11:59:31.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=oleMaXmPHpI</t>
-  </si>
-  <si>
-    <t>Avec son «euro digital», la Banque de France se lance dans la bataille des cryptomonnaies</t>
-  </si>
-  <si>
-    <t>2019-12-05T11:56:34.000Z</t>
+    <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
+  </si>
+  <si>
+    <t>Le conflit Ukranien entre Poutine vs Zelensky en présence de Macron et Merkel</t>
+  </si>
+  <si>
+    <t>2019-12-10T13:10:03.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
@@ -1136,15 +1145,6 @@
     <t>2019-12-13T16:42:52.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
-  </si>
-  <si>
-    <t>Le conflit Ukranien entre Poutine vs Zelensky en présence de Macron et Merkel</t>
-  </si>
-  <si>
-    <t>2019-12-10T13:10:03.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
   </si>
   <si>
@@ -1217,6 +1217,15 @@
     <t>2019-11-27T21:56:53.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
   </si>
   <si>
@@ -1226,15 +1235,6 @@
     <t>2019-12-23T11:56:32.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
   </si>
   <si>
@@ -1259,6 +1259,15 @@
     <t>2019-12-03T10:17:14.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
+  </si>
+  <si>
+    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
+  </si>
+  <si>
+    <t>2019-12-04T16:10:34.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=Fo83Em0AtcU</t>
   </si>
   <si>
@@ -1268,15 +1277,6 @@
     <t>2019-12-03T20:42:26.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=DCgaKzTI_n4</t>
-  </si>
-  <si>
-    <t>Logement d'abord : sortir durablement les personnes de la rue</t>
-  </si>
-  <si>
-    <t>2019-12-04T16:10:34.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=wyUBcMp9jQY</t>
   </si>
   <si>
@@ -1367,6 +1367,24 @@
     <t>2019-12-19T17:59:43.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Ysbbsso_Ld0</t>
+  </si>
+  <si>
+    <t>🌍 Climate Finance Day 2019 // Interview of François Riahi, CEO</t>
+  </si>
+  <si>
+    <t>2019-11-29T15:13:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
   </si>
   <si>
@@ -1376,24 +1394,6 @@
     <t>2019-04-19T19:34:20.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ysbbsso_Ld0</t>
-  </si>
-  <si>
-    <t>🌍 Climate Finance Day 2019 // Interview of François Riahi, CEO</t>
-  </si>
-  <si>
-    <t>2019-11-29T15:13:43.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
   </si>
   <si>
@@ -1406,6 +1406,18 @@
     <t>2019-12-12T13:19:08.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
+  </si>
+  <si>
+    <t>Protection maladie des personnes étrangères</t>
+  </si>
+  <si>
+    <t>Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2019-11-12T14:26:22.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=3z96rB0K4WE</t>
   </si>
   <si>
@@ -1427,16 +1439,13 @@
     <t>2019-04-23T22:53:10.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
-  </si>
-  <si>
-    <t>Protection maladie des personnes étrangères</t>
-  </si>
-  <si>
-    <t>Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2019-11-12T14:26:22.000Z</t>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
@@ -1451,15 +1460,6 @@
     <t>2019-12-17T16:27:09.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
   </si>
   <si>
@@ -1484,6 +1484,90 @@
     <t>2019-01-28T18:58:55.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
+  </si>
+  <si>
+    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
+  </si>
+  <si>
+    <t>2019-03-27T22:40:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
+  </si>
+  <si>
+    <t>Un ex associé de Francis Lalanne</t>
+  </si>
+  <si>
+    <t>2019-05-23T10:05:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
+  </si>
+  <si>
+    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
+  </si>
+  <si>
+    <t>2018-09-17T13:20:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
+  </si>
+  <si>
+    <t>Installation Photovoltaïque à Guérande</t>
+  </si>
+  <si>
+    <t>2019-11-22T14:45:23.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
   </si>
   <si>
@@ -1493,6 +1577,342 @@
     <t>2019-07-22T13:09:39.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
+  </si>
+  <si>
+    <t>Pot pourri médiatique</t>
+  </si>
+  <si>
+    <t>2019-03-21T23:00:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
+  </si>
+  <si>
+    <t>ZER - T'es La Bonne (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-05-15T16:28:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
+  </si>
+  <si>
+    <t>François le Français... euh non, l’ami des oligarques...</t>
+  </si>
+  <si>
+    <t>2019-04-28T13:50:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
+  </si>
+  <si>
+    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
+  </si>
+  <si>
+    <t>2018-09-07T09:19:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
+  </si>
+  <si>
+    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-02-28T18:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
+  </si>
+  <si>
+    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
+  </si>
+  <si>
+    <t>2019-11-19T12:31:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
+  </si>
+  <si>
+    <t>ZER - Face A Moi Même</t>
+  </si>
+  <si>
+    <t>2016-10-30T19:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
+  </si>
+  <si>
+    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-03-06T18:02:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
+  </si>
+  <si>
+    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2016-01-24T17:05:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
+  </si>
+  <si>
+    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2018-11-14T10:21:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
+  </si>
+  <si>
+    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
+  </si>
+  <si>
+    <t>2013-08-20T18:23:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
+  </si>
+  <si>
+    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
+  </si>
+  <si>
+    <t>2018-11-22T17:23:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
+  </si>
+  <si>
+    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-08-01T17:58:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
+  </si>
+  <si>
+    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2013-11-08T18:25:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
   </si>
   <si>
@@ -1500,426 +1920,6 @@
   </si>
   <si>
     <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
-  </si>
-  <si>
-    <t>Pot pourri médiatique</t>
-  </si>
-  <si>
-    <t>2019-03-21T23:00:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
-  </si>
-  <si>
-    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
-  </si>
-  <si>
-    <t>2018-09-07T09:19:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
-  </si>
-  <si>
-    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2018-11-14T10:21:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
-  </si>
-  <si>
-    <t>ZER - Face A Moi Même</t>
-  </si>
-  <si>
-    <t>2016-10-30T19:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=niI3J_uOsR4</t>
-  </si>
-  <si>
-    <t>Installation Photovoltaïque à Guérande</t>
-  </si>
-  <si>
-    <t>2019-11-22T14:45:23.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
-  </si>
-  <si>
-    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-03-06T18:02:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
-  </si>
-  <si>
-    <t>François le Français... euh non, l’ami des oligarques...</t>
-  </si>
-  <si>
-    <t>2019-04-28T13:50:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
-  </si>
-  <si>
-    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
-  </si>
-  <si>
-    <t>2018-09-17T13:20:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
-  </si>
-  <si>
-    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
-  </si>
-  <si>
-    <t>2019-11-19T12:31:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
-  </si>
-  <si>
-    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
-  </si>
-  <si>
-    <t>2018-11-22T17:23:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
-  </si>
-  <si>
-    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
-  </si>
-  <si>
-    <t>2019-03-27T22:40:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
-  </si>
-  <si>
-    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-08-01T17:58:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
-  </si>
-  <si>
-    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
-  </si>
-  <si>
-    <t>2013-08-20T18:23:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
-  </si>
-  <si>
-    <t>Un ex associé de Francis Lalanne</t>
-  </si>
-  <si>
-    <t>2019-05-23T10:05:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
-  </si>
-  <si>
-    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2016-01-24T17:05:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
-  </si>
-  <si>
-    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2013-11-08T18:25:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
-  </si>
-  <si>
-    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-02-28T18:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
-  </si>
-  <si>
-    <t>ZER - T'es La Bonne (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-05-15T16:28:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -5986,19 +5986,19 @@
         <v>347</v>
       </c>
       <c r="C107" t="s">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="D107" t="s">
         <v>348</v>
       </c>
       <c r="E107" s="3">
-        <v>52</v>
+        <v>3462</v>
       </c>
       <c r="F107" s="3">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="G107" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L107" t="s">
         <v>16</v>
@@ -6021,19 +6021,19 @@
         <v>350</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="D108" t="s">
         <v>351</v>
       </c>
       <c r="E108" s="3">
-        <v>3462</v>
+        <v>52</v>
       </c>
       <c r="F108" s="3">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="G108" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="L108" t="s">
         <v>16</v>
@@ -6266,7 +6266,7 @@
         <v>371</v>
       </c>
       <c r="C115" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="D115" t="s">
         <v>372</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>374</v>
       </c>
       <c r="C116" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="D116" t="s">
         <v>375</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" t="s">
         <v>16</v>
@@ -6756,7 +6756,7 @@
         <v>415</v>
       </c>
       <c r="C129" t="s">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="D129" t="s">
         <v>416</v>
@@ -6765,7 +6765,7 @@
         <v>15</v>
       </c>
       <c r="F129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="3">
         <v>0</v>
@@ -6791,7 +6791,7 @@
         <v>418</v>
       </c>
       <c r="C130" t="s">
-        <v>317</v>
+        <v>210</v>
       </c>
       <c r="D130" t="s">
         <v>419</v>
@@ -6800,7 +6800,7 @@
         <v>15</v>
       </c>
       <c r="F130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" s="3">
         <v>0</v>
@@ -7176,28 +7176,28 @@
         <v>451</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="D141" t="s">
         <v>452</v>
       </c>
       <c r="E141" s="3">
-        <v>47483</v>
+        <v>44</v>
       </c>
       <c r="F141" s="3">
-        <v>1169</v>
+        <v>0</v>
       </c>
       <c r="G141" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="L141" t="s">
         <v>16</v>
@@ -7246,28 +7246,28 @@
         <v>457</v>
       </c>
       <c r="C143" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="D143" t="s">
         <v>458</v>
       </c>
       <c r="E143" s="3">
-        <v>44</v>
+        <v>47483</v>
       </c>
       <c r="F143" s="3">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="G143" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H143" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="L143" t="s">
         <v>16</v>
@@ -7316,13 +7316,13 @@
         <v>464</v>
       </c>
       <c r="C145" t="s">
-        <v>298</v>
+        <v>465</v>
       </c>
       <c r="D145" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E145" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -7345,25 +7345,25 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B146" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C146" t="s">
-        <v>468</v>
+        <v>298</v>
       </c>
       <c r="D146" t="s">
         <v>469</v>
       </c>
       <c r="E146" s="3">
-        <v>1921</v>
+        <v>3</v>
       </c>
       <c r="F146" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G146" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
@@ -7372,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L146" t="s">
         <v>16</v>
@@ -7392,13 +7392,13 @@
         <v>473</v>
       </c>
       <c r="E147" s="3">
-        <v>14</v>
+        <v>1921</v>
       </c>
       <c r="F147" s="3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G147" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L147" t="s">
         <v>16</v>
@@ -7421,10 +7421,10 @@
         <v>475</v>
       </c>
       <c r="C148" t="s">
+        <v>461</v>
+      </c>
+      <c r="D148" t="s">
         <v>476</v>
-      </c>
-      <c r="D148" t="s">
-        <v>477</v>
       </c>
       <c r="E148" s="3">
         <v>2</v>
@@ -7450,13 +7450,13 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B149" t="s">
         <v>478</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>479</v>
-      </c>
-      <c r="C149" t="s">
-        <v>461</v>
       </c>
       <c r="D149" t="s">
         <v>480</v>
@@ -7561,19 +7561,19 @@
         <v>490</v>
       </c>
       <c r="C152" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="D152" t="s">
         <v>491</v>
       </c>
       <c r="E152" s="3">
-        <v>239</v>
+        <v>69498</v>
       </c>
       <c r="F152" s="3">
-        <v>2</v>
+        <v>1189</v>
       </c>
       <c r="G152" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H152" s="3">
         <v>1</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L152" t="s">
         <v>16</v>
@@ -7596,19 +7596,19 @@
         <v>493</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D153" t="s">
         <v>494</v>
       </c>
       <c r="E153" s="3">
-        <v>74953</v>
+        <v>282666</v>
       </c>
       <c r="F153" s="3">
-        <v>1016</v>
+        <v>4159</v>
       </c>
       <c r="G153" s="3">
-        <v>29</v>
+        <v>1024</v>
       </c>
       <c r="H153" s="3">
         <v>1</v>
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>212</v>
+        <v>2992</v>
       </c>
       <c r="L153" t="s">
         <v>16</v>
@@ -7637,13 +7637,13 @@
         <v>497</v>
       </c>
       <c r="E154" s="3">
-        <v>110227</v>
+        <v>125374</v>
       </c>
       <c r="F154" s="3">
-        <v>1800</v>
+        <v>2544</v>
       </c>
       <c r="G154" s="3">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="H154" s="3">
         <v>1</v>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="K154">
-        <v>691</v>
+        <v>1213</v>
       </c>
       <c r="L154" t="s">
         <v>16</v>
@@ -7672,7 +7672,7 @@
         <v>500</v>
       </c>
       <c r="E155" s="3">
-        <v>87</v>
+        <v>2053</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -7701,54 +7701,54 @@
         <v>502</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>461</v>
       </c>
       <c r="D156" t="s">
         <v>503</v>
       </c>
       <c r="E156" s="3">
-        <v>472979</v>
+        <v>6</v>
       </c>
       <c r="F156" s="3">
-        <v>20185</v>
+        <v>0</v>
       </c>
       <c r="G156" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H156" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
       <c r="K156">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>504</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B157" t="s">
         <v>505</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
+        <v>278</v>
+      </c>
+      <c r="D157" t="s">
         <v>506</v>
       </c>
-      <c r="C157" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" t="s">
-        <v>507</v>
-      </c>
       <c r="E157" s="3">
-        <v>222595</v>
+        <v>4640</v>
       </c>
       <c r="F157" s="3">
-        <v>9022</v>
+        <v>0</v>
       </c>
       <c r="G157" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H157" s="3">
         <v>1</v>
@@ -7757,36 +7757,36 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>504</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B158" t="s">
         <v>508</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
+        <v>465</v>
+      </c>
+      <c r="D158" t="s">
         <v>509</v>
       </c>
-      <c r="C158" t="s">
-        <v>510</v>
-      </c>
-      <c r="D158" t="s">
-        <v>511</v>
-      </c>
       <c r="E158" s="3">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="F158" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" s="3">
         <v>0</v>
       </c>
       <c r="H158" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -7800,57 +7800,57 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B159" t="s">
+        <v>511</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
         <v>512</v>
       </c>
-      <c r="B159" t="s">
+      <c r="E159" s="3">
+        <v>472979</v>
+      </c>
+      <c r="F159" s="3">
+        <v>20185</v>
+      </c>
+      <c r="G159" s="3">
+        <v>515</v>
+      </c>
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>260</v>
+      </c>
+      <c r="L159" t="s">
         <v>513</v>
-      </c>
-      <c r="C159" t="s">
-        <v>34</v>
-      </c>
-      <c r="D159" t="s">
-        <v>514</v>
-      </c>
-      <c r="E159" s="3">
-        <v>25592</v>
-      </c>
-      <c r="F159" s="3">
-        <v>221</v>
-      </c>
-      <c r="G159" s="3">
-        <v>29</v>
-      </c>
-      <c r="H159" s="3">
-        <v>1</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
-        <v>79</v>
-      </c>
-      <c r="L159" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B160" t="s">
         <v>515</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
+        <v>217</v>
+      </c>
+      <c r="D160" t="s">
         <v>516</v>
       </c>
-      <c r="C160" t="s">
-        <v>278</v>
-      </c>
-      <c r="D160" t="s">
-        <v>517</v>
-      </c>
       <c r="E160" s="3">
-        <v>4640</v>
+        <v>72</v>
       </c>
       <c r="F160" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G160" s="3">
         <v>0</v>
@@ -7870,22 +7870,22 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B161" t="s">
         <v>518</v>
-      </c>
-      <c r="B161" t="s">
-        <v>519</v>
       </c>
       <c r="C161" t="s">
         <v>317</v>
       </c>
       <c r="D161" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E161" s="3">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="F161" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G161" s="3">
         <v>0</v>
@@ -7905,22 +7905,22 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B162" t="s">
         <v>521</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
+        <v>278</v>
+      </c>
+      <c r="D162" t="s">
         <v>522</v>
       </c>
-      <c r="C162" t="s">
-        <v>250</v>
-      </c>
-      <c r="D162" t="s">
-        <v>523</v>
-      </c>
       <c r="E162" s="3">
-        <v>39</v>
+        <v>428</v>
       </c>
       <c r="F162" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" s="3">
         <v>0</v>
@@ -7940,22 +7940,22 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B163" t="s">
         <v>524</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
+        <v>317</v>
+      </c>
+      <c r="D163" t="s">
         <v>525</v>
       </c>
-      <c r="C163" t="s">
-        <v>472</v>
-      </c>
-      <c r="D163" t="s">
-        <v>526</v>
-      </c>
       <c r="E163" s="3">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" s="3">
         <v>0</v>
@@ -7975,25 +7975,25 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B164" t="s">
         <v>527</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" t="s">
         <v>528</v>
       </c>
-      <c r="C164" t="s">
-        <v>221</v>
-      </c>
-      <c r="D164" t="s">
-        <v>529</v>
-      </c>
       <c r="E164" s="3">
-        <v>21005</v>
+        <v>110227</v>
       </c>
       <c r="F164" s="3">
-        <v>478</v>
+        <v>1800</v>
       </c>
       <c r="G164" s="3">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="H164" s="3">
         <v>1</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <v>61</v>
+        <v>691</v>
       </c>
       <c r="L164" t="s">
         <v>16</v>
@@ -8010,25 +8010,25 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B165" t="s">
         <v>530</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
+        <v>221</v>
+      </c>
+      <c r="D165" t="s">
         <v>531</v>
       </c>
-      <c r="C165" t="s">
-        <v>217</v>
-      </c>
-      <c r="D165" t="s">
-        <v>532</v>
-      </c>
       <c r="E165" s="3">
-        <v>72</v>
+        <v>401869</v>
       </c>
       <c r="F165" s="3">
-        <v>3</v>
+        <v>4640</v>
       </c>
       <c r="G165" s="3">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="L165" t="s">
         <v>16</v>
@@ -8045,25 +8045,25 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B166" t="s">
         <v>533</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
         <v>534</v>
       </c>
-      <c r="C166" t="s">
-        <v>34</v>
-      </c>
-      <c r="D166" t="s">
-        <v>535</v>
-      </c>
       <c r="E166" s="3">
-        <v>4759</v>
+        <v>222595</v>
       </c>
       <c r="F166" s="3">
-        <v>129</v>
+        <v>9022</v>
       </c>
       <c r="G166" s="3">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="H166" s="3">
         <v>1</v>
@@ -8072,33 +8072,33 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="L166" t="s">
-        <v>16</v>
+        <v>513</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B167" t="s">
         <v>536</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" t="s">
         <v>537</v>
       </c>
-      <c r="C167" t="s">
+      <c r="E167" s="3">
+        <v>25592</v>
+      </c>
+      <c r="F167" s="3">
         <v>221</v>
       </c>
-      <c r="D167" t="s">
-        <v>538</v>
-      </c>
-      <c r="E167" s="3">
-        <v>411533</v>
-      </c>
-      <c r="F167" s="3">
-        <v>4290</v>
-      </c>
       <c r="G167" s="3">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="H167" s="3">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="L167" t="s">
         <v>16</v>
@@ -8115,25 +8115,25 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B168" t="s">
         <v>539</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" t="s">
         <v>540</v>
       </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" t="s">
-        <v>541</v>
-      </c>
       <c r="E168" s="3">
-        <v>566966</v>
+        <v>8968</v>
       </c>
       <c r="F168" s="3">
-        <v>18782</v>
+        <v>117</v>
       </c>
       <c r="G168" s="3">
-        <v>416</v>
+        <v>15</v>
       </c>
       <c r="H168" s="3">
         <v>1</v>
@@ -8142,33 +8142,33 @@
         <v>0</v>
       </c>
       <c r="K168">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="L168" t="s">
-        <v>504</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B169" t="s">
         <v>542</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" t="s">
         <v>543</v>
       </c>
-      <c r="C169" t="s">
-        <v>22</v>
-      </c>
-      <c r="D169" t="s">
-        <v>544</v>
-      </c>
       <c r="E169" s="3">
-        <v>125335</v>
+        <v>4759</v>
       </c>
       <c r="F169" s="3">
-        <v>3458</v>
+        <v>129</v>
       </c>
       <c r="G169" s="3">
-        <v>566</v>
+        <v>6</v>
       </c>
       <c r="H169" s="3">
         <v>1</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="K169">
-        <v>1955</v>
+        <v>20</v>
       </c>
       <c r="L169" t="s">
         <v>16</v>
@@ -8185,25 +8185,25 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B170" t="s">
         <v>545</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" t="s">
         <v>546</v>
       </c>
-      <c r="C170" t="s">
-        <v>472</v>
-      </c>
-      <c r="D170" t="s">
-        <v>547</v>
-      </c>
       <c r="E170" s="3">
-        <v>95</v>
+        <v>511312</v>
       </c>
       <c r="F170" s="3">
-        <v>1</v>
+        <v>15167</v>
       </c>
       <c r="G170" s="3">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
@@ -8212,24 +8212,24 @@
         <v>0</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L170" t="s">
-        <v>16</v>
+        <v>513</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B171" t="s">
         <v>548</v>
-      </c>
-      <c r="B171" t="s">
-        <v>549</v>
       </c>
       <c r="C171" t="s">
         <v>483</v>
       </c>
       <c r="D171" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E171" s="3">
         <v>88</v>
@@ -8255,25 +8255,25 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B172" t="s">
         <v>551</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" t="s">
         <v>552</v>
       </c>
-      <c r="C172" t="s">
-        <v>294</v>
-      </c>
-      <c r="D172" t="s">
-        <v>553</v>
-      </c>
       <c r="E172" s="3">
-        <v>69498</v>
+        <v>566966</v>
       </c>
       <c r="F172" s="3">
-        <v>1189</v>
+        <v>18782</v>
       </c>
       <c r="G172" s="3">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
@@ -8282,42 +8282,42 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="L172" t="s">
-        <v>16</v>
+        <v>513</v>
       </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B173" t="s">
         <v>554</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
+        <v>22</v>
+      </c>
+      <c r="D173" t="s">
         <v>555</v>
       </c>
-      <c r="C173" t="s">
-        <v>317</v>
-      </c>
-      <c r="D173" t="s">
-        <v>556</v>
-      </c>
       <c r="E173" s="3">
-        <v>20</v>
+        <v>125335</v>
       </c>
       <c r="F173" s="3">
-        <v>0</v>
+        <v>3458</v>
       </c>
       <c r="G173" s="3">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="H173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>1955</v>
       </c>
       <c r="L173" t="s">
         <v>16</v>
@@ -8325,25 +8325,25 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B174" t="s">
         <v>557</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s">
         <v>558</v>
       </c>
-      <c r="C174" t="s">
-        <v>408</v>
-      </c>
-      <c r="D174" t="s">
-        <v>559</v>
-      </c>
       <c r="E174" s="3">
-        <v>345</v>
+        <v>4183126</v>
       </c>
       <c r="F174" s="3">
-        <v>6</v>
+        <v>49430</v>
       </c>
       <c r="G174" s="3">
-        <v>2</v>
+        <v>5701</v>
       </c>
       <c r="H174" s="3">
         <v>1</v>
@@ -8352,33 +8352,33 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="L174" t="s">
-        <v>16</v>
+        <v>513</v>
       </c>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B175" t="s">
         <v>560</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
+        <v>250</v>
+      </c>
+      <c r="D175" t="s">
         <v>561</v>
       </c>
-      <c r="C175" t="s">
-        <v>22</v>
-      </c>
-      <c r="D175" t="s">
-        <v>562</v>
-      </c>
       <c r="E175" s="3">
-        <v>282666</v>
+        <v>39</v>
       </c>
       <c r="F175" s="3">
-        <v>4159</v>
+        <v>1</v>
       </c>
       <c r="G175" s="3">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="H175" s="3">
         <v>1</v>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <v>2992</v>
+        <v>0</v>
       </c>
       <c r="L175" t="s">
         <v>16</v>
@@ -8395,25 +8395,25 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B176" t="s">
         <v>563</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
+        <v>221</v>
+      </c>
+      <c r="D176" t="s">
         <v>564</v>
       </c>
-      <c r="C176" t="s">
-        <v>278</v>
-      </c>
-      <c r="D176" t="s">
-        <v>565</v>
-      </c>
       <c r="E176" s="3">
-        <v>8644</v>
+        <v>549058</v>
       </c>
       <c r="F176" s="3">
-        <v>0</v>
+        <v>4324</v>
       </c>
       <c r="G176" s="3">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="H176" s="3">
         <v>1</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="L176" t="s">
         <v>16</v>
@@ -8430,19 +8430,19 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B177" t="s">
         <v>566</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
+        <v>317</v>
+      </c>
+      <c r="D177" t="s">
         <v>567</v>
       </c>
-      <c r="C177" t="s">
-        <v>278</v>
-      </c>
-      <c r="D177" t="s">
-        <v>568</v>
-      </c>
       <c r="E177" s="3">
-        <v>617</v>
+        <v>20</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="H177" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -8465,25 +8465,25 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B178" t="s">
         <v>569</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
+        <v>294</v>
+      </c>
+      <c r="D178" t="s">
         <v>570</v>
       </c>
-      <c r="C178" t="s">
-        <v>34</v>
-      </c>
-      <c r="D178" t="s">
-        <v>571</v>
-      </c>
       <c r="E178" s="3">
-        <v>2883</v>
+        <v>18665</v>
       </c>
       <c r="F178" s="3">
-        <v>42</v>
+        <v>659</v>
       </c>
       <c r="G178" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H178" s="3">
         <v>1</v>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="K178">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="L178" t="s">
         <v>16</v>
@@ -8500,25 +8500,25 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B179" t="s">
         <v>572</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
+        <v>221</v>
+      </c>
+      <c r="D179" t="s">
         <v>573</v>
       </c>
-      <c r="C179" t="s">
-        <v>278</v>
-      </c>
-      <c r="D179" t="s">
-        <v>574</v>
-      </c>
       <c r="E179" s="3">
-        <v>428</v>
+        <v>21005</v>
       </c>
       <c r="F179" s="3">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="G179" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H179" s="3">
         <v>1</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="L179" t="s">
         <v>16</v>
@@ -8535,54 +8535,54 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B180" t="s">
         <v>575</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
+        <v>479</v>
+      </c>
+      <c r="D180" t="s">
         <v>576</v>
       </c>
-      <c r="C180" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" t="s">
-        <v>577</v>
-      </c>
       <c r="E180" s="3">
-        <v>4183126</v>
+        <v>1</v>
       </c>
       <c r="F180" s="3">
-        <v>49430</v>
+        <v>0</v>
       </c>
       <c r="G180" s="3">
-        <v>5701</v>
+        <v>0</v>
       </c>
       <c r="H180" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180">
         <v>0</v>
       </c>
       <c r="K180">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>504</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B181" t="s">
         <v>578</v>
-      </c>
-      <c r="B181" t="s">
-        <v>579</v>
       </c>
       <c r="C181" t="s">
         <v>278</v>
       </c>
       <c r="D181" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E181" s="3">
-        <v>2053</v>
+        <v>617</v>
       </c>
       <c r="F181" s="3">
         <v>0</v>
@@ -8605,16 +8605,16 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B182" t="s">
         <v>581</v>
-      </c>
-      <c r="B182" t="s">
-        <v>582</v>
       </c>
       <c r="C182" t="s">
         <v>317</v>
       </c>
       <c r="D182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E182" s="3">
         <v>95</v>
@@ -8640,25 +8640,25 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B183" t="s">
         <v>584</v>
-      </c>
-      <c r="B183" t="s">
-        <v>585</v>
       </c>
       <c r="C183" t="s">
         <v>221</v>
       </c>
       <c r="D183" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E183" s="3">
-        <v>850122</v>
+        <v>411533</v>
       </c>
       <c r="F183" s="3">
-        <v>7412</v>
+        <v>4290</v>
       </c>
       <c r="G183" s="3">
-        <v>349</v>
+        <v>171</v>
       </c>
       <c r="H183" s="3">
         <v>1</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="K183">
-        <v>326</v>
+        <v>149</v>
       </c>
       <c r="L183" t="s">
         <v>16</v>
@@ -8675,25 +8675,25 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B184" t="s">
         <v>587</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
+        <v>221</v>
+      </c>
+      <c r="D184" t="s">
         <v>588</v>
       </c>
-      <c r="C184" t="s">
-        <v>34</v>
-      </c>
-      <c r="D184" t="s">
-        <v>589</v>
-      </c>
       <c r="E184" s="3">
-        <v>3080</v>
+        <v>218426</v>
       </c>
       <c r="F184" s="3">
-        <v>58</v>
+        <v>2691</v>
       </c>
       <c r="G184" s="3">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="H184" s="3">
         <v>1</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="K184">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="L184" t="s">
         <v>16</v>
@@ -8710,25 +8710,25 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B185" t="s">
         <v>590</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
+        <v>465</v>
+      </c>
+      <c r="D185" t="s">
         <v>591</v>
       </c>
-      <c r="C185" t="s">
-        <v>221</v>
-      </c>
-      <c r="D185" t="s">
-        <v>592</v>
-      </c>
       <c r="E185" s="3">
-        <v>275148</v>
+        <v>60</v>
       </c>
       <c r="F185" s="3">
-        <v>2343</v>
+        <v>1</v>
       </c>
       <c r="G185" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L185" t="s">
         <v>16</v>
@@ -8745,34 +8745,34 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B186" t="s">
         <v>593</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
+        <v>294</v>
+      </c>
+      <c r="D186" t="s">
         <v>594</v>
       </c>
-      <c r="C186" t="s">
-        <v>461</v>
-      </c>
-      <c r="D186" t="s">
-        <v>595</v>
-      </c>
       <c r="E186" s="3">
-        <v>6</v>
+        <v>24890</v>
       </c>
       <c r="F186" s="3">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="G186" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H186" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186">
         <v>0</v>
       </c>
       <c r="K186">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L186" t="s">
         <v>16</v>
@@ -8780,25 +8780,25 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B187" t="s">
         <v>596</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" t="s">
         <v>597</v>
       </c>
-      <c r="C187" t="s">
-        <v>14</v>
-      </c>
-      <c r="D187" t="s">
-        <v>598</v>
-      </c>
       <c r="E187" s="3">
-        <v>511312</v>
+        <v>3080</v>
       </c>
       <c r="F187" s="3">
-        <v>15167</v>
+        <v>58</v>
       </c>
       <c r="G187" s="3">
-        <v>402</v>
+        <v>5</v>
       </c>
       <c r="H187" s="3">
         <v>1</v>
@@ -8807,33 +8807,33 @@
         <v>0</v>
       </c>
       <c r="K187">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="L187" t="s">
-        <v>504</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B188" t="s">
         <v>599</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
+        <v>94</v>
+      </c>
+      <c r="D188" t="s">
         <v>600</v>
       </c>
-      <c r="C188" t="s">
-        <v>317</v>
-      </c>
-      <c r="D188" t="s">
-        <v>601</v>
-      </c>
       <c r="E188" s="3">
-        <v>74</v>
+        <v>1237</v>
       </c>
       <c r="F188" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G188" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H188" s="3">
         <v>1</v>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L188" t="s">
         <v>16</v>
@@ -8850,25 +8850,25 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B189" t="s">
         <v>602</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
+        <v>221</v>
+      </c>
+      <c r="D189" t="s">
         <v>603</v>
       </c>
-      <c r="C189" t="s">
-        <v>22</v>
-      </c>
-      <c r="D189" t="s">
-        <v>604</v>
-      </c>
       <c r="E189" s="3">
-        <v>125374</v>
+        <v>275148</v>
       </c>
       <c r="F189" s="3">
-        <v>2544</v>
+        <v>2343</v>
       </c>
       <c r="G189" s="3">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="H189" s="3">
         <v>1</v>
@@ -8877,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>1213</v>
+        <v>99</v>
       </c>
       <c r="L189" t="s">
         <v>16</v>
@@ -8885,25 +8885,25 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B190" t="s">
         <v>605</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" t="s">
         <v>606</v>
       </c>
-      <c r="C190" t="s">
-        <v>221</v>
-      </c>
-      <c r="D190" t="s">
-        <v>607</v>
-      </c>
       <c r="E190" s="3">
-        <v>218426</v>
+        <v>2883</v>
       </c>
       <c r="F190" s="3">
-        <v>2691</v>
+        <v>42</v>
       </c>
       <c r="G190" s="3">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="H190" s="3">
         <v>1</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="L190" t="s">
         <v>16</v>
@@ -8920,34 +8920,34 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B191" t="s">
         <v>608</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>609</v>
-      </c>
-      <c r="C191" t="s">
-        <v>294</v>
       </c>
       <c r="D191" t="s">
         <v>610</v>
       </c>
       <c r="E191" s="3">
-        <v>24890</v>
+        <v>3</v>
       </c>
       <c r="F191" s="3">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="G191" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H191" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
       <c r="K191">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L191" t="s">
         <v>16</v>
@@ -8961,13 +8961,13 @@
         <v>612</v>
       </c>
       <c r="C192" t="s">
-        <v>476</v>
+        <v>278</v>
       </c>
       <c r="D192" t="s">
         <v>613</v>
       </c>
       <c r="E192" s="3">
-        <v>1</v>
+        <v>8644</v>
       </c>
       <c r="F192" s="3">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="H192" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -8996,19 +8996,19 @@
         <v>615</v>
       </c>
       <c r="C193" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="D193" t="s">
         <v>616</v>
       </c>
       <c r="E193" s="3">
-        <v>443934</v>
+        <v>23</v>
       </c>
       <c r="F193" s="3">
-        <v>3514</v>
+        <v>1</v>
       </c>
       <c r="G193" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H193" s="3">
         <v>1</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L193" t="s">
         <v>16</v>
@@ -9031,19 +9031,19 @@
         <v>618</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="D194" t="s">
         <v>619</v>
       </c>
       <c r="E194" s="3">
-        <v>8968</v>
+        <v>87</v>
       </c>
       <c r="F194" s="3">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G194" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H194" s="3">
         <v>1</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="K194">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L194" t="s">
         <v>16</v>
@@ -9066,19 +9066,19 @@
         <v>621</v>
       </c>
       <c r="C195" t="s">
-        <v>278</v>
+        <v>408</v>
       </c>
       <c r="D195" t="s">
         <v>622</v>
       </c>
       <c r="E195" s="3">
-        <v>844</v>
+        <v>345</v>
       </c>
       <c r="F195" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G195" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H195" s="3">
         <v>1</v>
@@ -9107,13 +9107,13 @@
         <v>625</v>
       </c>
       <c r="E196" s="3">
-        <v>549058</v>
+        <v>850122</v>
       </c>
       <c r="F196" s="3">
-        <v>4324</v>
+        <v>7412</v>
       </c>
       <c r="G196" s="3">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="H196" s="3">
         <v>1</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="L196" t="s">
         <v>16</v>
@@ -9142,13 +9142,13 @@
         <v>628</v>
       </c>
       <c r="E197" s="3">
-        <v>401869</v>
+        <v>443934</v>
       </c>
       <c r="F197" s="3">
-        <v>4640</v>
+        <v>3514</v>
       </c>
       <c r="G197" s="3">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="H197" s="3">
         <v>1</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="K197">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="L197" t="s">
         <v>16</v>
@@ -9171,19 +9171,19 @@
         <v>630</v>
       </c>
       <c r="C198" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D198" t="s">
         <v>631</v>
       </c>
       <c r="E198" s="3">
-        <v>18665</v>
+        <v>844</v>
       </c>
       <c r="F198" s="3">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G198" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H198" s="3">
         <v>1</v>
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L198" t="s">
         <v>16</v>
@@ -9206,19 +9206,19 @@
         <v>633</v>
       </c>
       <c r="C199" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D199" t="s">
         <v>634</v>
       </c>
       <c r="E199" s="3">
-        <v>1237</v>
+        <v>74953</v>
       </c>
       <c r="F199" s="3">
-        <v>51</v>
+        <v>1016</v>
       </c>
       <c r="G199" s="3">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H199" s="3">
         <v>1</v>
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="L199" t="s">
         <v>16</v>
@@ -9651,7 +9651,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -9691,7 +9691,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>510</v>
+        <v>609</v>
       </c>
       <c r="B31">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -635,6 +635,15 @@
     <t>2019-12-06T18:35:20.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
   </si>
   <si>
@@ -644,15 +653,6 @@
     <t>2019-12-18T21:49:46.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
   </si>
   <si>
@@ -1103,6 +1103,15 @@
     <t>2019-12-11T11:48:28.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=oleMaXmPHpI</t>
+  </si>
+  <si>
+    <t>Avec son «euro digital», la Banque de France se lance dans la bataille des cryptomonnaies</t>
+  </si>
+  <si>
+    <t>2019-12-05T11:56:34.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
   </si>
   <si>
@@ -1112,15 +1121,6 @@
     <t>2019-12-20T11:59:31.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=oleMaXmPHpI</t>
-  </si>
-  <si>
-    <t>Avec son «euro digital», la Banque de France se lance dans la bataille des cryptomonnaies</t>
-  </si>
-  <si>
-    <t>2019-12-05T11:56:34.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=vT4AysO2OtA</t>
   </si>
   <si>
@@ -1184,6 +1184,15 @@
     <t>2019-12-06T17:22:00.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
   </si>
   <si>
@@ -1193,15 +1202,6 @@
     <t>2019-12-23T11:56:32.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=_TEHesD6ckg</t>
   </si>
   <si>
@@ -1214,6 +1214,15 @@
     <t>2019-12-03T10:17:14.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=4NAXkPQ9uzg</t>
+  </si>
+  <si>
+    <t>Conférence de presse d'Emmanuel Macron au conseil européen</t>
+  </si>
+  <si>
+    <t>2019-12-13T19:15:50.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
   </si>
   <si>
@@ -1226,15 +1235,6 @@
     <t>2018-12-12T15:20:36.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=4NAXkPQ9uzg</t>
-  </si>
-  <si>
-    <t>Conférence de presse d'Emmanuel Macron au conseil européen</t>
-  </si>
-  <si>
-    <t>2019-12-13T19:15:50.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
   </si>
   <si>
@@ -1343,6 +1343,18 @@
     <t>2019-04-23T22:53:10.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
   </si>
   <si>
@@ -1355,18 +1367,6 @@
     <t>2019-11-12T14:26:22.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
@@ -1376,6 +1376,18 @@
     <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
   </si>
   <si>
@@ -1388,16 +1400,349 @@
     <t>2019-01-28T18:58:55.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
+  </si>
+  <si>
+    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-03-06T18:02:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
+  </si>
+  <si>
+    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
+  </si>
+  <si>
+    <t>2018-09-17T13:20:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
+  </si>
+  <si>
+    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-02-28T18:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
+  </si>
+  <si>
+    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2013-11-08T18:25:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ysbbsso_Ld0</t>
+  </si>
+  <si>
+    <t>🌍 Climate Finance Day 2019 // Interview of François Riahi, CEO</t>
+  </si>
+  <si>
+    <t>2019-11-29T15:13:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
+  </si>
+  <si>
+    <t>ZER - T'es La Bonne (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2015-05-15T16:28:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
+  </si>
+  <si>
+    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
+  </si>
+  <si>
+    <t>2018-11-22T17:23:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nd4DuWxUFDM</t>
+  </si>
+  <si>
+    <t>Fin de cette chaine, j'invite les vrais à rejoindre ma nouvelle chaine! (Liens dans la description)</t>
+  </si>
+  <si>
+    <t>2019-11-30T22:16:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
+  </si>
+  <si>
+    <t>ZER - Face A Moi Même</t>
+  </si>
+  <si>
+    <t>2016-10-30T19:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
+  </si>
+  <si>
+    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
+  </si>
+  <si>
+    <t>2019-11-19T12:31:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
+  </si>
+  <si>
+    <t>Pot pourri médiatique</t>
+  </si>
+  <si>
+    <t>2019-03-21T23:00:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
+  </si>
+  <si>
+    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
+  </si>
+  <si>
+    <t>2013-08-20T18:23:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
+  </si>
+  <si>
+    <t>Un ex associé de Francis Lalanne</t>
+  </si>
+  <si>
+    <t>2019-05-23T10:05:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
+  </si>
+  <si>
+    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
+  </si>
+  <si>
+    <t>2014-08-01T17:58:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
+  </si>
+  <si>
+    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2018-11-14T10:21:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
+  </si>
+  <si>
+    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
+  </si>
+  <si>
+    <t>2018-09-07T09:19:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
+  </si>
+  <si>
+    <t>François le Français... euh non, l’ami des oligarques...</t>
+  </si>
+  <si>
+    <t>2019-04-28T13:50:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JC0KeE0oNx0</t>
+  </si>
+  <si>
+    <t>🔊Les lois doivent être promulguées par le roi ⚖️ ITW Exclusive de Maître Philippe Fortabat Labatut</t>
+  </si>
+  <si>
+    <t>2019-11-25T08:00:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4iD2oP3kKaI</t>
+  </si>
+  <si>
+    <t>FRANC MACON CONVERTIE CONFIRME LEURS DOCTRINE LUCIFERIENNE INCOMPATIBLE AVEC LES RELIGIONS !!!</t>
+  </si>
+  <si>
+    <t>2019-12-03T11:32:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
+  </si>
+  <si>
+    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
+  </si>
+  <si>
+    <t>2019-03-27T22:40:53.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
@@ -1409,6 +1754,108 @@
     <t>2017-07-09T23:51:59.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
+  </si>
+  <si>
+    <t>Retraites : je souhaite que Macron connaisse un échec</t>
+  </si>
+  <si>
+    <t>2019-12-04T07:52:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
   </si>
   <si>
@@ -1418,135 +1865,6 @@
     <t>2019-07-03T09:56:32.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Ysbbsso_Ld0</t>
-  </si>
-  <si>
-    <t>🌍 Climate Finance Day 2019 // Interview of François Riahi, CEO</t>
-  </si>
-  <si>
-    <t>2019-11-29T15:13:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
-  </si>
-  <si>
-    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
-  </si>
-  <si>
-    <t>2018-11-22T17:23:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
-  </si>
-  <si>
-    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
-  </si>
-  <si>
-    <t>2018-09-17T13:20:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
-  </si>
-  <si>
-    <t>François le Français... euh non, l’ami des oligarques...</t>
-  </si>
-  <si>
-    <t>2019-04-28T13:50:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
-  </si>
-  <si>
-    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
-  </si>
-  <si>
-    <t>2013-08-20T18:23:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
-  </si>
-  <si>
-    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
-  </si>
-  <si>
-    <t>2018-09-07T09:19:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
-  </si>
-  <si>
-    <t>Un ex associé de Francis Lalanne</t>
-  </si>
-  <si>
-    <t>2019-05-23T10:05:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
   </si>
   <si>
@@ -1554,324 +1872,6 @@
   </si>
   <si>
     <t>2016-01-24T17:05:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nd4DuWxUFDM</t>
-  </si>
-  <si>
-    <t>Fin de cette chaine, j'invite les vrais à rejoindre ma nouvelle chaine! (Liens dans la description)</t>
-  </si>
-  <si>
-    <t>2019-11-30T22:16:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
-  </si>
-  <si>
-    <t>Retraites : je souhaite que Macron connaisse un échec</t>
-  </si>
-  <si>
-    <t>2019-12-04T07:52:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
-  </si>
-  <si>
-    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
-  </si>
-  <si>
-    <t>2019-11-19T12:31:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
-  </si>
-  <si>
-    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2013-11-08T18:25:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4iD2oP3kKaI</t>
-  </si>
-  <si>
-    <t>FRANC MACON CONVERTIE CONFIRME LEURS DOCTRINE LUCIFERIENNE INCOMPATIBLE AVEC LES RELIGIONS !!!</t>
-  </si>
-  <si>
-    <t>2019-12-03T11:32:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
-  </si>
-  <si>
-    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-02-28T18:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
-  </si>
-  <si>
-    <t>ZER - T'es La Bonne (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-05-15T16:28:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
-  </si>
-  <si>
-    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-08-01T17:58:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
-  </si>
-  <si>
-    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
-  </si>
-  <si>
-    <t>2019-03-27T22:40:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
-  </si>
-  <si>
-    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2018-11-14T10:21:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
-  </si>
-  <si>
-    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-03-06T18:02:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JC0KeE0oNx0</t>
-  </si>
-  <si>
-    <t>🔊Les lois doivent être promulguées par le roi ⚖️ ITW Exclusive de Maître Philippe Fortabat Labatut</t>
-  </si>
-  <si>
-    <t>2019-11-25T08:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
-  </si>
-  <si>
-    <t>ZER - Face A Moi Même</t>
-  </si>
-  <si>
-    <t>2016-10-30T19:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
-  </si>
-  <si>
-    <t>Pot pourri médiatique</t>
-  </si>
-  <si>
-    <t>2019-03-21T23:00:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -4398,7 +4398,7 @@
         <v>207</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
         <v>208</v>
@@ -4407,10 +4407,10 @@
         <v>691</v>
       </c>
       <c r="F63" s="3">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="G63" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
@@ -4433,7 +4433,7 @@
         <v>210</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
         <v>211</v>
@@ -4442,10 +4442,10 @@
         <v>691</v>
       </c>
       <c r="F64" s="3">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
@@ -6533,13 +6533,13 @@
         <v>400</v>
       </c>
       <c r="C124" t="s">
+        <v>229</v>
+      </c>
+      <c r="D124" t="s">
         <v>401</v>
       </c>
-      <c r="D124" t="s">
-        <v>402</v>
-      </c>
       <c r="E124" s="3">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -6562,19 +6562,19 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B125" t="s">
         <v>403</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>404</v>
-      </c>
-      <c r="C125" t="s">
-        <v>229</v>
       </c>
       <c r="D125" t="s">
         <v>405</v>
       </c>
       <c r="E125" s="3">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
@@ -6994,7 +6994,7 @@
         <v>445</v>
       </c>
       <c r="E137" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -7029,7 +7029,7 @@
         <v>449</v>
       </c>
       <c r="E138" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -7099,13 +7099,13 @@
         <v>456</v>
       </c>
       <c r="E140" s="3">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F140" s="3">
+        <v>6</v>
+      </c>
+      <c r="G140" s="3">
         <v>2</v>
-      </c>
-      <c r="G140" s="3">
-        <v>0</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
@@ -7134,13 +7134,13 @@
         <v>460</v>
       </c>
       <c r="E141" s="3">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F141" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G141" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
@@ -7163,19 +7163,19 @@
         <v>462</v>
       </c>
       <c r="C142" t="s">
-        <v>311</v>
+        <v>120</v>
       </c>
       <c r="D142" t="s">
         <v>463</v>
       </c>
       <c r="E142" s="3">
-        <v>18665</v>
+        <v>1237</v>
       </c>
       <c r="F142" s="3">
-        <v>659</v>
+        <v>51</v>
       </c>
       <c r="G142" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H142" s="3">
         <v>1</v>
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="L142" t="s">
         <v>16</v>
@@ -7198,19 +7198,19 @@
         <v>465</v>
       </c>
       <c r="C143" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="D143" t="s">
         <v>466</v>
       </c>
       <c r="E143" s="3">
-        <v>95</v>
+        <v>411533</v>
       </c>
       <c r="F143" s="3">
-        <v>0</v>
+        <v>4290</v>
       </c>
       <c r="G143" s="3">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="H143" s="3">
         <v>1</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="L143" t="s">
         <v>16</v>
@@ -7233,22 +7233,22 @@
         <v>468</v>
       </c>
       <c r="C144" t="s">
-        <v>292</v>
+        <v>448</v>
       </c>
       <c r="D144" t="s">
         <v>469</v>
       </c>
       <c r="E144" s="3">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F144" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" s="3">
         <v>0</v>
       </c>
       <c r="H144" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -7268,28 +7268,28 @@
         <v>471</v>
       </c>
       <c r="C145" t="s">
+        <v>236</v>
+      </c>
+      <c r="D145" t="s">
         <v>472</v>
       </c>
-      <c r="D145" t="s">
-        <v>473</v>
-      </c>
       <c r="E145" s="3">
-        <v>3</v>
+        <v>549058</v>
       </c>
       <c r="F145" s="3">
-        <v>0</v>
+        <v>4324</v>
       </c>
       <c r="G145" s="3">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="H145" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="L145" t="s">
         <v>16</v>
@@ -7297,37 +7297,37 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B146" t="s">
         <v>474</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
         <v>475</v>
       </c>
-      <c r="C146" t="s">
-        <v>292</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="E146" s="3">
+        <v>4183126</v>
+      </c>
+      <c r="F146" s="3">
+        <v>49430</v>
+      </c>
+      <c r="G146" s="3">
+        <v>5701</v>
+      </c>
+      <c r="H146" s="3">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1196</v>
+      </c>
+      <c r="L146" t="s">
         <v>476</v>
-      </c>
-      <c r="E146" s="3">
-        <v>8644</v>
-      </c>
-      <c r="F146" s="3">
-        <v>0</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="3">
-        <v>1</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7338,19 +7338,19 @@
         <v>478</v>
       </c>
       <c r="C147" t="s">
-        <v>401</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
         <v>479</v>
       </c>
       <c r="E147" s="3">
-        <v>345</v>
+        <v>511312</v>
       </c>
       <c r="F147" s="3">
-        <v>6</v>
+        <v>15167</v>
       </c>
       <c r="G147" s="3">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="H147" s="3">
         <v>1</v>
@@ -7359,10 +7359,10 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L147" t="s">
-        <v>16</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7373,19 +7373,19 @@
         <v>481</v>
       </c>
       <c r="C148" t="s">
-        <v>444</v>
+        <v>236</v>
       </c>
       <c r="D148" t="s">
         <v>482</v>
       </c>
       <c r="E148" s="3">
-        <v>95</v>
+        <v>443934</v>
       </c>
       <c r="F148" s="3">
-        <v>1</v>
+        <v>3514</v>
       </c>
       <c r="G148" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H148" s="3">
         <v>1</v>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L148" t="s">
         <v>16</v>
@@ -7408,19 +7408,19 @@
         <v>484</v>
       </c>
       <c r="C149" t="s">
-        <v>42</v>
+        <v>455</v>
       </c>
       <c r="D149" t="s">
         <v>485</v>
       </c>
       <c r="E149" s="3">
-        <v>125335</v>
+        <v>88</v>
       </c>
       <c r="F149" s="3">
-        <v>3458</v>
+        <v>3</v>
       </c>
       <c r="G149" s="3">
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="H149" s="3">
         <v>1</v>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="K149">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="L149" t="s">
         <v>16</v>
@@ -7443,19 +7443,19 @@
         <v>487</v>
       </c>
       <c r="C150" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="D150" t="s">
         <v>488</v>
       </c>
       <c r="E150" s="3">
-        <v>275148</v>
+        <v>2883</v>
       </c>
       <c r="F150" s="3">
-        <v>2343</v>
+        <v>42</v>
       </c>
       <c r="G150" s="3">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="H150" s="3">
         <v>1</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="L150" t="s">
         <v>16</v>
@@ -7478,28 +7478,28 @@
         <v>490</v>
       </c>
       <c r="C151" t="s">
-        <v>120</v>
+        <v>292</v>
       </c>
       <c r="D151" t="s">
         <v>491</v>
       </c>
       <c r="E151" s="3">
-        <v>1237</v>
+        <v>44</v>
       </c>
       <c r="F151" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G151" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H151" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L151" t="s">
         <v>16</v>
@@ -7513,19 +7513,19 @@
         <v>493</v>
       </c>
       <c r="C152" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="D152" t="s">
         <v>494</v>
       </c>
       <c r="E152" s="3">
-        <v>39</v>
+        <v>401869</v>
       </c>
       <c r="F152" s="3">
-        <v>1</v>
+        <v>4640</v>
       </c>
       <c r="G152" s="3">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="H152" s="3">
         <v>1</v>
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="L152" t="s">
         <v>16</v>
@@ -7548,19 +7548,19 @@
         <v>496</v>
       </c>
       <c r="C153" t="s">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
         <v>497</v>
       </c>
       <c r="E153" s="3">
-        <v>24890</v>
+        <v>566966</v>
       </c>
       <c r="F153" s="3">
-        <v>1321</v>
+        <v>18782</v>
       </c>
       <c r="G153" s="3">
-        <v>34</v>
+        <v>416</v>
       </c>
       <c r="H153" s="3">
         <v>1</v>
@@ -7569,10 +7569,10 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="L153" t="s">
-        <v>16</v>
+        <v>476</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7583,19 +7583,19 @@
         <v>499</v>
       </c>
       <c r="C154" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="D154" t="s">
         <v>500</v>
       </c>
       <c r="E154" s="3">
-        <v>125374</v>
+        <v>428</v>
       </c>
       <c r="F154" s="3">
-        <v>2544</v>
+        <v>0</v>
       </c>
       <c r="G154" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H154" s="3">
         <v>1</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="K154">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="L154" t="s">
         <v>16</v>
@@ -7618,19 +7618,19 @@
         <v>502</v>
       </c>
       <c r="C155" t="s">
-        <v>66</v>
+        <v>404</v>
       </c>
       <c r="D155" t="s">
         <v>503</v>
       </c>
       <c r="E155" s="3">
-        <v>3080</v>
+        <v>345</v>
       </c>
       <c r="F155" s="3">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="G155" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H155" s="3">
         <v>1</v>
@@ -7639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L155" t="s">
         <v>16</v>
@@ -7653,28 +7653,28 @@
         <v>505</v>
       </c>
       <c r="C156" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="D156" t="s">
         <v>506</v>
       </c>
       <c r="E156" s="3">
-        <v>239</v>
+        <v>629</v>
       </c>
       <c r="F156" s="3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G156" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H156" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L156" t="s">
         <v>16</v>
@@ -7694,7 +7694,7 @@
         <v>509</v>
       </c>
       <c r="E157" s="3">
-        <v>2053</v>
+        <v>87</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -7723,19 +7723,19 @@
         <v>511</v>
       </c>
       <c r="C158" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="D158" t="s">
         <v>512</v>
       </c>
       <c r="E158" s="3">
-        <v>218426</v>
+        <v>69498</v>
       </c>
       <c r="F158" s="3">
-        <v>2691</v>
+        <v>1189</v>
       </c>
       <c r="G158" s="3">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="H158" s="3">
         <v>1</v>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="K158">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="L158" t="s">
         <v>16</v>
@@ -7758,19 +7758,19 @@
         <v>514</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="D159" t="s">
         <v>515</v>
       </c>
       <c r="E159" s="3">
-        <v>511312</v>
+        <v>4640</v>
       </c>
       <c r="F159" s="3">
-        <v>15167</v>
+        <v>0</v>
       </c>
       <c r="G159" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H159" s="3">
         <v>1</v>
@@ -7779,42 +7779,42 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>516</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B160" t="s">
         <v>517</v>
-      </c>
-      <c r="B160" t="s">
-        <v>518</v>
       </c>
       <c r="C160" t="s">
         <v>236</v>
       </c>
       <c r="D160" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E160" s="3">
-        <v>629</v>
+        <v>21005</v>
       </c>
       <c r="F160" s="3">
-        <v>32</v>
+        <v>478</v>
       </c>
       <c r="G160" s="3">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H160" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="L160" t="s">
         <v>16</v>
@@ -7822,19 +7822,19 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B161" t="s">
         <v>520</v>
-      </c>
-      <c r="B161" t="s">
-        <v>521</v>
       </c>
       <c r="C161" t="s">
         <v>330</v>
       </c>
       <c r="D161" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E161" s="3">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -7857,25 +7857,25 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B162" t="s">
         <v>523</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
+        <v>42</v>
+      </c>
+      <c r="D162" t="s">
         <v>524</v>
       </c>
-      <c r="C162" t="s">
-        <v>459</v>
-      </c>
-      <c r="D162" t="s">
-        <v>525</v>
-      </c>
       <c r="E162" s="3">
-        <v>88</v>
+        <v>110227</v>
       </c>
       <c r="F162" s="3">
-        <v>3</v>
+        <v>1800</v>
       </c>
       <c r="G162" s="3">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="H162" s="3">
         <v>1</v>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="L162" t="s">
         <v>16</v>
@@ -7892,25 +7892,25 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B163" t="s">
         <v>526</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
+        <v>236</v>
+      </c>
+      <c r="D163" t="s">
         <v>527</v>
       </c>
-      <c r="C163" t="s">
-        <v>292</v>
-      </c>
-      <c r="D163" t="s">
-        <v>528</v>
-      </c>
       <c r="E163" s="3">
-        <v>428</v>
+        <v>275148</v>
       </c>
       <c r="F163" s="3">
-        <v>0</v>
+        <v>2343</v>
       </c>
       <c r="G163" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H163" s="3">
         <v>1</v>
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L163" t="s">
         <v>16</v>
@@ -7927,25 +7927,25 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B164" t="s">
         <v>529</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
+        <v>42</v>
+      </c>
+      <c r="D164" t="s">
         <v>530</v>
       </c>
-      <c r="C164" t="s">
-        <v>66</v>
-      </c>
-      <c r="D164" t="s">
-        <v>531</v>
-      </c>
       <c r="E164" s="3">
-        <v>74953</v>
+        <v>125374</v>
       </c>
       <c r="F164" s="3">
-        <v>1016</v>
+        <v>2544</v>
       </c>
       <c r="G164" s="3">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="H164" s="3">
         <v>1</v>
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <v>212</v>
+        <v>1213</v>
       </c>
       <c r="L164" t="s">
         <v>16</v>
@@ -7962,25 +7962,25 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B165" t="s">
         <v>532</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
+        <v>236</v>
+      </c>
+      <c r="D165" t="s">
         <v>533</v>
       </c>
-      <c r="C165" t="s">
-        <v>292</v>
-      </c>
-      <c r="D165" t="s">
-        <v>534</v>
-      </c>
       <c r="E165" s="3">
-        <v>617</v>
+        <v>850122</v>
       </c>
       <c r="F165" s="3">
-        <v>0</v>
+        <v>7412</v>
       </c>
       <c r="G165" s="3">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="L165" t="s">
         <v>16</v>
@@ -7997,34 +7997,34 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B166" t="s">
         <v>535</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
+        <v>444</v>
+      </c>
+      <c r="D166" t="s">
         <v>536</v>
       </c>
-      <c r="C166" t="s">
-        <v>22</v>
-      </c>
-      <c r="D166" t="s">
-        <v>537</v>
-      </c>
       <c r="E166" s="3">
-        <v>90458</v>
+        <v>1</v>
       </c>
       <c r="F166" s="3">
-        <v>5026</v>
+        <v>0</v>
       </c>
       <c r="G166" s="3">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="H166" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166">
         <v>0</v>
       </c>
       <c r="K166">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="L166" t="s">
         <v>16</v>
@@ -8032,19 +8032,19 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B167" t="s">
         <v>538</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
+        <v>448</v>
+      </c>
+      <c r="D167" t="s">
         <v>539</v>
       </c>
-      <c r="C167" t="s">
-        <v>330</v>
-      </c>
-      <c r="D167" t="s">
-        <v>540</v>
-      </c>
       <c r="E167" s="3">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F167" s="3">
         <v>1</v>
@@ -8067,25 +8067,25 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B168" t="s">
         <v>541</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
+        <v>292</v>
+      </c>
+      <c r="D168" t="s">
         <v>542</v>
       </c>
-      <c r="C168" t="s">
-        <v>66</v>
-      </c>
-      <c r="D168" t="s">
-        <v>543</v>
-      </c>
       <c r="E168" s="3">
-        <v>2883</v>
+        <v>2053</v>
       </c>
       <c r="F168" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G168" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H168" s="3">
         <v>1</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="K168">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L168" t="s">
         <v>16</v>
@@ -8102,60 +8102,60 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B169" t="s">
         <v>544</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s">
         <v>545</v>
       </c>
-      <c r="C169" t="s">
-        <v>330</v>
-      </c>
-      <c r="D169" t="s">
-        <v>546</v>
-      </c>
       <c r="E169" s="3">
-        <v>20</v>
+        <v>472979</v>
       </c>
       <c r="F169" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G169" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H169" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L169" t="s">
-        <v>16</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B170" t="s">
         <v>547</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
+        <v>270</v>
+      </c>
+      <c r="D170" t="s">
         <v>548</v>
       </c>
-      <c r="C170" t="s">
-        <v>236</v>
-      </c>
-      <c r="D170" t="s">
-        <v>549</v>
-      </c>
       <c r="E170" s="3">
-        <v>443934</v>
+        <v>39</v>
       </c>
       <c r="F170" s="3">
-        <v>3514</v>
+        <v>1</v>
       </c>
       <c r="G170" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="K170">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L170" t="s">
         <v>16</v>
@@ -8172,25 +8172,25 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B171" t="s">
         <v>550</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" t="s">
         <v>551</v>
       </c>
-      <c r="C171" t="s">
-        <v>292</v>
-      </c>
-      <c r="D171" t="s">
-        <v>552</v>
-      </c>
       <c r="E171" s="3">
-        <v>4640</v>
+        <v>125335</v>
       </c>
       <c r="F171" s="3">
-        <v>0</v>
+        <v>3458</v>
       </c>
       <c r="G171" s="3">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="K171">
-        <v>0</v>
+        <v>1955</v>
       </c>
       <c r="L171" t="s">
         <v>16</v>
@@ -8207,34 +8207,34 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B172" t="s">
         <v>553</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
+        <v>113</v>
+      </c>
+      <c r="D172" t="s">
         <v>554</v>
       </c>
-      <c r="C172" t="s">
-        <v>292</v>
-      </c>
-      <c r="D172" t="s">
-        <v>555</v>
-      </c>
       <c r="E172" s="3">
-        <v>87</v>
+        <v>5663</v>
       </c>
       <c r="F172" s="3">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="G172" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="L172" t="s">
         <v>16</v>
@@ -8242,34 +8242,34 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B173" t="s">
         <v>556</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
+        <v>292</v>
+      </c>
+      <c r="D173" t="s">
         <v>557</v>
       </c>
-      <c r="C173" t="s">
-        <v>165</v>
-      </c>
-      <c r="D173" t="s">
-        <v>558</v>
-      </c>
       <c r="E173" s="3">
-        <v>1108</v>
+        <v>844</v>
       </c>
       <c r="F173" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G173" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L173" t="s">
         <v>16</v>
@@ -8277,25 +8277,25 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B174" t="s">
         <v>559</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
+        <v>330</v>
+      </c>
+      <c r="D174" t="s">
         <v>560</v>
       </c>
-      <c r="C174" t="s">
-        <v>236</v>
-      </c>
-      <c r="D174" t="s">
-        <v>561</v>
-      </c>
       <c r="E174" s="3">
-        <v>549058</v>
+        <v>23</v>
       </c>
       <c r="F174" s="3">
-        <v>4324</v>
+        <v>1</v>
       </c>
       <c r="G174" s="3">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="H174" s="3">
         <v>1</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="L174" t="s">
         <v>16</v>
@@ -8312,25 +8312,25 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B175" t="s">
         <v>562</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
+        <v>165</v>
+      </c>
+      <c r="D175" t="s">
         <v>563</v>
       </c>
-      <c r="C175" t="s">
-        <v>433</v>
-      </c>
-      <c r="D175" t="s">
-        <v>564</v>
-      </c>
       <c r="E175" s="3">
-        <v>6</v>
+        <v>1108</v>
       </c>
       <c r="F175" s="3">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="G175" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H175" s="3">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L175" t="s">
         <v>16</v>
@@ -8347,25 +8347,25 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B176" t="s">
         <v>565</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
+        <v>330</v>
+      </c>
+      <c r="D176" t="s">
         <v>566</v>
       </c>
-      <c r="C176" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" t="s">
-        <v>567</v>
-      </c>
       <c r="E176" s="3">
-        <v>222595</v>
+        <v>74</v>
       </c>
       <c r="F176" s="3">
-        <v>9022</v>
+        <v>0</v>
       </c>
       <c r="G176" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H176" s="3">
         <v>1</v>
@@ -8374,33 +8374,33 @@
         <v>0</v>
       </c>
       <c r="K176">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>516</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B177" t="s">
         <v>568</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
+        <v>292</v>
+      </c>
+      <c r="D177" t="s">
         <v>569</v>
       </c>
-      <c r="C177" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" t="s">
-        <v>570</v>
-      </c>
       <c r="E177" s="3">
-        <v>472979</v>
+        <v>8644</v>
       </c>
       <c r="F177" s="3">
-        <v>20185</v>
+        <v>0</v>
       </c>
       <c r="G177" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H177" s="3">
         <v>1</v>
@@ -8409,33 +8409,33 @@
         <v>0</v>
       </c>
       <c r="K177">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>516</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B178" t="s">
         <v>571</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
+        <v>66</v>
+      </c>
+      <c r="D178" t="s">
         <v>572</v>
       </c>
-      <c r="C178" t="s">
-        <v>236</v>
-      </c>
-      <c r="D178" t="s">
-        <v>573</v>
-      </c>
       <c r="E178" s="3">
-        <v>401869</v>
+        <v>3080</v>
       </c>
       <c r="F178" s="3">
-        <v>4640</v>
+        <v>58</v>
       </c>
       <c r="G178" s="3">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="H178" s="3">
         <v>1</v>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="K178">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="L178" t="s">
         <v>16</v>
@@ -8452,34 +8452,34 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B179" t="s">
         <v>574</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
+        <v>42</v>
+      </c>
+      <c r="D179" t="s">
         <v>575</v>
       </c>
-      <c r="C179" t="s">
-        <v>448</v>
-      </c>
-      <c r="D179" t="s">
-        <v>576</v>
-      </c>
       <c r="E179" s="3">
-        <v>1</v>
+        <v>282666</v>
       </c>
       <c r="F179" s="3">
-        <v>0</v>
+        <v>4159</v>
       </c>
       <c r="G179" s="3">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="H179" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179">
         <v>0</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>2992</v>
       </c>
       <c r="L179" t="s">
         <v>16</v>
@@ -8487,25 +8487,25 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B180" t="s">
         <v>577</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
+        <v>311</v>
+      </c>
+      <c r="D180" t="s">
         <v>578</v>
       </c>
-      <c r="C180" t="s">
-        <v>66</v>
-      </c>
-      <c r="D180" t="s">
-        <v>579</v>
-      </c>
       <c r="E180" s="3">
-        <v>25592</v>
+        <v>18665</v>
       </c>
       <c r="F180" s="3">
-        <v>221</v>
+        <v>659</v>
       </c>
       <c r="G180" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H180" s="3">
         <v>1</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="K180">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="L180" t="s">
         <v>16</v>
@@ -8522,25 +8522,25 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B181" t="s">
         <v>580</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
+        <v>66</v>
+      </c>
+      <c r="D181" t="s">
         <v>581</v>
       </c>
-      <c r="C181" t="s">
-        <v>14</v>
-      </c>
-      <c r="D181" t="s">
-        <v>582</v>
-      </c>
       <c r="E181" s="3">
-        <v>4183126</v>
+        <v>74953</v>
       </c>
       <c r="F181" s="3">
-        <v>49430</v>
+        <v>1016</v>
       </c>
       <c r="G181" s="3">
-        <v>5701</v>
+        <v>29</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
@@ -8549,33 +8549,33 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <v>1196</v>
+        <v>212</v>
       </c>
       <c r="L181" t="s">
-        <v>516</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B182" t="s">
         <v>583</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
+        <v>66</v>
+      </c>
+      <c r="D182" t="s">
         <v>584</v>
       </c>
-      <c r="C182" t="s">
-        <v>236</v>
-      </c>
-      <c r="D182" t="s">
-        <v>585</v>
-      </c>
       <c r="E182" s="3">
-        <v>850122</v>
+        <v>8968</v>
       </c>
       <c r="F182" s="3">
-        <v>7412</v>
+        <v>117</v>
       </c>
       <c r="G182" s="3">
-        <v>349</v>
+        <v>15</v>
       </c>
       <c r="H182" s="3">
         <v>1</v>
@@ -8584,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="K182">
-        <v>326</v>
+        <v>43</v>
       </c>
       <c r="L182" t="s">
         <v>16</v>
@@ -8592,25 +8592,25 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B183" t="s">
         <v>586</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" t="s">
         <v>587</v>
       </c>
-      <c r="C183" t="s">
-        <v>42</v>
-      </c>
-      <c r="D183" t="s">
-        <v>588</v>
-      </c>
       <c r="E183" s="3">
-        <v>282666</v>
+        <v>222595</v>
       </c>
       <c r="F183" s="3">
-        <v>4159</v>
+        <v>9022</v>
       </c>
       <c r="G183" s="3">
-        <v>1024</v>
+        <v>147</v>
       </c>
       <c r="H183" s="3">
         <v>1</v>
@@ -8619,33 +8619,33 @@
         <v>0</v>
       </c>
       <c r="K183">
-        <v>2992</v>
+        <v>130</v>
       </c>
       <c r="L183" t="s">
-        <v>16</v>
+        <v>476</v>
       </c>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B184" t="s">
         <v>589</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" t="s">
         <v>590</v>
       </c>
-      <c r="C184" t="s">
-        <v>444</v>
-      </c>
-      <c r="D184" t="s">
-        <v>591</v>
-      </c>
       <c r="E184" s="3">
-        <v>60</v>
+        <v>90458</v>
       </c>
       <c r="F184" s="3">
-        <v>1</v>
+        <v>5026</v>
       </c>
       <c r="G184" s="3">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="H184" s="3">
         <v>1</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="K184">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="L184" t="s">
         <v>16</v>
@@ -8662,25 +8662,25 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B185" t="s">
         <v>592</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
+        <v>66</v>
+      </c>
+      <c r="D185" t="s">
         <v>593</v>
       </c>
-      <c r="C185" t="s">
-        <v>14</v>
-      </c>
-      <c r="D185" t="s">
-        <v>594</v>
-      </c>
       <c r="E185" s="3">
-        <v>566966</v>
+        <v>25592</v>
       </c>
       <c r="F185" s="3">
-        <v>18782</v>
+        <v>221</v>
       </c>
       <c r="G185" s="3">
-        <v>416</v>
+        <v>29</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
@@ -8689,33 +8689,33 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="L185" t="s">
-        <v>516</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B186" t="s">
         <v>595</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
+        <v>311</v>
+      </c>
+      <c r="D186" t="s">
         <v>596</v>
       </c>
-      <c r="C186" t="s">
-        <v>66</v>
-      </c>
-      <c r="D186" t="s">
-        <v>597</v>
-      </c>
       <c r="E186" s="3">
-        <v>4759</v>
+        <v>24890</v>
       </c>
       <c r="F186" s="3">
-        <v>129</v>
+        <v>1321</v>
       </c>
       <c r="G186" s="3">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H186" s="3">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="K186">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="L186" t="s">
         <v>16</v>
@@ -8732,34 +8732,34 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B187" t="s">
         <v>598</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>599</v>
-      </c>
-      <c r="C187" t="s">
-        <v>236</v>
       </c>
       <c r="D187" t="s">
         <v>600</v>
       </c>
       <c r="E187" s="3">
-        <v>411533</v>
+        <v>3</v>
       </c>
       <c r="F187" s="3">
-        <v>4290</v>
+        <v>0</v>
       </c>
       <c r="G187" s="3">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="H187" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="L187" t="s">
         <v>16</v>
@@ -8773,19 +8773,19 @@
         <v>602</v>
       </c>
       <c r="C188" t="s">
-        <v>66</v>
+        <v>330</v>
       </c>
       <c r="D188" t="s">
         <v>603</v>
       </c>
       <c r="E188" s="3">
-        <v>8968</v>
+        <v>239</v>
       </c>
       <c r="F188" s="3">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="G188" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H188" s="3">
         <v>1</v>
@@ -8794,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L188" t="s">
         <v>16</v>
@@ -8808,13 +8808,13 @@
         <v>605</v>
       </c>
       <c r="C189" t="s">
-        <v>292</v>
+        <v>433</v>
       </c>
       <c r="D189" t="s">
         <v>606</v>
       </c>
       <c r="E189" s="3">
-        <v>844</v>
+        <v>6</v>
       </c>
       <c r="F189" s="3">
         <v>0</v>
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="H189" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -8843,28 +8843,28 @@
         <v>608</v>
       </c>
       <c r="C190" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="D190" t="s">
         <v>609</v>
       </c>
       <c r="E190" s="3">
-        <v>5663</v>
+        <v>4759</v>
       </c>
       <c r="F190" s="3">
-        <v>445</v>
+        <v>129</v>
       </c>
       <c r="G190" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H190" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190">
         <v>0</v>
       </c>
       <c r="K190">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="L190" t="s">
         <v>16</v>
@@ -8878,19 +8878,19 @@
         <v>611</v>
       </c>
       <c r="C191" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="D191" t="s">
         <v>612</v>
       </c>
       <c r="E191" s="3">
-        <v>21005</v>
+        <v>617</v>
       </c>
       <c r="F191" s="3">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="G191" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H191" s="3">
         <v>1</v>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="L191" t="s">
         <v>16</v>
@@ -8913,19 +8913,19 @@
         <v>614</v>
       </c>
       <c r="C192" t="s">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="D192" t="s">
         <v>615</v>
       </c>
       <c r="E192" s="3">
-        <v>110227</v>
+        <v>95</v>
       </c>
       <c r="F192" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G192" s="3">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="H192" s="3">
         <v>1</v>
@@ -8934,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="L192" t="s">
         <v>16</v>
@@ -8948,19 +8948,19 @@
         <v>617</v>
       </c>
       <c r="C193" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="D193" t="s">
         <v>618</v>
       </c>
       <c r="E193" s="3">
-        <v>69498</v>
+        <v>218426</v>
       </c>
       <c r="F193" s="3">
-        <v>1189</v>
+        <v>2691</v>
       </c>
       <c r="G193" s="3">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="H193" s="3">
         <v>1</v>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="L193" t="s">
         <v>16</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -9427,7 +9427,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>472</v>
+        <v>599</v>
       </c>
       <c r="B31">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="572">
   <si>
     <t>URL</t>
   </si>
@@ -215,6 +215,1158 @@
     <t>2019-12-09T11:12:12.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jg-IR6njtdM</t>
+  </si>
+  <si>
+    <t>Organisons une veillée GJ devant l'IGPN! Images Sam Vench. Questions Sam Vench et Isadora</t>
+  </si>
+  <si>
+    <t>2019-12-27T19:50:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7uudTHzVLWg</t>
+  </si>
+  <si>
+    <t>Live : Fin de l'esclavagisme avec Yves Chouard, Maitre Philippe Fortabat Labatut, Lorelÿ</t>
+  </si>
+  <si>
+    <t>Dajjal Magazine</t>
+  </si>
+  <si>
+    <t>2019-12-21T23:04:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BsuuSPxRLE</t>
+  </si>
+  <si>
+    <t>La Guerre des mots</t>
+  </si>
+  <si>
+    <t>2019-12-15T23:14:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
+  </si>
+  <si>
+    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
+  </si>
+  <si>
+    <t>2019-12-11T21:32:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H-jpGp862t0</t>
+  </si>
+  <si>
+    <t>UN HACKER DENONCE LE DARK NET LA MANIPULATION DE L ISLAM ET LE TRAFFIC NUMERIQUE !!!</t>
+  </si>
+  <si>
+    <t>ANTILLUMINATI KEMAR 2</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:25:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kob-ZZSn_2A</t>
+  </si>
+  <si>
+    <t>PACTE SATANIQUE AVEC LUCIFER PAR LE SANG POUR LA GLOIRE EN FRANCE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-15T11:01:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oTmENRbauHw</t>
+  </si>
+  <si>
+    <t>COLUCHE UN HUMOURISTE TUE PAR LES ELITES PARCE QU IL DENONCAIT LA POLITIQUE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-13T11:14:24.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B4I6NTggH04</t>
+  </si>
+  <si>
+    <t>FRANCE 2 : EXORCISME DE DEMONS EN DIRECT A LA TELEVISION FRANCAISE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-16T11:03:30.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AXfch8K4UQU</t>
+  </si>
+  <si>
+    <t>EXPLICATION DE PRATIQUE MAGIQUE OCCULTE SATANIQUE PAR UN ANCIEN SORCIER REPENTI !!!</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:09:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XfZF5AT3UDo</t>
+  </si>
+  <si>
+    <t>RESEAU PEDOPHILE INTERNATIONALE SNUFF MOVIE ORGANISE PAS DES MILITAIRES ET POLICIERS DE FRANCE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:17:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KXlmzXtG4-A</t>
+  </si>
+  <si>
+    <t>RITUEL OCCULTE DES SATANISTES PARLENT AVEC LE DIABLE EN FRANCE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-18T11:00:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aQ8uCEx-rSk</t>
+  </si>
+  <si>
+    <t>FAT JOE DENONCE LA MAFIA GAY DANS L INDUSTRIE MUSICALE DE LA DEBAUCHE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-22T11:29:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sjmFJdoZX3Y</t>
+  </si>
+  <si>
+    <t>Versailles-Paris Pin Pon Pin Pon, v'la le bras aérien!</t>
+  </si>
+  <si>
+    <t>2019-05-26T08:15:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
+  </si>
+  <si>
+    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
+  </si>
+  <si>
+    <t>2019-12-13T20:13:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HQBmk6j_bYc</t>
+  </si>
+  <si>
+    <t>AU SEUIL DE LA LOGE MACONNIQUE INITIATION DU RITE ECOSSAIS EN LIVE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T11:51:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gzht8SVnYG8</t>
+  </si>
+  <si>
+    <t>Lorsque les Justes Lois (ad-din) d'Allah conquirent la France</t>
+  </si>
+  <si>
+    <t>2019-12-20T13:48:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
+  </si>
+  <si>
+    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
+  </si>
+  <si>
+    <t>2019-12-03T11:35:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
+  </si>
+  <si>
+    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
+  </si>
+  <si>
+    <t>Fred Bes</t>
+  </si>
+  <si>
+    <t>2019-12-20T19:28:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eQVUB3odtrQ</t>
+  </si>
+  <si>
+    <t>ESCLAVE HORROR STORY le Hors-Série PÔLE POT EMPLOI n°4</t>
+  </si>
+  <si>
+    <t>2019-12-06T13:05:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=loX_BGQ4-kg</t>
+  </si>
+  <si>
+    <t>Kemarl1fam - Bonhomme de neige</t>
+  </si>
+  <si>
+    <t>2019-12-25T14:52:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
+  </si>
+  <si>
+    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-13T22:06:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
+  </si>
+  <si>
+    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:18:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
+  </si>
+  <si>
+    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-24T19:30:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
+  </si>
+  <si>
+    <t>Daniel Dupont</t>
+  </si>
+  <si>
+    <t>2019-11-26T22:20:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
+  </si>
+  <si>
+    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T18:51:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
+  </si>
+  <si>
+    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
+  </si>
+  <si>
+    <t>2019-12-28T08:24:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y4PduURvOpw</t>
+  </si>
+  <si>
+    <t>L’exécutif à l’épreuve de la grève   Journal du 9 décembre 2019   Vidéo dailymotion</t>
+  </si>
+  <si>
+    <t>2019-12-09T19:39:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T19:13:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
+  </si>
+  <si>
+    <t>comment lire les articles du parisien gratuitement</t>
+  </si>
+  <si>
+    <t>2019-12-19T11:02:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
+  </si>
+  <si>
+    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T18:41:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
+  </si>
+  <si>
+    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T18:44:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
+  </si>
+  <si>
+    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T19:07:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
+  </si>
+  <si>
+    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:48:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HXiOLJ48sXc</t>
+  </si>
+  <si>
+    <t>SANTE : LES ALIMENTS QUI RESSEMBLE AUX ORGANES QUI GUERISSENT !!!</t>
+  </si>
+  <si>
+    <t>2019-12-06T18:35:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
+  </si>
+  <si>
+    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
+  </si>
+  <si>
+    <t>Ministère Territoires et Collectivités</t>
+  </si>
+  <si>
+    <t>2019-12-09T12:38:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
+  </si>
+  <si>
+    <t>#FAQ17 - Posez vos questions</t>
+  </si>
+  <si>
+    <t>2019-11-24T14:47:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
+  </si>
+  <si>
+    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
+  </si>
+  <si>
+    <t>2019-12-11T17:08:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
+  </si>
+  <si>
+    <t>Women in Finance // 3rd Shadowing Day</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-12-06T09:09:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
+  </si>
+  <si>
+    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
+  </si>
+  <si>
+    <t>2019-12-12T20:47:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
+  </si>
+  <si>
+    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T20:32:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
+  </si>
+  <si>
+    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:09:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4iWhEvPavLA</t>
+  </si>
+  <si>
+    <t>Grève contre la réforme des retraites: les syndicats reprennent des couleurs</t>
+  </si>
+  <si>
+    <t>2019-12-09T16:55:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
+  </si>
+  <si>
+    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
+  </si>
+  <si>
+    <t>2019-11-22T03:31:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
+  </si>
+  <si>
+    <t>Bientôt de la publicité sur Netflix ?</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:17:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
+  </si>
+  <si>
+    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
+  </si>
+  <si>
+    <t>2018-10-17T23:18:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
+  </si>
+  <si>
+    <t>Sophie Cluzel, secrétaire d'État chargée des Personnes handicapées.</t>
+  </si>
+  <si>
+    <t>Secrétariat d'Etat chargé de l'égalité</t>
+  </si>
+  <si>
+    <t>2018-12-12T15:20:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
+  </si>
+  <si>
+    <t>Un prêtre, un psy... tous GJ</t>
+  </si>
+  <si>
+    <t>2019-04-19T19:34:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
+  </si>
+  <si>
+    <t>Protection maladie des personnes étrangères</t>
+  </si>
+  <si>
+    <t>Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2019-11-12T14:26:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
+  </si>
+  <si>
+    <t>La réforme des retraites à la Une de l'Opinion: le making-of du dessin de la semaine</t>
+  </si>
+  <si>
+    <t>2019-12-06T17:22:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
+  </si>
+  <si>
+    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
+  </si>
+  <si>
+    <t>2018-11-14T10:21:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
   </si>
   <si>
@@ -224,154 +1376,214 @@
     <t>2019-12-06T20:01:54.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jg-IR6njtdM</t>
-  </si>
-  <si>
-    <t>Organisons une veillée GJ devant l'IGPN! Images Sam Vench. Questions Sam Vench et Isadora</t>
-  </si>
-  <si>
-    <t>2019-12-27T19:50:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
+  </si>
+  <si>
+    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
+  </si>
+  <si>
+    <t>2018-09-17T13:20:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
+  </si>
+  <si>
+    <t>Les malaises #3 - Avec Mathieu Madénian</t>
+  </si>
+  <si>
+    <t>2019-11-25T17:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
+  </si>
+  <si>
+    <t>Un ex associé de Francis Lalanne</t>
+  </si>
+  <si>
+    <t>2019-05-23T10:05:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
+  </si>
+  <si>
+    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
+  </si>
+  <si>
+    <t>2019-03-27T22:40:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
+  </si>
+  <si>
+    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
+  </si>
+  <si>
+    <t>2018-11-22T17:23:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
+  </si>
+  <si>
+    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
+  </si>
+  <si>
+    <t>2019-11-19T12:31:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
+  </si>
+  <si>
+    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-02T11:13:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
+  </si>
+  <si>
+    <t>Retraites : je souhaite que Macron connaisse un échec</t>
+  </si>
+  <si>
+    <t>2019-12-04T07:52:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
+  </si>
+  <si>
+    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
+  </si>
+  <si>
+    <t>2018-09-07T09:19:29.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
@@ -383,727 +1595,85 @@
     <t>2019-12-06T20:20:06.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7uudTHzVLWg</t>
-  </si>
-  <si>
-    <t>Live : Fin de l'esclavagisme avec Yves Chouard, Maitre Philippe Fortabat Labatut, Lorelÿ</t>
-  </si>
-  <si>
-    <t>Dajjal Magazine</t>
-  </si>
-  <si>
-    <t>2019-12-21T23:04:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BsuuSPxRLE</t>
-  </si>
-  <si>
-    <t>La Guerre des mots</t>
-  </si>
-  <si>
-    <t>2019-12-15T23:14:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
-  </si>
-  <si>
-    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
-  </si>
-  <si>
-    <t>2019-12-11T21:32:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=H-jpGp862t0</t>
-  </si>
-  <si>
-    <t>UN HACKER DENONCE LE DARK NET LA MANIPULATION DE L ISLAM ET LE TRAFFIC NUMERIQUE !!!</t>
-  </si>
-  <si>
-    <t>ANTILLUMINATI KEMAR 2</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:25:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kob-ZZSn_2A</t>
-  </si>
-  <si>
-    <t>PACTE SATANIQUE AVEC LUCIFER PAR LE SANG POUR LA GLOIRE EN FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-15T11:01:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oTmENRbauHw</t>
-  </si>
-  <si>
-    <t>COLUCHE UN HUMOURISTE TUE PAR LES ELITES PARCE QU IL DENONCAIT LA POLITIQUE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-13T11:14:24.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B4I6NTggH04</t>
-  </si>
-  <si>
-    <t>FRANCE 2 : EXORCISME DE DEMONS EN DIRECT A LA TELEVISION FRANCAISE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-16T11:03:30.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AXfch8K4UQU</t>
-  </si>
-  <si>
-    <t>EXPLICATION DE PRATIQUE MAGIQUE OCCULTE SATANIQUE PAR UN ANCIEN SORCIER REPENTI !!!</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:09:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sjmFJdoZX3Y</t>
-  </si>
-  <si>
-    <t>Versailles-Paris Pin Pon Pin Pon, v'la le bras aérien!</t>
-  </si>
-  <si>
-    <t>2019-05-26T08:15:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XfZF5AT3UDo</t>
-  </si>
-  <si>
-    <t>RESEAU PEDOPHILE INTERNATIONALE SNUFF MOVIE ORGANISE PAS DES MILITAIRES ET POLICIERS DE FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:17:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KXlmzXtG4-A</t>
-  </si>
-  <si>
-    <t>RITUEL OCCULTE DES SATANISTES PARLENT AVEC LE DIABLE EN FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-18T11:00:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aQ8uCEx-rSk</t>
-  </si>
-  <si>
-    <t>FAT JOE DENONCE LA MAFIA GAY DANS L INDUSTRIE MUSICALE DE LA DEBAUCHE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-22T11:29:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
-  </si>
-  <si>
-    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
-  </si>
-  <si>
-    <t>2019-12-03T11:35:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HQBmk6j_bYc</t>
-  </si>
-  <si>
-    <t>AU SEUIL DE LA LOGE MACONNIQUE INITIATION DU RITE ECOSSAIS EN LIVE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T11:51:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
-  </si>
-  <si>
-    <t>Les malaises #3 - Avec Mathieu Madénian</t>
-  </si>
-  <si>
-    <t>2019-11-25T17:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Gzht8SVnYG8</t>
-  </si>
-  <si>
-    <t>Lorsque les Justes Lois (ad-din) d'Allah conquirent la France</t>
-  </si>
-  <si>
-    <t>2019-12-20T13:48:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eQVUB3odtrQ</t>
-  </si>
-  <si>
-    <t>ESCLAVE HORROR STORY le Hors-Série PÔLE POT EMPLOI n°4</t>
-  </si>
-  <si>
-    <t>2019-12-06T13:05:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
-  </si>
-  <si>
-    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-02T11:13:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
-  </si>
-  <si>
-    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
-  </si>
-  <si>
-    <t>Fred Bes</t>
-  </si>
-  <si>
-    <t>2019-12-20T19:28:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=loX_BGQ4-kg</t>
-  </si>
-  <si>
-    <t>Kemarl1fam - Bonhomme de neige</t>
-  </si>
-  <si>
-    <t>2019-12-25T14:52:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
-  </si>
-  <si>
-    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-13T22:06:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
-  </si>
-  <si>
-    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:18:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
-  </si>
-  <si>
-    <t>Daniel Dupont</t>
-  </si>
-  <si>
-    <t>2019-11-26T22:20:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
-  </si>
-  <si>
-    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-24T19:30:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HXiOLJ48sXc</t>
-  </si>
-  <si>
-    <t>SANTE : LES ALIMENTS QUI RESSEMBLE AUX ORGANES QUI GUERISSENT !!!</t>
-  </si>
-  <si>
-    <t>2019-12-06T18:35:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GMx5oVGnNsw</t>
-  </si>
-  <si>
-    <t>Merci aux vrais et rappel de la nouvelle chaine 💪</t>
-  </si>
-  <si>
-    <t>ZER</t>
-  </si>
-  <si>
-    <t>2019-12-06T18:30:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
-  </si>
-  <si>
-    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
-  </si>
-  <si>
-    <t>2019-12-28T08:24:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y4PduURvOpw</t>
-  </si>
-  <si>
-    <t>L’exécutif à l’épreuve de la grève   Journal du 9 décembre 2019   Vidéo dailymotion</t>
-  </si>
-  <si>
-    <t>2019-12-09T19:39:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
-  </si>
-  <si>
-    <t>#FAQ17 - Posez vos questions</t>
-  </si>
-  <si>
-    <t>2019-11-24T14:47:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
-  </si>
-  <si>
-    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T18:41:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
-  </si>
-  <si>
-    <t>Women in Finance // 3rd Shadowing Day</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2019-12-06T09:09:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
-  </si>
-  <si>
-    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
-  </si>
-  <si>
-    <t>2019-12-11T17:08:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0m9P5cSEWlY</t>
-  </si>
-  <si>
-    <t>ZER - Ma Bulma (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2017-09-27T17:39:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
-  </si>
-  <si>
-    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
-  </si>
-  <si>
-    <t>2019-11-22T03:31:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
+  </si>
+  <si>
+    <t>Pot pourri médiatique</t>
+  </si>
+  <si>
+    <t>2019-03-21T23:00:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
+  </si>
+  <si>
+    <t>François le Français... euh non, l’ami des oligarques...</t>
+  </si>
+  <si>
+    <t>2019-04-28T13:50:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=LHq3bNb53UA</t>
@@ -1115,255 +1685,6 @@
     <t>2019-12-06T19:30:35.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
-  </si>
-  <si>
-    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:09:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4iWhEvPavLA</t>
-  </si>
-  <si>
-    <t>Grève contre la réforme des retraites: les syndicats reprennent des couleurs</t>
-  </si>
-  <si>
-    <t>2019-12-09T16:55:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
-  </si>
-  <si>
-    <t>Sophie Cluzel, secrétaire d'État chargée des Personnes handicapées.</t>
-  </si>
-  <si>
-    <t>Secrétariat d'Etat chargé de l'égalité</t>
-  </si>
-  <si>
-    <t>2018-12-12T15:20:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
-  </si>
-  <si>
-    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
-  </si>
-  <si>
-    <t>2018-10-17T23:18:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
-  </si>
-  <si>
-    <t>Un prêtre, un psy... tous GJ</t>
-  </si>
-  <si>
-    <t>2019-04-19T19:34:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
-  </si>
-  <si>
-    <t>Protection maladie des personnes étrangères</t>
-  </si>
-  <si>
-    <t>Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2019-11-12T14:26:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
-  </si>
-  <si>
-    <t>La réforme des retraites à la Une de l'Opinion: le making-of du dessin de la semaine</t>
-  </si>
-  <si>
-    <t>2019-12-06T17:22:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
   </si>
   <si>
@@ -1373,22 +1694,13 @@
     <t>2018-11-26T14:31:11.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
-  </si>
-  <si>
-    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
-  </si>
-  <si>
-    <t>2018-09-07T09:19:29.000Z</t>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
@@ -1400,54 +1712,6 @@
     <t>2019-04-15T15:30:02.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
-  </si>
-  <si>
-    <t>Retraites : je souhaite que Macron connaisse un échec</t>
-  </si>
-  <si>
-    <t>2019-12-04T07:52:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
   </si>
   <si>
@@ -1457,234 +1721,6 @@
     <t>2016-01-30T15:42:55.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KwMU-xBGI94</t>
-  </si>
-  <si>
-    <t>ZER Feat RASKO - Elle Voulait (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2016-01-24T17:05:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gN8gBe4057s</t>
-  </si>
-  <si>
-    <t>ZER - Face A Moi Même</t>
-  </si>
-  <si>
-    <t>2016-10-30T19:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_b8IbDz-Eho</t>
-  </si>
-  <si>
-    <t>ZER Ft J.REYZS - Elle Est Partie (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-02-28T18:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
-  </si>
-  <si>
-    <t>Un ex associé de Francis Lalanne</t>
-  </si>
-  <si>
-    <t>2019-05-23T10:05:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ANvO1Q68C0k</t>
-  </si>
-  <si>
-    <t>ZER Ft LILYAH - Entre Amitié Et Amour</t>
-  </si>
-  <si>
-    <t>2013-08-20T18:23:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
-  </si>
-  <si>
-    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2018-11-14T10:21:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UAVcl1ZWkQM</t>
-  </si>
-  <si>
-    <t>ZER - Depuis Ton Départ (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-03-06T18:02:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
-  </si>
-  <si>
-    <t>François le Français... euh non, l’ami des oligarques...</t>
-  </si>
-  <si>
-    <t>2019-04-28T13:50:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
-  </si>
-  <si>
-    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
-  </si>
-  <si>
-    <t>2019-03-27T22:40:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
-  </si>
-  <si>
-    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
-  </si>
-  <si>
-    <t>2018-11-22T17:23:27.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
   </si>
   <si>
@@ -1692,114 +1728,6 @@
   </si>
   <si>
     <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
-  </si>
-  <si>
-    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
-  </si>
-  <si>
-    <t>2018-09-17T13:20:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a8YkRxHInzk</t>
-  </si>
-  <si>
-    <t>ZER - T'es La Bonne (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2015-05-15T16:28:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
-  </si>
-  <si>
-    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
-  </si>
-  <si>
-    <t>2019-11-19T12:31:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3tsF8NkNUJM</t>
-  </si>
-  <si>
-    <t>ZER - Déclaration D'amour (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2013-11-08T18:25:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
-  </si>
-  <si>
-    <t>Pot pourri médiatique</t>
-  </si>
-  <si>
-    <t>2019-03-21T23:00:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y0FMAESl9RE</t>
-  </si>
-  <si>
-    <t>ZER ft DJO - Ma Complice (Clip Officiel)</t>
-  </si>
-  <si>
-    <t>2014-08-01T17:58:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -2160,7 +2088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L185"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2751,19 +2679,19 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
       <c r="E18" s="3">
-        <v>58018</v>
+        <v>9999</v>
       </c>
       <c r="F18" s="3">
-        <v>3627</v>
+        <v>357</v>
       </c>
       <c r="G18" s="3">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -2772,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2792,13 +2720,13 @@
         <v>71</v>
       </c>
       <c r="E19" s="3">
-        <v>9999</v>
+        <v>7772</v>
       </c>
       <c r="F19" s="3">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -2807,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -2821,19 +2749,19 @@
         <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="3">
-        <v>7772</v>
+        <v>5880</v>
       </c>
       <c r="F20" s="3">
-        <v>239</v>
+        <v>594</v>
       </c>
       <c r="G20" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -2842,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -2856,19 +2784,19 @@
         <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="3">
-        <v>5880</v>
+        <v>7431</v>
       </c>
       <c r="F21" s="3">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="G21" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -2877,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -2891,19 +2819,19 @@
         <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>7431</v>
+        <v>6263</v>
       </c>
       <c r="F22" s="3">
-        <v>661</v>
+        <v>444</v>
       </c>
       <c r="G22" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -2912,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -2926,19 +2854,19 @@
         <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>83</v>
       </c>
       <c r="E23" s="3">
-        <v>6263</v>
+        <v>5962</v>
       </c>
       <c r="F23" s="3">
-        <v>444</v>
+        <v>765</v>
       </c>
       <c r="G23" s="3">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -2947,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -2961,19 +2889,19 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="3">
-        <v>5962</v>
+        <v>5563</v>
       </c>
       <c r="F24" s="3">
-        <v>765</v>
+        <v>265</v>
       </c>
       <c r="G24" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -2982,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -2990,25 +2918,25 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="3">
-        <v>5563</v>
+        <v>5083</v>
       </c>
       <c r="F25" s="3">
-        <v>265</v>
+        <v>594</v>
       </c>
       <c r="G25" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -3017,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -3031,19 +2959,19 @@
         <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>93</v>
       </c>
       <c r="E26" s="3">
-        <v>5083</v>
+        <v>4508</v>
       </c>
       <c r="F26" s="3">
-        <v>594</v>
+        <v>446</v>
       </c>
       <c r="G26" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -3052,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -3072,22 +3000,22 @@
         <v>96</v>
       </c>
       <c r="E27" s="3">
-        <v>4508</v>
+        <v>4463</v>
       </c>
       <c r="F27" s="3">
-        <v>446</v>
+        <v>211</v>
       </c>
       <c r="G27" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -3107,22 +3035,22 @@
         <v>99</v>
       </c>
       <c r="E28" s="3">
-        <v>4463</v>
+        <v>4358</v>
       </c>
       <c r="F28" s="3">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G28" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -3142,22 +3070,22 @@
         <v>102</v>
       </c>
       <c r="E29" s="3">
-        <v>4358</v>
+        <v>3484</v>
       </c>
       <c r="F29" s="3">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G29" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -3171,28 +3099,28 @@
         <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>105</v>
       </c>
       <c r="E30" s="3">
-        <v>3484</v>
+        <v>3021</v>
       </c>
       <c r="F30" s="3">
-        <v>224</v>
+        <v>580</v>
       </c>
       <c r="G30" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -3212,13 +3140,13 @@
         <v>109</v>
       </c>
       <c r="E31" s="3">
-        <v>12342</v>
+        <v>2959</v>
       </c>
       <c r="F31" s="3">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="G31" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -3227,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -3247,13 +3175,13 @@
         <v>112</v>
       </c>
       <c r="E32" s="3">
-        <v>3021</v>
+        <v>2848</v>
       </c>
       <c r="F32" s="3">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="G32" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -3262,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -3276,19 +3204,19 @@
         <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E33" s="3">
-        <v>2959</v>
+        <v>2562</v>
       </c>
       <c r="F33" s="3">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="G33" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -3297,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -3305,25 +3233,25 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34" s="3">
-        <v>2848</v>
+        <v>2432</v>
       </c>
       <c r="F34" s="3">
-        <v>523</v>
+        <v>157</v>
       </c>
       <c r="G34" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -3332,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -3340,25 +3268,25 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35" s="3">
-        <v>5854</v>
+        <v>2352</v>
       </c>
       <c r="F35" s="3">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="G35" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -3367,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -3375,25 +3303,25 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
         <v>125</v>
       </c>
       <c r="E36" s="3">
-        <v>2562</v>
+        <v>12342</v>
       </c>
       <c r="F36" s="3">
-        <v>181</v>
+        <v>330</v>
       </c>
       <c r="G36" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -3402,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -3416,19 +3344,19 @@
         <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E37" s="3">
-        <v>2432</v>
+        <v>1803</v>
       </c>
       <c r="F37" s="3">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="G37" s="3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -3437,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -3445,25 +3373,25 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>2352</v>
+        <v>1663</v>
       </c>
       <c r="F38" s="3">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -3472,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -3480,25 +3408,25 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E39" s="3">
-        <v>1803</v>
+        <v>1593</v>
       </c>
       <c r="F39" s="3">
-        <v>69</v>
+        <v>331</v>
       </c>
       <c r="G39" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -3507,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -3515,25 +3443,25 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
         <v>139</v>
       </c>
       <c r="E40" s="3">
-        <v>1663</v>
+        <v>1556</v>
       </c>
       <c r="F40" s="3">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="G40" s="3">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -3542,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -3556,19 +3484,19 @@
         <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E41" s="3">
-        <v>1593</v>
+        <v>1542</v>
       </c>
       <c r="F41" s="3">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="G41" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -3577,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -3585,25 +3513,25 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E42" s="3">
-        <v>1556</v>
+        <v>1517</v>
       </c>
       <c r="F42" s="3">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="G42" s="3">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3612,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3620,25 +3548,25 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
         <v>149</v>
       </c>
       <c r="E43" s="3">
-        <v>1542</v>
+        <v>1493</v>
       </c>
       <c r="F43" s="3">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3647,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -3661,19 +3589,19 @@
         <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
         <v>152</v>
       </c>
       <c r="E44" s="3">
-        <v>1517</v>
+        <v>1386</v>
       </c>
       <c r="F44" s="3">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="G44" s="3">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3682,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3696,19 +3624,19 @@
         <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
         <v>155</v>
       </c>
       <c r="E45" s="3">
-        <v>1493</v>
+        <v>1372</v>
       </c>
       <c r="F45" s="3">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="G45" s="3">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3717,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -3731,16 +3659,16 @@
         <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
         <v>158</v>
       </c>
       <c r="E46" s="3">
-        <v>1386</v>
+        <v>1330</v>
       </c>
       <c r="F46" s="3">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G46" s="3">
         <v>3</v>
@@ -3752,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -3766,19 +3694,19 @@
         <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
         <v>161</v>
       </c>
       <c r="E47" s="3">
-        <v>1372</v>
+        <v>1254</v>
       </c>
       <c r="F47" s="3">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="G47" s="3">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3787,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -3801,19 +3729,19 @@
         <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E48" s="3">
-        <v>1330</v>
+        <v>1188</v>
       </c>
       <c r="F48" s="3">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="G48" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3822,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -3830,25 +3758,25 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E49" s="3">
-        <v>1254</v>
+        <v>1084</v>
       </c>
       <c r="F49" s="3">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G49" s="3">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3857,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
@@ -3865,25 +3793,25 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
         <v>171</v>
       </c>
       <c r="E50" s="3">
-        <v>1188</v>
+        <v>995</v>
       </c>
       <c r="F50" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3892,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
@@ -3906,19 +3834,19 @@
         <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
         <v>174</v>
       </c>
       <c r="E51" s="3">
-        <v>1084</v>
+        <v>987</v>
       </c>
       <c r="F51" s="3">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G51" s="3">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3927,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
@@ -3941,19 +3869,19 @@
         <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
         <v>177</v>
       </c>
       <c r="E52" s="3">
-        <v>995</v>
+        <v>961</v>
       </c>
       <c r="F52" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G52" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3962,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
@@ -3976,19 +3904,19 @@
         <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
         <v>180</v>
       </c>
       <c r="E53" s="3">
-        <v>987</v>
+        <v>957</v>
       </c>
       <c r="F53" s="3">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G53" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3997,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -4011,19 +3939,19 @@
         <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
         <v>183</v>
       </c>
       <c r="E54" s="3">
-        <v>961</v>
+        <v>912</v>
       </c>
       <c r="F54" s="3">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="G54" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -4032,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -4046,19 +3974,19 @@
         <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
         <v>186</v>
       </c>
       <c r="E55" s="3">
-        <v>957</v>
+        <v>836</v>
       </c>
       <c r="F55" s="3">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="G55" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -4067,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -4081,19 +4009,19 @@
         <v>188</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
         <v>189</v>
       </c>
       <c r="E56" s="3">
-        <v>912</v>
+        <v>810</v>
       </c>
       <c r="F56" s="3">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G56" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -4102,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -4116,19 +4044,19 @@
         <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
         <v>192</v>
       </c>
       <c r="E57" s="3">
-        <v>61816</v>
+        <v>791</v>
       </c>
       <c r="F57" s="3">
-        <v>782</v>
+        <v>59</v>
       </c>
       <c r="G57" s="3">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -4137,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1246</v>
+        <v>18</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
@@ -4151,19 +4079,19 @@
         <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
         <v>195</v>
       </c>
       <c r="E58" s="3">
-        <v>836</v>
+        <v>61816</v>
       </c>
       <c r="F58" s="3">
-        <v>94</v>
+        <v>782</v>
       </c>
       <c r="G58" s="3">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -4172,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>12</v>
+        <v>1247</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
@@ -4186,19 +4114,19 @@
         <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
         <v>198</v>
       </c>
       <c r="E59" s="3">
-        <v>810</v>
+        <v>691</v>
       </c>
       <c r="F59" s="3">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G59" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -4207,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
@@ -4221,19 +4149,19 @@
         <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
         <v>201</v>
       </c>
       <c r="E60" s="3">
-        <v>791</v>
+        <v>691</v>
       </c>
       <c r="F60" s="3">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="G60" s="3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -4242,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
@@ -4256,19 +4184,19 @@
         <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
         <v>204</v>
       </c>
       <c r="E61" s="3">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="F61" s="3">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4277,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
@@ -4291,19 +4219,19 @@
         <v>206</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
         <v>207</v>
       </c>
       <c r="E62" s="3">
-        <v>691</v>
+        <v>579</v>
       </c>
       <c r="F62" s="3">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="G62" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4312,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -4326,19 +4254,19 @@
         <v>209</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
         <v>210</v>
       </c>
       <c r="E63" s="3">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="F63" s="3">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="G63" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -4347,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
@@ -4361,19 +4289,19 @@
         <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
         <v>213</v>
       </c>
       <c r="E64" s="3">
-        <v>4899</v>
+        <v>575</v>
       </c>
       <c r="F64" s="3">
-        <v>603</v>
+        <v>38</v>
       </c>
       <c r="G64" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -4382,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
@@ -4396,19 +4324,19 @@
         <v>215</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
         <v>216</v>
       </c>
       <c r="E65" s="3">
-        <v>579</v>
+        <v>473</v>
       </c>
       <c r="F65" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -4417,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
@@ -4431,19 +4359,19 @@
         <v>218</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s">
         <v>219</v>
       </c>
       <c r="E66" s="3">
-        <v>578</v>
+        <v>4899</v>
       </c>
       <c r="F66" s="3">
-        <v>41</v>
+        <v>603</v>
       </c>
       <c r="G66" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -4452,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -4466,16 +4394,16 @@
         <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="D67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E67" s="3">
-        <v>575</v>
+        <v>366</v>
       </c>
       <c r="F67" s="3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
@@ -4487,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
@@ -4495,25 +4423,25 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E68" s="3">
-        <v>541</v>
+        <v>357</v>
       </c>
       <c r="F68" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G68" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -4522,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -4530,25 +4458,25 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E69" s="3">
-        <v>151373</v>
+        <v>346</v>
       </c>
       <c r="F69" s="3">
-        <v>10158</v>
+        <v>16</v>
       </c>
       <c r="G69" s="3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -4557,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
@@ -4565,25 +4493,25 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E70" s="3">
-        <v>473</v>
+        <v>1283</v>
       </c>
       <c r="F70" s="3">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="G70" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4592,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
@@ -4600,25 +4528,25 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E71" s="3">
-        <v>1283</v>
+        <v>322</v>
       </c>
       <c r="F71" s="3">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="G71" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4627,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
@@ -4635,34 +4563,34 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E72" s="3">
-        <v>2078</v>
+        <v>319</v>
       </c>
       <c r="F72" s="3">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G72" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
@@ -4670,25 +4598,25 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E73" s="3">
-        <v>10335</v>
+        <v>299</v>
       </c>
       <c r="F73" s="3">
-        <v>291</v>
+        <v>24</v>
       </c>
       <c r="G73" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
@@ -4697,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
@@ -4705,25 +4633,25 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E74" s="3">
-        <v>366</v>
+        <v>285</v>
       </c>
       <c r="F74" s="3">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G74" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4732,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
@@ -4740,25 +4668,25 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E75" s="3">
-        <v>357</v>
+        <v>268</v>
       </c>
       <c r="F75" s="3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G75" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4767,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
@@ -4775,34 +4703,34 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E76" s="3">
-        <v>346</v>
+        <v>2078</v>
       </c>
       <c r="F76" s="3">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
@@ -4810,25 +4738,25 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E77" s="3">
-        <v>322</v>
+        <v>2165</v>
       </c>
       <c r="F77" s="3">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="G77" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -4837,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
@@ -4845,25 +4773,25 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E78" s="3">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="F78" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G78" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -4872,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
@@ -4880,25 +4808,25 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E79" s="3">
-        <v>299</v>
+        <v>1162</v>
       </c>
       <c r="F79" s="3">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G79" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4907,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
@@ -4915,25 +4843,25 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B80" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C80" t="s">
-        <v>262</v>
+        <v>128</v>
       </c>
       <c r="D80" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E80" s="3">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="F80" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G80" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4942,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
@@ -4950,34 +4878,34 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D81" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E81" s="3">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="F81" s="3">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G81" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
@@ -4985,25 +4913,25 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="D82" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E82" s="3">
-        <v>1162</v>
+        <v>152</v>
       </c>
       <c r="F82" s="3">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -5012,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
@@ -5020,25 +4948,25 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B83" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C83" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="D83" t="s">
         <v>274</v>
       </c>
       <c r="E83" s="3">
-        <v>2165</v>
+        <v>145</v>
       </c>
       <c r="F83" s="3">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="G83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5047,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="L83" t="s">
         <v>16</v>
@@ -5061,19 +4989,19 @@
         <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D84" t="s">
         <v>277</v>
       </c>
       <c r="E84" s="3">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="F84" s="3">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G84" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -5082,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -5096,19 +5024,19 @@
         <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="D85" t="s">
         <v>280</v>
       </c>
       <c r="E85" s="3">
-        <v>783</v>
+        <v>541</v>
       </c>
       <c r="F85" s="3">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G85" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -5117,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
@@ -5131,19 +5059,19 @@
         <v>282</v>
       </c>
       <c r="C86" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" t="s">
         <v>283</v>
       </c>
-      <c r="D86" t="s">
-        <v>284</v>
-      </c>
       <c r="E86" s="3">
-        <v>394</v>
+        <v>132</v>
       </c>
       <c r="F86" s="3">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="G86" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -5152,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
@@ -5160,25 +5088,25 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" t="s">
         <v>285</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" t="s">
         <v>286</v>
       </c>
-      <c r="C87" t="s">
-        <v>134</v>
-      </c>
-      <c r="D87" t="s">
-        <v>287</v>
-      </c>
       <c r="E87" s="3">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="F87" s="3">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -5187,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L87" t="s">
         <v>16</v>
@@ -5195,34 +5123,34 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88" t="s">
         <v>288</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" t="s">
         <v>289</v>
       </c>
-      <c r="C88" t="s">
-        <v>262</v>
-      </c>
-      <c r="D88" t="s">
-        <v>290</v>
-      </c>
       <c r="E88" s="3">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="F88" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
@@ -5230,22 +5158,22 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B89" t="s">
         <v>291</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>222</v>
+      </c>
+      <c r="D89" t="s">
         <v>292</v>
       </c>
-      <c r="C89" t="s">
-        <v>243</v>
-      </c>
-      <c r="D89" t="s">
-        <v>293</v>
-      </c>
       <c r="E89" s="3">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="F89" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -5257,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
@@ -5265,22 +5193,22 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" t="s">
         <v>294</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>222</v>
+      </c>
+      <c r="D90" t="s">
         <v>295</v>
       </c>
-      <c r="C90" t="s">
-        <v>243</v>
-      </c>
-      <c r="D90" t="s">
-        <v>296</v>
-      </c>
       <c r="E90" s="3">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="F90" s="3">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G90" s="3">
         <v>0</v>
@@ -5292,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
@@ -5300,25 +5228,25 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B91" t="s">
         <v>297</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>222</v>
+      </c>
+      <c r="D91" t="s">
         <v>298</v>
       </c>
-      <c r="C91" t="s">
-        <v>243</v>
-      </c>
-      <c r="D91" t="s">
-        <v>299</v>
-      </c>
       <c r="E91" s="3">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="F91" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G91" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5335,25 +5263,25 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B92" t="s">
         <v>300</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" t="s">
         <v>301</v>
       </c>
-      <c r="C92" t="s">
-        <v>138</v>
-      </c>
-      <c r="D92" t="s">
-        <v>302</v>
-      </c>
       <c r="E92" s="3">
-        <v>1760</v>
+        <v>783</v>
       </c>
       <c r="F92" s="3">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="G92" s="3">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -5362,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
@@ -5370,25 +5298,25 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B93" t="s">
         <v>303</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>304</v>
-      </c>
-      <c r="C93" t="s">
-        <v>243</v>
       </c>
       <c r="D93" t="s">
         <v>305</v>
       </c>
       <c r="E93" s="3">
-        <v>132</v>
+        <v>4711</v>
       </c>
       <c r="F93" s="3">
-        <v>7</v>
+        <v>387</v>
       </c>
       <c r="G93" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -5397,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
@@ -5411,19 +5339,19 @@
         <v>307</v>
       </c>
       <c r="C94" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E94" s="3">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F94" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5432,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
@@ -5440,25 +5368,25 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B95" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C95" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="D95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E95" s="3">
-        <v>113</v>
+        <v>1760</v>
       </c>
       <c r="F95" s="3">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="G95" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -5467,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -5475,22 +5403,22 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B96" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D96" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E96" s="3">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F96" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5510,22 +5438,22 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C97" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="D97" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E97" s="3">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="F97" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G97" s="3">
         <v>0</v>
@@ -5545,25 +5473,25 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B98" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C98" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="D98" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E98" s="3">
-        <v>4711</v>
+        <v>60</v>
       </c>
       <c r="F98" s="3">
-        <v>387</v>
+        <v>2</v>
       </c>
       <c r="G98" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -5572,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
@@ -5580,25 +5508,25 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B99" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C99" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D99" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E99" s="3">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F99" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -5615,19 +5543,19 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B100" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C100" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="D100" t="s">
         <v>328</v>
       </c>
       <c r="E100" s="3">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -5642,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
@@ -5656,13 +5584,13 @@
         <v>330</v>
       </c>
       <c r="C101" t="s">
+        <v>318</v>
+      </c>
+      <c r="D101" t="s">
         <v>331</v>
       </c>
-      <c r="D101" t="s">
-        <v>332</v>
-      </c>
       <c r="E101" s="3">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5685,22 +5613,22 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B102" t="s">
         <v>333</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" t="s">
         <v>334</v>
       </c>
-      <c r="C102" t="s">
-        <v>262</v>
-      </c>
-      <c r="D102" t="s">
-        <v>335</v>
-      </c>
       <c r="E102" s="3">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F102" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5712,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -5720,34 +5648,34 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B103" t="s">
         <v>336</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>318</v>
+      </c>
+      <c r="D103" t="s">
         <v>337</v>
       </c>
-      <c r="C103" t="s">
-        <v>262</v>
-      </c>
-      <c r="D103" t="s">
-        <v>338</v>
-      </c>
       <c r="E103" s="3">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F103" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
@@ -5755,25 +5683,25 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B104" t="s">
         <v>339</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>318</v>
+      </c>
+      <c r="D104" t="s">
         <v>340</v>
       </c>
-      <c r="C104" t="s">
-        <v>283</v>
-      </c>
-      <c r="D104" t="s">
-        <v>341</v>
-      </c>
       <c r="E104" s="3">
-        <v>19679</v>
+        <v>42</v>
       </c>
       <c r="F104" s="3">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="G104" s="3">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5782,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
@@ -5790,25 +5718,25 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B105" t="s">
         <v>342</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105" t="s">
         <v>343</v>
       </c>
-      <c r="C105" t="s">
-        <v>243</v>
-      </c>
-      <c r="D105" t="s">
-        <v>344</v>
-      </c>
       <c r="E105" s="3">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F105" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -5817,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
@@ -5825,25 +5753,25 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B106" t="s">
         <v>345</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" t="s">
         <v>346</v>
       </c>
-      <c r="C106" t="s">
-        <v>89</v>
-      </c>
-      <c r="D106" t="s">
-        <v>347</v>
-      </c>
       <c r="E106" s="3">
-        <v>5194</v>
+        <v>30</v>
       </c>
       <c r="F106" s="3">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5852,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L106" t="s">
         <v>16</v>
@@ -5860,19 +5788,19 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B107" t="s">
         <v>348</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>244</v>
+      </c>
+      <c r="D107" t="s">
         <v>349</v>
       </c>
-      <c r="C107" t="s">
-        <v>262</v>
-      </c>
-      <c r="D107" t="s">
-        <v>350</v>
-      </c>
       <c r="E107" s="3">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F107" s="3">
         <v>1</v>
@@ -5881,13 +5809,13 @@
         <v>0</v>
       </c>
       <c r="H107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L107" t="s">
         <v>16</v>
@@ -5895,22 +5823,22 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B108" t="s">
         <v>351</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D108" t="s">
         <v>352</v>
       </c>
-      <c r="C108" t="s">
-        <v>331</v>
-      </c>
-      <c r="D108" t="s">
-        <v>353</v>
-      </c>
       <c r="E108" s="3">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F108" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G108" s="3">
         <v>0</v>
@@ -5930,22 +5858,22 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B109" t="s">
         <v>354</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>244</v>
+      </c>
+      <c r="D109" t="s">
         <v>355</v>
       </c>
-      <c r="C109" t="s">
-        <v>243</v>
-      </c>
-      <c r="D109" t="s">
-        <v>356</v>
-      </c>
       <c r="E109" s="3">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F109" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G109" s="3">
         <v>0</v>
@@ -5957,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" t="s">
         <v>16</v>
@@ -5965,28 +5893,28 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B110" t="s">
         <v>357</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
+        <v>308</v>
+      </c>
+      <c r="D110" t="s">
         <v>358</v>
       </c>
-      <c r="C110" t="s">
-        <v>331</v>
-      </c>
-      <c r="D110" t="s">
-        <v>359</v>
-      </c>
       <c r="E110" s="3">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="3">
         <v>0</v>
       </c>
       <c r="H110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -6000,25 +5928,25 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B111" t="s">
         <v>360</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" t="s">
         <v>361</v>
       </c>
-      <c r="C111" t="s">
-        <v>331</v>
-      </c>
-      <c r="D111" t="s">
-        <v>362</v>
-      </c>
       <c r="E111" s="3">
-        <v>42</v>
+        <v>5194</v>
       </c>
       <c r="F111" s="3">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="G111" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -6027,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L111" t="s">
         <v>16</v>
@@ -6035,25 +5963,25 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B112" t="s">
         <v>363</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>244</v>
+      </c>
+      <c r="D112" t="s">
         <v>364</v>
       </c>
-      <c r="C112" t="s">
-        <v>243</v>
-      </c>
-      <c r="D112" t="s">
-        <v>365</v>
-      </c>
       <c r="E112" s="3">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="F112" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -6062,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" t="s">
         <v>16</v>
@@ -6070,25 +5998,25 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B113" t="s">
         <v>366</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>244</v>
+      </c>
+      <c r="D113" t="s">
         <v>367</v>
       </c>
-      <c r="C113" t="s">
-        <v>262</v>
-      </c>
-      <c r="D113" t="s">
-        <v>368</v>
-      </c>
       <c r="E113" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
       </c>
       <c r="G113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
@@ -6105,25 +6033,25 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B114" t="s">
         <v>369</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
+        <v>244</v>
+      </c>
+      <c r="D114" t="s">
         <v>370</v>
       </c>
-      <c r="C114" t="s">
-        <v>262</v>
-      </c>
-      <c r="D114" t="s">
-        <v>371</v>
-      </c>
       <c r="E114" s="3">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
       </c>
       <c r="G114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -6140,34 +6068,34 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" t="s">
         <v>372</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" t="s">
         <v>373</v>
       </c>
-      <c r="C115" t="s">
-        <v>262</v>
-      </c>
-      <c r="D115" t="s">
-        <v>374</v>
-      </c>
       <c r="E115" s="3">
-        <v>27</v>
+        <v>60406</v>
       </c>
       <c r="F115" s="3">
-        <v>1</v>
+        <v>1073</v>
       </c>
       <c r="G115" s="3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H115" s="3">
         <v>1</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>607</v>
       </c>
       <c r="L115" t="s">
         <v>16</v>
@@ -6175,25 +6103,25 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B116" t="s">
         <v>375</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>261</v>
+      </c>
+      <c r="D116" t="s">
         <v>376</v>
       </c>
-      <c r="C116" t="s">
-        <v>262</v>
-      </c>
-      <c r="D116" t="s">
-        <v>377</v>
-      </c>
       <c r="E116" s="3">
-        <v>26</v>
+        <v>732</v>
       </c>
       <c r="F116" s="3">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G116" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -6202,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L116" t="s">
         <v>16</v>
@@ -6210,22 +6138,22 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B117" t="s">
         <v>378</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>379</v>
-      </c>
-      <c r="C117" t="s">
-        <v>262</v>
       </c>
       <c r="D117" t="s">
         <v>380</v>
       </c>
       <c r="E117" s="3">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="F117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
@@ -6237,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" t="s">
         <v>16</v>
@@ -6251,16 +6179,16 @@
         <v>382</v>
       </c>
       <c r="C118" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="D118" t="s">
         <v>383</v>
       </c>
       <c r="E118" s="3">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -6286,19 +6214,19 @@
         <v>385</v>
       </c>
       <c r="C119" t="s">
-        <v>262</v>
+        <v>386</v>
       </c>
       <c r="D119" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E119" s="3">
-        <v>17</v>
+        <v>656</v>
       </c>
       <c r="F119" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G119" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
@@ -6307,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L119" t="s">
         <v>16</v>
@@ -6315,19 +6243,19 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B120" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C120" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D120" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E120" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -6350,34 +6278,34 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B121" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C121" t="s">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
         <v>393</v>
       </c>
       <c r="E121" s="3">
-        <v>231</v>
+        <v>47483</v>
       </c>
       <c r="F121" s="3">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="G121" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -6391,13 +6319,13 @@
         <v>395</v>
       </c>
       <c r="C122" t="s">
-        <v>262</v>
+        <v>396</v>
       </c>
       <c r="D122" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E122" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -6420,34 +6348,34 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B123" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>400</v>
       </c>
       <c r="D123" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E123" s="3">
-        <v>60406</v>
+        <v>1921</v>
       </c>
       <c r="F123" s="3">
-        <v>1073</v>
+        <v>64</v>
       </c>
       <c r="G123" s="3">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="H123" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K123">
-        <v>607</v>
+        <v>9</v>
       </c>
       <c r="L123" t="s">
         <v>16</v>
@@ -6455,25 +6383,25 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B124" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C124" t="s">
-        <v>269</v>
+        <v>396</v>
       </c>
       <c r="D124" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E124" s="3">
-        <v>732</v>
+        <v>2</v>
       </c>
       <c r="F124" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G124" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
@@ -6482,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -6490,19 +6418,19 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B125" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C125" t="s">
-        <v>262</v>
+        <v>407</v>
       </c>
       <c r="D125" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E125" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -6525,25 +6453,25 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B126" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C126" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D126" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E126" s="3">
-        <v>656</v>
+        <v>14</v>
       </c>
       <c r="F126" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G126" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -6552,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L126" t="s">
         <v>16</v>
@@ -6560,34 +6488,34 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B127" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C127" t="s">
-        <v>39</v>
+        <v>415</v>
       </c>
       <c r="D127" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E127" s="3">
-        <v>47483</v>
+        <v>94</v>
       </c>
       <c r="F127" s="3">
-        <v>1169</v>
+        <v>6</v>
       </c>
       <c r="G127" s="3">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="H127" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -6595,19 +6523,19 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B128" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C128" t="s">
-        <v>262</v>
+        <v>419</v>
       </c>
       <c r="D128" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E128" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -6630,22 +6558,22 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B129" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C129" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D129" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E129" s="3">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="F129" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G129" s="3">
         <v>0</v>
@@ -6665,69 +6593,69 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B130" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C130" t="s">
-        <v>422</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E130" s="3">
-        <v>1921</v>
+        <v>566966</v>
       </c>
       <c r="F130" s="3">
-        <v>64</v>
+        <v>18782</v>
       </c>
       <c r="G130" s="3">
-        <v>2</v>
+        <v>416</v>
       </c>
       <c r="H130" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="L130" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B131" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C131" t="s">
-        <v>426</v>
+        <v>128</v>
       </c>
       <c r="D131" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E131" s="3">
-        <v>2</v>
+        <v>1237</v>
       </c>
       <c r="F131" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G131" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H131" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L131" t="s">
         <v>16</v>
@@ -6735,19 +6663,19 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B132" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C132" t="s">
-        <v>430</v>
+        <v>318</v>
       </c>
       <c r="D132" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E132" s="3">
-        <v>14</v>
+        <v>617</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -6756,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -6770,25 +6698,25 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B133" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C133" t="s">
-        <v>418</v>
+        <v>244</v>
       </c>
       <c r="D133" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E133" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
       </c>
       <c r="G133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -6805,28 +6733,28 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B134" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C134" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="D134" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E134" s="3">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F134" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
       </c>
       <c r="H134" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -6840,34 +6768,34 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B135" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C135" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="D135" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E135" s="3">
-        <v>18</v>
+        <v>18665</v>
       </c>
       <c r="F135" s="3">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G135" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H135" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L135" t="s">
         <v>16</v>
@@ -6875,28 +6803,28 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B136" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C136" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D136" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E136" s="3">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="F136" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -6910,22 +6838,22 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B137" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C137" t="s">
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="D137" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E137" s="3">
-        <v>8644</v>
+        <v>88</v>
       </c>
       <c r="F137" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -6945,34 +6873,34 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B138" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C138" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="D138" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E138" s="3">
-        <v>2053</v>
+        <v>58018</v>
       </c>
       <c r="F138" s="3">
-        <v>0</v>
+        <v>3627</v>
       </c>
       <c r="G138" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H138" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="L138" t="s">
         <v>16</v>
@@ -6980,34 +6908,34 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B139" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C139" t="s">
-        <v>426</v>
+        <v>108</v>
       </c>
       <c r="D139" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E139" s="3">
-        <v>1</v>
+        <v>74953</v>
       </c>
       <c r="F139" s="3">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="G139" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H139" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L139" t="s">
         <v>16</v>
@@ -7015,19 +6943,19 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B140" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C140" t="s">
-        <v>262</v>
+        <v>411</v>
       </c>
       <c r="D140" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E140" s="3">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -7050,37 +6978,37 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B141" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E141" s="3">
-        <v>222595</v>
+        <v>151373</v>
       </c>
       <c r="F141" s="3">
-        <v>9022</v>
+        <v>10158</v>
       </c>
       <c r="G141" s="3">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="H141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L141" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7091,13 +7019,13 @@
         <v>463</v>
       </c>
       <c r="C142" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D142" t="s">
         <v>464</v>
       </c>
       <c r="E142" s="3">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -7126,19 +7054,19 @@
         <v>466</v>
       </c>
       <c r="C143" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D143" t="s">
         <v>467</v>
       </c>
       <c r="E143" s="3">
-        <v>23164</v>
+        <v>25592</v>
       </c>
       <c r="F143" s="3">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="G143" s="3">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H143" s="3">
         <v>1</v>
@@ -7147,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="L143" t="s">
         <v>16</v>
@@ -7161,19 +7089,19 @@
         <v>469</v>
       </c>
       <c r="C144" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="D144" t="s">
         <v>470</v>
       </c>
       <c r="E144" s="3">
-        <v>3080</v>
+        <v>125374</v>
       </c>
       <c r="F144" s="3">
-        <v>58</v>
+        <v>2544</v>
       </c>
       <c r="G144" s="3">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="H144" s="3">
         <v>1</v>
@@ -7182,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>13</v>
+        <v>1213</v>
       </c>
       <c r="L144" t="s">
         <v>16</v>
@@ -7196,19 +7124,19 @@
         <v>472</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D145" t="s">
         <v>473</v>
       </c>
       <c r="E145" s="3">
-        <v>90458</v>
+        <v>23164</v>
       </c>
       <c r="F145" s="3">
-        <v>5026</v>
+        <v>162</v>
       </c>
       <c r="G145" s="3">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="H145" s="3">
         <v>1</v>
@@ -7217,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>1190</v>
+        <v>4</v>
       </c>
       <c r="L145" t="s">
         <v>16</v>
@@ -7231,7 +7159,7 @@
         <v>475</v>
       </c>
       <c r="C146" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D146" t="s">
         <v>476</v>
@@ -7266,19 +7194,19 @@
         <v>478</v>
       </c>
       <c r="C147" t="s">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c r="D147" t="s">
         <v>479</v>
       </c>
       <c r="E147" s="3">
-        <v>69498</v>
+        <v>8968</v>
       </c>
       <c r="F147" s="3">
-        <v>1189</v>
+        <v>117</v>
       </c>
       <c r="G147" s="3">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H147" s="3">
         <v>1</v>
@@ -7287,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="L147" t="s">
         <v>16</v>
@@ -7301,13 +7229,13 @@
         <v>481</v>
       </c>
       <c r="C148" t="s">
-        <v>331</v>
+        <v>407</v>
       </c>
       <c r="D148" t="s">
         <v>482</v>
       </c>
       <c r="E148" s="3">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -7316,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -7336,28 +7264,28 @@
         <v>484</v>
       </c>
       <c r="C149" t="s">
-        <v>418</v>
+        <v>39</v>
       </c>
       <c r="D149" t="s">
         <v>485</v>
       </c>
       <c r="E149" s="3">
-        <v>6</v>
+        <v>282666</v>
       </c>
       <c r="F149" s="3">
-        <v>0</v>
+        <v>4159</v>
       </c>
       <c r="G149" s="3">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="H149" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>2992</v>
       </c>
       <c r="L149" t="s">
         <v>16</v>
@@ -7371,28 +7299,28 @@
         <v>487</v>
       </c>
       <c r="C150" t="s">
-        <v>283</v>
+        <v>488</v>
       </c>
       <c r="D150" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E150" s="3">
-        <v>218426</v>
+        <v>3</v>
       </c>
       <c r="F150" s="3">
-        <v>2691</v>
+        <v>0</v>
       </c>
       <c r="G150" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H150" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L150" t="s">
         <v>16</v>
@@ -7400,25 +7328,25 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B151" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C151" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D151" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E151" s="3">
-        <v>18665</v>
+        <v>95</v>
       </c>
       <c r="F151" s="3">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G151" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H151" s="3">
         <v>1</v>
@@ -7427,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="K151">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L151" t="s">
         <v>16</v>
@@ -7435,25 +7363,25 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B152" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C152" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E152" s="3">
-        <v>1237</v>
+        <v>511312</v>
       </c>
       <c r="F152" s="3">
-        <v>51</v>
+        <v>15167</v>
       </c>
       <c r="G152" s="3">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="H152" s="3">
         <v>1</v>
@@ -7462,33 +7390,33 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="L152" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B153" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C153" t="s">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="D153" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E153" s="3">
-        <v>25592</v>
+        <v>428</v>
       </c>
       <c r="F153" s="3">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G153" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H153" s="3">
         <v>1</v>
@@ -7497,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L153" t="s">
         <v>16</v>
@@ -7505,34 +7433,34 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B154" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C154" t="s">
-        <v>283</v>
+        <v>396</v>
       </c>
       <c r="D154" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E154" s="3">
-        <v>21005</v>
+        <v>6</v>
       </c>
       <c r="F154" s="3">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="G154" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H154" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
       <c r="K154">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="L154" t="s">
         <v>16</v>
@@ -7540,25 +7468,25 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B155" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C155" t="s">
-        <v>283</v>
+        <v>379</v>
       </c>
       <c r="D155" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E155" s="3">
-        <v>549058</v>
+        <v>345</v>
       </c>
       <c r="F155" s="3">
-        <v>4324</v>
+        <v>6</v>
       </c>
       <c r="G155" s="3">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="H155" s="3">
         <v>1</v>
@@ -7567,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="L155" t="s">
         <v>16</v>
@@ -7575,19 +7503,19 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B156" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C156" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D156" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E156" s="3">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
@@ -7596,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="H156" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -7610,34 +7538,34 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B157" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C157" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D157" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E157" s="3">
-        <v>4759</v>
+        <v>10335</v>
       </c>
       <c r="F157" s="3">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="G157" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H157" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L157" t="s">
         <v>16</v>
@@ -7645,25 +7573,25 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B158" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E158" s="3">
-        <v>566966</v>
+        <v>90458</v>
       </c>
       <c r="F158" s="3">
-        <v>18782</v>
+        <v>5026</v>
       </c>
       <c r="G158" s="3">
-        <v>416</v>
+        <v>113</v>
       </c>
       <c r="H158" s="3">
         <v>1</v>
@@ -7672,33 +7600,33 @@
         <v>0</v>
       </c>
       <c r="K158">
-        <v>298</v>
+        <v>1190</v>
       </c>
       <c r="L158" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B159" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="D159" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E159" s="3">
-        <v>125374</v>
+        <v>87</v>
       </c>
       <c r="F159" s="3">
-        <v>2544</v>
+        <v>0</v>
       </c>
       <c r="G159" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H159" s="3">
         <v>1</v>
@@ -7707,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="L159" t="s">
         <v>16</v>
@@ -7715,25 +7643,25 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B160" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C160" t="s">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="D160" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E160" s="3">
-        <v>275148</v>
+        <v>4759</v>
       </c>
       <c r="F160" s="3">
-        <v>2343</v>
+        <v>129</v>
       </c>
       <c r="G160" s="3">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="H160" s="3">
         <v>1</v>
@@ -7742,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="L160" t="s">
         <v>16</v>
@@ -7750,25 +7678,25 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B161" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C161" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="D161" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E161" s="3">
-        <v>2883</v>
+        <v>39</v>
       </c>
       <c r="F161" s="3">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G161" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H161" s="3">
         <v>1</v>
@@ -7777,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="K161">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L161" t="s">
         <v>16</v>
@@ -7785,34 +7713,34 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B162" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C162" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="D162" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E162" s="3">
-        <v>74953</v>
+        <v>5854</v>
       </c>
       <c r="F162" s="3">
-        <v>1016</v>
+        <v>555</v>
       </c>
       <c r="G162" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H162" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="L162" t="s">
         <v>16</v>
@@ -7820,37 +7748,37 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B163" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C163" t="s">
-        <v>527</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
         <v>528</v>
       </c>
       <c r="E163" s="3">
-        <v>3</v>
+        <v>472979</v>
       </c>
       <c r="F163" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G163" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L163" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7861,19 +7789,19 @@
         <v>530</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D164" t="s">
         <v>531</v>
       </c>
       <c r="E164" s="3">
-        <v>4183126</v>
+        <v>110227</v>
       </c>
       <c r="F164" s="3">
-        <v>49430</v>
+        <v>1800</v>
       </c>
       <c r="G164" s="3">
-        <v>5701</v>
+        <v>157</v>
       </c>
       <c r="H164" s="3">
         <v>1</v>
@@ -7882,10 +7810,10 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <v>1196</v>
+        <v>691</v>
       </c>
       <c r="L164" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7896,16 +7824,16 @@
         <v>533</v>
       </c>
       <c r="C165" t="s">
-        <v>430</v>
+        <v>318</v>
       </c>
       <c r="D165" t="s">
         <v>534</v>
       </c>
       <c r="E165" s="3">
-        <v>60</v>
+        <v>4640</v>
       </c>
       <c r="F165" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" s="3">
         <v>0</v>
@@ -7931,19 +7859,19 @@
         <v>536</v>
       </c>
       <c r="C166" t="s">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="D166" t="s">
         <v>537</v>
       </c>
       <c r="E166" s="3">
-        <v>411533</v>
+        <v>3080</v>
       </c>
       <c r="F166" s="3">
-        <v>4290</v>
+        <v>58</v>
       </c>
       <c r="G166" s="3">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="H166" s="3">
         <v>1</v>
@@ -7952,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="L166" t="s">
         <v>16</v>
@@ -7966,19 +7894,19 @@
         <v>539</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D167" t="s">
         <v>540</v>
       </c>
       <c r="E167" s="3">
-        <v>125335</v>
+        <v>4183126</v>
       </c>
       <c r="F167" s="3">
-        <v>3458</v>
+        <v>49430</v>
       </c>
       <c r="G167" s="3">
-        <v>566</v>
+        <v>5701</v>
       </c>
       <c r="H167" s="3">
         <v>1</v>
@@ -7987,10 +7915,10 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>1955</v>
+        <v>1196</v>
       </c>
       <c r="L167" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8001,19 +7929,19 @@
         <v>542</v>
       </c>
       <c r="C168" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D168" t="s">
         <v>543</v>
       </c>
       <c r="E168" s="3">
-        <v>511312</v>
+        <v>125335</v>
       </c>
       <c r="F168" s="3">
-        <v>15167</v>
+        <v>3458</v>
       </c>
       <c r="G168" s="3">
-        <v>402</v>
+        <v>566</v>
       </c>
       <c r="H168" s="3">
         <v>1</v>
@@ -8022,10 +7950,10 @@
         <v>0</v>
       </c>
       <c r="K168">
-        <v>201</v>
+        <v>1955</v>
       </c>
       <c r="L168" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8036,19 +7964,19 @@
         <v>545</v>
       </c>
       <c r="C169" t="s">
-        <v>327</v>
+        <v>108</v>
       </c>
       <c r="D169" t="s">
         <v>546</v>
       </c>
       <c r="E169" s="3">
-        <v>95</v>
+        <v>2883</v>
       </c>
       <c r="F169" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G169" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H169" s="3">
         <v>1</v>
@@ -8057,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L169" t="s">
         <v>16</v>
@@ -8071,19 +7999,19 @@
         <v>548</v>
       </c>
       <c r="C170" t="s">
-        <v>39</v>
+        <v>304</v>
       </c>
       <c r="D170" t="s">
         <v>549</v>
       </c>
       <c r="E170" s="3">
-        <v>282666</v>
+        <v>24890</v>
       </c>
       <c r="F170" s="3">
-        <v>4159</v>
+        <v>1321</v>
       </c>
       <c r="G170" s="3">
-        <v>1024</v>
+        <v>34</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
@@ -8092,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="K170">
-        <v>2992</v>
+        <v>154</v>
       </c>
       <c r="L170" t="s">
         <v>16</v>
@@ -8106,19 +8034,19 @@
         <v>551</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="D171" t="s">
         <v>552</v>
       </c>
       <c r="E171" s="3">
-        <v>472979</v>
+        <v>8644</v>
       </c>
       <c r="F171" s="3">
-        <v>20185</v>
+        <v>0</v>
       </c>
       <c r="G171" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
@@ -8127,10 +8055,10 @@
         <v>0</v>
       </c>
       <c r="K171">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8141,28 +8069,28 @@
         <v>554</v>
       </c>
       <c r="C172" t="s">
-        <v>392</v>
+        <v>222</v>
       </c>
       <c r="D172" t="s">
         <v>555</v>
       </c>
       <c r="E172" s="3">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F172" s="3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G172" s="3">
+        <v>1</v>
+      </c>
+      <c r="H172" s="3">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
         <v>2</v>
-      </c>
-      <c r="H172" s="3">
-        <v>1</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
       </c>
       <c r="L172" t="s">
         <v>16</v>
@@ -8176,16 +8104,16 @@
         <v>557</v>
       </c>
       <c r="C173" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D173" t="s">
         <v>558</v>
       </c>
       <c r="E173" s="3">
-        <v>23</v>
+        <v>2053</v>
       </c>
       <c r="F173" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" s="3">
         <v>0</v>
@@ -8211,19 +8139,19 @@
         <v>560</v>
       </c>
       <c r="C174" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D174" t="s">
         <v>561</v>
       </c>
       <c r="E174" s="3">
-        <v>24890</v>
+        <v>239</v>
       </c>
       <c r="F174" s="3">
-        <v>1321</v>
+        <v>2</v>
       </c>
       <c r="G174" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H174" s="3">
         <v>1</v>
@@ -8232,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L174" t="s">
         <v>16</v>
@@ -8246,19 +8174,19 @@
         <v>563</v>
       </c>
       <c r="C175" t="s">
-        <v>430</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
         <v>564</v>
       </c>
       <c r="E175" s="3">
-        <v>95</v>
+        <v>222595</v>
       </c>
       <c r="F175" s="3">
-        <v>1</v>
+        <v>9022</v>
       </c>
       <c r="G175" s="3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H175" s="3">
         <v>1</v>
@@ -8267,10 +8195,10 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L175" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8281,19 +8209,19 @@
         <v>566</v>
       </c>
       <c r="C176" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D176" t="s">
         <v>567</v>
       </c>
       <c r="E176" s="3">
-        <v>401869</v>
+        <v>69498</v>
       </c>
       <c r="F176" s="3">
-        <v>4640</v>
+        <v>1189</v>
       </c>
       <c r="G176" s="3">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="H176" s="3">
         <v>1</v>
@@ -8302,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="K176">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="L176" t="s">
         <v>16</v>
@@ -8316,16 +8244,16 @@
         <v>569</v>
       </c>
       <c r="C177" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D177" t="s">
         <v>570</v>
       </c>
       <c r="E177" s="3">
-        <v>4640</v>
+        <v>23</v>
       </c>
       <c r="F177" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" s="3">
         <v>0</v>
@@ -8340,286 +8268,6 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
-      <c r="A178" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="B178" t="s">
-        <v>572</v>
-      </c>
-      <c r="C178" t="s">
-        <v>444</v>
-      </c>
-      <c r="D178" t="s">
-        <v>573</v>
-      </c>
-      <c r="E178" s="3">
-        <v>88</v>
-      </c>
-      <c r="F178" s="3">
-        <v>3</v>
-      </c>
-      <c r="G178" s="3">
-        <v>0</v>
-      </c>
-      <c r="H178" s="3">
-        <v>1</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-      <c r="L178" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
-      <c r="A179" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B179" t="s">
-        <v>575</v>
-      </c>
-      <c r="C179" t="s">
-        <v>327</v>
-      </c>
-      <c r="D179" t="s">
-        <v>576</v>
-      </c>
-      <c r="E179" s="3">
-        <v>20</v>
-      </c>
-      <c r="F179" s="3">
-        <v>0</v>
-      </c>
-      <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="3">
-        <v>0</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
-      <c r="L179" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
-      <c r="A180" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B180" t="s">
-        <v>578</v>
-      </c>
-      <c r="C180" t="s">
-        <v>331</v>
-      </c>
-      <c r="D180" t="s">
-        <v>579</v>
-      </c>
-      <c r="E180" s="3">
-        <v>617</v>
-      </c>
-      <c r="F180" s="3">
-        <v>0</v>
-      </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="3">
-        <v>1</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
-      <c r="A181" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B181" t="s">
-        <v>581</v>
-      </c>
-      <c r="C181" t="s">
-        <v>283</v>
-      </c>
-      <c r="D181" t="s">
-        <v>582</v>
-      </c>
-      <c r="E181" s="3">
-        <v>443934</v>
-      </c>
-      <c r="F181" s="3">
-        <v>3514</v>
-      </c>
-      <c r="G181" s="3">
-        <v>128</v>
-      </c>
-      <c r="H181" s="3">
-        <v>1</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="K181">
-        <v>109</v>
-      </c>
-      <c r="L181" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
-      <c r="A182" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B182" t="s">
-        <v>584</v>
-      </c>
-      <c r="C182" t="s">
-        <v>39</v>
-      </c>
-      <c r="D182" t="s">
-        <v>585</v>
-      </c>
-      <c r="E182" s="3">
-        <v>110227</v>
-      </c>
-      <c r="F182" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G182" s="3">
-        <v>157</v>
-      </c>
-      <c r="H182" s="3">
-        <v>1</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182">
-        <v>691</v>
-      </c>
-      <c r="L182" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
-      <c r="A183" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B183" t="s">
-        <v>587</v>
-      </c>
-      <c r="C183" t="s">
-        <v>327</v>
-      </c>
-      <c r="D183" t="s">
-        <v>588</v>
-      </c>
-      <c r="E183" s="3">
-        <v>239</v>
-      </c>
-      <c r="F183" s="3">
-        <v>2</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="3">
-        <v>1</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183">
-        <v>0</v>
-      </c>
-      <c r="L183" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
-      <c r="A184" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B184" t="s">
-        <v>590</v>
-      </c>
-      <c r="C184" t="s">
-        <v>283</v>
-      </c>
-      <c r="D184" t="s">
-        <v>591</v>
-      </c>
-      <c r="E184" s="3">
-        <v>850122</v>
-      </c>
-      <c r="F184" s="3">
-        <v>7412</v>
-      </c>
-      <c r="G184" s="3">
-        <v>349</v>
-      </c>
-      <c r="H184" s="3">
-        <v>1</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184">
-        <v>326</v>
-      </c>
-      <c r="L184" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
-      <c r="A185" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B185" t="s">
-        <v>593</v>
-      </c>
-      <c r="C185" t="s">
-        <v>108</v>
-      </c>
-      <c r="D185" t="s">
-        <v>594</v>
-      </c>
-      <c r="E185" s="3">
-        <v>8968</v>
-      </c>
-      <c r="F185" s="3">
-        <v>117</v>
-      </c>
-      <c r="G185" s="3">
-        <v>15</v>
-      </c>
-      <c r="H185" s="3">
-        <v>1</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185">
-        <v>43</v>
-      </c>
-      <c r="L185" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8800,14 +8448,6 @@
     <hyperlink ref="A175" r:id="rId173"/>
     <hyperlink ref="A176" r:id="rId174"/>
     <hyperlink ref="A177" r:id="rId175"/>
-    <hyperlink ref="A178" r:id="rId176"/>
-    <hyperlink ref="A179" r:id="rId177"/>
-    <hyperlink ref="A180" r:id="rId178"/>
-    <hyperlink ref="A181" r:id="rId179"/>
-    <hyperlink ref="A182" r:id="rId180"/>
-    <hyperlink ref="A183" r:id="rId181"/>
-    <hyperlink ref="A184" r:id="rId182"/>
-    <hyperlink ref="A185" r:id="rId183"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8830,7 +8470,7 @@
         <v>22</v>
       </c>
       <c r="B1">
-        <v>490475</v>
+        <v>479273</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8838,7 +8478,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>240378</v>
+        <v>239890</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8846,31 +8486,31 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>49069</v>
+        <v>48993</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>40967</v>
+        <v>40141</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>40353</v>
+        <v>39502</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>39715</v>
+        <v>38251</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8878,140 +8518,140 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>34371</v>
+        <v>33983</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B8">
-        <v>9934</v>
+        <v>9893</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B9">
-        <v>8532</v>
+        <v>8437</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B10">
-        <v>7069</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B11">
-        <v>6152</v>
+        <v>5802</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B12">
-        <v>5921</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B13">
-        <v>5616</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B14">
-        <v>5438</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B15">
-        <v>2310</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B16">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B17">
-        <v>385</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B18">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="B19">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B20">
-        <v>215</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -9019,23 +8659,23 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -9043,15 +8683,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -9059,7 +8699,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -9067,7 +8707,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="B31">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="537">
   <si>
     <t>URL</t>
   </si>
@@ -203,6 +203,18 @@
     <t>2019-12-25T15:53:44.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
   </si>
   <si>
@@ -356,27 +368,6 @@
     <t>2019-12-23T11:11:31.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7uudTHzVLWg</t>
-  </si>
-  <si>
-    <t>Live : Fin de l'esclavagisme avec Yves Chouard, Maitre Philippe Fortabat Labatut, Lorelÿ</t>
-  </si>
-  <si>
-    <t>Dajjal Magazine</t>
-  </si>
-  <si>
-    <t>2019-12-21T23:04:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BsuuSPxRLE</t>
-  </si>
-  <si>
-    <t>La Guerre des mots</t>
-  </si>
-  <si>
-    <t>2019-12-15T23:14:54.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
   </si>
   <si>
@@ -386,6 +377,30 @@
     <t>2019-12-19T09:00:02.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
   </si>
   <si>
@@ -395,30 +410,6 @@
     <t>2019-12-05T08:00:05.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
   </si>
   <si>
@@ -605,6 +596,15 @@
     <t>2019-05-26T08:15:43.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
   </si>
   <si>
@@ -614,15 +614,6 @@
     <t>2019-12-19T16:45:27.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
   </si>
   <si>
@@ -632,6 +623,15 @@
     <t>2019-12-13T20:13:53.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=HQBmk6j_bYc</t>
   </si>
   <si>
@@ -659,13 +659,898 @@
     <t>2019-12-10T17:18:10.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Gzht8SVnYG8</t>
-  </si>
-  <si>
-    <t>Lorsque les Justes Lois (ad-din) d'Allah conquirent la France</t>
-  </si>
-  <si>
-    <t>2019-12-20T13:48:12.000Z</t>
+    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
+  </si>
+  <si>
+    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
+  </si>
+  <si>
+    <t>Fred Bes</t>
+  </si>
+  <si>
+    <t>2019-12-20T19:28:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=loX_BGQ4-kg</t>
+  </si>
+  <si>
+    <t>Kemarl1fam - Bonhomme de neige</t>
+  </si>
+  <si>
+    <t>2019-12-25T14:52:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
+  </si>
+  <si>
+    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-13T22:06:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
+  </si>
+  <si>
+    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:18:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
+  </si>
+  <si>
+    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-24T19:30:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
+  </si>
+  <si>
+    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T18:51:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
+  </si>
+  <si>
+    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
+  </si>
+  <si>
+    <t>2019-12-28T08:24:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y4PduURvOpw</t>
+  </si>
+  <si>
+    <t>L’exécutif à l’épreuve de la grève   Journal du 9 décembre 2019   Vidéo dailymotion</t>
+  </si>
+  <si>
+    <t>2019-12-09T19:39:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
+  </si>
+  <si>
+    <t>Daniel Dupont</t>
+  </si>
+  <si>
+    <t>2019-11-26T22:20:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T19:13:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
+  </si>
+  <si>
+    <t>comment lire les articles du parisien gratuitement</t>
+  </si>
+  <si>
+    <t>2019-12-19T11:02:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
+  </si>
+  <si>
+    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T18:41:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
+  </si>
+  <si>
+    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T18:44:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
+  </si>
+  <si>
+    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T19:07:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
+  </si>
+  <si>
+    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:48:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
+  </si>
+  <si>
+    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
+  </si>
+  <si>
+    <t>Ministère Territoires et Collectivités</t>
+  </si>
+  <si>
+    <t>2019-12-09T12:38:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
+  </si>
+  <si>
+    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
+  </si>
+  <si>
+    <t>2019-12-11T17:08:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=plFHUOiKSYc</t>
+  </si>
+  <si>
+    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
+  </si>
+  <si>
+    <t>2019-12-09T09:45:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
+  </si>
+  <si>
+    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
+  </si>
+  <si>
+    <t>2019-12-12T20:47:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
+  </si>
+  <si>
+    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T20:32:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
+  </si>
+  <si>
+    <t>2019-12-10T11:04:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
+  </si>
+  <si>
+    <t>#FAQ17 - Posez vos questions</t>
+  </si>
+  <si>
+    <t>2019-11-24T14:47:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HXiOLJ48sXc</t>
+  </si>
+  <si>
+    <t>SANTE : LES ALIMENTS QUI RESSEMBLE AUX ORGANES QU ILS GUERISSENT !!!</t>
+  </si>
+  <si>
+    <t>2019-12-06T18:35:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
+  </si>
+  <si>
+    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:09:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4iWhEvPavLA</t>
+  </si>
+  <si>
+    <t>Grève contre la réforme des retraites: les syndicats reprennent des couleurs</t>
+  </si>
+  <si>
+    <t>2019-12-09T16:55:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
+  </si>
+  <si>
+    <t>Women in Finance // 3rd Shadowing Day</t>
+  </si>
+  <si>
+    <t>2019-12-06T09:09:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
+  </si>
+  <si>
+    <t>Bientôt de la publicité sur Netflix ?</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:17:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
+  </si>
+  <si>
+    <t>Sophie Cluzel, secrétaire d'État chargée des Personnes handicapées.</t>
+  </si>
+  <si>
+    <t>Secrétariat d'Etat chargé de l'égalité</t>
+  </si>
+  <si>
+    <t>2018-12-12T15:20:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
+  </si>
+  <si>
+    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
+  </si>
+  <si>
+    <t>2019-03-27T22:40:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
+  </si>
+  <si>
+    <t>François le Français... euh non, l’ami des oligarques...</t>
+  </si>
+  <si>
+    <t>2019-04-28T13:50:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
+  </si>
+  <si>
+    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
+  </si>
+  <si>
+    <t>2018-09-07T09:19:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
+  </si>
+  <si>
+    <t>Pot pourri médiatique</t>
+  </si>
+  <si>
+    <t>2019-03-21T23:00:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
+  </si>
+  <si>
+    <t>Un prêtre, un psy... tous GJ</t>
+  </si>
+  <si>
+    <t>2019-04-19T19:34:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
+  </si>
+  <si>
+    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
+  </si>
+  <si>
+    <t>2018-10-17T23:18:03.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
@@ -677,91 +1562,31 @@
     <t>2019-12-03T11:35:37.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
-  </si>
-  <si>
-    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
-  </si>
-  <si>
-    <t>Fred Bes</t>
-  </si>
-  <si>
-    <t>2019-12-20T19:28:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eQVUB3odtrQ</t>
-  </si>
-  <si>
-    <t>ESCLAVE HORROR STORY le Hors-Série PÔLE POT EMPLOI n°4</t>
-  </si>
-  <si>
-    <t>2019-12-06T13:05:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=loX_BGQ4-kg</t>
-  </si>
-  <si>
-    <t>Kemarl1fam - Bonhomme de neige</t>
-  </si>
-  <si>
-    <t>2019-12-25T14:52:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
-  </si>
-  <si>
-    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-13T22:06:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
-  </si>
-  <si>
-    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:18:07.000Z</t>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
@@ -773,327 +1598,6 @@
     <t>2019-12-05T01:38:31.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
-  </si>
-  <si>
-    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-24T19:30:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
-  </si>
-  <si>
-    <t>Daniel Dupont</t>
-  </si>
-  <si>
-    <t>2019-11-26T22:20:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
-  </si>
-  <si>
-    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
-  </si>
-  <si>
-    <t>2019-12-28T08:24:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y4PduURvOpw</t>
-  </si>
-  <si>
-    <t>L’exécutif à l’épreuve de la grève   Journal du 9 décembre 2019   Vidéo dailymotion</t>
-  </si>
-  <si>
-    <t>2019-12-09T19:39:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
-  </si>
-  <si>
-    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T18:41:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HXiOLJ48sXc</t>
-  </si>
-  <si>
-    <t>SANTE : LES ALIMENTS QUI RESSEMBLE AUX ORGANES QUI GUERISSENT !!!</t>
-  </si>
-  <si>
-    <t>2019-12-06T18:35:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
-  </si>
-  <si>
-    <t>#FAQ17 - Posez vos questions</t>
-  </si>
-  <si>
-    <t>2019-11-24T14:47:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
-  </si>
-  <si>
-    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
-  </si>
-  <si>
-    <t>2019-12-11T17:08:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
-  </si>
-  <si>
-    <t>Women in Finance // 3rd Shadowing Day</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2019-12-06T09:09:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
-  </si>
-  <si>
-    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:09:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4iWhEvPavLA</t>
-  </si>
-  <si>
-    <t>Grève contre la réforme des retraites: les syndicats reprennent des couleurs</t>
-  </si>
-  <si>
-    <t>2019-12-09T16:55:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
   </si>
   <si>
@@ -1103,313 +1607,13 @@
     <t>2019-11-22T03:31:47.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
-  </si>
-  <si>
-    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
-  </si>
-  <si>
-    <t>2018-10-17T23:18:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
-  </si>
-  <si>
-    <t>Sophie Cluzel, secrétaire d'État chargée des Personnes handicapées.</t>
-  </si>
-  <si>
-    <t>Secrétariat d'Etat chargé de l'égalité</t>
-  </si>
-  <si>
-    <t>2018-12-12T15:20:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
-  </si>
-  <si>
-    <t>Un prêtre, un psy... tous GJ</t>
-  </si>
-  <si>
-    <t>2019-04-19T19:34:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8MPyoHnEXE</t>
-  </si>
-  <si>
-    <t>Protection maladie des personnes étrangères</t>
-  </si>
-  <si>
-    <t>Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2019-11-12T14:26:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zEBcoz8o6lo</t>
-  </si>
-  <si>
-    <t>La réforme des retraites à la Une de l'Opinion: le making-of du dessin de la semaine</t>
-  </si>
-  <si>
-    <t>2019-12-06T17:22:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qllBnAt6JE0</t>
-  </si>
-  <si>
-    <t>Réforme des retraites : l'information d'Albane Gaillot</t>
-  </si>
-  <si>
-    <t>2018-11-14T10:21:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
-  </si>
-  <si>
-    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:01:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AlCpJqUjR0A</t>
-  </si>
-  <si>
-    <t>Intervention d'Albane Gaillot sur éducation à la sexualité et handicap</t>
-  </si>
-  <si>
-    <t>2018-09-17T13:20:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
-  </si>
-  <si>
-    <t>Les malaises #3 - Avec Mathieu Madénian</t>
-  </si>
-  <si>
-    <t>2019-11-25T17:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
+    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
+  </si>
+  <si>
+    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
+  </si>
+  <si>
+    <t>2018-11-22T17:23:27.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
@@ -1419,315 +1623,6 @@
   </si>
   <si>
     <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LbQrQ1c7rCA</t>
-  </si>
-  <si>
-    <t>Un ex associé de Francis Lalanne</t>
-  </si>
-  <si>
-    <t>2019-05-23T10:05:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
-  </si>
-  <si>
-    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
-  </si>
-  <si>
-    <t>2019-03-27T22:40:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
-  </si>
-  <si>
-    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
-  </si>
-  <si>
-    <t>2018-11-22T17:23:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hpfZ21UZbyQ</t>
-  </si>
-  <si>
-    <t>@NICE: le monitoring urbain environnemental : une solution numérique au service des citoyens</t>
-  </si>
-  <si>
-    <t>2019-11-19T12:31:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
-  </si>
-  <si>
-    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-02T11:13:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
-  </si>
-  <si>
-    <t>Retraites : je souhaite que Macron connaisse un échec</t>
-  </si>
-  <si>
-    <t>2019-12-04T07:52:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
-  </si>
-  <si>
-    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
-  </si>
-  <si>
-    <t>2018-09-07T09:19:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
-  </si>
-  <si>
-    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:20:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
-  </si>
-  <si>
-    <t>Pot pourri médiatique</t>
-  </si>
-  <si>
-    <t>2019-03-21T23:00:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
-  </si>
-  <si>
-    <t>François le Français... euh non, l’ami des oligarques...</t>
-  </si>
-  <si>
-    <t>2019-04-28T13:50:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LHq3bNb53UA</t>
-  </si>
-  <si>
-    <t>Grève du 5 décembre   et après    Journal du vendredi 6 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T19:30:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -2088,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L177"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2650,13 +2545,13 @@
         <v>65</v>
       </c>
       <c r="E17" s="3">
-        <v>11977</v>
+        <v>12004</v>
       </c>
       <c r="F17" s="3">
-        <v>324</v>
+        <v>691</v>
       </c>
       <c r="G17" s="3">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -2665,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -2679,19 +2574,19 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3">
-        <v>9999</v>
+        <v>11977</v>
       </c>
       <c r="F18" s="3">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -2700,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2708,25 +2603,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3">
-        <v>7772</v>
+        <v>9999</v>
       </c>
       <c r="F19" s="3">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="G19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -2735,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -2743,25 +2638,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" s="3">
-        <v>5880</v>
+        <v>7772</v>
       </c>
       <c r="F20" s="3">
-        <v>594</v>
+        <v>239</v>
       </c>
       <c r="G20" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -2770,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -2778,25 +2673,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3">
-        <v>7431</v>
+        <v>5880</v>
       </c>
       <c r="F21" s="3">
-        <v>661</v>
+        <v>594</v>
       </c>
       <c r="G21" s="3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -2805,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -2813,25 +2708,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" s="3">
-        <v>6263</v>
+        <v>7431</v>
       </c>
       <c r="F22" s="3">
-        <v>444</v>
+        <v>661</v>
       </c>
       <c r="G22" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -2840,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -2848,25 +2743,25 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3">
-        <v>5962</v>
+        <v>6263</v>
       </c>
       <c r="F23" s="3">
-        <v>765</v>
+        <v>444</v>
       </c>
       <c r="G23" s="3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -2875,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -2883,25 +2778,25 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>87</v>
       </c>
       <c r="E24" s="3">
-        <v>5563</v>
+        <v>5962</v>
       </c>
       <c r="F24" s="3">
-        <v>265</v>
+        <v>765</v>
       </c>
       <c r="G24" s="3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -2910,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -2924,19 +2819,19 @@
         <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="3">
-        <v>5083</v>
+        <v>5563</v>
       </c>
       <c r="F25" s="3">
-        <v>594</v>
+        <v>265</v>
       </c>
       <c r="G25" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -2945,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -2953,25 +2848,25 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="3">
-        <v>4508</v>
+        <v>5083</v>
       </c>
       <c r="F26" s="3">
-        <v>446</v>
+        <v>594</v>
       </c>
       <c r="G26" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -2980,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -2988,34 +2883,34 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27" s="3">
-        <v>4463</v>
+        <v>4508</v>
       </c>
       <c r="F27" s="3">
-        <v>211</v>
+        <v>446</v>
       </c>
       <c r="G27" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -3023,34 +2918,34 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3">
-        <v>4358</v>
+        <v>4463</v>
       </c>
       <c r="F28" s="3">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G28" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -3058,34 +2953,34 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="3">
-        <v>3484</v>
+        <v>4358</v>
       </c>
       <c r="F29" s="3">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -3093,34 +2988,34 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E30" s="3">
-        <v>3021</v>
+        <v>3484</v>
       </c>
       <c r="F30" s="3">
-        <v>580</v>
+        <v>224</v>
       </c>
       <c r="G30" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -3128,25 +3023,25 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="3">
-        <v>2959</v>
+        <v>3021</v>
       </c>
       <c r="F31" s="3">
-        <v>38</v>
+        <v>580</v>
       </c>
       <c r="G31" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -3155,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -3169,19 +3064,19 @@
         <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" s="3">
-        <v>2848</v>
+        <v>2959</v>
       </c>
       <c r="F32" s="3">
-        <v>523</v>
+        <v>38</v>
       </c>
       <c r="G32" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -3190,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -3198,25 +3093,25 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>116</v>
       </c>
       <c r="E33" s="3">
-        <v>2562</v>
+        <v>2848</v>
       </c>
       <c r="F33" s="3">
-        <v>181</v>
+        <v>523</v>
       </c>
       <c r="G33" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -3239,19 +3134,19 @@
         <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>119</v>
       </c>
       <c r="E34" s="3">
-        <v>2432</v>
+        <v>2352</v>
       </c>
       <c r="F34" s="3">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="G34" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -3260,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -3274,19 +3169,19 @@
         <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E35" s="3">
-        <v>2352</v>
+        <v>1803</v>
       </c>
       <c r="F35" s="3">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G35" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -3295,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -3303,25 +3198,25 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E36" s="3">
-        <v>12342</v>
+        <v>1663</v>
       </c>
       <c r="F36" s="3">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="G36" s="3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -3330,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -3338,25 +3233,25 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E37" s="3">
-        <v>1803</v>
+        <v>12342</v>
       </c>
       <c r="F37" s="3">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="G37" s="3">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -3365,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -3373,25 +3268,25 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>1663</v>
+        <v>1593</v>
       </c>
       <c r="F38" s="3">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="G38" s="3">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -3400,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -3414,19 +3309,19 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
         <v>136</v>
       </c>
       <c r="E39" s="3">
-        <v>1593</v>
+        <v>1556</v>
       </c>
       <c r="F39" s="3">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="G39" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -3435,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -3449,19 +3344,19 @@
         <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E40" s="3">
-        <v>1556</v>
+        <v>1542</v>
       </c>
       <c r="F40" s="3">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="G40" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -3470,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -3478,25 +3373,25 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
         <v>143</v>
       </c>
       <c r="E41" s="3">
-        <v>1542</v>
+        <v>1517</v>
       </c>
       <c r="F41" s="3">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -3505,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -3519,19 +3414,19 @@
         <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
         <v>146</v>
       </c>
       <c r="E42" s="3">
-        <v>1517</v>
+        <v>1493</v>
       </c>
       <c r="F42" s="3">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="G42" s="3">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3540,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3554,16 +3449,16 @@
         <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
         <v>149</v>
       </c>
       <c r="E43" s="3">
-        <v>1493</v>
+        <v>1386</v>
       </c>
       <c r="F43" s="3">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
@@ -3575,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -3589,19 +3484,19 @@
         <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
         <v>152</v>
       </c>
       <c r="E44" s="3">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="F44" s="3">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="G44" s="3">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3610,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3624,19 +3519,19 @@
         <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
         <v>155</v>
       </c>
       <c r="E45" s="3">
-        <v>1372</v>
+        <v>1330</v>
       </c>
       <c r="F45" s="3">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="G45" s="3">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3645,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -3659,19 +3554,19 @@
         <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
         <v>158</v>
       </c>
       <c r="E46" s="3">
-        <v>1330</v>
+        <v>1254</v>
       </c>
       <c r="F46" s="3">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="G46" s="3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3680,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -3694,19 +3589,19 @@
         <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E47" s="3">
-        <v>1254</v>
+        <v>1188</v>
       </c>
       <c r="F47" s="3">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G47" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3723,25 +3618,25 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
         <v>165</v>
       </c>
       <c r="E48" s="3">
-        <v>1188</v>
+        <v>1084</v>
       </c>
       <c r="F48" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3750,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -3764,19 +3659,19 @@
         <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
         <v>168</v>
       </c>
       <c r="E49" s="3">
-        <v>1084</v>
+        <v>995</v>
       </c>
       <c r="F49" s="3">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G49" s="3">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3785,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
@@ -3799,19 +3694,19 @@
         <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
         <v>171</v>
       </c>
       <c r="E50" s="3">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="F50" s="3">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="G50" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3820,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
@@ -3834,16 +3729,16 @@
         <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
         <v>174</v>
       </c>
       <c r="E51" s="3">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="F51" s="3">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="G51" s="3">
         <v>2</v>
@@ -3855,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
@@ -3869,19 +3764,19 @@
         <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
         <v>177</v>
       </c>
       <c r="E52" s="3">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F52" s="3">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="G52" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3904,19 +3799,19 @@
         <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
         <v>180</v>
       </c>
       <c r="E53" s="3">
-        <v>957</v>
+        <v>912</v>
       </c>
       <c r="F53" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G53" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3925,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -3939,19 +3834,19 @@
         <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
         <v>183</v>
       </c>
       <c r="E54" s="3">
-        <v>912</v>
+        <v>836</v>
       </c>
       <c r="F54" s="3">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G54" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3960,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -3974,19 +3869,19 @@
         <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
         <v>186</v>
       </c>
       <c r="E55" s="3">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="F55" s="3">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="G55" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3995,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -4009,19 +3904,19 @@
         <v>188</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D56" t="s">
         <v>189</v>
       </c>
       <c r="E56" s="3">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="F56" s="3">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G56" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -4030,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -4044,19 +3939,19 @@
         <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
         <v>192</v>
       </c>
       <c r="E57" s="3">
-        <v>791</v>
+        <v>61816</v>
       </c>
       <c r="F57" s="3">
-        <v>59</v>
+        <v>782</v>
       </c>
       <c r="G57" s="3">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -4065,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>18</v>
+        <v>1247</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
@@ -4079,19 +3974,19 @@
         <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="D58" t="s">
         <v>195</v>
       </c>
       <c r="E58" s="3">
-        <v>61816</v>
+        <v>691</v>
       </c>
       <c r="F58" s="3">
-        <v>782</v>
+        <v>130</v>
       </c>
       <c r="G58" s="3">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -4100,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1247</v>
+        <v>0</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
@@ -4114,7 +4009,7 @@
         <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
         <v>198</v>
@@ -4149,19 +4044,19 @@
         <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D60" t="s">
         <v>201</v>
       </c>
       <c r="E60" s="3">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="F60" s="3">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G60" s="3">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -4184,19 +4079,19 @@
         <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
         <v>204</v>
       </c>
       <c r="E61" s="3">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="F61" s="3">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="G61" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4205,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
@@ -4219,7 +4114,7 @@
         <v>206</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D62" t="s">
         <v>207</v>
@@ -4254,7 +4149,7 @@
         <v>209</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
         <v>210</v>
@@ -4289,7 +4184,7 @@
         <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
         <v>213</v>
@@ -4324,19 +4219,19 @@
         <v>215</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E65" s="3">
-        <v>473</v>
+        <v>366</v>
       </c>
       <c r="F65" s="3">
         <v>43</v>
       </c>
       <c r="G65" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -4345,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
@@ -4353,25 +4248,25 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E66" s="3">
-        <v>4899</v>
+        <v>357</v>
       </c>
       <c r="F66" s="3">
-        <v>603</v>
+        <v>13</v>
       </c>
       <c r="G66" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -4380,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -4388,25 +4283,25 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C67" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
         <v>223</v>
       </c>
       <c r="E67" s="3">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="F67" s="3">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -4429,19 +4324,19 @@
         <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
         <v>226</v>
       </c>
       <c r="E68" s="3">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="F68" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G68" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -4450,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -4464,19 +4359,19 @@
         <v>228</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
         <v>229</v>
       </c>
       <c r="E69" s="3">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="F69" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -4485,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
@@ -4499,19 +4394,19 @@
         <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s">
         <v>232</v>
       </c>
       <c r="E70" s="3">
-        <v>1283</v>
+        <v>299</v>
       </c>
       <c r="F70" s="3">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="G70" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4520,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
@@ -4534,19 +4429,19 @@
         <v>234</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E71" s="3">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="F71" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G71" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4555,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
@@ -4563,25 +4458,25 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E72" s="3">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="F72" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G72" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4590,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
@@ -4598,22 +4493,22 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C73" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73" s="3">
         <v>222</v>
       </c>
-      <c r="D73" t="s">
-        <v>241</v>
-      </c>
-      <c r="E73" s="3">
-        <v>299</v>
-      </c>
       <c r="F73" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G73" s="3">
         <v>2</v>
@@ -4625,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
@@ -4633,25 +4528,25 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E74" s="3">
-        <v>285</v>
+        <v>2165</v>
       </c>
       <c r="F74" s="3">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="G74" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4660,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
@@ -4668,25 +4563,25 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="D75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E75" s="3">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="F75" s="3">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G75" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4695,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
@@ -4703,34 +4598,34 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E76" s="3">
-        <v>2078</v>
+        <v>175</v>
       </c>
       <c r="F76" s="3">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G76" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
@@ -4738,34 +4633,34 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D77" t="s">
         <v>255</v>
       </c>
       <c r="E77" s="3">
-        <v>2165</v>
+        <v>170</v>
       </c>
       <c r="F77" s="3">
-        <v>278</v>
+        <v>4</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
       </c>
       <c r="H77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
@@ -4779,19 +4674,19 @@
         <v>257</v>
       </c>
       <c r="C78" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D78" t="s">
         <v>258</v>
       </c>
       <c r="E78" s="3">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="F78" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G78" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -4800,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
@@ -4814,19 +4709,19 @@
         <v>260</v>
       </c>
       <c r="C79" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" t="s">
         <v>261</v>
       </c>
-      <c r="D79" t="s">
-        <v>262</v>
-      </c>
       <c r="E79" s="3">
-        <v>1162</v>
+        <v>145</v>
       </c>
       <c r="F79" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4835,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
@@ -4843,25 +4738,25 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B80" t="s">
         <v>263</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" t="s">
         <v>264</v>
       </c>
-      <c r="C80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D80" t="s">
-        <v>265</v>
-      </c>
       <c r="E80" s="3">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F80" s="3">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4870,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
@@ -4878,34 +4773,34 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B81" t="s">
         <v>266</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>267</v>
-      </c>
-      <c r="C81" t="s">
-        <v>244</v>
       </c>
       <c r="D81" t="s">
         <v>268</v>
       </c>
       <c r="E81" s="3">
-        <v>170</v>
+        <v>1162</v>
       </c>
       <c r="F81" s="3">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
       </c>
       <c r="H81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
@@ -4919,16 +4814,16 @@
         <v>270</v>
       </c>
       <c r="C82" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D82" t="s">
         <v>271</v>
       </c>
       <c r="E82" s="3">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F82" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
@@ -4940,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
@@ -4954,19 +4849,19 @@
         <v>273</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="D83" t="s">
         <v>274</v>
       </c>
       <c r="E83" s="3">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F83" s="3">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4989,19 +4884,19 @@
         <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D84" t="s">
         <v>277</v>
       </c>
       <c r="E84" s="3">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F84" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G84" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -5010,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -5024,19 +4919,19 @@
         <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="D85" t="s">
         <v>280</v>
       </c>
       <c r="E85" s="3">
-        <v>541</v>
+        <v>112</v>
       </c>
       <c r="F85" s="3">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G85" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -5045,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
@@ -5059,16 +4954,16 @@
         <v>282</v>
       </c>
       <c r="C86" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D86" t="s">
         <v>283</v>
       </c>
       <c r="E86" s="3">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F86" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G86" s="3">
         <v>0</v>
@@ -5080,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
@@ -5094,16 +4989,16 @@
         <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="D87" t="s">
         <v>286</v>
       </c>
       <c r="E87" s="3">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F87" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -5115,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L87" t="s">
         <v>16</v>
@@ -5129,16 +5024,16 @@
         <v>288</v>
       </c>
       <c r="C88" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="D88" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E88" s="3">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F88" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G88" s="3">
         <v>0</v>
@@ -5150,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
@@ -5158,25 +5053,25 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C89" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="D89" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E89" s="3">
-        <v>112</v>
+        <v>4711</v>
       </c>
       <c r="F89" s="3">
-        <v>11</v>
+        <v>387</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5185,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
@@ -5193,22 +5088,22 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B90" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D90" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E90" s="3">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F90" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G90" s="3">
         <v>0</v>
@@ -5220,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
@@ -5228,25 +5123,25 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B91" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C91" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="D91" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E91" s="3">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F91" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5263,25 +5158,25 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B92" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C92" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="D92" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E92" s="3">
-        <v>783</v>
+        <v>60</v>
       </c>
       <c r="F92" s="3">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="G92" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -5290,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
@@ -5298,25 +5193,25 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B93" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C93" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="D93" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E93" s="3">
-        <v>4711</v>
+        <v>56</v>
       </c>
       <c r="F93" s="3">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="G93" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -5325,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
@@ -5333,22 +5228,22 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D94" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E94" s="3">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5368,25 +5263,25 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="D95" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E95" s="3">
-        <v>1760</v>
+        <v>52</v>
       </c>
       <c r="F95" s="3">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="G95" s="3">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -5395,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -5403,22 +5298,22 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B96" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C96" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="D96" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E96" s="3">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F96" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5430,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -5438,19 +5333,19 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B97" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C97" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D97" t="s">
         <v>319</v>
       </c>
       <c r="E97" s="3">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -5459,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5476,22 +5371,22 @@
         <v>320</v>
       </c>
       <c r="B98" t="s">
+        <v>299</v>
+      </c>
+      <c r="C98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98" t="s">
         <v>321</v>
       </c>
-      <c r="C98" t="s">
-        <v>244</v>
-      </c>
-      <c r="D98" t="s">
-        <v>322</v>
-      </c>
       <c r="E98" s="3">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F98" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G98" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -5500,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
@@ -5508,22 +5403,22 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B99" t="s">
         <v>323</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>309</v>
+      </c>
+      <c r="D99" t="s">
         <v>324</v>
       </c>
-      <c r="C99" t="s">
-        <v>222</v>
-      </c>
-      <c r="D99" t="s">
-        <v>325</v>
-      </c>
       <c r="E99" s="3">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F99" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -5543,25 +5438,25 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B100" t="s">
         <v>326</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" t="s">
         <v>327</v>
       </c>
-      <c r="C100" t="s">
-        <v>244</v>
-      </c>
-      <c r="D100" t="s">
-        <v>328</v>
-      </c>
       <c r="E100" s="3">
-        <v>52</v>
+        <v>1760</v>
       </c>
       <c r="F100" s="3">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5570,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
@@ -5578,25 +5473,25 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B101" t="s">
         <v>329</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>161</v>
+      </c>
+      <c r="D101" t="s">
         <v>330</v>
       </c>
-      <c r="C101" t="s">
-        <v>318</v>
-      </c>
-      <c r="D101" t="s">
-        <v>331</v>
-      </c>
       <c r="E101" s="3">
-        <v>52</v>
+        <v>783</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5605,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
@@ -5613,25 +5508,25 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B102" t="s">
         <v>332</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" t="s">
         <v>333</v>
       </c>
-      <c r="C102" t="s">
-        <v>222</v>
-      </c>
-      <c r="D102" t="s">
-        <v>334</v>
-      </c>
       <c r="E102" s="3">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F102" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5648,28 +5543,28 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B103" t="s">
         <v>335</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>235</v>
+      </c>
+      <c r="D103" t="s">
         <v>336</v>
       </c>
-      <c r="C103" t="s">
-        <v>318</v>
-      </c>
-      <c r="D103" t="s">
-        <v>337</v>
-      </c>
       <c r="E103" s="3">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
       </c>
       <c r="G103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -5683,34 +5578,34 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B104" t="s">
         <v>338</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>235</v>
+      </c>
+      <c r="D104" t="s">
         <v>339</v>
       </c>
-      <c r="C104" t="s">
-        <v>318</v>
-      </c>
-      <c r="D104" t="s">
-        <v>340</v>
-      </c>
       <c r="E104" s="3">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="3">
         <v>0</v>
       </c>
       <c r="H104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
@@ -5718,25 +5613,25 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B105" t="s">
         <v>341</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>235</v>
+      </c>
+      <c r="D105" t="s">
         <v>342</v>
       </c>
-      <c r="C105" t="s">
-        <v>244</v>
-      </c>
-      <c r="D105" t="s">
-        <v>343</v>
-      </c>
       <c r="E105" s="3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F105" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -5745,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
@@ -5753,25 +5648,25 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B106" t="s">
         <v>344</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>235</v>
+      </c>
+      <c r="D106" t="s">
         <v>345</v>
       </c>
-      <c r="C106" t="s">
-        <v>244</v>
-      </c>
-      <c r="D106" t="s">
-        <v>346</v>
-      </c>
       <c r="E106" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5788,19 +5683,19 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B107" t="s">
         <v>347</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>289</v>
+      </c>
+      <c r="D107" t="s">
         <v>348</v>
       </c>
-      <c r="C107" t="s">
-        <v>244</v>
-      </c>
-      <c r="D107" t="s">
-        <v>349</v>
-      </c>
       <c r="E107" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F107" s="3">
         <v>1</v>
@@ -5809,13 +5704,13 @@
         <v>0</v>
       </c>
       <c r="H107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L107" t="s">
         <v>16</v>
@@ -5823,22 +5718,22 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B108" t="s">
         <v>350</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" t="s">
         <v>351</v>
       </c>
-      <c r="C108" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" t="s">
-        <v>352</v>
-      </c>
       <c r="E108" s="3">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="F108" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G108" s="3">
         <v>0</v>
@@ -5858,22 +5753,22 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B109" t="s">
         <v>353</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" t="s">
         <v>354</v>
       </c>
-      <c r="C109" t="s">
-        <v>244</v>
-      </c>
-      <c r="D109" t="s">
-        <v>355</v>
-      </c>
       <c r="E109" s="3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" s="3">
         <v>0</v>
@@ -5893,22 +5788,22 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B110" t="s">
         <v>356</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
+        <v>235</v>
+      </c>
+      <c r="D110" t="s">
         <v>357</v>
       </c>
-      <c r="C110" t="s">
-        <v>308</v>
-      </c>
-      <c r="D110" t="s">
-        <v>358</v>
-      </c>
       <c r="E110" s="3">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" s="3">
         <v>0</v>
@@ -5920,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" t="s">
         <v>16</v>
@@ -5928,25 +5823,25 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B111" t="s">
         <v>359</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
+        <v>235</v>
+      </c>
+      <c r="D111" t="s">
         <v>360</v>
       </c>
-      <c r="C111" t="s">
-        <v>86</v>
-      </c>
-      <c r="D111" t="s">
-        <v>361</v>
-      </c>
       <c r="E111" s="3">
-        <v>5194</v>
+        <v>11</v>
       </c>
       <c r="F111" s="3">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="G111" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -5955,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L111" t="s">
         <v>16</v>
@@ -5963,25 +5858,25 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B112" t="s">
         <v>362</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>267</v>
+      </c>
+      <c r="D112" t="s">
         <v>363</v>
       </c>
-      <c r="C112" t="s">
-        <v>244</v>
-      </c>
-      <c r="D112" t="s">
-        <v>364</v>
-      </c>
       <c r="E112" s="3">
-        <v>17</v>
+        <v>732</v>
       </c>
       <c r="F112" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G112" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -5990,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L112" t="s">
         <v>16</v>
@@ -5998,19 +5893,19 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B113" t="s">
         <v>365</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>366</v>
-      </c>
-      <c r="C113" t="s">
-        <v>244</v>
       </c>
       <c r="D113" t="s">
         <v>367</v>
       </c>
       <c r="E113" s="3">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -6039,13 +5934,13 @@
         <v>369</v>
       </c>
       <c r="C114" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D114" t="s">
         <v>370</v>
       </c>
       <c r="E114" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -6074,28 +5969,28 @@
         <v>372</v>
       </c>
       <c r="C115" t="s">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="D115" t="s">
         <v>373</v>
       </c>
       <c r="E115" s="3">
-        <v>60406</v>
+        <v>6</v>
       </c>
       <c r="F115" s="3">
-        <v>1073</v>
+        <v>0</v>
       </c>
       <c r="G115" s="3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="L115" t="s">
         <v>16</v>
@@ -6109,19 +6004,19 @@
         <v>375</v>
       </c>
       <c r="C116" t="s">
-        <v>261</v>
+        <v>376</v>
       </c>
       <c r="D116" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E116" s="3">
-        <v>732</v>
+        <v>5</v>
       </c>
       <c r="F116" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G116" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -6130,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L116" t="s">
         <v>16</v>
@@ -6138,25 +6033,25 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B117" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C117" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D117" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E117" s="3">
-        <v>231</v>
+        <v>656</v>
       </c>
       <c r="F117" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G117" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -6165,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L117" t="s">
         <v>16</v>
@@ -6173,25 +6068,25 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B118" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C118" t="s">
-        <v>244</v>
+        <v>384</v>
       </c>
       <c r="D118" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E118" s="3">
-        <v>8</v>
+        <v>1921</v>
       </c>
       <c r="F118" s="3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G118" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
@@ -6200,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L118" t="s">
         <v>16</v>
@@ -6208,25 +6103,25 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B119" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C119" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D119" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E119" s="3">
-        <v>656</v>
+        <v>2</v>
       </c>
       <c r="F119" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G119" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
@@ -6235,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L119" t="s">
         <v>16</v>
@@ -6243,19 +6138,19 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B120" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>391</v>
       </c>
       <c r="D120" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E120" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -6278,34 +6173,34 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B121" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C121" t="s">
-        <v>39</v>
+        <v>395</v>
       </c>
       <c r="D121" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E121" s="3">
-        <v>47483</v>
+        <v>9</v>
       </c>
       <c r="F121" s="3">
-        <v>1169</v>
+        <v>0</v>
       </c>
       <c r="G121" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -6313,25 +6208,25 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B122" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C122" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D122" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E122" s="3">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F122" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G122" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
@@ -6348,25 +6243,25 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B123" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C123" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D123" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E123" s="3">
-        <v>1921</v>
+        <v>110</v>
       </c>
       <c r="F123" s="3">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="G123" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -6375,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L123" t="s">
         <v>16</v>
@@ -6383,34 +6278,34 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B124" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C124" t="s">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="D124" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E124" s="3">
-        <v>2</v>
+        <v>74953</v>
       </c>
       <c r="F124" s="3">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="G124" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -6418,104 +6313,104 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B125" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C125" t="s">
-        <v>407</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E125" s="3">
-        <v>2</v>
+        <v>511312</v>
       </c>
       <c r="F125" s="3">
-        <v>0</v>
+        <v>15167</v>
       </c>
       <c r="G125" s="3">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="H125" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L125" t="s">
-        <v>16</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B126" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>414</v>
+      </c>
+      <c r="E126" s="3">
+        <v>4183126</v>
+      </c>
+      <c r="F126" s="3">
+        <v>49430</v>
+      </c>
+      <c r="G126" s="3">
+        <v>5701</v>
+      </c>
+      <c r="H126" s="3">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1196</v>
+      </c>
+      <c r="L126" t="s">
         <v>411</v>
-      </c>
-      <c r="D126" t="s">
-        <v>412</v>
-      </c>
-      <c r="E126" s="3">
-        <v>14</v>
-      </c>
-      <c r="F126" s="3">
-        <v>0</v>
-      </c>
-      <c r="G126" s="3">
-        <v>0</v>
-      </c>
-      <c r="H126" s="3">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B127" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C127" t="s">
-        <v>415</v>
+        <v>39</v>
       </c>
       <c r="D127" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E127" s="3">
-        <v>94</v>
+        <v>282666</v>
       </c>
       <c r="F127" s="3">
-        <v>6</v>
+        <v>4159</v>
       </c>
       <c r="G127" s="3">
-        <v>2</v>
+        <v>1024</v>
       </c>
       <c r="H127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>2992</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -6523,19 +6418,19 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C128" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="D128" t="s">
         <v>420</v>
       </c>
       <c r="E128" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -6570,10 +6465,10 @@
         <v>424</v>
       </c>
       <c r="E129" s="3">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="F129" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G129" s="3">
         <v>0</v>
@@ -6599,54 +6494,54 @@
         <v>426</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
       <c r="D130" t="s">
         <v>427</v>
       </c>
       <c r="E130" s="3">
-        <v>566966</v>
+        <v>1</v>
       </c>
       <c r="F130" s="3">
-        <v>18782</v>
+        <v>0</v>
       </c>
       <c r="G130" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>428</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B131" t="s">
         <v>429</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" t="s">
         <v>430</v>
       </c>
-      <c r="C131" t="s">
-        <v>128</v>
-      </c>
-      <c r="D131" t="s">
-        <v>431</v>
-      </c>
       <c r="E131" s="3">
-        <v>1237</v>
+        <v>3080</v>
       </c>
       <c r="F131" s="3">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G131" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -6655,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L131" t="s">
         <v>16</v>
@@ -6663,25 +6558,25 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B132" t="s">
         <v>432</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
+        <v>293</v>
+      </c>
+      <c r="D132" t="s">
         <v>433</v>
       </c>
-      <c r="C132" t="s">
-        <v>318</v>
-      </c>
-      <c r="D132" t="s">
-        <v>434</v>
-      </c>
       <c r="E132" s="3">
-        <v>617</v>
+        <v>18665</v>
       </c>
       <c r="F132" s="3">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G132" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -6690,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L132" t="s">
         <v>16</v>
@@ -6698,28 +6593,28 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B133" t="s">
         <v>435</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
+        <v>289</v>
+      </c>
+      <c r="D133" t="s">
         <v>436</v>
       </c>
-      <c r="C133" t="s">
-        <v>244</v>
-      </c>
-      <c r="D133" t="s">
-        <v>437</v>
-      </c>
       <c r="E133" s="3">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="F133" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G133" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -6733,25 +6628,25 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B134" t="s">
         <v>438</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>293</v>
+      </c>
+      <c r="D134" t="s">
         <v>439</v>
       </c>
-      <c r="C134" t="s">
-        <v>411</v>
-      </c>
-      <c r="D134" t="s">
-        <v>440</v>
-      </c>
       <c r="E134" s="3">
-        <v>60</v>
+        <v>69498</v>
       </c>
       <c r="F134" s="3">
-        <v>1</v>
+        <v>1189</v>
       </c>
       <c r="G134" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H134" s="3">
         <v>1</v>
@@ -6760,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L134" t="s">
         <v>16</v>
@@ -6768,25 +6663,25 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B135" t="s">
         <v>441</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
+        <v>309</v>
+      </c>
+      <c r="D135" t="s">
         <v>442</v>
       </c>
-      <c r="C135" t="s">
-        <v>304</v>
-      </c>
-      <c r="D135" t="s">
-        <v>443</v>
-      </c>
       <c r="E135" s="3">
-        <v>18665</v>
+        <v>2053</v>
       </c>
       <c r="F135" s="3">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G135" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H135" s="3">
         <v>1</v>
@@ -6795,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L135" t="s">
         <v>16</v>
@@ -6803,25 +6698,25 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B136" t="s">
         <v>444</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" t="s">
         <v>445</v>
       </c>
-      <c r="C136" t="s">
-        <v>419</v>
-      </c>
-      <c r="D136" t="s">
-        <v>446</v>
-      </c>
       <c r="E136" s="3">
-        <v>41</v>
+        <v>125335</v>
       </c>
       <c r="F136" s="3">
-        <v>1</v>
+        <v>3458</v>
       </c>
       <c r="G136" s="3">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="H136" s="3">
         <v>1</v>
@@ -6830,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>1955</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
@@ -6838,22 +6733,22 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B137" t="s">
         <v>447</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
+        <v>289</v>
+      </c>
+      <c r="D137" t="s">
         <v>448</v>
       </c>
-      <c r="C137" t="s">
-        <v>415</v>
-      </c>
-      <c r="D137" t="s">
-        <v>449</v>
-      </c>
       <c r="E137" s="3">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F137" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -6873,34 +6768,34 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B138" t="s">
         <v>450</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
+        <v>289</v>
+      </c>
+      <c r="D138" t="s">
         <v>451</v>
       </c>
-      <c r="C138" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138" t="s">
-        <v>452</v>
-      </c>
       <c r="E138" s="3">
-        <v>58018</v>
+        <v>74</v>
       </c>
       <c r="F138" s="3">
-        <v>3627</v>
+        <v>0</v>
       </c>
       <c r="G138" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>764</v>
+        <v>0</v>
       </c>
       <c r="L138" t="s">
         <v>16</v>
@@ -6908,25 +6803,25 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B139" t="s">
         <v>453</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
+        <v>395</v>
+      </c>
+      <c r="D139" t="s">
         <v>454</v>
       </c>
-      <c r="C139" t="s">
-        <v>108</v>
-      </c>
-      <c r="D139" t="s">
-        <v>455</v>
-      </c>
       <c r="E139" s="3">
-        <v>74953</v>
+        <v>41</v>
       </c>
       <c r="F139" s="3">
-        <v>1016</v>
+        <v>1</v>
       </c>
       <c r="G139" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H139" s="3">
         <v>1</v>
@@ -6935,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="L139" t="s">
         <v>16</v>
@@ -6943,19 +6838,19 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B140" t="s">
         <v>456</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
+        <v>235</v>
+      </c>
+      <c r="D140" t="s">
         <v>457</v>
       </c>
-      <c r="C140" t="s">
-        <v>411</v>
-      </c>
-      <c r="D140" t="s">
-        <v>458</v>
-      </c>
       <c r="E140" s="3">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -6978,34 +6873,34 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B141" t="s">
         <v>459</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
+        <v>309</v>
+      </c>
+      <c r="D141" t="s">
         <v>460</v>
       </c>
-      <c r="C141" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" t="s">
-        <v>461</v>
-      </c>
       <c r="E141" s="3">
-        <v>151373</v>
+        <v>844</v>
       </c>
       <c r="F141" s="3">
-        <v>10158</v>
+        <v>0</v>
       </c>
       <c r="G141" s="3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H141" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="L141" t="s">
         <v>16</v>
@@ -7013,25 +6908,25 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B142" t="s">
         <v>462</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
         <v>463</v>
       </c>
-      <c r="C142" t="s">
-        <v>308</v>
-      </c>
-      <c r="D142" t="s">
-        <v>464</v>
-      </c>
       <c r="E142" s="3">
-        <v>74</v>
+        <v>222595</v>
       </c>
       <c r="F142" s="3">
-        <v>0</v>
+        <v>9022</v>
       </c>
       <c r="G142" s="3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H142" s="3">
         <v>1</v>
@@ -7040,33 +6935,33 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L142" t="s">
-        <v>16</v>
+        <v>411</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B143" t="s">
         <v>465</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
+        <v>309</v>
+      </c>
+      <c r="D143" t="s">
         <v>466</v>
       </c>
-      <c r="C143" t="s">
-        <v>108</v>
-      </c>
-      <c r="D143" t="s">
-        <v>467</v>
-      </c>
       <c r="E143" s="3">
-        <v>25592</v>
+        <v>87</v>
       </c>
       <c r="F143" s="3">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G143" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H143" s="3">
         <v>1</v>
@@ -7075,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L143" t="s">
         <v>16</v>
@@ -7083,25 +6978,25 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B144" t="s">
         <v>468</v>
-      </c>
-      <c r="B144" t="s">
-        <v>469</v>
       </c>
       <c r="C144" t="s">
         <v>39</v>
       </c>
       <c r="D144" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E144" s="3">
-        <v>125374</v>
+        <v>110227</v>
       </c>
       <c r="F144" s="3">
-        <v>2544</v>
+        <v>1800</v>
       </c>
       <c r="G144" s="3">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="H144" s="3">
         <v>1</v>
@@ -7110,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>1213</v>
+        <v>691</v>
       </c>
       <c r="L144" t="s">
         <v>16</v>
@@ -7118,25 +7013,25 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B145" t="s">
         <v>471</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
+        <v>309</v>
+      </c>
+      <c r="D145" t="s">
         <v>472</v>
       </c>
-      <c r="C145" t="s">
-        <v>64</v>
-      </c>
-      <c r="D145" t="s">
-        <v>473</v>
-      </c>
       <c r="E145" s="3">
-        <v>23164</v>
+        <v>617</v>
       </c>
       <c r="F145" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G145" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H145" s="3">
         <v>1</v>
@@ -7145,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L145" t="s">
         <v>16</v>
@@ -7153,25 +7048,25 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B146" t="s">
         <v>474</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" t="s">
         <v>475</v>
       </c>
-      <c r="C146" t="s">
-        <v>318</v>
-      </c>
-      <c r="D146" t="s">
-        <v>476</v>
-      </c>
       <c r="E146" s="3">
-        <v>844</v>
+        <v>4759</v>
       </c>
       <c r="F146" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G146" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H146" s="3">
         <v>1</v>
@@ -7180,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L146" t="s">
         <v>16</v>
@@ -7188,25 +7083,25 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B147" t="s">
         <v>477</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
+        <v>309</v>
+      </c>
+      <c r="D147" t="s">
         <v>478</v>
       </c>
-      <c r="C147" t="s">
-        <v>108</v>
-      </c>
-      <c r="D147" t="s">
-        <v>479</v>
-      </c>
       <c r="E147" s="3">
-        <v>8968</v>
+        <v>428</v>
       </c>
       <c r="F147" s="3">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G147" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H147" s="3">
         <v>1</v>
@@ -7215,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L147" t="s">
         <v>16</v>
@@ -7223,60 +7118,60 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B148" t="s">
         <v>480</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s">
         <v>481</v>
       </c>
-      <c r="C148" t="s">
-        <v>407</v>
-      </c>
-      <c r="D148" t="s">
-        <v>482</v>
-      </c>
       <c r="E148" s="3">
-        <v>1</v>
+        <v>566966</v>
       </c>
       <c r="F148" s="3">
-        <v>0</v>
+        <v>18782</v>
       </c>
       <c r="G148" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H148" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L148" t="s">
-        <v>16</v>
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B149" t="s">
         <v>483</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
+        <v>289</v>
+      </c>
+      <c r="D149" t="s">
         <v>484</v>
       </c>
-      <c r="C149" t="s">
-        <v>39</v>
-      </c>
-      <c r="D149" t="s">
-        <v>485</v>
-      </c>
       <c r="E149" s="3">
-        <v>282666</v>
+        <v>23</v>
       </c>
       <c r="F149" s="3">
-        <v>4159</v>
+        <v>1</v>
       </c>
       <c r="G149" s="3">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="H149" s="3">
         <v>1</v>
@@ -7285,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="K149">
-        <v>2992</v>
+        <v>0</v>
       </c>
       <c r="L149" t="s">
         <v>16</v>
@@ -7293,34 +7188,34 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B150" t="s">
         <v>486</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
+        <v>122</v>
+      </c>
+      <c r="D150" t="s">
         <v>487</v>
       </c>
-      <c r="C150" t="s">
-        <v>488</v>
-      </c>
-      <c r="D150" t="s">
-        <v>489</v>
-      </c>
       <c r="E150" s="3">
+        <v>1237</v>
+      </c>
+      <c r="F150" s="3">
+        <v>51</v>
+      </c>
+      <c r="G150" s="3">
         <v>3</v>
       </c>
-      <c r="F150" s="3">
-        <v>0</v>
-      </c>
-      <c r="G150" s="3">
-        <v>0</v>
-      </c>
       <c r="H150" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L150" t="s">
         <v>16</v>
@@ -7328,34 +7223,34 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B151" t="s">
+        <v>489</v>
+      </c>
+      <c r="C151" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" t="s">
         <v>490</v>
       </c>
-      <c r="B151" t="s">
-        <v>491</v>
-      </c>
-      <c r="C151" t="s">
-        <v>308</v>
-      </c>
-      <c r="D151" t="s">
-        <v>492</v>
-      </c>
       <c r="E151" s="3">
-        <v>95</v>
+        <v>47483</v>
       </c>
       <c r="F151" s="3">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="G151" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H151" s="3">
         <v>1</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K151">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="L151" t="s">
         <v>16</v>
@@ -7363,25 +7258,25 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B152" t="s">
+        <v>492</v>
+      </c>
+      <c r="C152" t="s">
+        <v>309</v>
+      </c>
+      <c r="D152" t="s">
         <v>493</v>
       </c>
-      <c r="B152" t="s">
-        <v>494</v>
-      </c>
-      <c r="C152" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" t="s">
-        <v>495</v>
-      </c>
       <c r="E152" s="3">
-        <v>511312</v>
+        <v>8644</v>
       </c>
       <c r="F152" s="3">
-        <v>15167</v>
+        <v>0</v>
       </c>
       <c r="G152" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H152" s="3">
         <v>1</v>
@@ -7390,33 +7285,33 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>428</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B153" t="s">
+        <v>495</v>
+      </c>
+      <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" t="s">
         <v>496</v>
       </c>
-      <c r="B153" t="s">
-        <v>497</v>
-      </c>
-      <c r="C153" t="s">
-        <v>318</v>
-      </c>
-      <c r="D153" t="s">
-        <v>498</v>
-      </c>
       <c r="E153" s="3">
-        <v>428</v>
+        <v>472979</v>
       </c>
       <c r="F153" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G153" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H153" s="3">
         <v>1</v>
@@ -7425,42 +7320,42 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L153" t="s">
-        <v>16</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B154" t="s">
+        <v>498</v>
+      </c>
+      <c r="C154" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" t="s">
         <v>499</v>
       </c>
-      <c r="B154" t="s">
-        <v>500</v>
-      </c>
-      <c r="C154" t="s">
-        <v>396</v>
-      </c>
-      <c r="D154" t="s">
-        <v>501</v>
-      </c>
       <c r="E154" s="3">
+        <v>2883</v>
+      </c>
+      <c r="F154" s="3">
+        <v>42</v>
+      </c>
+      <c r="G154" s="3">
         <v>6</v>
       </c>
-      <c r="F154" s="3">
-        <v>0</v>
-      </c>
-      <c r="G154" s="3">
-        <v>0</v>
-      </c>
       <c r="H154" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L154" t="s">
         <v>16</v>
@@ -7468,25 +7363,25 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B155" t="s">
+        <v>501</v>
+      </c>
+      <c r="C155" t="s">
+        <v>293</v>
+      </c>
+      <c r="D155" t="s">
         <v>502</v>
       </c>
-      <c r="B155" t="s">
-        <v>503</v>
-      </c>
-      <c r="C155" t="s">
-        <v>379</v>
-      </c>
-      <c r="D155" t="s">
-        <v>504</v>
-      </c>
       <c r="E155" s="3">
-        <v>345</v>
+        <v>24890</v>
       </c>
       <c r="F155" s="3">
-        <v>6</v>
+        <v>1321</v>
       </c>
       <c r="G155" s="3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H155" s="3">
         <v>1</v>
@@ -7495,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L155" t="s">
         <v>16</v>
@@ -7503,25 +7398,25 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B156" t="s">
+        <v>504</v>
+      </c>
+      <c r="C156" t="s">
+        <v>139</v>
+      </c>
+      <c r="D156" t="s">
         <v>505</v>
       </c>
-      <c r="B156" t="s">
-        <v>506</v>
-      </c>
-      <c r="C156" t="s">
-        <v>308</v>
-      </c>
-      <c r="D156" t="s">
-        <v>507</v>
-      </c>
       <c r="E156" s="3">
-        <v>20</v>
+        <v>541</v>
       </c>
       <c r="F156" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G156" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156" s="3">
         <v>0</v>
@@ -7530,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L156" t="s">
         <v>16</v>
@@ -7538,34 +7433,34 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B157" t="s">
+        <v>507</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
         <v>508</v>
       </c>
-      <c r="B157" t="s">
-        <v>509</v>
-      </c>
-      <c r="C157" t="s">
-        <v>64</v>
-      </c>
-      <c r="D157" t="s">
-        <v>510</v>
-      </c>
       <c r="E157" s="3">
-        <v>10335</v>
+        <v>23164</v>
       </c>
       <c r="F157" s="3">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c r="G157" s="3">
+        <v>8</v>
+      </c>
+      <c r="H157" s="3">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
         <v>4</v>
-      </c>
-      <c r="H157" s="3">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>40</v>
       </c>
       <c r="L157" t="s">
         <v>16</v>
@@ -7573,34 +7468,34 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B158" t="s">
+        <v>510</v>
+      </c>
+      <c r="C158" t="s">
+        <v>39</v>
+      </c>
+      <c r="D158" t="s">
         <v>511</v>
       </c>
-      <c r="B158" t="s">
-        <v>512</v>
-      </c>
-      <c r="C158" t="s">
-        <v>22</v>
-      </c>
-      <c r="D158" t="s">
-        <v>513</v>
-      </c>
       <c r="E158" s="3">
-        <v>90458</v>
+        <v>60406</v>
       </c>
       <c r="F158" s="3">
-        <v>5026</v>
+        <v>1073</v>
       </c>
       <c r="G158" s="3">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H158" s="3">
         <v>1</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K158">
-        <v>1190</v>
+        <v>607</v>
       </c>
       <c r="L158" t="s">
         <v>16</v>
@@ -7608,34 +7503,34 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B159" t="s">
+        <v>513</v>
+      </c>
+      <c r="C159" t="s">
+        <v>60</v>
+      </c>
+      <c r="D159" t="s">
         <v>514</v>
       </c>
-      <c r="B159" t="s">
-        <v>515</v>
-      </c>
-      <c r="C159" t="s">
-        <v>318</v>
-      </c>
-      <c r="D159" t="s">
-        <v>516</v>
-      </c>
       <c r="E159" s="3">
-        <v>87</v>
+        <v>4899</v>
       </c>
       <c r="F159" s="3">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="G159" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H159" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L159" t="s">
         <v>16</v>
@@ -7643,25 +7538,25 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B160" t="s">
+        <v>516</v>
+      </c>
+      <c r="C160" t="s">
+        <v>399</v>
+      </c>
+      <c r="D160" t="s">
         <v>517</v>
       </c>
-      <c r="B160" t="s">
-        <v>518</v>
-      </c>
-      <c r="C160" t="s">
-        <v>108</v>
-      </c>
-      <c r="D160" t="s">
-        <v>519</v>
-      </c>
       <c r="E160" s="3">
-        <v>4759</v>
+        <v>88</v>
       </c>
       <c r="F160" s="3">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="G160" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H160" s="3">
         <v>1</v>
@@ -7670,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L160" t="s">
         <v>16</v>
@@ -7678,25 +7573,25 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B161" t="s">
+        <v>519</v>
+      </c>
+      <c r="C161" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" t="s">
         <v>520</v>
       </c>
-      <c r="B161" t="s">
-        <v>521</v>
-      </c>
-      <c r="C161" t="s">
-        <v>244</v>
-      </c>
-      <c r="D161" t="s">
-        <v>522</v>
-      </c>
       <c r="E161" s="3">
-        <v>39</v>
+        <v>8968</v>
       </c>
       <c r="F161" s="3">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G161" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H161" s="3">
         <v>1</v>
@@ -7705,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L161" t="s">
         <v>16</v>
@@ -7713,34 +7608,34 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B162" t="s">
+        <v>522</v>
+      </c>
+      <c r="C162" t="s">
+        <v>309</v>
+      </c>
+      <c r="D162" t="s">
         <v>523</v>
       </c>
-      <c r="B162" t="s">
-        <v>524</v>
-      </c>
-      <c r="C162" t="s">
-        <v>56</v>
-      </c>
-      <c r="D162" t="s">
-        <v>525</v>
-      </c>
       <c r="E162" s="3">
-        <v>5854</v>
+        <v>4640</v>
       </c>
       <c r="F162" s="3">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="G162" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H162" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L162" t="s">
         <v>16</v>
@@ -7748,25 +7643,25 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B163" t="s">
+        <v>525</v>
+      </c>
+      <c r="C163" t="s">
+        <v>122</v>
+      </c>
+      <c r="D163" t="s">
         <v>526</v>
       </c>
-      <c r="B163" t="s">
-        <v>527</v>
-      </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>528</v>
-      </c>
       <c r="E163" s="3">
-        <v>472979</v>
+        <v>2078</v>
       </c>
       <c r="F163" s="3">
-        <v>20185</v>
+        <v>44</v>
       </c>
       <c r="G163" s="3">
-        <v>515</v>
+        <v>9</v>
       </c>
       <c r="H163" s="3">
         <v>1</v>
@@ -7775,42 +7670,42 @@
         <v>0</v>
       </c>
       <c r="K163">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="L163" t="s">
-        <v>428</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B164" t="s">
+        <v>528</v>
+      </c>
+      <c r="C164" t="s">
+        <v>90</v>
+      </c>
+      <c r="D164" t="s">
         <v>529</v>
       </c>
-      <c r="B164" t="s">
-        <v>530</v>
-      </c>
-      <c r="C164" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164" t="s">
-        <v>531</v>
-      </c>
       <c r="E164" s="3">
-        <v>110227</v>
+        <v>5194</v>
       </c>
       <c r="F164" s="3">
-        <v>1800</v>
+        <v>299</v>
       </c>
       <c r="G164" s="3">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="H164" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164">
-        <v>691</v>
+        <v>83</v>
       </c>
       <c r="L164" t="s">
         <v>16</v>
@@ -7818,25 +7713,25 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B165" t="s">
+        <v>531</v>
+      </c>
+      <c r="C165" t="s">
+        <v>366</v>
+      </c>
+      <c r="D165" t="s">
         <v>532</v>
       </c>
-      <c r="B165" t="s">
-        <v>533</v>
-      </c>
-      <c r="C165" t="s">
-        <v>318</v>
-      </c>
-      <c r="D165" t="s">
-        <v>534</v>
-      </c>
       <c r="E165" s="3">
-        <v>4640</v>
+        <v>345</v>
       </c>
       <c r="F165" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G165" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
@@ -7853,25 +7748,25 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B166" t="s">
+        <v>534</v>
+      </c>
+      <c r="C166" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" t="s">
         <v>535</v>
       </c>
-      <c r="B166" t="s">
-        <v>536</v>
-      </c>
-      <c r="C166" t="s">
-        <v>108</v>
-      </c>
-      <c r="D166" t="s">
-        <v>537</v>
-      </c>
       <c r="E166" s="3">
-        <v>3080</v>
+        <v>25592</v>
       </c>
       <c r="F166" s="3">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="G166" s="3">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H166" s="3">
         <v>1</v>
@@ -7880,394 +7775,9 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="L166" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B167" t="s">
-        <v>539</v>
-      </c>
-      <c r="C167" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" t="s">
-        <v>540</v>
-      </c>
-      <c r="E167" s="3">
-        <v>4183126</v>
-      </c>
-      <c r="F167" s="3">
-        <v>49430</v>
-      </c>
-      <c r="G167" s="3">
-        <v>5701</v>
-      </c>
-      <c r="H167" s="3">
-        <v>1</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <v>1196</v>
-      </c>
-      <c r="L167" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B168" t="s">
-        <v>542</v>
-      </c>
-      <c r="C168" t="s">
-        <v>39</v>
-      </c>
-      <c r="D168" t="s">
-        <v>543</v>
-      </c>
-      <c r="E168" s="3">
-        <v>125335</v>
-      </c>
-      <c r="F168" s="3">
-        <v>3458</v>
-      </c>
-      <c r="G168" s="3">
-        <v>566</v>
-      </c>
-      <c r="H168" s="3">
-        <v>1</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>1955</v>
-      </c>
-      <c r="L168" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B169" t="s">
-        <v>545</v>
-      </c>
-      <c r="C169" t="s">
-        <v>108</v>
-      </c>
-      <c r="D169" t="s">
-        <v>546</v>
-      </c>
-      <c r="E169" s="3">
-        <v>2883</v>
-      </c>
-      <c r="F169" s="3">
-        <v>42</v>
-      </c>
-      <c r="G169" s="3">
-        <v>6</v>
-      </c>
-      <c r="H169" s="3">
-        <v>1</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>6</v>
-      </c>
-      <c r="L169" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
-      <c r="A170" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B170" t="s">
-        <v>548</v>
-      </c>
-      <c r="C170" t="s">
-        <v>304</v>
-      </c>
-      <c r="D170" t="s">
-        <v>549</v>
-      </c>
-      <c r="E170" s="3">
-        <v>24890</v>
-      </c>
-      <c r="F170" s="3">
-        <v>1321</v>
-      </c>
-      <c r="G170" s="3">
-        <v>34</v>
-      </c>
-      <c r="H170" s="3">
-        <v>1</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>154</v>
-      </c>
-      <c r="L170" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B171" t="s">
-        <v>551</v>
-      </c>
-      <c r="C171" t="s">
-        <v>318</v>
-      </c>
-      <c r="D171" t="s">
-        <v>552</v>
-      </c>
-      <c r="E171" s="3">
-        <v>8644</v>
-      </c>
-      <c r="F171" s="3">
-        <v>0</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0</v>
-      </c>
-      <c r="H171" s="3">
-        <v>1</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="B172" t="s">
-        <v>554</v>
-      </c>
-      <c r="C172" t="s">
-        <v>222</v>
-      </c>
-      <c r="D172" t="s">
-        <v>555</v>
-      </c>
-      <c r="E172" s="3">
-        <v>324</v>
-      </c>
-      <c r="F172" s="3">
-        <v>17</v>
-      </c>
-      <c r="G172" s="3">
-        <v>1</v>
-      </c>
-      <c r="H172" s="3">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>2</v>
-      </c>
-      <c r="L172" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B173" t="s">
-        <v>557</v>
-      </c>
-      <c r="C173" t="s">
-        <v>318</v>
-      </c>
-      <c r="D173" t="s">
-        <v>558</v>
-      </c>
-      <c r="E173" s="3">
-        <v>2053</v>
-      </c>
-      <c r="F173" s="3">
-        <v>0</v>
-      </c>
-      <c r="G173" s="3">
-        <v>0</v>
-      </c>
-      <c r="H173" s="3">
-        <v>1</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>0</v>
-      </c>
-      <c r="L173" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B174" t="s">
-        <v>560</v>
-      </c>
-      <c r="C174" t="s">
-        <v>308</v>
-      </c>
-      <c r="D174" t="s">
-        <v>561</v>
-      </c>
-      <c r="E174" s="3">
-        <v>239</v>
-      </c>
-      <c r="F174" s="3">
-        <v>2</v>
-      </c>
-      <c r="G174" s="3">
-        <v>0</v>
-      </c>
-      <c r="H174" s="3">
-        <v>1</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-      <c r="L174" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="A175" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B175" t="s">
-        <v>563</v>
-      </c>
-      <c r="C175" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" t="s">
-        <v>564</v>
-      </c>
-      <c r="E175" s="3">
-        <v>222595</v>
-      </c>
-      <c r="F175" s="3">
-        <v>9022</v>
-      </c>
-      <c r="G175" s="3">
-        <v>147</v>
-      </c>
-      <c r="H175" s="3">
-        <v>1</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175">
-        <v>130</v>
-      </c>
-      <c r="L175" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="A176" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B176" t="s">
-        <v>566</v>
-      </c>
-      <c r="C176" t="s">
-        <v>304</v>
-      </c>
-      <c r="D176" t="s">
-        <v>567</v>
-      </c>
-      <c r="E176" s="3">
-        <v>69498</v>
-      </c>
-      <c r="F176" s="3">
-        <v>1189</v>
-      </c>
-      <c r="G176" s="3">
-        <v>45</v>
-      </c>
-      <c r="H176" s="3">
-        <v>1</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176">
-        <v>220</v>
-      </c>
-      <c r="L176" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
-      <c r="A177" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B177" t="s">
-        <v>569</v>
-      </c>
-      <c r="C177" t="s">
-        <v>308</v>
-      </c>
-      <c r="D177" t="s">
-        <v>570</v>
-      </c>
-      <c r="E177" s="3">
-        <v>23</v>
-      </c>
-      <c r="F177" s="3">
-        <v>1</v>
-      </c>
-      <c r="G177" s="3">
-        <v>0</v>
-      </c>
-      <c r="H177" s="3">
-        <v>1</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
-      <c r="L177" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8437,17 +7947,6 @@
     <hyperlink ref="A164" r:id="rId162"/>
     <hyperlink ref="A165" r:id="rId163"/>
     <hyperlink ref="A166" r:id="rId164"/>
-    <hyperlink ref="A167" r:id="rId165"/>
-    <hyperlink ref="A168" r:id="rId166"/>
-    <hyperlink ref="A169" r:id="rId167"/>
-    <hyperlink ref="A170" r:id="rId168"/>
-    <hyperlink ref="A171" r:id="rId169"/>
-    <hyperlink ref="A172" r:id="rId170"/>
-    <hyperlink ref="A173" r:id="rId171"/>
-    <hyperlink ref="A174" r:id="rId172"/>
-    <hyperlink ref="A175" r:id="rId173"/>
-    <hyperlink ref="A176" r:id="rId174"/>
-    <hyperlink ref="A177" r:id="rId175"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8455,7 +7954,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8486,7 +7985,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>48993</v>
+        <v>48903</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8494,7 +7993,7 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>40141</v>
+        <v>39970</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8502,7 +8001,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>39502</v>
+        <v>39092</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8515,7 +8014,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>33983</v>
@@ -8523,63 +8022,63 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>9893</v>
+        <v>12916</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B9">
-        <v>8437</v>
+        <v>9835</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="B10">
-        <v>6929</v>
+        <v>8377</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B11">
-        <v>5802</v>
+        <v>6679</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B12">
-        <v>5586</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B13">
-        <v>5133</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B14">
-        <v>5030</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B15">
         <v>2272</v>
@@ -8587,7 +8086,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B16">
         <v>836</v>
@@ -8595,31 +8094,31 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B17">
-        <v>328</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B18">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B19">
-        <v>206</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B20">
         <v>120</v>
@@ -8627,15 +8126,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -8643,7 +8142,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -8651,23 +8150,23 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -8675,15 +8174,15 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -8691,7 +8190,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -8702,14 +8201,6 @@
         <v>423</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B31">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="514">
   <si>
     <t>URL</t>
   </si>
@@ -68,6 +68,57 @@
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
+  </si>
+  <si>
+    <t>RETRAITES : Le ras-le-bol est général.</t>
+  </si>
+  <si>
+    <t>2019-12-22T19:50:20.000Z</t>
+  </si>
+  <si>
+    <t>['JEAN-LUC MÉLENCHON']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
   </si>
   <si>
@@ -77,69 +128,6 @@
     <t>2019-12-09T17:00:07.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
-  </si>
-  <si>
-    <t>RETRAITES : Le ras-le-bol est général.</t>
-  </si>
-  <si>
-    <t>2019-12-22T19:50:20.000Z</t>
-  </si>
-  <si>
-    <t>['JEAN-LUC MÉLENCHON']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=77xHRWQWwzg</t>
-  </si>
-  <si>
-    <t>Juan Branco. Isadora et Jeremie préparent un show...</t>
-  </si>
-  <si>
-    <t>Isadora Duncan</t>
-  </si>
-  <si>
-    <t>2019-12-19T10:50:37.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
   </si>
   <si>
@@ -152,15 +140,6 @@
     <t>2019-04-06T13:45:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
-  </si>
-  <si>
-    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
-  </si>
-  <si>
-    <t>2019-12-09T10:30:58.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
   </si>
   <si>
@@ -215,100 +194,487 @@
     <t>2019-12-11T10:23:35.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
   </si>
   <si>
     <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
   </si>
   <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
     <t>2019-12-09T11:12:12.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jg-IR6njtdM</t>
-  </si>
-  <si>
-    <t>Organisons une veillée GJ devant l'IGPN! Images Sam Vench. Questions Sam Vench et Isadora</t>
-  </si>
-  <si>
-    <t>2019-12-27T19:50:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
+  </si>
+  <si>
+    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
+  </si>
+  <si>
+    <t>2019-12-11T21:32:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H-jpGp862t0</t>
+  </si>
+  <si>
+    <t>UN HACKER DENONCE LE DARK NET LA MANIPULATION DE L ISLAM ET LE TRAFFIC NUMERIQUE !!!</t>
+  </si>
+  <si>
+    <t>ANTILLUMINATI KEMAR 2</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:25:36.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kob-ZZSn_2A</t>
+  </si>
+  <si>
+    <t>PACTE SATANIQUE AVEC LUCIFER PAR LE SANG POUR LA GLOIRE EN FRANCE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-15T11:01:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oTmENRbauHw</t>
+  </si>
+  <si>
+    <t>COLUCHE UN HUMOURISTE TUE PAR LES ELITES PARCE QU IL DENONCAIT LA POLITIQUE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-13T11:14:24.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B4I6NTggH04</t>
+  </si>
+  <si>
+    <t>FRANCE 2 : EXORCISME DE DEMONS EN DIRECT A LA TELEVISION FRANCAISE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-16T11:03:30.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AXfch8K4UQU</t>
+  </si>
+  <si>
+    <t>EXPLICATION DE PRATIQUE MAGIQUE OCCULTE SATANIQUE PAR UN ANCIEN SORCIER REPENTI !!!</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:09:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XfZF5AT3UDo</t>
+  </si>
+  <si>
+    <t>RESEAU PEDOPHILE INTERNATIONALE SNUFF MOVIE ORGANISE PAS DES MILITAIRES ET POLICIERS DE FRANCE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:17:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KXlmzXtG4-A</t>
+  </si>
+  <si>
+    <t>RITUEL OCCULTE DES SATANISTES PARLENT AVEC LE DIABLE EN FRANCE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-18T11:00:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aQ8uCEx-rSk</t>
+  </si>
+  <si>
+    <t>FAT JOE DENONCE LA MAFIA GAY DANS L INDUSTRIE MUSICALE DE LA DEBAUCHE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-22T11:29:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
+  </si>
+  <si>
+    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
+  </si>
+  <si>
+    <t>2019-12-13T20:13:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HQBmk6j_bYc</t>
+  </si>
+  <si>
+    <t>AU SEUIL DE LA LOGE MACONNIQUE INITIATION DU RITE ECOSSAIS EN LIVE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T11:51:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
+  </si>
+  <si>
+    <t>La réforme des retraites par les nuls</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:21:48.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
@@ -320,345 +686,6 @@
     <t>2019-12-09T15:30:03.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
-  </si>
-  <si>
-    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
-  </si>
-  <si>
-    <t>2019-12-11T21:32:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=H-jpGp862t0</t>
-  </si>
-  <si>
-    <t>UN HACKER DENONCE LE DARK NET LA MANIPULATION DE L ISLAM ET LE TRAFFIC NUMERIQUE !!!</t>
-  </si>
-  <si>
-    <t>ANTILLUMINATI KEMAR 2</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:25:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kob-ZZSn_2A</t>
-  </si>
-  <si>
-    <t>PACTE SATANIQUE AVEC LUCIFER PAR LE SANG POUR LA GLOIRE EN FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-15T11:01:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oTmENRbauHw</t>
-  </si>
-  <si>
-    <t>COLUCHE UN HUMOURISTE TUE PAR LES ELITES PARCE QU IL DENONCAIT LA POLITIQUE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-13T11:14:24.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B4I6NTggH04</t>
-  </si>
-  <si>
-    <t>FRANCE 2 : EXORCISME DE DEMONS EN DIRECT A LA TELEVISION FRANCAISE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-16T11:03:30.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AXfch8K4UQU</t>
-  </si>
-  <si>
-    <t>EXPLICATION DE PRATIQUE MAGIQUE OCCULTE SATANIQUE PAR UN ANCIEN SORCIER REPENTI !!!</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:09:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XfZF5AT3UDo</t>
-  </si>
-  <si>
-    <t>RESEAU PEDOPHILE INTERNATIONALE SNUFF MOVIE ORGANISE PAS DES MILITAIRES ET POLICIERS DE FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:17:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KXlmzXtG4-A</t>
-  </si>
-  <si>
-    <t>RITUEL OCCULTE DES SATANISTES PARLENT AVEC LE DIABLE EN FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-18T11:00:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aQ8uCEx-rSk</t>
-  </si>
-  <si>
-    <t>FAT JOE DENONCE LA MAFIA GAY DANS L INDUSTRIE MUSICALE DE LA DEBAUCHE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-22T11:29:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sjmFJdoZX3Y</t>
-  </si>
-  <si>
-    <t>Versailles-Paris Pin Pon Pin Pon, v'la le bras aérien!</t>
-  </si>
-  <si>
-    <t>2019-05-26T08:15:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HQBmk6j_bYc</t>
-  </si>
-  <si>
-    <t>AU SEUIL DE LA LOGE MACONNIQUE INITIATION DU RITE ECOSSAIS EN LIVE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T11:51:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
   </si>
   <si>
@@ -737,6 +764,18 @@
     <t>2019-12-10T19:18:07.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
   </si>
   <si>
@@ -803,13 +842,169 @@
     <t>2019-12-28T08:24:58.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=y4PduURvOpw</t>
-  </si>
-  <si>
-    <t>L’exécutif à l’épreuve de la grève   Journal du 9 décembre 2019   Vidéo dailymotion</t>
-  </si>
-  <si>
-    <t>2019-12-09T19:39:35.000Z</t>
+    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T19:13:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
+  </si>
+  <si>
+    <t>comment lire les articles du parisien gratuitement</t>
+  </si>
+  <si>
+    <t>Daniel Dupont</t>
+  </si>
+  <si>
+    <t>2019-12-19T11:02:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
+  </si>
+  <si>
+    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T18:41:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
+  </si>
+  <si>
+    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T18:44:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
+  </si>
+  <si>
+    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T19:07:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
+  </si>
+  <si>
+    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:48:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
+  </si>
+  <si>
+    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
+  </si>
+  <si>
+    <t>2019-12-11T17:08:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
+  </si>
+  <si>
+    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
+  </si>
+  <si>
+    <t>2019-12-12T20:47:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
+  </si>
+  <si>
+    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T20:32:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
+  </si>
+  <si>
+    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
+  </si>
+  <si>
+    <t>Ministère Territoires et Collectivités</t>
+  </si>
+  <si>
+    <t>2019-12-09T12:38:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
+  </si>
+  <si>
+    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
+  </si>
+  <si>
+    <t>2019-12-10T11:04:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
@@ -818,178 +1013,238 @@
     <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
   </si>
   <si>
-    <t>Daniel Dupont</t>
-  </si>
-  <si>
     <t>2019-11-26T22:20:47.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
-  </si>
-  <si>
-    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T18:41:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
-  </si>
-  <si>
-    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
-  </si>
-  <si>
-    <t>2019-12-11T17:08:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=plFHUOiKSYc</t>
-  </si>
-  <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>2019-12-09T09:45:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
-  </si>
-  <si>
-    <t>2019-12-10T11:04:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
+  </si>
+  <si>
+    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:09:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
+  </si>
+  <si>
+    <t>Bientôt de la publicité sur Netflix ?</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:17:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
@@ -1001,6 +1256,207 @@
     <t>2019-11-24T14:47:02.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=HXiOLJ48sXc</t>
   </si>
   <si>
@@ -1010,58 +1466,67 @@
     <t>2019-12-06T18:35:20.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
-  </si>
-  <si>
-    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:09:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4iWhEvPavLA</t>
-  </si>
-  <si>
-    <t>Grève contre la réforme des retraites: les syndicats reprennent des couleurs</t>
-  </si>
-  <si>
-    <t>2019-12-09T16:55:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
@@ -1073,268 +1538,13 @@
     <t>2019-12-06T09:09:52.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aI1-A3NMwTU</t>
-  </si>
-  <si>
-    <t>Sophie Cluzel, secrétaire d'État chargée des Personnes handicapées.</t>
-  </si>
-  <si>
-    <t>Secrétariat d'Etat chargé de l'égalité</t>
-  </si>
-  <si>
-    <t>2018-12-12T15:20:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L59Ly3Z5izo</t>
-  </si>
-  <si>
-    <t>Michaël Youn (1) soyez constructifs dans vos commentaires !</t>
-  </si>
-  <si>
-    <t>2019-03-27T22:40:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
@@ -1344,285 +1554,6 @@
   </si>
   <si>
     <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Es5ACMKZhV0</t>
-  </si>
-  <si>
-    <t>François le Français... euh non, l’ami des oligarques...</t>
-  </si>
-  <si>
-    <t>2019-04-28T13:50:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7UK_MNFnqQg</t>
-  </si>
-  <si>
-    <t>Quotas de personnes handicapées: Sophie Cluzel déplore un système trop complexe pour les entreprises</t>
-  </si>
-  <si>
-    <t>2018-09-07T09:19:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X9orZxyu58E</t>
-  </si>
-  <si>
-    <t>Pot pourri médiatique</t>
-  </si>
-  <si>
-    <t>2019-03-21T23:00:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d8RDTEZyk0w</t>
-  </si>
-  <si>
-    <t>Un prêtre, un psy... tous GJ</t>
-  </si>
-  <si>
-    <t>2019-04-19T19:34:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OdVDdrt9vho</t>
-  </si>
-  <si>
-    <t>La Licra cherche des réponses... à des questions qu'elle a pas l'habitude qu'on lui pose!</t>
-  </si>
-  <si>
-    <t>2018-10-17T23:18:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
-  </si>
-  <si>
-    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
-  </si>
-  <si>
-    <t>2019-12-03T11:35:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
-  </si>
-  <si>
-    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
-  </si>
-  <si>
-    <t>2019-11-22T03:31:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1S_HIXjWIGo</t>
-  </si>
-  <si>
-    <t>10 mesures du gouvernement pour lutter contre les violences sexistes et sexuelles</t>
-  </si>
-  <si>
-    <t>2018-11-22T17:23:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1983,7 +1914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2084,19 +2015,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>113046</v>
+        <v>106303</v>
       </c>
       <c r="F4" s="3">
-        <v>8422</v>
+        <v>4496</v>
       </c>
       <c r="G4" s="3">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -2105,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>61</v>
+        <v>647</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -2113,25 +2044,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>106303</v>
+        <v>75707</v>
       </c>
       <c r="F5" s="3">
-        <v>4496</v>
+        <v>4287</v>
       </c>
       <c r="G5" s="3">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -2140,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -2154,66 +2085,66 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="3">
-        <v>75707</v>
+        <v>85071</v>
       </c>
       <c r="F6" s="3">
-        <v>4287</v>
+        <v>4248</v>
       </c>
       <c r="G6" s="3">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>628</v>
+        <v>464</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>85071</v>
+        <v>62509</v>
       </c>
       <c r="F7" s="3">
-        <v>4248</v>
+        <v>4841</v>
       </c>
       <c r="G7" s="3">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="H7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2224,19 +2155,19 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="3">
-        <v>62509</v>
+        <v>52652</v>
       </c>
       <c r="F8" s="3">
-        <v>4841</v>
+        <v>7833</v>
       </c>
       <c r="G8" s="3">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -2245,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>526</v>
+        <v>346</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2259,31 +2190,31 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>52652</v>
+        <v>113046</v>
       </c>
       <c r="F9" s="3">
-        <v>7833</v>
+        <v>8422</v>
       </c>
       <c r="G9" s="3">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2300,13 +2231,13 @@
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>41934</v>
+        <v>269112</v>
       </c>
       <c r="F10" s="3">
-        <v>1492</v>
+        <v>5243</v>
       </c>
       <c r="G10" s="3">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -2315,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>446</v>
+        <v>246</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -2329,19 +2260,19 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
       <c r="E11" s="3">
-        <v>269112</v>
+        <v>24429</v>
       </c>
       <c r="F11" s="3">
-        <v>5243</v>
+        <v>2588</v>
       </c>
       <c r="G11" s="3">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -2350,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>246</v>
+        <v>588</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -2358,69 +2289,69 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" s="3">
-        <v>35734</v>
+        <v>23702</v>
       </c>
       <c r="F12" s="3">
-        <v>3785</v>
+        <v>3315</v>
       </c>
       <c r="G12" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1073</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="3">
-        <v>24429</v>
+        <v>13867</v>
       </c>
       <c r="F13" s="3">
-        <v>2588</v>
+        <v>934</v>
       </c>
       <c r="G13" s="3">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>588</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -2434,63 +2365,63 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3">
-        <v>23702</v>
+        <v>13154</v>
       </c>
       <c r="F14" s="3">
-        <v>3315</v>
+        <v>1256</v>
       </c>
       <c r="G14" s="3">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>13867</v>
+        <v>12004</v>
       </c>
       <c r="F15" s="3">
-        <v>934</v>
+        <v>691</v>
       </c>
       <c r="G15" s="3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -2498,25 +2429,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3">
-        <v>13154</v>
+        <v>9999</v>
       </c>
       <c r="F16" s="3">
-        <v>1256</v>
+        <v>357</v>
       </c>
       <c r="G16" s="3">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -2525,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -2533,25 +2464,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="3">
-        <v>12004</v>
+        <v>7772</v>
       </c>
       <c r="F17" s="3">
-        <v>691</v>
+        <v>239</v>
       </c>
       <c r="G17" s="3">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -2560,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -2574,19 +2505,19 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
       <c r="E18" s="3">
-        <v>11977</v>
+        <v>5880</v>
       </c>
       <c r="F18" s="3">
-        <v>324</v>
+        <v>594</v>
       </c>
       <c r="G18" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -2595,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2603,25 +2534,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
         <v>70</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
       <c r="E19" s="3">
-        <v>9999</v>
+        <v>5962</v>
       </c>
       <c r="F19" s="3">
-        <v>357</v>
+        <v>765</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -2630,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -2638,25 +2569,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>75</v>
       </c>
       <c r="E20" s="3">
-        <v>7772</v>
+        <v>5563</v>
       </c>
       <c r="F20" s="3">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="G20" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -2665,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -2679,19 +2610,19 @@
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="3">
-        <v>5880</v>
+        <v>5083</v>
       </c>
       <c r="F21" s="3">
         <v>594</v>
       </c>
       <c r="G21" s="3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -2700,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -2714,19 +2645,19 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="3">
-        <v>7431</v>
+        <v>4508</v>
       </c>
       <c r="F22" s="3">
-        <v>661</v>
+        <v>446</v>
       </c>
       <c r="G22" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -2735,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -2749,19 +2680,19 @@
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="3">
-        <v>6263</v>
+        <v>4358</v>
       </c>
       <c r="F23" s="3">
-        <v>444</v>
+        <v>230</v>
       </c>
       <c r="G23" s="3">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -2770,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -2784,19 +2715,19 @@
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>87</v>
       </c>
       <c r="E24" s="3">
-        <v>5962</v>
+        <v>7431</v>
       </c>
       <c r="F24" s="3">
-        <v>765</v>
+        <v>661</v>
       </c>
       <c r="G24" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -2805,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -2819,28 +2750,28 @@
         <v>89</v>
       </c>
       <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
         <v>90</v>
       </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
       <c r="E25" s="3">
-        <v>5563</v>
+        <v>11977</v>
       </c>
       <c r="F25" s="3">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>13</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>28</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -2848,34 +2779,34 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
         <v>92</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
         <v>93</v>
       </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>94</v>
-      </c>
       <c r="E26" s="3">
-        <v>5083</v>
+        <v>3484</v>
       </c>
       <c r="F26" s="3">
-        <v>594</v>
+        <v>224</v>
       </c>
       <c r="G26" s="3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -2883,25 +2814,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
         <v>95</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
         <v>96</v>
       </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
       <c r="E27" s="3">
-        <v>4508</v>
+        <v>3021</v>
       </c>
       <c r="F27" s="3">
-        <v>446</v>
+        <v>580</v>
       </c>
       <c r="G27" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -2910,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -2918,34 +2849,34 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="3">
-        <v>4463</v>
+        <v>2959</v>
       </c>
       <c r="F28" s="3">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="G28" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -2959,19 +2890,19 @@
         <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="3">
-        <v>4358</v>
+        <v>2848</v>
       </c>
       <c r="F29" s="3">
-        <v>230</v>
+        <v>523</v>
       </c>
       <c r="G29" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2980,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -2994,28 +2925,28 @@
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
         <v>106</v>
       </c>
       <c r="E30" s="3">
-        <v>3484</v>
+        <v>2352</v>
       </c>
       <c r="F30" s="3">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="G30" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>10</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -3029,19 +2960,19 @@
         <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E31" s="3">
-        <v>3021</v>
+        <v>1803</v>
       </c>
       <c r="F31" s="3">
-        <v>580</v>
+        <v>69</v>
       </c>
       <c r="G31" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -3050,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -3058,25 +2989,25 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" s="3">
-        <v>2959</v>
+        <v>1663</v>
       </c>
       <c r="F32" s="3">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="G32" s="3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -3093,25 +3024,25 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E33" s="3">
-        <v>2848</v>
+        <v>1593</v>
       </c>
       <c r="F33" s="3">
-        <v>523</v>
+        <v>331</v>
       </c>
       <c r="G33" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -3128,25 +3059,25 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E34" s="3">
-        <v>2352</v>
+        <v>1556</v>
       </c>
       <c r="F34" s="3">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -3155,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -3163,25 +3094,25 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E35" s="3">
-        <v>1803</v>
+        <v>1542</v>
       </c>
       <c r="F35" s="3">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G35" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -3190,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -3198,25 +3129,25 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
       </c>
       <c r="E36" s="3">
-        <v>1663</v>
+        <v>1517</v>
       </c>
       <c r="F36" s="3">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="G36" s="3">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -3225,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -3239,19 +3170,19 @@
         <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="3">
-        <v>12342</v>
+        <v>1386</v>
       </c>
       <c r="F37" s="3">
-        <v>330</v>
+        <v>47</v>
       </c>
       <c r="G37" s="3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -3260,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -3274,19 +3205,19 @@
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>1593</v>
+        <v>1372</v>
       </c>
       <c r="F38" s="3">
-        <v>331</v>
+        <v>172</v>
       </c>
       <c r="G38" s="3">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -3309,19 +3240,19 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
         <v>136</v>
       </c>
       <c r="E39" s="3">
-        <v>1556</v>
+        <v>1330</v>
       </c>
       <c r="F39" s="3">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G39" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -3330,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -3350,10 +3281,10 @@
         <v>140</v>
       </c>
       <c r="E40" s="3">
-        <v>1542</v>
+        <v>1274</v>
       </c>
       <c r="F40" s="3">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -3365,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -3379,19 +3310,19 @@
         <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
         <v>143</v>
       </c>
       <c r="E41" s="3">
-        <v>1517</v>
+        <v>1254</v>
       </c>
       <c r="F41" s="3">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="G41" s="3">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -3400,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -3414,19 +3345,19 @@
         <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
         <v>146</v>
       </c>
       <c r="E42" s="3">
-        <v>1493</v>
+        <v>12342</v>
       </c>
       <c r="F42" s="3">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="G42" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3435,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3449,19 +3380,19 @@
         <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E43" s="3">
-        <v>1386</v>
+        <v>1188</v>
       </c>
       <c r="F43" s="3">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="G43" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3470,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -3478,25 +3409,25 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E44" s="3">
-        <v>1372</v>
+        <v>1185</v>
       </c>
       <c r="F44" s="3">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="G44" s="3">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3505,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3513,25 +3444,25 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E45" s="3">
-        <v>1330</v>
+        <v>1084</v>
       </c>
       <c r="F45" s="3">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="G45" s="3">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3540,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -3548,25 +3479,25 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E46" s="3">
-        <v>1254</v>
+        <v>1080</v>
       </c>
       <c r="F46" s="3">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="G46" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3575,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -3583,25 +3514,25 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
         <v>162</v>
       </c>
       <c r="E47" s="3">
-        <v>1188</v>
+        <v>995</v>
       </c>
       <c r="F47" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3610,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -3624,19 +3555,19 @@
         <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
         <v>165</v>
       </c>
       <c r="E48" s="3">
-        <v>1084</v>
+        <v>987</v>
       </c>
       <c r="F48" s="3">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G48" s="3">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3645,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -3659,19 +3590,19 @@
         <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
         <v>168</v>
       </c>
       <c r="E49" s="3">
-        <v>995</v>
+        <v>961</v>
       </c>
       <c r="F49" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G49" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3680,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
@@ -3694,19 +3625,19 @@
         <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
         <v>171</v>
       </c>
       <c r="E50" s="3">
-        <v>987</v>
+        <v>957</v>
       </c>
       <c r="F50" s="3">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G50" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3715,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
@@ -3729,19 +3660,19 @@
         <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
         <v>174</v>
       </c>
       <c r="E51" s="3">
-        <v>961</v>
+        <v>912</v>
       </c>
       <c r="F51" s="3">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="G51" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3750,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
@@ -3764,19 +3695,19 @@
         <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
         <v>177</v>
       </c>
       <c r="E52" s="3">
-        <v>957</v>
+        <v>836</v>
       </c>
       <c r="F52" s="3">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="G52" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3785,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
@@ -3799,19 +3730,19 @@
         <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
         <v>180</v>
       </c>
       <c r="E53" s="3">
-        <v>912</v>
+        <v>810</v>
       </c>
       <c r="F53" s="3">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G53" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3820,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -3834,19 +3765,19 @@
         <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
         <v>183</v>
       </c>
       <c r="E54" s="3">
-        <v>836</v>
+        <v>791</v>
       </c>
       <c r="F54" s="3">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="G54" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3855,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -3869,19 +3800,19 @@
         <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
         <v>186</v>
       </c>
       <c r="E55" s="3">
-        <v>810</v>
+        <v>692</v>
       </c>
       <c r="F55" s="3">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G55" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3890,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -3904,28 +3835,28 @@
         <v>188</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="D56" t="s">
         <v>189</v>
       </c>
       <c r="E56" s="3">
-        <v>791</v>
+        <v>691</v>
       </c>
       <c r="F56" s="3">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
         <v>3</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>18</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -3939,19 +3870,19 @@
         <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
         <v>192</v>
       </c>
       <c r="E57" s="3">
-        <v>61816</v>
+        <v>691</v>
       </c>
       <c r="F57" s="3">
-        <v>782</v>
+        <v>130</v>
       </c>
       <c r="G57" s="3">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3960,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1247</v>
+        <v>0</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
@@ -3974,19 +3905,19 @@
         <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
         <v>195</v>
       </c>
       <c r="E58" s="3">
-        <v>691</v>
+        <v>653</v>
       </c>
       <c r="F58" s="3">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="G58" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3995,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
@@ -4009,19 +3940,19 @@
         <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
         <v>198</v>
       </c>
       <c r="E59" s="3">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="F59" s="3">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -4030,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
@@ -4044,19 +3975,19 @@
         <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
         <v>201</v>
       </c>
       <c r="E60" s="3">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F60" s="3">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="G60" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -4065,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
@@ -4079,7 +4010,7 @@
         <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
         <v>204</v>
@@ -4114,7 +4045,7 @@
         <v>206</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
         <v>207</v>
@@ -4149,7 +4080,7 @@
         <v>209</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
         <v>210</v>
@@ -4184,7 +4115,7 @@
         <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
         <v>213</v>
@@ -4219,19 +4150,19 @@
         <v>215</v>
       </c>
       <c r="C65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
         <v>216</v>
       </c>
-      <c r="D65" t="s">
-        <v>217</v>
-      </c>
       <c r="E65" s="3">
-        <v>366</v>
+        <v>1493</v>
       </c>
       <c r="F65" s="3">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -4240,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
@@ -4248,25 +4179,25 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B66" t="s">
         <v>218</v>
-      </c>
-      <c r="B66" t="s">
-        <v>219</v>
       </c>
       <c r="C66" t="s">
         <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E66" s="3">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="F66" s="3">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -4275,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -4283,34 +4214,34 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
         <v>221</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" t="s">
         <v>222</v>
       </c>
-      <c r="C67" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" t="s">
-        <v>223</v>
-      </c>
       <c r="E67" s="3">
-        <v>346</v>
+        <v>4463</v>
       </c>
       <c r="F67" s="3">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
@@ -4318,25 +4249,25 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" t="s">
         <v>224</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>225</v>
-      </c>
-      <c r="C68" t="s">
-        <v>122</v>
       </c>
       <c r="D68" t="s">
         <v>226</v>
       </c>
       <c r="E68" s="3">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="F68" s="3">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G68" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -4345,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -4359,16 +4290,16 @@
         <v>228</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
         <v>229</v>
       </c>
       <c r="E69" s="3">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="F69" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
@@ -4380,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
@@ -4394,19 +4325,19 @@
         <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
         <v>232</v>
       </c>
       <c r="E70" s="3">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="F70" s="3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G70" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4415,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
@@ -4429,28 +4360,28 @@
         <v>234</v>
       </c>
       <c r="C71" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" t="s">
         <v>235</v>
       </c>
-      <c r="D71" t="s">
-        <v>236</v>
-      </c>
       <c r="E71" s="3">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="F71" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G71" s="3">
+        <v>11</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <v>2</v>
-      </c>
-      <c r="H71" s="3">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>6</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
@@ -4458,25 +4389,25 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" t="s">
         <v>237</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" t="s">
         <v>238</v>
       </c>
-      <c r="C72" t="s">
-        <v>216</v>
-      </c>
-      <c r="D72" t="s">
-        <v>239</v>
-      </c>
       <c r="E72" s="3">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="F72" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G72" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4485,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
@@ -4493,22 +4424,22 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" t="s">
         <v>240</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" t="s">
         <v>241</v>
       </c>
-      <c r="C73" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" t="s">
-        <v>242</v>
-      </c>
       <c r="E73" s="3">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="F73" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G73" s="3">
         <v>2</v>
@@ -4520,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
@@ -4528,25 +4459,25 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B74" t="s">
         <v>243</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>244</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>245</v>
       </c>
-      <c r="D74" t="s">
-        <v>246</v>
-      </c>
       <c r="E74" s="3">
-        <v>2165</v>
+        <v>285</v>
       </c>
       <c r="F74" s="3">
-        <v>278</v>
+        <v>1</v>
       </c>
       <c r="G74" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4555,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
@@ -4563,25 +4494,25 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" t="s">
         <v>247</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" t="s">
         <v>248</v>
       </c>
-      <c r="C75" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" t="s">
-        <v>249</v>
-      </c>
       <c r="E75" s="3">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="F75" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G75" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4590,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
@@ -4598,22 +4529,22 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" t="s">
         <v>250</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>251</v>
-      </c>
-      <c r="C76" t="s">
-        <v>122</v>
       </c>
       <c r="D76" t="s">
         <v>252</v>
       </c>
       <c r="E76" s="3">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="F76" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -4625,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
@@ -4639,28 +4570,28 @@
         <v>254</v>
       </c>
       <c r="C77" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
         <v>255</v>
       </c>
       <c r="E77" s="3">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="F77" s="3">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G77" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
@@ -4674,19 +4605,19 @@
         <v>257</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E78" s="3">
-        <v>152</v>
+        <v>2165</v>
       </c>
       <c r="F78" s="3">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="G78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -4695,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
@@ -4703,22 +4634,22 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E79" s="3">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="F79" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -4730,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
@@ -4738,25 +4669,25 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E80" s="3">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="F80" s="3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G80" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4765,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
@@ -4773,34 +4704,34 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D81" t="s">
         <v>268</v>
       </c>
       <c r="E81" s="3">
-        <v>1162</v>
+        <v>170</v>
       </c>
       <c r="F81" s="3">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
@@ -4814,16 +4745,16 @@
         <v>270</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D82" t="s">
         <v>271</v>
       </c>
       <c r="E82" s="3">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F82" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
@@ -4835,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
@@ -4849,19 +4780,19 @@
         <v>273</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="D83" t="s">
         <v>274</v>
       </c>
       <c r="E83" s="3">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="F83" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4884,16 +4815,16 @@
         <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D84" t="s">
         <v>277</v>
       </c>
       <c r="E84" s="3">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="F84" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G84" s="3">
         <v>0</v>
@@ -4905,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -4919,19 +4850,19 @@
         <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="D85" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E85" s="3">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F85" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -4940,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
@@ -4948,22 +4879,22 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B86" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D86" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E86" s="3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F86" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G86" s="3">
         <v>0</v>
@@ -4975,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
@@ -4983,25 +4914,25 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D87" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E87" s="3">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F87" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -5010,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L87" t="s">
         <v>16</v>
@@ -5018,22 +4949,22 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C88" t="s">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="D88" t="s">
         <v>290</v>
       </c>
       <c r="E88" s="3">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F88" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G88" s="3">
         <v>0</v>
@@ -5059,19 +4990,19 @@
         <v>292</v>
       </c>
       <c r="C89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" t="s">
         <v>293</v>
       </c>
-      <c r="D89" t="s">
-        <v>294</v>
-      </c>
       <c r="E89" s="3">
-        <v>4711</v>
+        <v>104</v>
       </c>
       <c r="F89" s="3">
-        <v>387</v>
+        <v>9</v>
       </c>
       <c r="G89" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5080,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
@@ -5088,25 +5019,25 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B90" t="s">
         <v>295</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>296</v>
-      </c>
-      <c r="C90" t="s">
-        <v>235</v>
       </c>
       <c r="D90" t="s">
         <v>297</v>
       </c>
       <c r="E90" s="3">
-        <v>70</v>
+        <v>4711</v>
       </c>
       <c r="F90" s="3">
-        <v>1</v>
+        <v>387</v>
       </c>
       <c r="G90" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -5115,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
@@ -5129,28 +5060,28 @@
         <v>299</v>
       </c>
       <c r="C91" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="D91" t="s">
         <v>300</v>
       </c>
       <c r="E91" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
         <v>2</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
@@ -5164,7 +5095,7 @@
         <v>302</v>
       </c>
       <c r="C92" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D92" t="s">
         <v>303</v>
@@ -5199,7 +5130,7 @@
         <v>305</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D93" t="s">
         <v>306</v>
@@ -5234,16 +5165,16 @@
         <v>308</v>
       </c>
       <c r="C94" t="s">
+        <v>244</v>
+      </c>
+      <c r="D94" t="s">
         <v>309</v>
-      </c>
-      <c r="D94" t="s">
-        <v>310</v>
       </c>
       <c r="E94" s="3">
         <v>52</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5255,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
@@ -5263,13 +5194,13 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B95" t="s">
         <v>311</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>312</v>
-      </c>
-      <c r="C95" t="s">
-        <v>235</v>
       </c>
       <c r="D95" t="s">
         <v>313</v>
@@ -5278,7 +5209,7 @@
         <v>52</v>
       </c>
       <c r="F95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="3">
         <v>0</v>
@@ -5290,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -5304,7 +5235,7 @@
         <v>315</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D96" t="s">
         <v>316</v>
@@ -5339,22 +5270,22 @@
         <v>318</v>
       </c>
       <c r="C97" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D97" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E97" s="3">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="3">
         <v>0</v>
       </c>
       <c r="H97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5368,28 +5299,28 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B98" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="C98" t="s">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="D98" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E98" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F98" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G98" s="3">
         <v>0</v>
       </c>
       <c r="H98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5403,22 +5334,22 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C99" t="s">
-        <v>309</v>
+        <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E99" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F99" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -5438,25 +5369,25 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B100" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C100" t="s">
-        <v>126</v>
+        <v>312</v>
       </c>
       <c r="D100" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E100" s="3">
-        <v>1760</v>
+        <v>42</v>
       </c>
       <c r="F100" s="3">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5465,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
@@ -5473,25 +5404,25 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C101" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="D101" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E101" s="3">
-        <v>783</v>
+        <v>1162</v>
       </c>
       <c r="F101" s="3">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="G101" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5500,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
@@ -5508,16 +5439,16 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B102" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C102" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D102" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E102" s="3">
         <v>32</v>
@@ -5526,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5535,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -5543,19 +5474,19 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B103" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D103" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E103" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -5570,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
@@ -5578,34 +5509,34 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B104" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C104" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D104" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E104" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104" s="3">
         <v>1</v>
       </c>
-      <c r="G104" s="3">
-        <v>0</v>
-      </c>
       <c r="H104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
@@ -5613,34 +5544,34 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B105" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C105" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D105" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E105" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
         <v>3</v>
-      </c>
-      <c r="G105" s="3">
-        <v>0</v>
-      </c>
-      <c r="H105" s="3">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
@@ -5648,22 +5579,22 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B106" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C106" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D106" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E106" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F106" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" s="3">
         <v>0</v>
@@ -5683,16 +5614,16 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B107" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C107" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="D107" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E107" s="3">
         <v>24</v>
@@ -5718,19 +5649,19 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B108" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C108" t="s">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="D108" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E108" s="3">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -5745,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" t="s">
         <v>16</v>
@@ -5753,16 +5684,16 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B109" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C109" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D109" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E109" s="3">
         <v>17</v>
@@ -5788,19 +5719,19 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B110" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C110" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D110" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E110" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -5815,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="s">
         <v>16</v>
@@ -5823,25 +5754,25 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B111" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C111" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="D111" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E111" s="3">
-        <v>11</v>
+        <v>732</v>
       </c>
       <c r="F111" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G111" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -5850,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L111" t="s">
         <v>16</v>
@@ -5858,25 +5789,25 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B112" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C112" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D112" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E112" s="3">
-        <v>732</v>
+        <v>8</v>
       </c>
       <c r="F112" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G112" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -5885,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L112" t="s">
         <v>16</v>
@@ -5893,19 +5824,19 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B113" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C113" t="s">
-        <v>366</v>
+        <v>244</v>
       </c>
       <c r="D113" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E113" s="3">
-        <v>231</v>
+        <v>6</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -5920,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" t="s">
         <v>16</v>
@@ -5928,25 +5859,25 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B114" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>371</v>
       </c>
       <c r="D114" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E114" s="3">
-        <v>8</v>
+        <v>656</v>
       </c>
       <c r="F114" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G114" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -5955,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L114" t="s">
         <v>16</v>
@@ -5963,19 +5894,19 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B115" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C115" t="s">
-        <v>235</v>
+        <v>375</v>
       </c>
       <c r="D115" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E115" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -5998,25 +5929,25 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B116" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C116" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D116" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E116" s="3">
-        <v>5</v>
+        <v>1921</v>
       </c>
       <c r="F116" s="3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G116" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -6025,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L116" t="s">
         <v>16</v>
@@ -6033,25 +5964,25 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B117" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C117" t="s">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="D117" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E117" s="3">
-        <v>656</v>
+        <v>43</v>
       </c>
       <c r="F117" s="3">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G117" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -6060,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L117" t="s">
         <v>16</v>
@@ -6068,25 +5999,25 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B118" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C118" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D118" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E118" s="3">
-        <v>1921</v>
+        <v>2</v>
       </c>
       <c r="F118" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G118" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
@@ -6095,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L118" t="s">
         <v>16</v>
@@ -6103,16 +6034,16 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B119" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C119" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D119" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E119" s="3">
         <v>2</v>
@@ -6138,22 +6069,22 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B120" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C120" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D120" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E120" s="3">
+        <v>110</v>
+      </c>
+      <c r="F120" s="3">
         <v>2</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -6173,16 +6104,16 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B121" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C121" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D121" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E121" s="3">
         <v>9</v>
@@ -6208,16 +6139,16 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B122" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C122" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D122" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E122" s="3">
         <v>94</v>
@@ -6243,60 +6174,60 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B123" t="s">
+        <v>404</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>405</v>
+      </c>
+      <c r="E123" s="3">
+        <v>511312</v>
+      </c>
+      <c r="F123" s="3">
+        <v>15167</v>
+      </c>
+      <c r="G123" s="3">
         <v>402</v>
       </c>
-      <c r="C123" t="s">
-        <v>403</v>
-      </c>
-      <c r="D123" t="s">
-        <v>404</v>
-      </c>
-      <c r="E123" s="3">
-        <v>110</v>
-      </c>
-      <c r="F123" s="3">
-        <v>2</v>
-      </c>
-      <c r="G123" s="3">
-        <v>0</v>
-      </c>
       <c r="H123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L123" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C124" t="s">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="D124" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E124" s="3">
-        <v>74953</v>
+        <v>74</v>
       </c>
       <c r="F124" s="3">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="G124" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
@@ -6305,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -6313,95 +6244,95 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B125" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D125" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E125" s="3">
-        <v>511312</v>
+        <v>1760</v>
       </c>
       <c r="F125" s="3">
-        <v>15167</v>
+        <v>141</v>
       </c>
       <c r="G125" s="3">
-        <v>402</v>
+        <v>57</v>
       </c>
       <c r="H125" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="L125" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B126" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>386</v>
       </c>
       <c r="D126" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E126" s="3">
-        <v>4183126</v>
+        <v>1</v>
       </c>
       <c r="F126" s="3">
-        <v>49430</v>
+        <v>0</v>
       </c>
       <c r="G126" s="3">
-        <v>5701</v>
+        <v>0</v>
       </c>
       <c r="H126" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B127" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C127" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D127" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E127" s="3">
-        <v>282666</v>
+        <v>2883</v>
       </c>
       <c r="F127" s="3">
-        <v>4159</v>
+        <v>42</v>
       </c>
       <c r="G127" s="3">
-        <v>1024</v>
+        <v>6</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -6410,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>2992</v>
+        <v>6</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -6418,54 +6349,54 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B128" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C128" t="s">
-        <v>376</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E128" s="3">
-        <v>6</v>
+        <v>566966</v>
       </c>
       <c r="F128" s="3">
-        <v>0</v>
+        <v>18782</v>
       </c>
       <c r="G128" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L128" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B129" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C129" t="s">
-        <v>423</v>
+        <v>312</v>
       </c>
       <c r="D129" t="s">
         <v>424</v>
       </c>
       <c r="E129" s="3">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -6474,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -6494,22 +6425,22 @@
         <v>426</v>
       </c>
       <c r="C130" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D130" t="s">
         <v>427</v>
       </c>
       <c r="E130" s="3">
+        <v>88</v>
+      </c>
+      <c r="F130" s="3">
+        <v>3</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3">
         <v>1</v>
-      </c>
-      <c r="F130" s="3">
-        <v>0</v>
-      </c>
-      <c r="G130" s="3">
-        <v>0</v>
-      </c>
-      <c r="H130" s="3">
-        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -6529,19 +6460,19 @@
         <v>429</v>
       </c>
       <c r="C131" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
         <v>430</v>
       </c>
       <c r="E131" s="3">
-        <v>3080</v>
+        <v>472979</v>
       </c>
       <c r="F131" s="3">
-        <v>58</v>
+        <v>20185</v>
       </c>
       <c r="G131" s="3">
-        <v>5</v>
+        <v>515</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -6550,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="L131" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6564,19 +6495,19 @@
         <v>432</v>
       </c>
       <c r="C132" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="D132" t="s">
         <v>433</v>
       </c>
       <c r="E132" s="3">
-        <v>18665</v>
+        <v>428</v>
       </c>
       <c r="F132" s="3">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G132" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -6585,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L132" t="s">
         <v>16</v>
@@ -6599,19 +6530,19 @@
         <v>435</v>
       </c>
       <c r="C133" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
         <v>436</v>
       </c>
       <c r="E133" s="3">
-        <v>239</v>
+        <v>222595</v>
       </c>
       <c r="F133" s="3">
-        <v>2</v>
+        <v>9022</v>
       </c>
       <c r="G133" s="3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H133" s="3">
         <v>1</v>
@@ -6620,10 +6551,10 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L133" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6634,19 +6565,19 @@
         <v>438</v>
       </c>
       <c r="C134" t="s">
-        <v>293</v>
+        <v>99</v>
       </c>
       <c r="D134" t="s">
         <v>439</v>
       </c>
       <c r="E134" s="3">
-        <v>69498</v>
+        <v>8968</v>
       </c>
       <c r="F134" s="3">
-        <v>1189</v>
+        <v>117</v>
       </c>
       <c r="G134" s="3">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H134" s="3">
         <v>1</v>
@@ -6655,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="L134" t="s">
         <v>16</v>
@@ -6669,13 +6600,13 @@
         <v>441</v>
       </c>
       <c r="C135" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D135" t="s">
         <v>442</v>
       </c>
       <c r="E135" s="3">
-        <v>2053</v>
+        <v>95</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -6704,19 +6635,19 @@
         <v>444</v>
       </c>
       <c r="C136" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="D136" t="s">
         <v>445</v>
       </c>
       <c r="E136" s="3">
-        <v>125335</v>
+        <v>1237</v>
       </c>
       <c r="F136" s="3">
-        <v>3458</v>
+        <v>51</v>
       </c>
       <c r="G136" s="3">
-        <v>566</v>
+        <v>3</v>
       </c>
       <c r="H136" s="3">
         <v>1</v>
@@ -6725,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>1955</v>
+        <v>3</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
@@ -6739,13 +6670,13 @@
         <v>447</v>
       </c>
       <c r="C137" t="s">
-        <v>289</v>
+        <v>448</v>
       </c>
       <c r="D137" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E137" s="3">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -6754,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -6768,25 +6699,25 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B138" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C138" t="s">
-        <v>289</v>
+        <v>109</v>
       </c>
       <c r="D138" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E138" s="3">
-        <v>74</v>
+        <v>2078</v>
       </c>
       <c r="F138" s="3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G138" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H138" s="3">
         <v>1</v>
@@ -6795,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L138" t="s">
         <v>16</v>
@@ -6803,25 +6734,25 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B139" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C139" t="s">
-        <v>395</v>
+        <v>99</v>
       </c>
       <c r="D139" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E139" s="3">
-        <v>41</v>
+        <v>74953</v>
       </c>
       <c r="F139" s="3">
-        <v>1</v>
+        <v>1016</v>
       </c>
       <c r="G139" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H139" s="3">
         <v>1</v>
@@ -6830,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L139" t="s">
         <v>16</v>
@@ -6838,25 +6769,25 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B140" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C140" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="D140" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E140" s="3">
-        <v>39</v>
+        <v>69498</v>
       </c>
       <c r="F140" s="3">
-        <v>1</v>
+        <v>1189</v>
       </c>
       <c r="G140" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H140" s="3">
         <v>1</v>
@@ -6865,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L140" t="s">
         <v>16</v>
@@ -6873,22 +6804,22 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B141" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C141" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D141" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E141" s="3">
-        <v>844</v>
+        <v>23</v>
       </c>
       <c r="F141" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
@@ -6908,25 +6839,25 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B142" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="D142" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E142" s="3">
-        <v>222595</v>
+        <v>844</v>
       </c>
       <c r="F142" s="3">
-        <v>9022</v>
+        <v>0</v>
       </c>
       <c r="G142" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H142" s="3">
         <v>1</v>
@@ -6935,33 +6866,33 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B143" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C143" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="D143" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E143" s="3">
-        <v>87</v>
+        <v>3080</v>
       </c>
       <c r="F143" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G143" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H143" s="3">
         <v>1</v>
@@ -6970,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L143" t="s">
         <v>16</v>
@@ -6978,25 +6909,25 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B144" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="D144" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E144" s="3">
-        <v>110227</v>
+        <v>8644</v>
       </c>
       <c r="F144" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G144" s="3">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="H144" s="3">
         <v>1</v>
@@ -7005,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="L144" t="s">
         <v>16</v>
@@ -7013,22 +6944,22 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B145" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C145" t="s">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="D145" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E145" s="3">
-        <v>617</v>
+        <v>41</v>
       </c>
       <c r="F145" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -7048,25 +6979,25 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B146" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C146" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="D146" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E146" s="3">
-        <v>4759</v>
+        <v>617</v>
       </c>
       <c r="F146" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="G146" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H146" s="3">
         <v>1</v>
@@ -7075,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L146" t="s">
         <v>16</v>
@@ -7083,25 +7014,25 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B147" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C147" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="D147" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E147" s="3">
-        <v>428</v>
+        <v>4759</v>
       </c>
       <c r="F147" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G147" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H147" s="3">
         <v>1</v>
@@ -7110,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L147" t="s">
         <v>16</v>
@@ -7118,57 +7049,57 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B148" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="D148" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E148" s="3">
-        <v>566966</v>
+        <v>783</v>
       </c>
       <c r="F148" s="3">
-        <v>18782</v>
+        <v>82</v>
       </c>
       <c r="G148" s="3">
-        <v>416</v>
+        <v>4</v>
       </c>
       <c r="H148" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="L148" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B149" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C149" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="D149" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E149" s="3">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="F149" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149" s="3">
         <v>0</v>
@@ -7188,25 +7119,25 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B150" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C150" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="D150" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E150" s="3">
-        <v>1237</v>
+        <v>23164</v>
       </c>
       <c r="F150" s="3">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="G150" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H150" s="3">
         <v>1</v>
@@ -7215,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L150" t="s">
         <v>16</v>
@@ -7223,34 +7154,34 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B151" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D151" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E151" s="3">
-        <v>47483</v>
+        <v>25592</v>
       </c>
       <c r="F151" s="3">
-        <v>1169</v>
+        <v>221</v>
       </c>
       <c r="G151" s="3">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H151" s="3">
         <v>1</v>
       </c>
       <c r="J151">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K151">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="L151" t="s">
         <v>16</v>
@@ -7258,25 +7189,25 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B152" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C152" t="s">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E152" s="3">
-        <v>8644</v>
+        <v>4183126</v>
       </c>
       <c r="F152" s="3">
-        <v>0</v>
+        <v>49430</v>
       </c>
       <c r="G152" s="3">
-        <v>0</v>
+        <v>5701</v>
       </c>
       <c r="H152" s="3">
         <v>1</v>
@@ -7285,33 +7216,33 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="L152" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B153" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C153" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="D153" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E153" s="3">
-        <v>472979</v>
+        <v>4640</v>
       </c>
       <c r="F153" s="3">
-        <v>20185</v>
+        <v>0</v>
       </c>
       <c r="G153" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H153" s="3">
         <v>1</v>
@@ -7320,42 +7251,42 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B154" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C154" t="s">
-        <v>112</v>
+        <v>375</v>
       </c>
       <c r="D154" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E154" s="3">
-        <v>2883</v>
+        <v>6</v>
       </c>
       <c r="F154" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G154" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H154" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
       <c r="K154">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L154" t="s">
         <v>16</v>
@@ -7363,25 +7294,25 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B155" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C155" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D155" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E155" s="3">
-        <v>24890</v>
+        <v>18665</v>
       </c>
       <c r="F155" s="3">
-        <v>1321</v>
+        <v>659</v>
       </c>
       <c r="G155" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H155" s="3">
         <v>1</v>
@@ -7390,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="L155" t="s">
         <v>16</v>
@@ -7398,25 +7329,25 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B156" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C156" t="s">
-        <v>139</v>
+        <v>312</v>
       </c>
       <c r="D156" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E156" s="3">
-        <v>541</v>
+        <v>152</v>
       </c>
       <c r="F156" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G156" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156" s="3">
         <v>0</v>
@@ -7425,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="K156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L156" t="s">
         <v>16</v>
@@ -7433,25 +7364,25 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B157" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C157" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="D157" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E157" s="3">
-        <v>23164</v>
+        <v>24890</v>
       </c>
       <c r="F157" s="3">
-        <v>162</v>
+        <v>1321</v>
       </c>
       <c r="G157" s="3">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H157" s="3">
         <v>1</v>
@@ -7460,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="L157" t="s">
         <v>16</v>
@@ -7468,316 +7399,36 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B158" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="D158" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E158" s="3">
-        <v>60406</v>
+        <v>2053</v>
       </c>
       <c r="F158" s="3">
-        <v>1073</v>
+        <v>0</v>
       </c>
       <c r="G158" s="3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H158" s="3">
         <v>1</v>
       </c>
       <c r="J158">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K158">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="A159" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B159" t="s">
-        <v>513</v>
-      </c>
-      <c r="C159" t="s">
-        <v>60</v>
-      </c>
-      <c r="D159" t="s">
-        <v>514</v>
-      </c>
-      <c r="E159" s="3">
-        <v>4899</v>
-      </c>
-      <c r="F159" s="3">
-        <v>603</v>
-      </c>
-      <c r="G159" s="3">
-        <v>19</v>
-      </c>
-      <c r="H159" s="3">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
-        <v>90</v>
-      </c>
-      <c r="L159" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
-      <c r="A160" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B160" t="s">
-        <v>516</v>
-      </c>
-      <c r="C160" t="s">
-        <v>399</v>
-      </c>
-      <c r="D160" t="s">
-        <v>517</v>
-      </c>
-      <c r="E160" s="3">
-        <v>88</v>
-      </c>
-      <c r="F160" s="3">
-        <v>3</v>
-      </c>
-      <c r="G160" s="3">
-        <v>0</v>
-      </c>
-      <c r="H160" s="3">
-        <v>1</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
-      <c r="A161" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B161" t="s">
-        <v>519</v>
-      </c>
-      <c r="C161" t="s">
-        <v>112</v>
-      </c>
-      <c r="D161" t="s">
-        <v>520</v>
-      </c>
-      <c r="E161" s="3">
-        <v>8968</v>
-      </c>
-      <c r="F161" s="3">
-        <v>117</v>
-      </c>
-      <c r="G161" s="3">
-        <v>15</v>
-      </c>
-      <c r="H161" s="3">
-        <v>1</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161">
-        <v>43</v>
-      </c>
-      <c r="L161" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
-      <c r="A162" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B162" t="s">
-        <v>522</v>
-      </c>
-      <c r="C162" t="s">
-        <v>309</v>
-      </c>
-      <c r="D162" t="s">
-        <v>523</v>
-      </c>
-      <c r="E162" s="3">
-        <v>4640</v>
-      </c>
-      <c r="F162" s="3">
-        <v>0</v>
-      </c>
-      <c r="G162" s="3">
-        <v>0</v>
-      </c>
-      <c r="H162" s="3">
-        <v>1</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
-      <c r="A163" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B163" t="s">
-        <v>525</v>
-      </c>
-      <c r="C163" t="s">
-        <v>122</v>
-      </c>
-      <c r="D163" t="s">
-        <v>526</v>
-      </c>
-      <c r="E163" s="3">
-        <v>2078</v>
-      </c>
-      <c r="F163" s="3">
-        <v>44</v>
-      </c>
-      <c r="G163" s="3">
-        <v>9</v>
-      </c>
-      <c r="H163" s="3">
-        <v>1</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <v>77</v>
-      </c>
-      <c r="L163" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B164" t="s">
-        <v>528</v>
-      </c>
-      <c r="C164" t="s">
-        <v>90</v>
-      </c>
-      <c r="D164" t="s">
-        <v>529</v>
-      </c>
-      <c r="E164" s="3">
-        <v>5194</v>
-      </c>
-      <c r="F164" s="3">
-        <v>299</v>
-      </c>
-      <c r="G164" s="3">
-        <v>13</v>
-      </c>
-      <c r="H164" s="3">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>83</v>
-      </c>
-      <c r="L164" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B165" t="s">
-        <v>531</v>
-      </c>
-      <c r="C165" t="s">
-        <v>366</v>
-      </c>
-      <c r="D165" t="s">
-        <v>532</v>
-      </c>
-      <c r="E165" s="3">
-        <v>345</v>
-      </c>
-      <c r="F165" s="3">
-        <v>6</v>
-      </c>
-      <c r="G165" s="3">
-        <v>2</v>
-      </c>
-      <c r="H165" s="3">
-        <v>1</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B166" t="s">
-        <v>534</v>
-      </c>
-      <c r="C166" t="s">
-        <v>112</v>
-      </c>
-      <c r="D166" t="s">
-        <v>535</v>
-      </c>
-      <c r="E166" s="3">
-        <v>25592</v>
-      </c>
-      <c r="F166" s="3">
-        <v>221</v>
-      </c>
-      <c r="G166" s="3">
-        <v>29</v>
-      </c>
-      <c r="H166" s="3">
-        <v>1</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>79</v>
-      </c>
-      <c r="L166" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7939,14 +7590,6 @@
     <hyperlink ref="A156" r:id="rId154"/>
     <hyperlink ref="A157" r:id="rId155"/>
     <hyperlink ref="A158" r:id="rId156"/>
-    <hyperlink ref="A159" r:id="rId157"/>
-    <hyperlink ref="A160" r:id="rId158"/>
-    <hyperlink ref="A161" r:id="rId159"/>
-    <hyperlink ref="A162" r:id="rId160"/>
-    <hyperlink ref="A163" r:id="rId161"/>
-    <hyperlink ref="A164" r:id="rId162"/>
-    <hyperlink ref="A165" r:id="rId163"/>
-    <hyperlink ref="A166" r:id="rId164"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7966,10 +7609,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1">
-        <v>479273</v>
+        <v>443539</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7977,7 +7620,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>239890</v>
+        <v>173629</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7985,76 +7628,76 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>48903</v>
+        <v>39727</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>39970</v>
+        <v>35457</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>39092</v>
+        <v>34210</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>38251</v>
+        <v>25616</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B7">
-        <v>33983</v>
+        <v>12854</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="B8">
-        <v>12916</v>
+        <v>9798</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B9">
-        <v>9835</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B10">
-        <v>8377</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B11">
-        <v>6679</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>5563</v>
@@ -8062,7 +7705,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B13">
         <v>4897</v>
@@ -8070,79 +7713,79 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B14">
-        <v>4553</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B15">
-        <v>2272</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B16">
-        <v>836</v>
+        <v>811</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B17">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B18">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B19">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -8150,7 +7793,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -8158,7 +7801,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -8166,7 +7809,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -8174,7 +7817,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -8182,7 +7825,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -8190,7 +7833,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -8198,7 +7841,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="B30">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="462">
   <si>
     <t>URL</t>
   </si>
@@ -119,6 +119,27 @@
     <t>2019-12-19T18:27:32.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
   </si>
   <si>
@@ -128,36 +149,6 @@
     <t>2019-12-09T17:00:07.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
-  </si>
-  <si>
-    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:06:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
   </si>
   <si>
@@ -233,6 +224,33 @@
     <t>2019-12-27T15:54:18.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
   </si>
   <si>
@@ -245,31 +263,43 @@
     <t>2019-12-10T12:12:49.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
@@ -281,6 +311,15 @@
     <t>2019-12-09T23:25:04.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
   </si>
   <si>
@@ -290,54 +329,6 @@
     <t>2019-12-09T11:12:12.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
   </si>
   <si>
@@ -449,6 +440,42 @@
     <t>2019-12-14T01:33:50.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
   </si>
   <si>
@@ -458,117 +485,6 @@
     <t>2019-12-05T08:00:05.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=H-jpGp862t0</t>
-  </si>
-  <si>
-    <t>UN HACKER DENONCE LE DARK NET LA MANIPULATION DE L ISLAM ET LE TRAFFIC NUMERIQUE !!!</t>
-  </si>
-  <si>
-    <t>ANTILLUMINATI KEMAR 2</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:25:36.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kob-ZZSn_2A</t>
-  </si>
-  <si>
-    <t>PACTE SATANIQUE AVEC LUCIFER PAR LE SANG POUR LA GLOIRE EN FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-15T11:01:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oTmENRbauHw</t>
-  </si>
-  <si>
-    <t>COLUCHE UN HUMOURISTE TUE PAR LES ELITES PARCE QU IL DENONCAIT LA POLITIQUE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-13T11:14:24.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B4I6NTggH04</t>
-  </si>
-  <si>
-    <t>FRANCE 2 : EXORCISME DE DEMONS EN DIRECT A LA TELEVISION FRANCAISE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-16T11:03:30.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AXfch8K4UQU</t>
-  </si>
-  <si>
-    <t>EXPLICATION DE PRATIQUE MAGIQUE OCCULTE SATANIQUE PAR UN ANCIEN SORCIER REPENTI !!!</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:09:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XfZF5AT3UDo</t>
-  </si>
-  <si>
-    <t>RESEAU PEDOPHILE INTERNATIONALE SNUFF MOVIE ORGANISE PAS DES MILITAIRES ET POLICIERS DE FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:17:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KXlmzXtG4-A</t>
-  </si>
-  <si>
-    <t>RITUEL OCCULTE DES SATANISTES PARLENT AVEC LE DIABLE EN FRANCE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-18T11:00:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aQ8uCEx-rSk</t>
-  </si>
-  <si>
-    <t>FAT JOE DENONCE LA MAFIA GAY DANS L INDUSTRIE MUSICALE DE LA DEBAUCHE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-22T11:29:10.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
   </si>
   <si>
@@ -632,15 +548,6 @@
     <t>2019-12-17T16:50:05.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=HQBmk6j_bYc</t>
-  </si>
-  <si>
-    <t>AU SEUIL DE LA LOGE MACONNIQUE INITIATION DU RITE ECOSSAIS EN LIVE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T11:51:55.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
   </si>
   <si>
@@ -650,6 +557,519 @@
     <t>2019-12-19T20:01:22.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
+  </si>
+  <si>
+    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
+  </si>
+  <si>
+    <t>Fred Bes</t>
+  </si>
+  <si>
+    <t>2019-12-20T19:28:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
+  </si>
+  <si>
+    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-13T22:06:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
+  </si>
+  <si>
+    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-24T19:30:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
+  </si>
+  <si>
+    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T18:51:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
+  </si>
+  <si>
+    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
+  </si>
+  <si>
+    <t>2019-12-28T08:24:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T19:13:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
+  </si>
+  <si>
+    <t>comment lire les articles du parisien gratuitement</t>
+  </si>
+  <si>
+    <t>Daniel Dupont</t>
+  </si>
+  <si>
+    <t>2019-12-19T11:02:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
+  </si>
+  <si>
+    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T18:41:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
+  </si>
+  <si>
+    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T18:44:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
+  </si>
+  <si>
+    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T19:07:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
+  </si>
+  <si>
+    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:48:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
+  </si>
+  <si>
+    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
+  </si>
+  <si>
+    <t>2019-12-11T17:08:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
+  </si>
+  <si>
+    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
+  </si>
+  <si>
+    <t>2019-12-12T20:47:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
+  </si>
+  <si>
+    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T20:32:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
+  </si>
+  <si>
+    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
+  </si>
+  <si>
+    <t>Ministère Territoires et Collectivités</t>
+  </si>
+  <si>
+    <t>2019-12-09T12:38:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
+  </si>
+  <si>
+    <t>Bientôt de la publicité sur Netflix ?</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:17:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
   </si>
   <si>
@@ -659,22 +1079,118 @@
     <t>2019-12-10T17:18:10.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
-  </si>
-  <si>
-    <t>La réforme des retraites par les nuls</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:21:48.000Z</t>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
+  </si>
+  <si>
+    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:18:07.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
@@ -686,325 +1202,166 @@
     <t>2019-12-09T15:30:03.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
-  </si>
-  <si>
-    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
-  </si>
-  <si>
-    <t>Fred Bes</t>
-  </si>
-  <si>
-    <t>2019-12-20T19:28:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=loX_BGQ4-kg</t>
-  </si>
-  <si>
-    <t>Kemarl1fam - Bonhomme de neige</t>
-  </si>
-  <si>
-    <t>2019-12-25T14:52:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
-  </si>
-  <si>
-    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-13T22:06:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
-  </si>
-  <si>
-    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:18:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
-  </si>
-  <si>
-    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-24T19:30:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
-  </si>
-  <si>
-    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
-  </si>
-  <si>
-    <t>2019-12-28T08:24:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>Daniel Dupont</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
-  </si>
-  <si>
-    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T18:41:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
-  </si>
-  <si>
-    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
-  </si>
-  <si>
-    <t>2019-12-11T17:08:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
-  </si>
-  <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>2019-12-10T11:04:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
@@ -1016,228 +1373,6 @@
     <t>2019-11-26T22:20:47.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
-  </si>
-  <si>
-    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:09:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
   </si>
   <si>
@@ -1247,24 +1382,6 @@
     <t>2019-07-03T08:38:19.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
-  </si>
-  <si>
-    <t>#FAQ17 - Posez vos questions</t>
-  </si>
-  <si>
-    <t>2019-11-24T14:47:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
   </si>
   <si>
@@ -1274,99 +1391,6 @@
     <t>2019-10-12T07:00:07.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
   </si>
   <si>
@@ -1374,186 +1398,6 @@
   </si>
   <si>
     <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HXiOLJ48sXc</t>
-  </si>
-  <si>
-    <t>SANTE : LES ALIMENTS QUI RESSEMBLE AUX ORGANES QU ILS GUERISSENT !!!</t>
-  </si>
-  <si>
-    <t>2019-12-06T18:35:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
-  </si>
-  <si>
-    <t>Women in Finance // 3rd Shadowing Day</t>
-  </si>
-  <si>
-    <t>2019-12-06T09:09:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1914,7 +1758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L158"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2190,19 +2034,19 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>113046</v>
+        <v>269112</v>
       </c>
       <c r="F9" s="3">
-        <v>8422</v>
+        <v>5243</v>
       </c>
       <c r="G9" s="3">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -2211,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -2219,37 +2063,37 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>269112</v>
+        <v>23702</v>
       </c>
       <c r="F10" s="3">
-        <v>5243</v>
+        <v>3315</v>
       </c>
       <c r="G10" s="3">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2260,19 +2104,19 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>24429</v>
+        <v>113046</v>
       </c>
       <c r="F11" s="3">
-        <v>2588</v>
+        <v>8422</v>
       </c>
       <c r="G11" s="3">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -2281,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>588</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -2295,19 +2139,19 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>23702</v>
+        <v>13867</v>
       </c>
       <c r="F12" s="3">
-        <v>3315</v>
+        <v>934</v>
       </c>
       <c r="G12" s="3">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2316,42 +2160,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3">
-        <v>13867</v>
+        <v>13154</v>
       </c>
       <c r="F13" s="3">
-        <v>934</v>
+        <v>1256</v>
       </c>
       <c r="G13" s="3">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -2359,25 +2203,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>13154</v>
+        <v>12004</v>
       </c>
       <c r="F14" s="3">
-        <v>1256</v>
+        <v>691</v>
       </c>
       <c r="G14" s="3">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -2386,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -2394,25 +2238,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
-        <v>12004</v>
+        <v>9999</v>
       </c>
       <c r="F15" s="3">
-        <v>691</v>
+        <v>357</v>
       </c>
       <c r="G15" s="3">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -2421,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -2429,25 +2273,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="3">
-        <v>9999</v>
+        <v>7772</v>
       </c>
       <c r="F16" s="3">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -2456,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -2470,19 +2314,19 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="3">
-        <v>7772</v>
+        <v>5880</v>
       </c>
       <c r="F17" s="3">
-        <v>239</v>
+        <v>594</v>
       </c>
       <c r="G17" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -2491,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -2505,19 +2349,19 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
       <c r="E18" s="3">
-        <v>5880</v>
+        <v>5962</v>
       </c>
       <c r="F18" s="3">
-        <v>594</v>
+        <v>765</v>
       </c>
       <c r="G18" s="3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -2526,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2540,19 +2384,19 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="3">
-        <v>5962</v>
+        <v>5083</v>
       </c>
       <c r="F19" s="3">
-        <v>765</v>
+        <v>594</v>
       </c>
       <c r="G19" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -2561,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -2575,19 +2419,19 @@
         <v>73</v>
       </c>
       <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
       <c r="E20" s="3">
-        <v>5563</v>
+        <v>4508</v>
       </c>
       <c r="F20" s="3">
-        <v>265</v>
+        <v>446</v>
       </c>
       <c r="G20" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -2596,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -2604,25 +2448,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
       <c r="E21" s="3">
-        <v>5083</v>
+        <v>4358</v>
       </c>
       <c r="F21" s="3">
-        <v>594</v>
+        <v>230</v>
       </c>
       <c r="G21" s="3">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -2631,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -2639,25 +2483,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>80</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="3">
-        <v>4508</v>
+        <v>5563</v>
       </c>
       <c r="F22" s="3">
-        <v>446</v>
+        <v>265</v>
       </c>
       <c r="G22" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -2666,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -2680,28 +2524,28 @@
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="3">
-        <v>4358</v>
+        <v>3484</v>
       </c>
       <c r="F23" s="3">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G23" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -2715,19 +2559,19 @@
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>87</v>
       </c>
       <c r="E24" s="3">
-        <v>7431</v>
+        <v>3021</v>
       </c>
       <c r="F24" s="3">
-        <v>661</v>
+        <v>580</v>
       </c>
       <c r="G24" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -2736,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -2750,19 +2594,19 @@
         <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="3">
-        <v>11977</v>
+        <v>2959</v>
       </c>
       <c r="F25" s="3">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="G25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -2771,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -2779,34 +2623,34 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="3">
-        <v>3484</v>
+        <v>2848</v>
       </c>
       <c r="F26" s="3">
-        <v>224</v>
+        <v>523</v>
       </c>
       <c r="G26" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -2814,25 +2658,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27" s="3">
-        <v>3021</v>
+        <v>7431</v>
       </c>
       <c r="F27" s="3">
-        <v>580</v>
+        <v>661</v>
       </c>
       <c r="G27" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -2841,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -2849,25 +2693,25 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="3">
-        <v>2959</v>
+        <v>2352</v>
       </c>
       <c r="F28" s="3">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -2876,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -2890,19 +2734,19 @@
         <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="3">
-        <v>2848</v>
+        <v>11977</v>
       </c>
       <c r="F29" s="3">
-        <v>523</v>
+        <v>324</v>
       </c>
       <c r="G29" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2911,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -2925,19 +2769,19 @@
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" s="3">
-        <v>2352</v>
+        <v>1803</v>
       </c>
       <c r="F30" s="3">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -2946,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -2954,25 +2798,25 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" s="3">
-        <v>1803</v>
+        <v>1663</v>
       </c>
       <c r="F31" s="3">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="G31" s="3">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -2989,25 +2833,25 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
         <v>114</v>
       </c>
       <c r="E32" s="3">
-        <v>1663</v>
+        <v>1593</v>
       </c>
       <c r="F32" s="3">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="G32" s="3">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -3016,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -3030,19 +2874,19 @@
         <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="3">
-        <v>1593</v>
+        <v>1556</v>
       </c>
       <c r="F33" s="3">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -3051,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -3065,19 +2909,19 @@
         <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34" s="3">
-        <v>1556</v>
+        <v>1542</v>
       </c>
       <c r="F34" s="3">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="G34" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -3086,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -3094,25 +2938,25 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="3">
-        <v>1542</v>
+        <v>1517</v>
       </c>
       <c r="F35" s="3">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="G35" s="3">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -3121,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -3135,19 +2979,19 @@
         <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
       </c>
       <c r="E36" s="3">
-        <v>1517</v>
+        <v>1386</v>
       </c>
       <c r="F36" s="3">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="G36" s="3">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -3156,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -3170,19 +3014,19 @@
         <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="3">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="F37" s="3">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="G37" s="3">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -3191,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -3205,19 +3049,19 @@
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>1372</v>
+        <v>1330</v>
       </c>
       <c r="F38" s="3">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="G38" s="3">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -3226,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -3240,19 +3084,19 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" s="3">
-        <v>1330</v>
+        <v>1274</v>
       </c>
       <c r="F39" s="3">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="G39" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -3269,25 +3113,25 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
         <v>140</v>
       </c>
       <c r="E40" s="3">
-        <v>1274</v>
+        <v>1254</v>
       </c>
       <c r="F40" s="3">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G40" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -3296,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -3310,19 +3154,19 @@
         <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
         <v>143</v>
       </c>
       <c r="E41" s="3">
-        <v>1254</v>
+        <v>1185</v>
       </c>
       <c r="F41" s="3">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="G41" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -3331,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -3345,19 +3189,19 @@
         <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
         <v>146</v>
       </c>
       <c r="E42" s="3">
-        <v>12342</v>
+        <v>1084</v>
       </c>
       <c r="F42" s="3">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="G42" s="3">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3366,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3380,19 +3224,19 @@
         <v>148</v>
       </c>
       <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
         <v>149</v>
       </c>
-      <c r="D43" t="s">
-        <v>150</v>
-      </c>
       <c r="E43" s="3">
-        <v>1188</v>
+        <v>1080</v>
       </c>
       <c r="F43" s="3">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3401,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -3409,25 +3253,25 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
         <v>151</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" t="s">
         <v>152</v>
       </c>
-      <c r="C44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" t="s">
-        <v>153</v>
-      </c>
       <c r="E44" s="3">
-        <v>1185</v>
+        <v>995</v>
       </c>
       <c r="F44" s="3">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="G44" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3436,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3444,25 +3288,25 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
         <v>154</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
         <v>155</v>
       </c>
-      <c r="C45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" t="s">
-        <v>156</v>
-      </c>
       <c r="E45" s="3">
-        <v>1084</v>
+        <v>12342</v>
       </c>
       <c r="F45" s="3">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="G45" s="3">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3471,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -3479,25 +3323,25 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
         <v>157</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" t="s">
         <v>158</v>
       </c>
-      <c r="C46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" t="s">
-        <v>159</v>
-      </c>
       <c r="E46" s="3">
-        <v>1080</v>
+        <v>692</v>
       </c>
       <c r="F46" s="3">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G46" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3506,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -3514,25 +3358,25 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" t="s">
         <v>160</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
         <v>161</v>
       </c>
-      <c r="C47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" t="s">
-        <v>162</v>
-      </c>
       <c r="E47" s="3">
-        <v>995</v>
+        <v>691</v>
       </c>
       <c r="F47" s="3">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="G47" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3541,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -3549,25 +3393,25 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
         <v>163</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" t="s">
         <v>164</v>
       </c>
-      <c r="C48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" t="s">
-        <v>165</v>
-      </c>
       <c r="E48" s="3">
-        <v>987</v>
+        <v>691</v>
       </c>
       <c r="F48" s="3">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="G48" s="3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3576,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -3584,25 +3428,25 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" t="s">
         <v>166</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="s">
         <v>167</v>
       </c>
-      <c r="C49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" t="s">
-        <v>168</v>
-      </c>
       <c r="E49" s="3">
-        <v>961</v>
+        <v>653</v>
       </c>
       <c r="F49" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G49" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3611,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
@@ -3619,25 +3463,25 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" t="s">
         <v>169</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
         <v>170</v>
       </c>
-      <c r="C50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" t="s">
-        <v>171</v>
-      </c>
       <c r="E50" s="3">
-        <v>957</v>
+        <v>644</v>
       </c>
       <c r="F50" s="3">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="G50" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3646,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
@@ -3654,25 +3498,25 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" t="s">
         <v>172</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" t="s">
         <v>173</v>
       </c>
-      <c r="C51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" t="s">
-        <v>174</v>
-      </c>
       <c r="E51" s="3">
-        <v>912</v>
+        <v>641</v>
       </c>
       <c r="F51" s="3">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G51" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3681,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
@@ -3689,22 +3533,22 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s">
         <v>175</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
         <v>176</v>
       </c>
-      <c r="C52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" t="s">
-        <v>177</v>
-      </c>
       <c r="E52" s="3">
-        <v>836</v>
+        <v>619</v>
       </c>
       <c r="F52" s="3">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="G52" s="3">
         <v>2</v>
@@ -3716,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
@@ -3724,25 +3568,25 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
         <v>178</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" t="s">
         <v>179</v>
       </c>
-      <c r="C53" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" t="s">
-        <v>180</v>
-      </c>
       <c r="E53" s="3">
-        <v>810</v>
+        <v>578</v>
       </c>
       <c r="F53" s="3">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G53" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3751,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -3759,25 +3603,25 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" t="s">
         <v>181</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>182</v>
-      </c>
-      <c r="C54" t="s">
-        <v>149</v>
       </c>
       <c r="D54" t="s">
         <v>183</v>
       </c>
       <c r="E54" s="3">
-        <v>791</v>
+        <v>366</v>
       </c>
       <c r="F54" s="3">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G54" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3786,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -3800,19 +3644,19 @@
         <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
         <v>186</v>
       </c>
       <c r="E55" s="3">
-        <v>692</v>
+        <v>357</v>
       </c>
       <c r="F55" s="3">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="G55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3821,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -3835,16 +3679,16 @@
         <v>188</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
         <v>189</v>
       </c>
       <c r="E56" s="3">
-        <v>691</v>
+        <v>346</v>
       </c>
       <c r="F56" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G56" s="3">
         <v>0</v>
@@ -3856,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -3870,19 +3714,19 @@
         <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
         <v>192</v>
       </c>
       <c r="E57" s="3">
-        <v>691</v>
+        <v>1493</v>
       </c>
       <c r="F57" s="3">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G57" s="3">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3891,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
@@ -3905,19 +3749,19 @@
         <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
         <v>195</v>
       </c>
       <c r="E58" s="3">
-        <v>653</v>
+        <v>322</v>
       </c>
       <c r="F58" s="3">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3926,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
@@ -3940,19 +3784,19 @@
         <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
         <v>198</v>
       </c>
       <c r="E59" s="3">
-        <v>644</v>
+        <v>299</v>
       </c>
       <c r="F59" s="3">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="G59" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3975,19 +3819,19 @@
         <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="D60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E60" s="3">
-        <v>641</v>
+        <v>285</v>
       </c>
       <c r="F60" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G60" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -3996,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
@@ -4004,25 +3848,25 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E61" s="3">
-        <v>619</v>
+        <v>226</v>
       </c>
       <c r="F61" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G61" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4031,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
@@ -4039,25 +3883,25 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E62" s="3">
-        <v>579</v>
+        <v>222</v>
       </c>
       <c r="F62" s="3">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4066,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -4074,25 +3918,25 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E63" s="3">
-        <v>578</v>
+        <v>188</v>
       </c>
       <c r="F63" s="3">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G63" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -4101,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
@@ -4109,22 +3953,22 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="D64" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E64" s="3">
-        <v>575</v>
+        <v>2165</v>
       </c>
       <c r="F64" s="3">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -4136,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
@@ -4144,25 +3988,25 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E65" s="3">
-        <v>1493</v>
+        <v>175</v>
       </c>
       <c r="F65" s="3">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="G65" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -4171,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
@@ -4179,34 +4023,34 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E66" s="3">
-        <v>425</v>
+        <v>170</v>
       </c>
       <c r="F66" s="3">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -4214,34 +4058,34 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="D67" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E67" s="3">
-        <v>4463</v>
+        <v>152</v>
       </c>
       <c r="F67" s="3">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="G67" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
@@ -4249,25 +4093,25 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C68" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E68" s="3">
-        <v>366</v>
+        <v>145</v>
       </c>
       <c r="F68" s="3">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -4276,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -4284,25 +4128,25 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E69" s="3">
-        <v>357</v>
+        <v>132</v>
       </c>
       <c r="F69" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -4311,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
@@ -4319,25 +4163,25 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E70" s="3">
-        <v>346</v>
+        <v>116</v>
       </c>
       <c r="F70" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4346,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
@@ -4354,25 +4198,25 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E71" s="3">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c r="F71" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G71" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4389,25 +4233,25 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B72" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E72" s="3">
-        <v>319</v>
+        <v>112</v>
       </c>
       <c r="F72" s="3">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4416,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
@@ -4424,25 +4268,25 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E73" s="3">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="F73" s="3">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G73" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
@@ -4459,25 +4303,25 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E74" s="3">
-        <v>285</v>
+        <v>104</v>
       </c>
       <c r="F74" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G74" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4486,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
@@ -4494,25 +4338,25 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="D75" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E75" s="3">
-        <v>268</v>
+        <v>4711</v>
       </c>
       <c r="F75" s="3">
-        <v>23</v>
+        <v>387</v>
       </c>
       <c r="G75" s="3">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4521,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
@@ -4529,19 +4373,19 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="D76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E76" s="3">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -4556,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
@@ -4564,25 +4408,25 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E77" s="3">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="F77" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G77" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -4599,25 +4443,25 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B78" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C78" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="D78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E78" s="3">
-        <v>2165</v>
+        <v>56</v>
       </c>
       <c r="F78" s="3">
-        <v>278</v>
+        <v>8</v>
       </c>
       <c r="G78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -4626,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
@@ -4634,22 +4478,22 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="D79" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E79" s="3">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="F79" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -4661,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
@@ -4669,22 +4513,22 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="D80" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E80" s="3">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="F80" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G80" s="3">
         <v>0</v>
@@ -4696,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
@@ -4704,34 +4548,34 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E81" s="3">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="F81" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
@@ -4739,34 +4583,34 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B82" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E82" s="3">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="F82" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
       </c>
       <c r="H82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
@@ -4774,22 +4618,22 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B83" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="D83" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E83" s="3">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="F83" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4801,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L83" t="s">
         <v>16</v>
@@ -4809,22 +4653,22 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B84" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C84" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="D84" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E84" s="3">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F84" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G84" s="3">
         <v>0</v>
@@ -4836,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -4844,22 +4688,22 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C85" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="D85" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E85" s="3">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="F85" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -4871,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
@@ -4879,25 +4723,25 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B86" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D86" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E86" s="3">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="F86" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4906,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
@@ -4914,22 +4758,22 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B87" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C87" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="D87" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E87" s="3">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F87" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G87" s="3">
         <v>0</v>
@@ -4941,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L87" t="s">
         <v>16</v>
@@ -4949,34 +4793,34 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B88" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C88" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D88" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E88" s="3">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="F88" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G88" s="3">
         <v>0</v>
       </c>
       <c r="H88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
@@ -4984,25 +4828,25 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B89" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="D89" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E89" s="3">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="F89" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5019,25 +4863,25 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>201</v>
       </c>
       <c r="D90" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E90" s="3">
-        <v>4711</v>
+        <v>17</v>
       </c>
       <c r="F90" s="3">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="G90" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -5046,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
@@ -5054,22 +4898,22 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="D91" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E91" s="3">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5081,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
@@ -5089,25 +4933,25 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B92" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C92" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E92" s="3">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F92" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -5116,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
@@ -5124,25 +4968,25 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B93" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D93" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E93" s="3">
-        <v>56</v>
+        <v>732</v>
       </c>
       <c r="F93" s="3">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G93" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -5151,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
@@ -5159,22 +5003,22 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="D94" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E94" s="3">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5186,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
@@ -5194,19 +5038,19 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C95" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="D95" t="s">
         <v>313</v>
       </c>
       <c r="E95" s="3">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -5235,16 +5079,16 @@
         <v>315</v>
       </c>
       <c r="C96" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="D96" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E96" s="3">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F96" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5256,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -5264,25 +5108,25 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B97" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C97" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D97" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E97" s="3">
-        <v>96</v>
+        <v>656</v>
       </c>
       <c r="F97" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G97" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -5291,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
@@ -5299,19 +5143,19 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B98" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C98" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D98" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E98" s="3">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -5320,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5334,25 +5178,25 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B99" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>328</v>
       </c>
       <c r="D99" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E99" s="3">
-        <v>43</v>
+        <v>1921</v>
       </c>
       <c r="F99" s="3">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="G99" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -5361,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
@@ -5369,19 +5213,19 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B100" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C100" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D100" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E100" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5404,22 +5248,22 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C101" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="D101" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E101" s="3">
-        <v>1162</v>
+        <v>43</v>
       </c>
       <c r="F101" s="3">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -5431,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
@@ -5439,22 +5283,22 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B102" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="D102" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E102" s="3">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5474,25 +5318,25 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B103" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C103" t="s">
-        <v>244</v>
+        <v>342</v>
       </c>
       <c r="D103" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E103" s="3">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
       </c>
       <c r="G103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5501,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
@@ -5509,25 +5353,25 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B104" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C104" t="s">
-        <v>244</v>
+        <v>346</v>
       </c>
       <c r="D104" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E104" s="3">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F104" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G104" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5544,25 +5388,25 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B105" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C105" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D105" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E105" s="3">
-        <v>27</v>
+        <v>69498</v>
       </c>
       <c r="F105" s="3">
-        <v>1</v>
+        <v>1189</v>
       </c>
       <c r="G105" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H105" s="3">
         <v>1</v>
@@ -5571,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
@@ -5579,25 +5423,25 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C106" t="s">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="D106" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E106" s="3">
-        <v>26</v>
+        <v>575</v>
       </c>
       <c r="F106" s="3">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5606,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L106" t="s">
         <v>16</v>
@@ -5614,22 +5458,22 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B107" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C107" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="D107" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E107" s="3">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" s="3">
         <v>0</v>
@@ -5649,34 +5493,34 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B108" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C108" t="s">
-        <v>244</v>
+        <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E108" s="3">
-        <v>17</v>
+        <v>1237</v>
       </c>
       <c r="F108" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G108" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L108" t="s">
         <v>16</v>
@@ -5684,63 +5528,63 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B109" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C109" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E109" s="3">
-        <v>17</v>
+        <v>511312</v>
       </c>
       <c r="F109" s="3">
-        <v>0</v>
+        <v>15167</v>
       </c>
       <c r="G109" s="3">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="H109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L109" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B110" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C110" t="s">
-        <v>244</v>
+        <v>346</v>
       </c>
       <c r="D110" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E110" s="3">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F110" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G110" s="3">
         <v>0</v>
       </c>
       <c r="H110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -5754,63 +5598,63 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B111" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C111" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E111" s="3">
-        <v>732</v>
+        <v>566966</v>
       </c>
       <c r="F111" s="3">
-        <v>29</v>
+        <v>18782</v>
       </c>
       <c r="G111" s="3">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="H111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c r="L111" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B112" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C112" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="D112" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E112" s="3">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="3">
         <v>0</v>
       </c>
       <c r="H112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -5824,19 +5668,19 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B113" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C113" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="D113" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E113" s="3">
-        <v>6</v>
+        <v>4640</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -5845,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -5859,34 +5703,34 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B114" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C114" t="s">
-        <v>371</v>
+        <v>90</v>
       </c>
       <c r="D114" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E114" s="3">
-        <v>656</v>
+        <v>3080</v>
       </c>
       <c r="F114" s="3">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G114" s="3">
         <v>5</v>
       </c>
       <c r="H114" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L114" t="s">
         <v>16</v>
@@ -5894,34 +5738,34 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B115" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C115" t="s">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="D115" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E115" s="3">
-        <v>5</v>
+        <v>24890</v>
       </c>
       <c r="F115" s="3">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="G115" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L115" t="s">
         <v>16</v>
@@ -5929,34 +5773,34 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B116" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C116" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="D116" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E116" s="3">
-        <v>1921</v>
+        <v>41</v>
       </c>
       <c r="F116" s="3">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L116" t="s">
         <v>16</v>
@@ -5964,25 +5808,25 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B117" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C117" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="D117" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E117" s="3">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F117" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -5999,26 +5843,26 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B118" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C118" t="s">
-        <v>386</v>
+        <v>182</v>
       </c>
       <c r="D118" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E118" s="3">
+        <v>268</v>
+      </c>
+      <c r="F118" s="3">
+        <v>23</v>
+      </c>
+      <c r="G118" s="3">
         <v>2</v>
       </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="3">
-        <v>0</v>
-      </c>
       <c r="H118" s="3">
         <v>0</v>
       </c>
@@ -6026,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L118" t="s">
         <v>16</v>
@@ -6034,34 +5878,34 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B119" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C119" t="s">
-        <v>375</v>
+        <v>46</v>
       </c>
       <c r="D119" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E119" s="3">
-        <v>2</v>
+        <v>4463</v>
       </c>
       <c r="F119" s="3">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="G119" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L119" t="s">
         <v>16</v>
@@ -6069,28 +5913,28 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B120" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C120" t="s">
-        <v>393</v>
+        <v>266</v>
       </c>
       <c r="D120" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E120" s="3">
-        <v>110</v>
+        <v>8644</v>
       </c>
       <c r="F120" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
       </c>
       <c r="H120" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6104,28 +5948,28 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B121" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C121" t="s">
-        <v>397</v>
+        <v>288</v>
       </c>
       <c r="D121" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E121" s="3">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="F121" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G121" s="3">
         <v>0</v>
       </c>
       <c r="H121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -6139,34 +5983,34 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B122" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C122" t="s">
-        <v>401</v>
+        <v>90</v>
       </c>
       <c r="D122" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E122" s="3">
-        <v>94</v>
+        <v>4759</v>
       </c>
       <c r="F122" s="3">
+        <v>129</v>
+      </c>
+      <c r="G122" s="3">
         <v>6</v>
       </c>
-      <c r="G122" s="3">
-        <v>2</v>
-      </c>
       <c r="H122" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
@@ -6174,25 +6018,25 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B123" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="D123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E123" s="3">
-        <v>511312</v>
+        <v>617</v>
       </c>
       <c r="F123" s="3">
-        <v>15167</v>
+        <v>0</v>
       </c>
       <c r="G123" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H123" s="3">
         <v>1</v>
@@ -6201,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6215,19 +6059,19 @@
         <v>408</v>
       </c>
       <c r="C124" t="s">
-        <v>319</v>
+        <v>90</v>
       </c>
       <c r="D124" t="s">
         <v>409</v>
       </c>
       <c r="E124" s="3">
-        <v>74</v>
+        <v>74953</v>
       </c>
       <c r="F124" s="3">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="G124" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
@@ -6236,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -6250,31 +6094,31 @@
         <v>411</v>
       </c>
       <c r="C125" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
         <v>412</v>
       </c>
       <c r="E125" s="3">
-        <v>1760</v>
+        <v>472979</v>
       </c>
       <c r="F125" s="3">
-        <v>141</v>
+        <v>20185</v>
       </c>
       <c r="G125" s="3">
-        <v>57</v>
+        <v>515</v>
       </c>
       <c r="H125" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="L125" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6285,13 +6129,13 @@
         <v>414</v>
       </c>
       <c r="C126" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
       <c r="D126" t="s">
         <v>415</v>
       </c>
       <c r="E126" s="3">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -6300,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -6320,19 +6164,19 @@
         <v>417</v>
       </c>
       <c r="C127" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D127" t="s">
         <v>418</v>
       </c>
       <c r="E127" s="3">
-        <v>2883</v>
+        <v>25592</v>
       </c>
       <c r="F127" s="3">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="G127" s="3">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -6341,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -6355,19 +6199,19 @@
         <v>420</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="D128" t="s">
         <v>421</v>
       </c>
       <c r="E128" s="3">
-        <v>566966</v>
+        <v>87</v>
       </c>
       <c r="F128" s="3">
-        <v>18782</v>
+        <v>0</v>
       </c>
       <c r="G128" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H128" s="3">
         <v>1</v>
@@ -6376,10 +6220,10 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6390,13 +6234,13 @@
         <v>423</v>
       </c>
       <c r="C129" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="D129" t="s">
         <v>424</v>
       </c>
       <c r="E129" s="3">
-        <v>87</v>
+        <v>2053</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -6425,19 +6269,19 @@
         <v>426</v>
       </c>
       <c r="C130" t="s">
-        <v>401</v>
+        <v>250</v>
       </c>
       <c r="D130" t="s">
         <v>427</v>
       </c>
       <c r="E130" s="3">
-        <v>88</v>
+        <v>18665</v>
       </c>
       <c r="F130" s="3">
-        <v>3</v>
+        <v>659</v>
       </c>
       <c r="G130" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H130" s="3">
         <v>1</v>
@@ -6446,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L130" t="s">
         <v>16</v>
@@ -6460,31 +6304,31 @@
         <v>429</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>316</v>
       </c>
       <c r="D131" t="s">
         <v>430</v>
       </c>
       <c r="E131" s="3">
-        <v>472979</v>
+        <v>6</v>
       </c>
       <c r="F131" s="3">
-        <v>20185</v>
+        <v>0</v>
       </c>
       <c r="G131" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6495,13 +6339,13 @@
         <v>432</v>
       </c>
       <c r="C132" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="D132" t="s">
         <v>433</v>
       </c>
       <c r="E132" s="3">
-        <v>428</v>
+        <v>844</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -6554,7 +6398,7 @@
         <v>130</v>
       </c>
       <c r="L133" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6565,19 +6409,19 @@
         <v>438</v>
       </c>
       <c r="C134" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
         <v>439</v>
       </c>
       <c r="E134" s="3">
-        <v>8968</v>
+        <v>4183126</v>
       </c>
       <c r="F134" s="3">
-        <v>117</v>
+        <v>49430</v>
       </c>
       <c r="G134" s="3">
-        <v>15</v>
+        <v>5701</v>
       </c>
       <c r="H134" s="3">
         <v>1</v>
@@ -6586,10 +6430,10 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>43</v>
+        <v>1196</v>
       </c>
       <c r="L134" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6600,19 +6444,19 @@
         <v>441</v>
       </c>
       <c r="C135" t="s">
-        <v>319</v>
+        <v>90</v>
       </c>
       <c r="D135" t="s">
         <v>442</v>
       </c>
       <c r="E135" s="3">
-        <v>95</v>
+        <v>8968</v>
       </c>
       <c r="F135" s="3">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G135" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H135" s="3">
         <v>1</v>
@@ -6621,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L135" t="s">
         <v>16</v>
@@ -6635,19 +6479,19 @@
         <v>444</v>
       </c>
       <c r="C136" t="s">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="D136" t="s">
         <v>445</v>
       </c>
       <c r="E136" s="3">
-        <v>1237</v>
+        <v>428</v>
       </c>
       <c r="F136" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G136" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H136" s="3">
         <v>1</v>
@@ -6656,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
@@ -6670,28 +6514,28 @@
         <v>447</v>
       </c>
       <c r="C137" t="s">
+        <v>58</v>
+      </c>
+      <c r="D137" t="s">
         <v>448</v>
       </c>
-      <c r="D137" t="s">
-        <v>449</v>
-      </c>
       <c r="E137" s="3">
-        <v>3</v>
+        <v>23164</v>
       </c>
       <c r="F137" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G137" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L137" t="s">
         <v>16</v>
@@ -6699,34 +6543,34 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B138" t="s">
         <v>450</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
+        <v>234</v>
+      </c>
+      <c r="D138" t="s">
         <v>451</v>
       </c>
-      <c r="C138" t="s">
-        <v>109</v>
-      </c>
-      <c r="D138" t="s">
-        <v>452</v>
-      </c>
       <c r="E138" s="3">
-        <v>2078</v>
+        <v>1162</v>
       </c>
       <c r="F138" s="3">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G138" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H138" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="L138" t="s">
         <v>16</v>
@@ -6734,25 +6578,25 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B139" t="s">
         <v>453</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
+        <v>288</v>
+      </c>
+      <c r="D139" t="s">
         <v>454</v>
       </c>
-      <c r="C139" t="s">
-        <v>99</v>
-      </c>
-      <c r="D139" t="s">
-        <v>455</v>
-      </c>
       <c r="E139" s="3">
-        <v>74953</v>
+        <v>74</v>
       </c>
       <c r="F139" s="3">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="G139" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H139" s="3">
         <v>1</v>
@@ -6761,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="L139" t="s">
         <v>16</v>
@@ -6769,25 +6613,25 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B140" t="s">
         <v>456</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
+        <v>90</v>
+      </c>
+      <c r="D140" t="s">
         <v>457</v>
       </c>
-      <c r="C140" t="s">
-        <v>296</v>
-      </c>
-      <c r="D140" t="s">
-        <v>458</v>
-      </c>
       <c r="E140" s="3">
-        <v>69498</v>
+        <v>2883</v>
       </c>
       <c r="F140" s="3">
-        <v>1189</v>
+        <v>42</v>
       </c>
       <c r="G140" s="3">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H140" s="3">
         <v>1</v>
@@ -6796,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="L140" t="s">
         <v>16</v>
@@ -6804,25 +6648,25 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B141" t="s">
         <v>459</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
+        <v>106</v>
+      </c>
+      <c r="D141" t="s">
         <v>460</v>
       </c>
-      <c r="C141" t="s">
-        <v>319</v>
-      </c>
-      <c r="D141" t="s">
-        <v>461</v>
-      </c>
       <c r="E141" s="3">
-        <v>23</v>
+        <v>2078</v>
       </c>
       <c r="F141" s="3">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G141" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H141" s="3">
         <v>1</v>
@@ -6831,604 +6675,9 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B142" t="s">
-        <v>463</v>
-      </c>
-      <c r="C142" t="s">
-        <v>312</v>
-      </c>
-      <c r="D142" t="s">
-        <v>464</v>
-      </c>
-      <c r="E142" s="3">
-        <v>844</v>
-      </c>
-      <c r="F142" s="3">
-        <v>0</v>
-      </c>
-      <c r="G142" s="3">
-        <v>0</v>
-      </c>
-      <c r="H142" s="3">
-        <v>1</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
-      <c r="A143" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B143" t="s">
-        <v>466</v>
-      </c>
-      <c r="C143" t="s">
-        <v>99</v>
-      </c>
-      <c r="D143" t="s">
-        <v>467</v>
-      </c>
-      <c r="E143" s="3">
-        <v>3080</v>
-      </c>
-      <c r="F143" s="3">
-        <v>58</v>
-      </c>
-      <c r="G143" s="3">
-        <v>5</v>
-      </c>
-      <c r="H143" s="3">
-        <v>1</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143">
-        <v>13</v>
-      </c>
-      <c r="L143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B144" t="s">
-        <v>469</v>
-      </c>
-      <c r="C144" t="s">
-        <v>312</v>
-      </c>
-      <c r="D144" t="s">
-        <v>470</v>
-      </c>
-      <c r="E144" s="3">
-        <v>8644</v>
-      </c>
-      <c r="F144" s="3">
-        <v>0</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="3">
-        <v>1</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B145" t="s">
-        <v>472</v>
-      </c>
-      <c r="C145" t="s">
-        <v>397</v>
-      </c>
-      <c r="D145" t="s">
-        <v>473</v>
-      </c>
-      <c r="E145" s="3">
-        <v>41</v>
-      </c>
-      <c r="F145" s="3">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="3">
-        <v>1</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B146" t="s">
-        <v>475</v>
-      </c>
-      <c r="C146" t="s">
-        <v>312</v>
-      </c>
-      <c r="D146" t="s">
-        <v>476</v>
-      </c>
-      <c r="E146" s="3">
-        <v>617</v>
-      </c>
-      <c r="F146" s="3">
-        <v>0</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="3">
-        <v>1</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B147" t="s">
-        <v>478</v>
-      </c>
-      <c r="C147" t="s">
-        <v>99</v>
-      </c>
-      <c r="D147" t="s">
-        <v>479</v>
-      </c>
-      <c r="E147" s="3">
-        <v>4759</v>
-      </c>
-      <c r="F147" s="3">
-        <v>129</v>
-      </c>
-      <c r="G147" s="3">
-        <v>6</v>
-      </c>
-      <c r="H147" s="3">
-        <v>1</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>20</v>
-      </c>
-      <c r="L147" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B148" t="s">
-        <v>481</v>
-      </c>
-      <c r="C148" t="s">
-        <v>149</v>
-      </c>
-      <c r="D148" t="s">
-        <v>482</v>
-      </c>
-      <c r="E148" s="3">
-        <v>783</v>
-      </c>
-      <c r="F148" s="3">
-        <v>82</v>
-      </c>
-      <c r="G148" s="3">
-        <v>4</v>
-      </c>
-      <c r="H148" s="3">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>10</v>
-      </c>
-      <c r="L148" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B149" t="s">
-        <v>484</v>
-      </c>
-      <c r="C149" t="s">
-        <v>319</v>
-      </c>
-      <c r="D149" t="s">
-        <v>485</v>
-      </c>
-      <c r="E149" s="3">
-        <v>239</v>
-      </c>
-      <c r="F149" s="3">
-        <v>2</v>
-      </c>
-      <c r="G149" s="3">
-        <v>0</v>
-      </c>
-      <c r="H149" s="3">
-        <v>1</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B150" t="s">
-        <v>487</v>
-      </c>
-      <c r="C150" t="s">
-        <v>61</v>
-      </c>
-      <c r="D150" t="s">
-        <v>488</v>
-      </c>
-      <c r="E150" s="3">
-        <v>23164</v>
-      </c>
-      <c r="F150" s="3">
-        <v>162</v>
-      </c>
-      <c r="G150" s="3">
-        <v>8</v>
-      </c>
-      <c r="H150" s="3">
-        <v>1</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>4</v>
-      </c>
-      <c r="L150" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B151" t="s">
-        <v>490</v>
-      </c>
-      <c r="C151" t="s">
-        <v>99</v>
-      </c>
-      <c r="D151" t="s">
-        <v>491</v>
-      </c>
-      <c r="E151" s="3">
-        <v>25592</v>
-      </c>
-      <c r="F151" s="3">
-        <v>221</v>
-      </c>
-      <c r="G151" s="3">
-        <v>29</v>
-      </c>
-      <c r="H151" s="3">
-        <v>1</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>79</v>
-      </c>
-      <c r="L151" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B152" t="s">
-        <v>493</v>
-      </c>
-      <c r="C152" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" t="s">
-        <v>494</v>
-      </c>
-      <c r="E152" s="3">
-        <v>4183126</v>
-      </c>
-      <c r="F152" s="3">
-        <v>49430</v>
-      </c>
-      <c r="G152" s="3">
-        <v>5701</v>
-      </c>
-      <c r="H152" s="3">
-        <v>1</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>1196</v>
-      </c>
-      <c r="L152" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B153" t="s">
-        <v>496</v>
-      </c>
-      <c r="C153" t="s">
-        <v>312</v>
-      </c>
-      <c r="D153" t="s">
-        <v>497</v>
-      </c>
-      <c r="E153" s="3">
-        <v>4640</v>
-      </c>
-      <c r="F153" s="3">
-        <v>0</v>
-      </c>
-      <c r="G153" s="3">
-        <v>0</v>
-      </c>
-      <c r="H153" s="3">
-        <v>1</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B154" t="s">
-        <v>499</v>
-      </c>
-      <c r="C154" t="s">
-        <v>375</v>
-      </c>
-      <c r="D154" t="s">
-        <v>500</v>
-      </c>
-      <c r="E154" s="3">
-        <v>6</v>
-      </c>
-      <c r="F154" s="3">
-        <v>0</v>
-      </c>
-      <c r="G154" s="3">
-        <v>0</v>
-      </c>
-      <c r="H154" s="3">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="L154" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B155" t="s">
-        <v>502</v>
-      </c>
-      <c r="C155" t="s">
-        <v>296</v>
-      </c>
-      <c r="D155" t="s">
-        <v>503</v>
-      </c>
-      <c r="E155" s="3">
-        <v>18665</v>
-      </c>
-      <c r="F155" s="3">
-        <v>659</v>
-      </c>
-      <c r="G155" s="3">
-        <v>14</v>
-      </c>
-      <c r="H155" s="3">
-        <v>1</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <v>109</v>
-      </c>
-      <c r="L155" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="A156" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B156" t="s">
-        <v>505</v>
-      </c>
-      <c r="C156" t="s">
-        <v>312</v>
-      </c>
-      <c r="D156" t="s">
-        <v>506</v>
-      </c>
-      <c r="E156" s="3">
-        <v>152</v>
-      </c>
-      <c r="F156" s="3">
-        <v>0</v>
-      </c>
-      <c r="G156" s="3">
-        <v>0</v>
-      </c>
-      <c r="H156" s="3">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B157" t="s">
-        <v>508</v>
-      </c>
-      <c r="C157" t="s">
-        <v>296</v>
-      </c>
-      <c r="D157" t="s">
-        <v>509</v>
-      </c>
-      <c r="E157" s="3">
-        <v>24890</v>
-      </c>
-      <c r="F157" s="3">
-        <v>1321</v>
-      </c>
-      <c r="G157" s="3">
-        <v>34</v>
-      </c>
-      <c r="H157" s="3">
-        <v>1</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>154</v>
-      </c>
-      <c r="L157" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="A158" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B158" t="s">
-        <v>511</v>
-      </c>
-      <c r="C158" t="s">
-        <v>312</v>
-      </c>
-      <c r="D158" t="s">
-        <v>512</v>
-      </c>
-      <c r="E158" s="3">
-        <v>2053</v>
-      </c>
-      <c r="F158" s="3">
-        <v>0</v>
-      </c>
-      <c r="G158" s="3">
-        <v>0</v>
-      </c>
-      <c r="H158" s="3">
-        <v>1</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="L158" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7573,23 +6822,6 @@
     <hyperlink ref="A139" r:id="rId137"/>
     <hyperlink ref="A140" r:id="rId138"/>
     <hyperlink ref="A141" r:id="rId139"/>
-    <hyperlink ref="A142" r:id="rId140"/>
-    <hyperlink ref="A143" r:id="rId141"/>
-    <hyperlink ref="A144" r:id="rId142"/>
-    <hyperlink ref="A145" r:id="rId143"/>
-    <hyperlink ref="A146" r:id="rId144"/>
-    <hyperlink ref="A147" r:id="rId145"/>
-    <hyperlink ref="A148" r:id="rId146"/>
-    <hyperlink ref="A149" r:id="rId147"/>
-    <hyperlink ref="A150" r:id="rId148"/>
-    <hyperlink ref="A151" r:id="rId149"/>
-    <hyperlink ref="A152" r:id="rId150"/>
-    <hyperlink ref="A153" r:id="rId151"/>
-    <hyperlink ref="A154" r:id="rId152"/>
-    <hyperlink ref="A155" r:id="rId153"/>
-    <hyperlink ref="A156" r:id="rId154"/>
-    <hyperlink ref="A157" r:id="rId155"/>
-    <hyperlink ref="A158" r:id="rId156"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7597,7 +6829,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7612,7 +6844,7 @@
         <v>19</v>
       </c>
       <c r="B1">
-        <v>443539</v>
+        <v>419110</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7620,52 +6852,52 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>173629</v>
+        <v>148490</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>39727</v>
+        <v>39503</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4">
-        <v>35457</v>
+        <v>34062</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>34210</v>
+        <v>33788</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>25616</v>
+        <v>24115</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7">
-        <v>12854</v>
+        <v>12811</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>9798</v>
@@ -7673,135 +6905,135 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>8340</v>
+        <v>5531</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10">
-        <v>5950</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B11">
-        <v>5744</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B12">
-        <v>5563</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B13">
-        <v>4897</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="B14">
-        <v>4153</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B15">
-        <v>2129</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B16">
-        <v>811</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="B17">
-        <v>260</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B18">
-        <v>194</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="B19">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="B20">
-        <v>140</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B22">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -7809,15 +7041,15 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7825,7 +7057,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7833,17 +7065,9 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>448</v>
-      </c>
-      <c r="B30">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -656,6 +656,15 @@
     <t>2019-12-12T15:15:00.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
   </si>
   <si>
@@ -668,15 +677,6 @@
     <t>2019-11-30T05:00:09.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
   </si>
   <si>
@@ -848,6 +848,15 @@
     <t>2019-12-11T11:48:28.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
   </si>
   <si>
@@ -857,15 +866,6 @@
     <t>2019-12-18T18:50:33.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
   </si>
   <si>
@@ -983,6 +983,36 @@
     <t>2018-02-12T11:51:48.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
   </si>
   <si>
@@ -995,36 +1025,6 @@
     <t>2019-12-17T16:27:09.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
   </si>
   <si>
@@ -1037,6 +1037,18 @@
     <t>2019-01-28T18:58:55.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
   </si>
   <si>
@@ -1049,16 +1061,142 @@
     <t>2019-11-28T14:00:58.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
@@ -1070,6 +1208,141 @@
     <t>2016-01-30T15:42:55.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
+  </si>
+  <si>
+    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:18:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
   </si>
   <si>
@@ -1079,6 +1352,42 @@
     <t>2019-12-10T17:18:10.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
+  </si>
+  <si>
+    <t>2019-11-26T22:20:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
   </si>
   <si>
@@ -1089,315 +1398,6 @@
   </si>
   <si>
     <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
-  </si>
-  <si>
-    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:18:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
-  </si>
-  <si>
-    <t>2019-11-26T22:20:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -3959,19 +3959,19 @@
         <v>214</v>
       </c>
       <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" t="s">
         <v>215</v>
       </c>
-      <c r="D64" t="s">
-        <v>216</v>
-      </c>
       <c r="E64" s="3">
-        <v>2165</v>
+        <v>175</v>
       </c>
       <c r="F64" s="3">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
@@ -3988,25 +3988,25 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" t="s">
         <v>217</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>218</v>
-      </c>
-      <c r="C65" t="s">
-        <v>106</v>
       </c>
       <c r="D65" t="s">
         <v>219</v>
       </c>
       <c r="E65" s="3">
-        <v>175</v>
+        <v>2165</v>
       </c>
       <c r="F65" s="3">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
@@ -4659,7 +4659,7 @@
         <v>278</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D84" t="s">
         <v>279</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -4694,7 +4694,7 @@
         <v>281</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D85" t="s">
         <v>282</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
@@ -5149,19 +5149,19 @@
         <v>323</v>
       </c>
       <c r="C98" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" t="s">
         <v>324</v>
       </c>
-      <c r="D98" t="s">
-        <v>325</v>
-      </c>
       <c r="E98" s="3">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F98" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -5178,16 +5178,16 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B99" t="s">
         <v>326</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>327</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>328</v>
-      </c>
-      <c r="D99" t="s">
-        <v>329</v>
       </c>
       <c r="E99" s="3">
         <v>1921</v>
@@ -5213,16 +5213,16 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B100" t="s">
         <v>330</v>
-      </c>
-      <c r="B100" t="s">
-        <v>331</v>
       </c>
       <c r="C100" t="s">
         <v>316</v>
       </c>
       <c r="D100" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E100" s="3">
         <v>2</v>
@@ -5248,25 +5248,25 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B101" t="s">
         <v>333</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>334</v>
-      </c>
-      <c r="C101" t="s">
-        <v>205</v>
       </c>
       <c r="D101" t="s">
         <v>335</v>
       </c>
       <c r="E101" s="3">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F101" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5330,13 +5330,13 @@
         <v>343</v>
       </c>
       <c r="E103" s="3">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F103" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G103" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5365,13 +5365,13 @@
         <v>347</v>
       </c>
       <c r="E104" s="3">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F104" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G104" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5394,19 +5394,19 @@
         <v>349</v>
       </c>
       <c r="C105" t="s">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="D105" t="s">
         <v>350</v>
       </c>
       <c r="E105" s="3">
-        <v>69498</v>
+        <v>74953</v>
       </c>
       <c r="F105" s="3">
-        <v>1189</v>
+        <v>1016</v>
       </c>
       <c r="G105" s="3">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H105" s="3">
         <v>1</v>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
@@ -5429,28 +5429,28 @@
         <v>352</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D106" t="s">
         <v>353</v>
       </c>
       <c r="E106" s="3">
-        <v>575</v>
+        <v>4759</v>
       </c>
       <c r="F106" s="3">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="G106" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L106" t="s">
         <v>16</v>
@@ -5464,13 +5464,13 @@
         <v>355</v>
       </c>
       <c r="C107" t="s">
+        <v>288</v>
+      </c>
+      <c r="D107" t="s">
         <v>356</v>
       </c>
-      <c r="D107" t="s">
-        <v>357</v>
-      </c>
       <c r="E107" s="3">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -5493,34 +5493,34 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B108" t="s">
         <v>358</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
+        <v>316</v>
+      </c>
+      <c r="D108" t="s">
         <v>359</v>
       </c>
-      <c r="C108" t="s">
-        <v>106</v>
-      </c>
-      <c r="D108" t="s">
-        <v>360</v>
-      </c>
       <c r="E108" s="3">
-        <v>1237</v>
+        <v>6</v>
       </c>
       <c r="F108" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G108" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H108" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L108" t="s">
         <v>16</v>
@@ -5528,25 +5528,25 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B109" t="s">
         <v>361</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>266</v>
+      </c>
+      <c r="D109" t="s">
         <v>362</v>
       </c>
-      <c r="C109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" t="s">
-        <v>363</v>
-      </c>
       <c r="E109" s="3">
-        <v>511312</v>
+        <v>4640</v>
       </c>
       <c r="F109" s="3">
-        <v>15167</v>
+        <v>0</v>
       </c>
       <c r="G109" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H109" s="3">
         <v>1</v>
@@ -5555,30 +5555,30 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>364</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B110" t="s">
+        <v>364</v>
+      </c>
+      <c r="C110" t="s">
+        <v>288</v>
+      </c>
+      <c r="D110" t="s">
         <v>365</v>
       </c>
-      <c r="B110" t="s">
-        <v>366</v>
-      </c>
-      <c r="C110" t="s">
-        <v>346</v>
-      </c>
-      <c r="D110" t="s">
-        <v>367</v>
-      </c>
       <c r="E110" s="3">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="F110" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G110" s="3">
         <v>0</v>
@@ -5598,25 +5598,25 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B111" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E111" s="3">
-        <v>566966</v>
+        <v>472979</v>
       </c>
       <c r="F111" s="3">
-        <v>18782</v>
+        <v>20185</v>
       </c>
       <c r="G111" s="3">
-        <v>416</v>
+        <v>515</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
@@ -5625,30 +5625,30 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="L111" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B112" t="s">
         <v>371</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>266</v>
+      </c>
+      <c r="D112" t="s">
         <v>372</v>
       </c>
-      <c r="C112" t="s">
-        <v>288</v>
-      </c>
-      <c r="D112" t="s">
-        <v>373</v>
-      </c>
       <c r="E112" s="3">
-        <v>23</v>
+        <v>8644</v>
       </c>
       <c r="F112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="3">
         <v>0</v>
@@ -5668,25 +5668,25 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B113" t="s">
         <v>374</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" t="s">
         <v>375</v>
       </c>
-      <c r="C113" t="s">
-        <v>266</v>
-      </c>
-      <c r="D113" t="s">
-        <v>376</v>
-      </c>
       <c r="E113" s="3">
-        <v>4640</v>
+        <v>23164</v>
       </c>
       <c r="F113" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G113" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H113" s="3">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L113" t="s">
         <v>16</v>
@@ -5703,25 +5703,25 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B114" t="s">
         <v>377</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
+        <v>106</v>
+      </c>
+      <c r="D114" t="s">
         <v>378</v>
       </c>
-      <c r="C114" t="s">
-        <v>90</v>
-      </c>
-      <c r="D114" t="s">
-        <v>379</v>
-      </c>
       <c r="E114" s="3">
-        <v>3080</v>
+        <v>2078</v>
       </c>
       <c r="F114" s="3">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G114" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H114" s="3">
         <v>1</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="L114" t="s">
         <v>16</v>
@@ -5738,25 +5738,25 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B115" t="s">
         <v>380</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>342</v>
+      </c>
+      <c r="D115" t="s">
         <v>381</v>
       </c>
-      <c r="C115" t="s">
-        <v>250</v>
-      </c>
-      <c r="D115" t="s">
-        <v>382</v>
-      </c>
       <c r="E115" s="3">
-        <v>24890</v>
+        <v>88</v>
       </c>
       <c r="F115" s="3">
-        <v>1321</v>
+        <v>3</v>
       </c>
       <c r="G115" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H115" s="3">
         <v>1</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L115" t="s">
         <v>16</v>
@@ -5773,22 +5773,22 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B116" t="s">
         <v>383</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>288</v>
+      </c>
+      <c r="D116" t="s">
         <v>384</v>
       </c>
-      <c r="C116" t="s">
-        <v>342</v>
-      </c>
-      <c r="D116" t="s">
-        <v>385</v>
-      </c>
       <c r="E116" s="3">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" s="3">
         <v>0</v>
@@ -5808,34 +5808,34 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B117" t="s">
         <v>386</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>46</v>
+      </c>
+      <c r="D117" t="s">
         <v>387</v>
       </c>
-      <c r="C117" t="s">
-        <v>324</v>
-      </c>
-      <c r="D117" t="s">
-        <v>388</v>
-      </c>
       <c r="E117" s="3">
-        <v>1</v>
+        <v>4463</v>
       </c>
       <c r="F117" s="3">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="G117" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L117" t="s">
         <v>16</v>
@@ -5843,34 +5843,34 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B118" t="s">
         <v>389</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
+        <v>266</v>
+      </c>
+      <c r="D118" t="s">
         <v>390</v>
       </c>
-      <c r="C118" t="s">
-        <v>182</v>
-      </c>
-      <c r="D118" t="s">
-        <v>391</v>
-      </c>
       <c r="E118" s="3">
-        <v>268</v>
+        <v>428</v>
       </c>
       <c r="F118" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G118" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H118" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L118" t="s">
         <v>16</v>
@@ -5878,25 +5878,25 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B119" t="s">
         <v>392</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
+        <v>288</v>
+      </c>
+      <c r="D119" t="s">
         <v>393</v>
       </c>
-      <c r="C119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D119" t="s">
-        <v>394</v>
-      </c>
       <c r="E119" s="3">
-        <v>4463</v>
+        <v>239</v>
       </c>
       <c r="F119" s="3">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="G119" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H119" s="3">
         <v>1</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L119" t="s">
         <v>16</v>
@@ -5913,25 +5913,25 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B120" t="s">
         <v>395</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
+        <v>250</v>
+      </c>
+      <c r="D120" t="s">
         <v>396</v>
       </c>
-      <c r="C120" t="s">
-        <v>266</v>
-      </c>
-      <c r="D120" t="s">
-        <v>397</v>
-      </c>
       <c r="E120" s="3">
-        <v>8644</v>
+        <v>69498</v>
       </c>
       <c r="F120" s="3">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G120" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H120" s="3">
         <v>1</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L120" t="s">
         <v>16</v>
@@ -5948,25 +5948,25 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B121" t="s">
         <v>398</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121" t="s">
         <v>399</v>
       </c>
-      <c r="C121" t="s">
-        <v>288</v>
-      </c>
-      <c r="D121" t="s">
-        <v>400</v>
-      </c>
       <c r="E121" s="3">
-        <v>239</v>
+        <v>3080</v>
       </c>
       <c r="F121" s="3">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="G121" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H121" s="3">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -5983,25 +5983,25 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B122" t="s">
         <v>401</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" t="s">
         <v>402</v>
       </c>
-      <c r="C122" t="s">
-        <v>90</v>
-      </c>
-      <c r="D122" t="s">
-        <v>403</v>
-      </c>
       <c r="E122" s="3">
-        <v>4759</v>
+        <v>87</v>
       </c>
       <c r="F122" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="G122" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H122" s="3">
         <v>1</v>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
@@ -6018,25 +6018,25 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B123" t="s">
         <v>404</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>90</v>
+      </c>
+      <c r="D123" t="s">
         <v>405</v>
       </c>
-      <c r="C123" t="s">
-        <v>266</v>
-      </c>
-      <c r="D123" t="s">
-        <v>406</v>
-      </c>
       <c r="E123" s="3">
-        <v>617</v>
+        <v>25592</v>
       </c>
       <c r="F123" s="3">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G123" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H123" s="3">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L123" t="s">
         <v>16</v>
@@ -6053,25 +6053,25 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B124" t="s">
         <v>407</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
         <v>408</v>
       </c>
-      <c r="C124" t="s">
-        <v>90</v>
-      </c>
-      <c r="D124" t="s">
-        <v>409</v>
-      </c>
       <c r="E124" s="3">
-        <v>74953</v>
+        <v>4183126</v>
       </c>
       <c r="F124" s="3">
-        <v>1016</v>
+        <v>49430</v>
       </c>
       <c r="G124" s="3">
-        <v>29</v>
+        <v>5701</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
@@ -6080,33 +6080,33 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>212</v>
+        <v>1196</v>
       </c>
       <c r="L124" t="s">
-        <v>16</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B125" t="s">
         <v>410</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
+        <v>266</v>
+      </c>
+      <c r="D125" t="s">
         <v>411</v>
       </c>
-      <c r="C125" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" t="s">
-        <v>412</v>
-      </c>
       <c r="E125" s="3">
-        <v>472979</v>
+        <v>2053</v>
       </c>
       <c r="F125" s="3">
-        <v>20185</v>
+        <v>0</v>
       </c>
       <c r="G125" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H125" s="3">
         <v>1</v>
@@ -6115,33 +6115,33 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>364</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B126" t="s">
         <v>413</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126" t="s">
         <v>414</v>
       </c>
-      <c r="C126" t="s">
-        <v>288</v>
-      </c>
-      <c r="D126" t="s">
-        <v>415</v>
-      </c>
       <c r="E126" s="3">
-        <v>95</v>
+        <v>8968</v>
       </c>
       <c r="F126" s="3">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G126" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H126" s="3">
         <v>1</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L126" t="s">
         <v>16</v>
@@ -6158,25 +6158,25 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B127" t="s">
         <v>416</v>
-      </c>
-      <c r="B127" t="s">
-        <v>417</v>
       </c>
       <c r="C127" t="s">
         <v>90</v>
       </c>
       <c r="D127" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E127" s="3">
-        <v>25592</v>
+        <v>2883</v>
       </c>
       <c r="F127" s="3">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="G127" s="3">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -6193,19 +6193,19 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B128" t="s">
         <v>419</v>
-      </c>
-      <c r="B128" t="s">
-        <v>420</v>
       </c>
       <c r="C128" t="s">
         <v>266</v>
       </c>
       <c r="D128" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E128" s="3">
-        <v>87</v>
+        <v>844</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -6228,22 +6228,22 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B129" t="s">
         <v>422</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
+        <v>346</v>
+      </c>
+      <c r="D129" t="s">
         <v>423</v>
       </c>
-      <c r="C129" t="s">
-        <v>266</v>
-      </c>
-      <c r="D129" t="s">
-        <v>424</v>
-      </c>
       <c r="E129" s="3">
-        <v>2053</v>
+        <v>41</v>
       </c>
       <c r="F129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="3">
         <v>0</v>
@@ -6263,34 +6263,34 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B130" t="s">
         <v>425</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>334</v>
+      </c>
+      <c r="D130" t="s">
         <v>426</v>
       </c>
-      <c r="C130" t="s">
-        <v>250</v>
-      </c>
-      <c r="D130" t="s">
-        <v>427</v>
-      </c>
       <c r="E130" s="3">
-        <v>18665</v>
+        <v>1</v>
       </c>
       <c r="F130" s="3">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G130" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L130" t="s">
         <v>16</v>
@@ -6298,60 +6298,60 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B131" t="s">
         <v>428</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
         <v>429</v>
       </c>
-      <c r="C131" t="s">
-        <v>316</v>
-      </c>
-      <c r="D131" t="s">
-        <v>430</v>
-      </c>
       <c r="E131" s="3">
-        <v>6</v>
+        <v>566966</v>
       </c>
       <c r="F131" s="3">
-        <v>0</v>
+        <v>18782</v>
       </c>
       <c r="G131" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H131" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L131" t="s">
-        <v>16</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B132" t="s">
         <v>431</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
+        <v>106</v>
+      </c>
+      <c r="D132" t="s">
         <v>432</v>
       </c>
-      <c r="C132" t="s">
-        <v>266</v>
-      </c>
-      <c r="D132" t="s">
-        <v>433</v>
-      </c>
       <c r="E132" s="3">
-        <v>844</v>
+        <v>1237</v>
       </c>
       <c r="F132" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G132" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L132" t="s">
         <v>16</v>
@@ -6368,61 +6368,61 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B133" t="s">
         <v>434</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
+        <v>182</v>
+      </c>
+      <c r="D133" t="s">
         <v>435</v>
       </c>
-      <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" t="s">
-        <v>436</v>
-      </c>
       <c r="E133" s="3">
-        <v>222595</v>
+        <v>268</v>
       </c>
       <c r="F133" s="3">
-        <v>9022</v>
+        <v>23</v>
       </c>
       <c r="G133" s="3">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="H133" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="L133" t="s">
-        <v>364</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B134" t="s">
         <v>437</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>250</v>
+      </c>
+      <c r="D134" t="s">
         <v>438</v>
       </c>
-      <c r="C134" t="s">
+      <c r="E134" s="3">
+        <v>18665</v>
+      </c>
+      <c r="F134" s="3">
+        <v>659</v>
+      </c>
+      <c r="G134" s="3">
         <v>14</v>
       </c>
-      <c r="D134" t="s">
-        <v>439</v>
-      </c>
-      <c r="E134" s="3">
-        <v>4183126</v>
-      </c>
-      <c r="F134" s="3">
-        <v>49430</v>
-      </c>
-      <c r="G134" s="3">
-        <v>5701</v>
-      </c>
       <c r="H134" s="3">
         <v>1</v>
       </c>
@@ -6430,33 +6430,33 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>1196</v>
+        <v>109</v>
       </c>
       <c r="L134" t="s">
-        <v>364</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B135" t="s">
         <v>440</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
         <v>441</v>
       </c>
-      <c r="C135" t="s">
-        <v>90</v>
-      </c>
-      <c r="D135" t="s">
-        <v>442</v>
-      </c>
       <c r="E135" s="3">
-        <v>8968</v>
+        <v>222595</v>
       </c>
       <c r="F135" s="3">
-        <v>117</v>
+        <v>9022</v>
       </c>
       <c r="G135" s="3">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="H135" s="3">
         <v>1</v>
@@ -6465,42 +6465,42 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="L135" t="s">
-        <v>16</v>
+        <v>369</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B136" t="s">
         <v>443</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
+        <v>120</v>
+      </c>
+      <c r="D136" t="s">
         <v>444</v>
       </c>
-      <c r="C136" t="s">
-        <v>266</v>
-      </c>
-      <c r="D136" t="s">
-        <v>445</v>
-      </c>
       <c r="E136" s="3">
-        <v>428</v>
+        <v>575</v>
       </c>
       <c r="F136" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G136" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L136" t="s">
         <v>16</v>
@@ -6508,25 +6508,25 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B137" t="s">
         <v>446</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
+        <v>266</v>
+      </c>
+      <c r="D137" t="s">
         <v>447</v>
       </c>
-      <c r="C137" t="s">
-        <v>58</v>
-      </c>
-      <c r="D137" t="s">
-        <v>448</v>
-      </c>
       <c r="E137" s="3">
-        <v>23164</v>
+        <v>617</v>
       </c>
       <c r="F137" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G137" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H137" s="3">
         <v>1</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L137" t="s">
         <v>16</v>
@@ -6543,69 +6543,69 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B138" t="s">
         <v>449</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
         <v>450</v>
       </c>
-      <c r="C138" t="s">
-        <v>234</v>
-      </c>
-      <c r="D138" t="s">
-        <v>451</v>
-      </c>
       <c r="E138" s="3">
-        <v>1162</v>
+        <v>511312</v>
       </c>
       <c r="F138" s="3">
-        <v>39</v>
+        <v>15167</v>
       </c>
       <c r="G138" s="3">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="H138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="L138" t="s">
-        <v>16</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B139" t="s">
         <v>452</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
+        <v>234</v>
+      </c>
+      <c r="D139" t="s">
         <v>453</v>
       </c>
-      <c r="C139" t="s">
-        <v>288</v>
-      </c>
-      <c r="D139" t="s">
-        <v>454</v>
-      </c>
       <c r="E139" s="3">
-        <v>74</v>
+        <v>1162</v>
       </c>
       <c r="F139" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G139" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L139" t="s">
         <v>16</v>
@@ -6613,25 +6613,25 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B140" t="s">
         <v>455</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
+        <v>250</v>
+      </c>
+      <c r="D140" t="s">
         <v>456</v>
       </c>
-      <c r="C140" t="s">
-        <v>90</v>
-      </c>
-      <c r="D140" t="s">
-        <v>457</v>
-      </c>
       <c r="E140" s="3">
-        <v>2883</v>
+        <v>24890</v>
       </c>
       <c r="F140" s="3">
-        <v>42</v>
+        <v>1321</v>
       </c>
       <c r="G140" s="3">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H140" s="3">
         <v>1</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="L140" t="s">
         <v>16</v>
@@ -6648,34 +6648,34 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B141" t="s">
         <v>458</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>459</v>
-      </c>
-      <c r="C141" t="s">
-        <v>106</v>
       </c>
       <c r="D141" t="s">
         <v>460</v>
       </c>
       <c r="E141" s="3">
-        <v>2078</v>
+        <v>3</v>
       </c>
       <c r="F141" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G141" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L141" t="s">
         <v>16</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B17">
         <v>175</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>356</v>
+        <v>459</v>
       </c>
       <c r="B29">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="445">
   <si>
     <t>URL</t>
   </si>
@@ -68,69 +68,69 @@
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
+  </si>
+  <si>
+    <t>RETRAITES : Le ras-le-bol est général.</t>
+  </si>
+  <si>
+    <t>2019-12-22T19:50:20.000Z</t>
+  </si>
+  <si>
+    <t>['JEAN-LUC MÉLENCHON']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
   </si>
   <si>
     <t>Macron veut la retraite à 64 ans !</t>
   </si>
   <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
     <t>2019-12-11T20:00:22.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
-  </si>
-  <si>
-    <t>RETRAITES : Le ras-le-bol est général.</t>
-  </si>
-  <si>
-    <t>2019-12-22T19:50:20.000Z</t>
-  </si>
-  <si>
-    <t>['JEAN-LUC MÉLENCHON']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
   </si>
   <si>
@@ -140,6 +140,18 @@
     <t>2019-12-18T21:54:39.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
   </si>
   <si>
@@ -149,18 +161,6 @@
     <t>2019-12-09T17:00:07.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
   </si>
   <si>
@@ -173,232 +173,1099 @@
     <t>2019-12-25T15:53:44.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
+  </si>
+  <si>
+    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
+  </si>
+  <si>
+    <t>2019-12-13T20:13:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
   </si>
   <si>
     <t>Telerama</t>
   </si>
   <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
+  </si>
+  <si>
+    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
+  </si>
+  <si>
+    <t>Fred Bes</t>
+  </si>
+  <si>
+    <t>2019-12-20T19:28:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
+  </si>
+  <si>
+    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-13T22:06:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
+  </si>
+  <si>
+    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-24T19:30:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
+  </si>
+  <si>
+    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T18:51:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
+  </si>
+  <si>
+    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
+  </si>
+  <si>
+    <t>2019-12-28T08:24:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T19:13:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
+  </si>
+  <si>
+    <t>comment lire les articles du parisien gratuitement</t>
+  </si>
+  <si>
+    <t>Daniel Dupont</t>
+  </si>
+  <si>
+    <t>2019-12-19T11:02:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
+  </si>
+  <si>
+    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T18:41:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
+  </si>
+  <si>
+    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T18:44:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
+  </si>
+  <si>
+    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T19:07:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
+  </si>
+  <si>
+    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:48:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
+  </si>
+  <si>
+    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
+  </si>
+  <si>
+    <t>2019-12-12T20:47:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
+  </si>
+  <si>
+    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T20:32:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>Ministère Territoires et Collectivités</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
+  </si>
+  <si>
+    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
+  </si>
+  <si>
+    <t>2019-12-09T12:38:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
+  </si>
+  <si>
+    <t>Bientôt de la publicité sur Netflix ?</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:17:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
@@ -410,673 +1277,31 @@
     <t>2019-12-11T21:32:12.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
-  </si>
-  <si>
-    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
-  </si>
-  <si>
-    <t>Fred Bes</t>
-  </si>
-  <si>
-    <t>2019-12-20T19:28:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
-  </si>
-  <si>
-    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-13T22:06:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
-  </si>
-  <si>
-    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-24T19:30:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
-  </si>
-  <si>
-    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
-  </si>
-  <si>
-    <t>2019-12-28T08:24:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>Daniel Dupont</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
-  </si>
-  <si>
-    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T18:41:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
-  </si>
-  <si>
-    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
-  </si>
-  <si>
-    <t>2019-12-11T17:08:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
@@ -1088,153 +1313,6 @@
     <t>2019-07-03T08:38:19.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
   </si>
   <si>
@@ -1244,40 +1322,13 @@
     <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
@@ -1289,78 +1340,6 @@
     <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
-  </si>
-  <si>
-    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:18:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
   </si>
   <si>
@@ -1368,36 +1347,6 @@
   </si>
   <si>
     <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
-  </si>
-  <si>
-    <t>2019-11-26T22:20:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1758,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1865,13 +1814,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>106303</v>
+        <v>75707</v>
       </c>
       <c r="F4" s="3">
-        <v>4496</v>
+        <v>4287</v>
       </c>
       <c r="G4" s="3">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -1880,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -1900,60 +1849,60 @@
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>75707</v>
+        <v>85071</v>
       </c>
       <c r="F5" s="3">
-        <v>4287</v>
+        <v>4248</v>
       </c>
       <c r="G5" s="3">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>628</v>
+        <v>464</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>85071</v>
+        <v>62509</v>
       </c>
       <c r="F6" s="3">
-        <v>4248</v>
+        <v>4841</v>
       </c>
       <c r="G6" s="3">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="H6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1970,13 +1919,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>62509</v>
+        <v>52652</v>
       </c>
       <c r="F7" s="3">
-        <v>4841</v>
+        <v>7833</v>
       </c>
       <c r="G7" s="3">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -1985,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>526</v>
+        <v>346</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1999,54 +1948,54 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>52652</v>
+        <v>269112</v>
       </c>
       <c r="F8" s="3">
-        <v>7833</v>
+        <v>5243</v>
       </c>
       <c r="G8" s="3">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>269112</v>
+        <v>106303</v>
       </c>
       <c r="F9" s="3">
-        <v>5243</v>
+        <v>4496</v>
       </c>
       <c r="G9" s="3">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -2055,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>246</v>
+        <v>647</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -2093,7 +2042,7 @@
         <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2104,28 +2053,28 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3">
-        <v>113046</v>
+        <v>13867</v>
       </c>
       <c r="F11" s="3">
-        <v>8422</v>
+        <v>934</v>
       </c>
       <c r="G11" s="3">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -2133,34 +2082,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>13867</v>
+        <v>113046</v>
       </c>
       <c r="F12" s="3">
-        <v>934</v>
+        <v>8422</v>
       </c>
       <c r="G12" s="3">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -2215,13 +2164,13 @@
         <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>12004</v>
+        <v>9999</v>
       </c>
       <c r="F14" s="3">
-        <v>691</v>
+        <v>357</v>
       </c>
       <c r="G14" s="3">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -2230,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -2244,19 +2193,19 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" s="3">
-        <v>9999</v>
+        <v>7772</v>
       </c>
       <c r="F15" s="3">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -2265,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -2273,25 +2222,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" s="3">
-        <v>7772</v>
+        <v>5880</v>
       </c>
       <c r="F16" s="3">
-        <v>239</v>
+        <v>594</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -2300,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -2308,25 +2257,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
       <c r="E17" s="3">
-        <v>5880</v>
+        <v>5962</v>
       </c>
       <c r="F17" s="3">
-        <v>594</v>
+        <v>765</v>
       </c>
       <c r="G17" s="3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -2335,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -2343,25 +2292,25 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3">
-        <v>5962</v>
+        <v>5083</v>
       </c>
       <c r="F18" s="3">
-        <v>765</v>
+        <v>594</v>
       </c>
       <c r="G18" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -2370,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2378,25 +2327,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
       <c r="E19" s="3">
-        <v>5083</v>
+        <v>4508</v>
       </c>
       <c r="F19" s="3">
-        <v>594</v>
+        <v>446</v>
       </c>
       <c r="G19" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -2405,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -2413,25 +2362,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
       <c r="E20" s="3">
-        <v>4508</v>
+        <v>4358</v>
       </c>
       <c r="F20" s="3">
-        <v>446</v>
+        <v>230</v>
       </c>
       <c r="G20" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -2440,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -2448,25 +2397,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="3">
-        <v>4358</v>
+        <v>5563</v>
       </c>
       <c r="F21" s="3">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="G21" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -2475,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -2489,28 +2438,28 @@
         <v>79</v>
       </c>
       <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
       <c r="E22" s="3">
-        <v>5563</v>
+        <v>3484</v>
       </c>
       <c r="F22" s="3">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="G22" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -2518,34 +2467,34 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>84</v>
-      </c>
       <c r="E23" s="3">
-        <v>3484</v>
+        <v>3021</v>
       </c>
       <c r="F23" s="3">
-        <v>224</v>
+        <v>580</v>
       </c>
       <c r="G23" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -2553,25 +2502,25 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
         <v>85</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>87</v>
       </c>
       <c r="E24" s="3">
-        <v>3021</v>
+        <v>2959</v>
       </c>
       <c r="F24" s="3">
-        <v>580</v>
+        <v>38</v>
       </c>
       <c r="G24" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -2580,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -2594,19 +2543,19 @@
         <v>89</v>
       </c>
       <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
         <v>90</v>
       </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
       <c r="E25" s="3">
-        <v>2959</v>
+        <v>2848</v>
       </c>
       <c r="F25" s="3">
-        <v>38</v>
+        <v>523</v>
       </c>
       <c r="G25" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -2615,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -2623,25 +2572,25 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
         <v>92</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
         <v>93</v>
       </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>94</v>
-      </c>
       <c r="E26" s="3">
-        <v>2848</v>
+        <v>2352</v>
       </c>
       <c r="F26" s="3">
-        <v>523</v>
+        <v>89</v>
       </c>
       <c r="G26" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -2650,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -2658,16 +2607,16 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
         <v>95</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3">
         <v>7431</v>
@@ -2685,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -2693,25 +2642,25 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
       </c>
       <c r="D28" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="3">
-        <v>2352</v>
+        <v>1803</v>
       </c>
       <c r="F28" s="3">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -2720,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -2734,19 +2683,19 @@
         <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29" s="3">
-        <v>11977</v>
+        <v>1663</v>
       </c>
       <c r="F29" s="3">
-        <v>324</v>
+        <v>218</v>
       </c>
       <c r="G29" s="3">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2755,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -2763,25 +2712,25 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
         <v>107</v>
       </c>
       <c r="E30" s="3">
-        <v>1803</v>
+        <v>1593</v>
       </c>
       <c r="F30" s="3">
-        <v>69</v>
+        <v>331</v>
       </c>
       <c r="G30" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -2790,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -2804,19 +2753,19 @@
         <v>109</v>
       </c>
       <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
         <v>110</v>
       </c>
-      <c r="D31" t="s">
-        <v>111</v>
-      </c>
       <c r="E31" s="3">
-        <v>1663</v>
+        <v>1556</v>
       </c>
       <c r="F31" s="3">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="G31" s="3">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -2825,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -2833,25 +2782,25 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
         <v>112</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
       </c>
       <c r="D32" t="s">
         <v>114</v>
       </c>
       <c r="E32" s="3">
-        <v>1593</v>
+        <v>1542</v>
       </c>
       <c r="F32" s="3">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="G32" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2860,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -2874,19 +2823,19 @@
         <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="3">
-        <v>1556</v>
+        <v>1517</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="G33" s="3">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -2895,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -2909,19 +2858,19 @@
         <v>119</v>
       </c>
       <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
         <v>120</v>
       </c>
-      <c r="D34" t="s">
-        <v>121</v>
-      </c>
       <c r="E34" s="3">
-        <v>1542</v>
+        <v>11977</v>
       </c>
       <c r="F34" s="3">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -2930,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -2938,25 +2887,25 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
         <v>122</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
         <v>123</v>
       </c>
-      <c r="C35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" t="s">
-        <v>124</v>
-      </c>
       <c r="E35" s="3">
-        <v>1517</v>
+        <v>1386</v>
       </c>
       <c r="F35" s="3">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="G35" s="3">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -2965,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -2973,22 +2922,22 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
         <v>125</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
         <v>126</v>
       </c>
-      <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" t="s">
-        <v>127</v>
-      </c>
       <c r="E36" s="3">
-        <v>1386</v>
+        <v>1330</v>
       </c>
       <c r="F36" s="3">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G36" s="3">
         <v>3</v>
@@ -3000,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -3008,25 +2957,25 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
         <v>128</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>129</v>
-      </c>
-      <c r="C37" t="s">
-        <v>110</v>
       </c>
       <c r="D37" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="3">
-        <v>1372</v>
+        <v>1274</v>
       </c>
       <c r="F37" s="3">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="G37" s="3">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -3035,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -3049,19 +2998,19 @@
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>1330</v>
+        <v>1254</v>
       </c>
       <c r="F38" s="3">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="G38" s="3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -3070,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -3084,19 +3033,19 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" t="s">
         <v>136</v>
       </c>
-      <c r="D39" t="s">
-        <v>137</v>
-      </c>
       <c r="E39" s="3">
-        <v>1274</v>
+        <v>1185</v>
       </c>
       <c r="F39" s="3">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -3105,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -3113,25 +3062,25 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
         <v>138</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
         <v>139</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" s="3">
+        <v>1084</v>
+      </c>
+      <c r="F40" s="3">
         <v>110</v>
       </c>
-      <c r="D40" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1254</v>
-      </c>
-      <c r="F40" s="3">
-        <v>138</v>
-      </c>
       <c r="G40" s="3">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -3140,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -3148,25 +3097,25 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
         <v>141</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="C41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" t="s">
-        <v>143</v>
-      </c>
       <c r="E41" s="3">
-        <v>1185</v>
+        <v>1080</v>
       </c>
       <c r="F41" s="3">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G41" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -3175,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -3183,25 +3132,25 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" t="s">
         <v>144</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
         <v>145</v>
       </c>
-      <c r="C42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" t="s">
-        <v>146</v>
-      </c>
       <c r="E42" s="3">
-        <v>1084</v>
+        <v>995</v>
       </c>
       <c r="F42" s="3">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G42" s="3">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3210,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3218,25 +3167,25 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
         <v>147</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
         <v>148</v>
       </c>
-      <c r="C43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" t="s">
-        <v>149</v>
-      </c>
       <c r="E43" s="3">
-        <v>1080</v>
+        <v>12342</v>
       </c>
       <c r="F43" s="3">
-        <v>101</v>
+        <v>330</v>
       </c>
       <c r="G43" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3245,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -3253,25 +3202,25 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
         <v>150</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
         <v>151</v>
       </c>
-      <c r="C44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" t="s">
-        <v>152</v>
-      </c>
       <c r="E44" s="3">
-        <v>995</v>
+        <v>691</v>
       </c>
       <c r="F44" s="3">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="G44" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3280,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3288,25 +3237,25 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
         <v>153</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
         <v>154</v>
       </c>
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" t="s">
-        <v>155</v>
-      </c>
       <c r="E45" s="3">
-        <v>12342</v>
+        <v>691</v>
       </c>
       <c r="F45" s="3">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="G45" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3315,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -3323,22 +3272,22 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
         <v>156</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
         <v>157</v>
       </c>
-      <c r="C46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" t="s">
-        <v>158</v>
-      </c>
       <c r="E46" s="3">
-        <v>692</v>
+        <v>653</v>
       </c>
       <c r="F46" s="3">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -3350,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -3358,25 +3307,25 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
         <v>159</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
         <v>160</v>
       </c>
-      <c r="C47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" t="s">
-        <v>161</v>
-      </c>
       <c r="E47" s="3">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="F47" s="3">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3385,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -3393,25 +3342,25 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" t="s">
         <v>162</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" t="s">
         <v>163</v>
       </c>
-      <c r="C48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" t="s">
-        <v>164</v>
-      </c>
       <c r="E48" s="3">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="F48" s="3">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G48" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3420,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -3428,25 +3377,25 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" t="s">
         <v>165</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>166</v>
-      </c>
-      <c r="C49" t="s">
-        <v>136</v>
       </c>
       <c r="D49" t="s">
         <v>167</v>
       </c>
       <c r="E49" s="3">
-        <v>653</v>
+        <v>619</v>
       </c>
       <c r="F49" s="3">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3455,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
@@ -3469,19 +3418,19 @@
         <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
         <v>170</v>
       </c>
       <c r="E50" s="3">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="F50" s="3">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="G50" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3490,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
@@ -3504,16 +3453,16 @@
         <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E51" s="3">
-        <v>641</v>
+        <v>366</v>
       </c>
       <c r="F51" s="3">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -3525,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
@@ -3533,25 +3482,25 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E52" s="3">
-        <v>619</v>
+        <v>357</v>
       </c>
       <c r="F52" s="3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G52" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3560,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
@@ -3568,25 +3517,25 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E53" s="3">
-        <v>578</v>
+        <v>346</v>
       </c>
       <c r="F53" s="3">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G53" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3603,25 +3552,25 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
         <v>183</v>
       </c>
       <c r="E54" s="3">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="F54" s="3">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G54" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3630,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -3644,19 +3593,19 @@
         <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
         <v>186</v>
       </c>
       <c r="E55" s="3">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="F55" s="3">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3679,19 +3628,19 @@
         <v>188</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E56" s="3">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="F56" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -3700,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -3708,16 +3657,16 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E57" s="3">
         <v>1493</v>
@@ -3735,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
@@ -3743,25 +3692,25 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="D58" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E58" s="3">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="F58" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G58" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3770,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
@@ -3778,22 +3727,22 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="F59" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G59" s="3">
         <v>2</v>
@@ -3805,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
@@ -3813,25 +3762,25 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B60" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E60" s="3">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="F60" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G60" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -3840,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
@@ -3848,22 +3797,22 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C61" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
         <v>206</v>
       </c>
       <c r="E61" s="3">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="F61" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3875,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
@@ -3889,28 +3838,28 @@
         <v>208</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D62" t="s">
         <v>209</v>
       </c>
       <c r="E62" s="3">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="F62" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G62" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -3924,19 +3873,19 @@
         <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E63" s="3">
-        <v>188</v>
+        <v>2165</v>
       </c>
       <c r="F63" s="3">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -3945,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
@@ -3953,22 +3902,22 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E64" s="3">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F64" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
@@ -3988,25 +3937,25 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
         <v>219</v>
       </c>
       <c r="E65" s="3">
-        <v>2165</v>
+        <v>145</v>
       </c>
       <c r="F65" s="3">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -4015,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
@@ -4029,28 +3978,28 @@
         <v>221</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
         <v>222</v>
       </c>
       <c r="E66" s="3">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="F66" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -4064,19 +4013,19 @@
         <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="D67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E67" s="3">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="F67" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -4085,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
@@ -4093,22 +4042,22 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E68" s="3">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="F68" s="3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -4120,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -4128,22 +4077,22 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E69" s="3">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F69" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -4155,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
@@ -4163,25 +4112,25 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C70" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
         <v>235</v>
       </c>
       <c r="E70" s="3">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F70" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4190,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
@@ -4204,19 +4153,19 @@
         <v>237</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
         <v>238</v>
       </c>
       <c r="E71" s="3">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F71" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4225,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
@@ -4239,19 +4188,19 @@
         <v>240</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="D72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E72" s="3">
-        <v>112</v>
+        <v>4711</v>
       </c>
       <c r="F72" s="3">
-        <v>11</v>
+        <v>387</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4260,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
@@ -4268,22 +4217,22 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E73" s="3">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F73" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -4303,22 +4252,22 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B74" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D74" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E74" s="3">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F74" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -4330,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
@@ -4338,25 +4287,25 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E75" s="3">
-        <v>4711</v>
+        <v>56</v>
       </c>
       <c r="F75" s="3">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="G75" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4365,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
@@ -4373,22 +4322,22 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B76" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="D76" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E76" s="3">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -4400,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
@@ -4408,25 +4357,25 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B77" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E77" s="3">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F77" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -4443,22 +4392,22 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E78" s="3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F78" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G78" s="3">
         <v>0</v>
@@ -4470,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
@@ -4478,25 +4427,25 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E79" s="3">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4505,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
@@ -4513,19 +4462,19 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B80" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C80" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="D80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E80" s="3">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -4548,25 +4497,25 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B81" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E81" s="3">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F81" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4575,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
@@ -4583,22 +4532,22 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C82" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E82" s="3">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
@@ -4610,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
@@ -4618,22 +4567,22 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C83" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D83" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E83" s="3">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4653,25 +4602,25 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B84" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" t="s">
         <v>277</v>
       </c>
-      <c r="B84" t="s">
-        <v>278</v>
-      </c>
-      <c r="C84" t="s">
-        <v>201</v>
-      </c>
       <c r="D84" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E84" s="3">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -4680,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -4688,19 +4637,19 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E85" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -4723,25 +4672,25 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B86" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E86" s="3">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4750,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
@@ -4758,22 +4707,22 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B87" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C87" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E87" s="3">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="F87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="3">
         <v>0</v>
@@ -4793,34 +4742,34 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B88" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="D88" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E88" s="3">
-        <v>27</v>
+        <v>732</v>
       </c>
       <c r="F88" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G88" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
@@ -4828,22 +4777,22 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C89" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E89" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4863,19 +4812,19 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B90" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C90" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D90" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E90" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -4898,19 +4847,19 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B91" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E91" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4925,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
@@ -4933,19 +4882,19 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B92" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="D92" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E92" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -4968,25 +4917,25 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B93" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C93" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="D93" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E93" s="3">
-        <v>732</v>
+        <v>42</v>
       </c>
       <c r="F93" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G93" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -4995,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
@@ -5003,25 +4952,25 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B94" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c r="D94" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E94" s="3">
-        <v>8</v>
+        <v>656</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5030,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
@@ -5038,25 +4987,25 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="D95" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E95" s="3">
-        <v>6</v>
+        <v>1921</v>
       </c>
       <c r="F95" s="3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G95" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -5065,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -5073,19 +5022,19 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B96" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C96" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D96" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E96" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5108,25 +5057,25 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B97" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C97" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D97" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E97" s="3">
-        <v>656</v>
+        <v>2</v>
       </c>
       <c r="F97" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G97" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -5135,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
@@ -5143,16 +5092,16 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B98" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D98" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E98" s="3">
         <v>43</v>
@@ -5178,22 +5127,22 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B99" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C99" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D99" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E99" s="3">
-        <v>1921</v>
+        <v>94</v>
       </c>
       <c r="F99" s="3">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="G99" s="3">
         <v>2</v>
@@ -5205,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
@@ -5213,22 +5162,22 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C100" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D100" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E100" s="3">
+        <v>110</v>
+      </c>
+      <c r="F100" s="3">
         <v>2</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5248,19 +5197,19 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B101" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C101" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D101" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E101" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5283,34 +5232,34 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C102" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="D102" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E102" s="3">
-        <v>110</v>
+        <v>74953</v>
       </c>
       <c r="F102" s="3">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -5318,34 +5267,34 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B103" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C103" t="s">
-        <v>342</v>
+        <v>241</v>
       </c>
       <c r="D103" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E103" s="3">
-        <v>94</v>
+        <v>24890</v>
       </c>
       <c r="F103" s="3">
-        <v>6</v>
+        <v>1321</v>
       </c>
       <c r="G103" s="3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
@@ -5353,28 +5302,28 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C104" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D104" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E104" s="3">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F104" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G104" s="3">
         <v>0</v>
       </c>
       <c r="H104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -5388,25 +5337,25 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B105" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C105" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D105" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E105" s="3">
-        <v>74953</v>
+        <v>2883</v>
       </c>
       <c r="F105" s="3">
-        <v>1016</v>
+        <v>42</v>
       </c>
       <c r="G105" s="3">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H105" s="3">
         <v>1</v>
@@ -5415,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
@@ -5423,25 +5372,25 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B106" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="D106" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E106" s="3">
-        <v>4759</v>
+        <v>46</v>
       </c>
       <c r="F106" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3">
         <v>1</v>
@@ -5450,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L106" t="s">
         <v>16</v>
@@ -5458,19 +5407,19 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B107" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C107" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="D107" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E107" s="3">
-        <v>74</v>
+        <v>2053</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -5493,19 +5442,19 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B108" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C108" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="D108" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E108" s="3">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -5514,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -5528,19 +5477,19 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B109" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C109" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D109" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E109" s="3">
-        <v>4640</v>
+        <v>844</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -5563,16 +5512,16 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B110" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C110" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D110" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E110" s="3">
         <v>23</v>
@@ -5598,25 +5547,25 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B111" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D111" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E111" s="3">
-        <v>472979</v>
+        <v>4759</v>
       </c>
       <c r="F111" s="3">
-        <v>20185</v>
+        <v>129</v>
       </c>
       <c r="G111" s="3">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
@@ -5625,10 +5574,10 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="L111" t="s">
-        <v>369</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5639,19 +5588,19 @@
         <v>371</v>
       </c>
       <c r="C112" t="s">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
         <v>372</v>
       </c>
       <c r="E112" s="3">
-        <v>8644</v>
+        <v>566966</v>
       </c>
       <c r="F112" s="3">
-        <v>0</v>
+        <v>18782</v>
       </c>
       <c r="G112" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H112" s="3">
         <v>1</v>
@@ -5660,59 +5609,59 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L112" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B113" t="s">
+        <v>375</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>376</v>
+      </c>
+      <c r="E113" s="3">
+        <v>222595</v>
+      </c>
+      <c r="F113" s="3">
+        <v>9022</v>
+      </c>
+      <c r="G113" s="3">
+        <v>147</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>130</v>
+      </c>
+      <c r="L113" t="s">
         <v>373</v>
-      </c>
-      <c r="B113" t="s">
-        <v>374</v>
-      </c>
-      <c r="C113" t="s">
-        <v>58</v>
-      </c>
-      <c r="D113" t="s">
-        <v>375</v>
-      </c>
-      <c r="E113" s="3">
-        <v>23164</v>
-      </c>
-      <c r="F113" s="3">
-        <v>162</v>
-      </c>
-      <c r="G113" s="3">
-        <v>8</v>
-      </c>
-      <c r="H113" s="3">
-        <v>1</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>4</v>
-      </c>
-      <c r="L113" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B114" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C114" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D114" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E114" s="3">
         <v>2078</v>
@@ -5738,25 +5687,25 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B115" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C115" t="s">
-        <v>342</v>
+        <v>86</v>
       </c>
       <c r="D115" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E115" s="3">
-        <v>88</v>
+        <v>3080</v>
       </c>
       <c r="F115" s="3">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="G115" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H115" s="3">
         <v>1</v>
@@ -5765,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L115" t="s">
         <v>16</v>
@@ -5773,25 +5722,25 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B116" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C116" t="s">
-        <v>288</v>
+        <v>86</v>
       </c>
       <c r="D116" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E116" s="3">
-        <v>95</v>
+        <v>25592</v>
       </c>
       <c r="F116" s="3">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G116" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H116" s="3">
         <v>1</v>
@@ -5800,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L116" t="s">
         <v>16</v>
@@ -5808,34 +5757,34 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B117" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="D117" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E117" s="3">
-        <v>4463</v>
+        <v>3</v>
       </c>
       <c r="F117" s="3">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G117" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L117" t="s">
         <v>16</v>
@@ -5843,25 +5792,25 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B118" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C118" t="s">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E118" s="3">
-        <v>428</v>
+        <v>472979</v>
       </c>
       <c r="F118" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G118" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H118" s="3">
         <v>1</v>
@@ -5870,36 +5819,36 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L118" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C119" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="D119" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E119" s="3">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="F119" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G119" s="3">
         <v>0</v>
       </c>
       <c r="H119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -5913,25 +5862,25 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B120" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C120" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D120" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E120" s="3">
-        <v>69498</v>
+        <v>18665</v>
       </c>
       <c r="F120" s="3">
-        <v>1189</v>
+        <v>659</v>
       </c>
       <c r="G120" s="3">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H120" s="3">
         <v>1</v>
@@ -5940,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="L120" t="s">
         <v>16</v>
@@ -5948,25 +5897,25 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B121" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C121" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D121" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E121" s="3">
-        <v>3080</v>
+        <v>8968</v>
       </c>
       <c r="F121" s="3">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="G121" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H121" s="3">
         <v>1</v>
@@ -5975,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -5983,25 +5932,25 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B122" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C122" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="D122" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E122" s="3">
-        <v>87</v>
+        <v>23164</v>
       </c>
       <c r="F122" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G122" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H122" s="3">
         <v>1</v>
@@ -6010,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
@@ -6018,25 +5967,25 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B123" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C123" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="D123" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E123" s="3">
-        <v>25592</v>
+        <v>87</v>
       </c>
       <c r="F123" s="3">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G123" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H123" s="3">
         <v>1</v>
@@ -6045,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L123" t="s">
         <v>16</v>
@@ -6053,25 +6002,25 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B124" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="D124" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E124" s="3">
-        <v>4183126</v>
+        <v>239</v>
       </c>
       <c r="F124" s="3">
-        <v>49430</v>
+        <v>2</v>
       </c>
       <c r="G124" s="3">
-        <v>5701</v>
+        <v>0</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
@@ -6080,33 +6029,33 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>369</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B125" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C125" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="D125" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E125" s="3">
-        <v>2053</v>
+        <v>69498</v>
       </c>
       <c r="F125" s="3">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G125" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H125" s="3">
         <v>1</v>
@@ -6115,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
@@ -6123,25 +6072,25 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B126" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C126" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="D126" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E126" s="3">
-        <v>8968</v>
+        <v>428</v>
       </c>
       <c r="F126" s="3">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G126" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H126" s="3">
         <v>1</v>
@@ -6150,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L126" t="s">
         <v>16</v>
@@ -6158,34 +6107,34 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B127" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C127" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D127" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E127" s="3">
-        <v>2883</v>
+        <v>1372</v>
       </c>
       <c r="F127" s="3">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="G127" s="3">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H127" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -6193,19 +6142,19 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B128" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D128" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E128" s="3">
-        <v>844</v>
+        <v>8644</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -6228,25 +6177,25 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B129" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C129" t="s">
-        <v>346</v>
+        <v>99</v>
       </c>
       <c r="D129" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E129" s="3">
-        <v>41</v>
+        <v>1237</v>
       </c>
       <c r="F129" s="3">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G129" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H129" s="3">
         <v>1</v>
@@ -6255,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L129" t="s">
         <v>16</v>
@@ -6263,19 +6212,19 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B130" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C130" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="D130" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E130" s="3">
-        <v>1</v>
+        <v>4640</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -6284,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -6298,25 +6247,25 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B131" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="D131" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E131" s="3">
-        <v>566966</v>
+        <v>74</v>
       </c>
       <c r="F131" s="3">
-        <v>18782</v>
+        <v>0</v>
       </c>
       <c r="G131" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -6325,33 +6274,33 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>369</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B132" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C132" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E132" s="3">
-        <v>1237</v>
+        <v>4183126</v>
       </c>
       <c r="F132" s="3">
-        <v>51</v>
+        <v>49430</v>
       </c>
       <c r="G132" s="3">
-        <v>3</v>
+        <v>5701</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -6360,42 +6309,42 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>1196</v>
       </c>
       <c r="L132" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B133" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C133" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="D133" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E133" s="3">
-        <v>268</v>
+        <v>617</v>
       </c>
       <c r="F133" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G133" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L133" t="s">
         <v>16</v>
@@ -6403,25 +6352,25 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B134" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C134" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="D134" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E134" s="3">
-        <v>18665</v>
+        <v>41</v>
       </c>
       <c r="F134" s="3">
-        <v>659</v>
+        <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H134" s="3">
         <v>1</v>
@@ -6430,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L134" t="s">
         <v>16</v>
@@ -6438,25 +6387,25 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B135" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E135" s="3">
-        <v>222595</v>
+        <v>511312</v>
       </c>
       <c r="F135" s="3">
-        <v>9022</v>
+        <v>15167</v>
       </c>
       <c r="G135" s="3">
-        <v>147</v>
+        <v>402</v>
       </c>
       <c r="H135" s="3">
         <v>1</v>
@@ -6465,220 +6414,10 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="L135" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
-      <c r="A136" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B136" t="s">
-        <v>443</v>
-      </c>
-      <c r="C136" t="s">
-        <v>120</v>
-      </c>
-      <c r="D136" t="s">
-        <v>444</v>
-      </c>
-      <c r="E136" s="3">
-        <v>575</v>
-      </c>
-      <c r="F136" s="3">
-        <v>38</v>
-      </c>
-      <c r="G136" s="3">
-        <v>1</v>
-      </c>
-      <c r="H136" s="3">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>2</v>
-      </c>
-      <c r="L136" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B137" t="s">
-        <v>446</v>
-      </c>
-      <c r="C137" t="s">
-        <v>266</v>
-      </c>
-      <c r="D137" t="s">
-        <v>447</v>
-      </c>
-      <c r="E137" s="3">
-        <v>617</v>
-      </c>
-      <c r="F137" s="3">
-        <v>0</v>
-      </c>
-      <c r="G137" s="3">
-        <v>0</v>
-      </c>
-      <c r="H137" s="3">
-        <v>1</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B138" t="s">
-        <v>449</v>
-      </c>
-      <c r="C138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" t="s">
-        <v>450</v>
-      </c>
-      <c r="E138" s="3">
-        <v>511312</v>
-      </c>
-      <c r="F138" s="3">
-        <v>15167</v>
-      </c>
-      <c r="G138" s="3">
-        <v>402</v>
-      </c>
-      <c r="H138" s="3">
-        <v>1</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>201</v>
-      </c>
-      <c r="L138" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B139" t="s">
-        <v>452</v>
-      </c>
-      <c r="C139" t="s">
-        <v>234</v>
-      </c>
-      <c r="D139" t="s">
-        <v>453</v>
-      </c>
-      <c r="E139" s="3">
-        <v>1162</v>
-      </c>
-      <c r="F139" s="3">
-        <v>39</v>
-      </c>
-      <c r="G139" s="3">
-        <v>1</v>
-      </c>
-      <c r="H139" s="3">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139">
-        <v>7</v>
-      </c>
-      <c r="L139" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B140" t="s">
-        <v>455</v>
-      </c>
-      <c r="C140" t="s">
-        <v>250</v>
-      </c>
-      <c r="D140" t="s">
-        <v>456</v>
-      </c>
-      <c r="E140" s="3">
-        <v>24890</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1321</v>
-      </c>
-      <c r="G140" s="3">
-        <v>34</v>
-      </c>
-      <c r="H140" s="3">
-        <v>1</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>154</v>
-      </c>
-      <c r="L140" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B141" t="s">
-        <v>458</v>
-      </c>
-      <c r="C141" t="s">
-        <v>459</v>
-      </c>
-      <c r="D141" t="s">
-        <v>460</v>
-      </c>
-      <c r="E141" s="3">
-        <v>3</v>
-      </c>
-      <c r="F141" s="3">
-        <v>0</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="3">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="L141" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -6816,12 +6555,6 @@
     <hyperlink ref="A133" r:id="rId131"/>
     <hyperlink ref="A134" r:id="rId132"/>
     <hyperlink ref="A135" r:id="rId133"/>
-    <hyperlink ref="A136" r:id="rId134"/>
-    <hyperlink ref="A137" r:id="rId135"/>
-    <hyperlink ref="A138" r:id="rId136"/>
-    <hyperlink ref="A139" r:id="rId137"/>
-    <hyperlink ref="A140" r:id="rId138"/>
-    <hyperlink ref="A141" r:id="rId139"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6829,7 +6562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6844,7 +6577,7 @@
         <v>19</v>
       </c>
       <c r="B1">
-        <v>419110</v>
+        <v>347779</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6852,188 +6585,188 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>148490</v>
+        <v>140702</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>39503</v>
+        <v>39142</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>34062</v>
+        <v>33788</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>33788</v>
+        <v>33684</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6">
-        <v>24115</v>
+        <v>23400</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B7">
-        <v>12811</v>
+        <v>8426</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B8">
-        <v>9798</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="B9">
-        <v>5531</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B10">
-        <v>5525</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="B11">
-        <v>4322</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B12">
-        <v>4067</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="B13">
-        <v>3906</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B14">
-        <v>1861</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B15">
-        <v>785</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B16">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B17">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="B18">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B19">
-        <v>126</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="B21">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -7041,15 +6774,15 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7057,7 +6790,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7065,9 +6798,17 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>459</v>
+        <v>338</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>388</v>
+      </c>
+      <c r="B30">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -464,6 +464,15 @@
     <t>2019-12-05T08:00:05.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
   </si>
   <si>
@@ -473,15 +482,6 @@
     <t>2019-12-19T16:45:27.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
   </si>
   <si>
@@ -776,6 +776,15 @@
     <t>2019-12-12T20:47:48.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
   </si>
   <si>
@@ -788,15 +797,6 @@
     <t>2019-12-16T08:21:31.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
   </si>
   <si>
@@ -806,6 +806,15 @@
     <t>2019-12-17T20:32:34.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
   </si>
   <si>
@@ -815,15 +824,6 @@
     <t>2019-12-20T11:59:31.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
   </si>
   <si>
@@ -890,6 +890,15 @@
     <t>2019-12-12T17:17:05.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
   </si>
   <si>
@@ -899,15 +908,6 @@
     <t>2019-08-13T22:45:39.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
   </si>
   <si>
@@ -926,6 +926,15 @@
     <t>2019-12-16T17:24:22.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
   </si>
   <si>
@@ -938,15 +947,6 @@
     <t>2019-12-12T13:19:08.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
   </si>
   <si>
@@ -959,6 +959,27 @@
     <t>2018-02-12T11:51:48.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
   </si>
   <si>
@@ -971,25 +992,16 @@
     <t>2019-04-23T22:53:10.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
@@ -1001,16 +1013,16 @@
     <t>2019-11-04T20:42:13.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
@@ -1025,16 +1037,253 @@
     <t>2019-01-28T18:58:55.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
@@ -1046,13 +1295,13 @@
     <t>2019-12-01T08:00:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
@@ -1064,15 +1313,6 @@
     <t>2017-04-05T13:28:29.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
   </si>
   <si>
@@ -1082,63 +1322,6 @@
     <t>2019-12-11T11:45:05.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
   </si>
   <si>
@@ -1148,90 +1331,6 @@
     <t>2019-04-15T15:30:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
   </si>
   <si>
@@ -1241,33 +1340,6 @@
     <t>2019-11-08T13:50:32.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
   </si>
   <si>
@@ -1275,78 +1347,6 @@
   </si>
   <si>
     <t>2019-12-11T21:32:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -3208,7 +3208,7 @@
         <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
         <v>151</v>
@@ -3217,10 +3217,10 @@
         <v>691</v>
       </c>
       <c r="F44" s="3">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3243,7 +3243,7 @@
         <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
         <v>154</v>
@@ -3252,10 +3252,10 @@
         <v>691</v>
       </c>
       <c r="F45" s="3">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="G45" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -4328,16 +4328,16 @@
         <v>254</v>
       </c>
       <c r="C76" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" t="s">
         <v>255</v>
-      </c>
-      <c r="D76" t="s">
-        <v>256</v>
       </c>
       <c r="E76" s="3">
         <v>52</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
@@ -4357,13 +4357,13 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B77" t="s">
         <v>257</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>258</v>
-      </c>
-      <c r="C77" t="s">
-        <v>189</v>
       </c>
       <c r="D77" t="s">
         <v>259</v>
@@ -4372,7 +4372,7 @@
         <v>52</v>
       </c>
       <c r="F77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="3">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
@@ -4433,7 +4433,7 @@
         <v>264</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D79" t="s">
         <v>265</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
@@ -4468,7 +4468,7 @@
         <v>267</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D80" t="s">
         <v>268</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
@@ -4748,19 +4748,19 @@
         <v>292</v>
       </c>
       <c r="C88" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="D88" t="s">
         <v>293</v>
       </c>
       <c r="E88" s="3">
-        <v>732</v>
+        <v>21</v>
       </c>
       <c r="F88" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G88" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
@@ -4783,19 +4783,19 @@
         <v>295</v>
       </c>
       <c r="C89" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D89" t="s">
         <v>296</v>
       </c>
       <c r="E89" s="3">
-        <v>21</v>
+        <v>732</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
@@ -4888,13 +4888,13 @@
         <v>304</v>
       </c>
       <c r="C92" t="s">
+        <v>258</v>
+      </c>
+      <c r="D92" t="s">
         <v>305</v>
       </c>
-      <c r="D92" t="s">
-        <v>306</v>
-      </c>
       <c r="E92" s="3">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -4917,19 +4917,19 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B93" t="s">
         <v>307</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>308</v>
-      </c>
-      <c r="C93" t="s">
-        <v>255</v>
       </c>
       <c r="D93" t="s">
         <v>309</v>
       </c>
       <c r="E93" s="3">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -4993,19 +4993,19 @@
         <v>315</v>
       </c>
       <c r="C95" t="s">
+        <v>308</v>
+      </c>
+      <c r="D95" t="s">
         <v>316</v>
       </c>
-      <c r="D95" t="s">
-        <v>317</v>
-      </c>
       <c r="E95" s="3">
-        <v>1921</v>
+        <v>2</v>
       </c>
       <c r="F95" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G95" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -5022,16 +5022,16 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B96" t="s">
         <v>318</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>319</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>320</v>
-      </c>
-      <c r="D96" t="s">
-        <v>321</v>
       </c>
       <c r="E96" s="3">
         <v>2</v>
@@ -5057,26 +5057,26 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B97" t="s">
         <v>322</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>323</v>
-      </c>
-      <c r="C97" t="s">
-        <v>305</v>
       </c>
       <c r="D97" t="s">
         <v>324</v>
       </c>
       <c r="E97" s="3">
+        <v>1921</v>
+      </c>
+      <c r="F97" s="3">
+        <v>64</v>
+      </c>
+      <c r="G97" s="3">
         <v>2</v>
       </c>
-      <c r="F97" s="3">
-        <v>0</v>
-      </c>
-      <c r="G97" s="3">
-        <v>0</v>
-      </c>
       <c r="H97" s="3">
         <v>0</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
@@ -5098,19 +5098,19 @@
         <v>326</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>327</v>
       </c>
       <c r="D98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E98" s="3">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F98" s="3">
         <v>6</v>
       </c>
       <c r="G98" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -5127,25 +5127,25 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>196</v>
       </c>
       <c r="D99" t="s">
         <v>331</v>
       </c>
       <c r="E99" s="3">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F99" s="3">
         <v>6</v>
       </c>
       <c r="G99" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -5174,10 +5174,10 @@
         <v>335</v>
       </c>
       <c r="E100" s="3">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="F100" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5209,10 +5209,10 @@
         <v>339</v>
       </c>
       <c r="E101" s="3">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5238,19 +5238,19 @@
         <v>341</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="D102" t="s">
         <v>342</v>
       </c>
       <c r="E102" s="3">
-        <v>74953</v>
+        <v>844</v>
       </c>
       <c r="F102" s="3">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -5273,19 +5273,19 @@
         <v>344</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="D103" t="s">
         <v>345</v>
       </c>
       <c r="E103" s="3">
-        <v>24890</v>
+        <v>3080</v>
       </c>
       <c r="F103" s="3">
-        <v>1321</v>
+        <v>58</v>
       </c>
       <c r="G103" s="3">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H103" s="3">
         <v>1</v>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
@@ -5308,16 +5308,16 @@
         <v>347</v>
       </c>
       <c r="C104" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="D104" t="s">
         <v>348</v>
       </c>
       <c r="E104" s="3">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="F104" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G104" s="3">
         <v>0</v>
@@ -5343,19 +5343,19 @@
         <v>350</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="D105" t="s">
         <v>351</v>
       </c>
       <c r="E105" s="3">
-        <v>2883</v>
+        <v>2053</v>
       </c>
       <c r="F105" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G105" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H105" s="3">
         <v>1</v>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
@@ -5378,13 +5378,13 @@
         <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D106" t="s">
         <v>354</v>
       </c>
       <c r="E106" s="3">
-        <v>46</v>
+        <v>8644</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -5413,13 +5413,13 @@
         <v>356</v>
       </c>
       <c r="C107" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="D107" t="s">
         <v>357</v>
       </c>
       <c r="E107" s="3">
-        <v>2053</v>
+        <v>95</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -5454,10 +5454,10 @@
         <v>360</v>
       </c>
       <c r="E108" s="3">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="F108" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G108" s="3">
         <v>0</v>
@@ -5483,19 +5483,19 @@
         <v>362</v>
       </c>
       <c r="C109" t="s">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="D109" t="s">
         <v>363</v>
       </c>
       <c r="E109" s="3">
-        <v>844</v>
+        <v>1237</v>
       </c>
       <c r="F109" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G109" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H109" s="3">
         <v>1</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L109" t="s">
         <v>16</v>
@@ -5524,10 +5524,10 @@
         <v>366</v>
       </c>
       <c r="E110" s="3">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" s="3">
         <v>0</v>
@@ -5594,13 +5594,13 @@
         <v>372</v>
       </c>
       <c r="E112" s="3">
-        <v>566966</v>
+        <v>472979</v>
       </c>
       <c r="F112" s="3">
-        <v>18782</v>
+        <v>20185</v>
       </c>
       <c r="G112" s="3">
-        <v>416</v>
+        <v>515</v>
       </c>
       <c r="H112" s="3">
         <v>1</v>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="L112" t="s">
         <v>373</v>
@@ -5623,54 +5623,54 @@
         <v>375</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>376</v>
       </c>
       <c r="D113" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E113" s="3">
-        <v>222595</v>
+        <v>3</v>
       </c>
       <c r="F113" s="3">
-        <v>9022</v>
+        <v>0</v>
       </c>
       <c r="G113" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>373</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B114" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C114" t="s">
-        <v>99</v>
+        <v>334</v>
       </c>
       <c r="D114" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E114" s="3">
-        <v>2078</v>
+        <v>41</v>
       </c>
       <c r="F114" s="3">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G114" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H114" s="3">
         <v>1</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L114" t="s">
         <v>16</v>
@@ -5687,25 +5687,25 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B115" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E115" s="3">
-        <v>3080</v>
+        <v>566966</v>
       </c>
       <c r="F115" s="3">
-        <v>58</v>
+        <v>18782</v>
       </c>
       <c r="G115" s="3">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="H115" s="3">
         <v>1</v>
@@ -5714,42 +5714,42 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="L115" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B116" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C116" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="D116" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E116" s="3">
-        <v>25592</v>
+        <v>1</v>
       </c>
       <c r="F116" s="3">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G116" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L116" t="s">
         <v>16</v>
@@ -5757,34 +5757,34 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B117" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C117" t="s">
-        <v>388</v>
+        <v>86</v>
       </c>
       <c r="D117" t="s">
         <v>389</v>
       </c>
       <c r="E117" s="3">
-        <v>3</v>
+        <v>25592</v>
       </c>
       <c r="F117" s="3">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G117" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L117" t="s">
         <v>16</v>
@@ -5798,19 +5798,19 @@
         <v>391</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D118" t="s">
         <v>392</v>
       </c>
       <c r="E118" s="3">
-        <v>472979</v>
+        <v>23164</v>
       </c>
       <c r="F118" s="3">
-        <v>20185</v>
+        <v>162</v>
       </c>
       <c r="G118" s="3">
-        <v>515</v>
+        <v>8</v>
       </c>
       <c r="H118" s="3">
         <v>1</v>
@@ -5819,10 +5819,10 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>260</v>
+        <v>4</v>
       </c>
       <c r="L118" t="s">
-        <v>373</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5833,13 +5833,13 @@
         <v>394</v>
       </c>
       <c r="C119" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="D119" t="s">
         <v>395</v>
       </c>
       <c r="E119" s="3">
-        <v>1</v>
+        <v>428</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -5868,19 +5868,19 @@
         <v>397</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="D120" t="s">
         <v>398</v>
       </c>
       <c r="E120" s="3">
-        <v>18665</v>
+        <v>617</v>
       </c>
       <c r="F120" s="3">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G120" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H120" s="3">
         <v>1</v>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L120" t="s">
         <v>16</v>
@@ -5903,19 +5903,19 @@
         <v>400</v>
       </c>
       <c r="C121" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="D121" t="s">
         <v>401</v>
       </c>
       <c r="E121" s="3">
-        <v>8968</v>
+        <v>24890</v>
       </c>
       <c r="F121" s="3">
-        <v>117</v>
+        <v>1321</v>
       </c>
       <c r="G121" s="3">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H121" s="3">
         <v>1</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -5938,19 +5938,19 @@
         <v>403</v>
       </c>
       <c r="C122" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="D122" t="s">
         <v>404</v>
       </c>
       <c r="E122" s="3">
-        <v>23164</v>
+        <v>18665</v>
       </c>
       <c r="F122" s="3">
-        <v>162</v>
+        <v>659</v>
       </c>
       <c r="G122" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H122" s="3">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
@@ -5973,19 +5973,19 @@
         <v>406</v>
       </c>
       <c r="C123" t="s">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="D123" t="s">
         <v>407</v>
       </c>
       <c r="E123" s="3">
-        <v>87</v>
+        <v>2078</v>
       </c>
       <c r="F123" s="3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G123" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H123" s="3">
         <v>1</v>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L123" t="s">
         <v>16</v>
@@ -6008,19 +6008,19 @@
         <v>409</v>
       </c>
       <c r="C124" t="s">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="D124" t="s">
         <v>410</v>
       </c>
       <c r="E124" s="3">
-        <v>239</v>
+        <v>8968</v>
       </c>
       <c r="F124" s="3">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="G124" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -6043,19 +6043,19 @@
         <v>412</v>
       </c>
       <c r="C125" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
         <v>413</v>
       </c>
       <c r="E125" s="3">
-        <v>69498</v>
+        <v>4183126</v>
       </c>
       <c r="F125" s="3">
-        <v>1189</v>
+        <v>49430</v>
       </c>
       <c r="G125" s="3">
-        <v>45</v>
+        <v>5701</v>
       </c>
       <c r="H125" s="3">
         <v>1</v>
@@ -6064,10 +6064,10 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>220</v>
+        <v>1196</v>
       </c>
       <c r="L125" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6078,13 +6078,13 @@
         <v>415</v>
       </c>
       <c r="C126" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D126" t="s">
         <v>416</v>
       </c>
       <c r="E126" s="3">
-        <v>428</v>
+        <v>4640</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -6113,28 +6113,28 @@
         <v>418</v>
       </c>
       <c r="C127" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D127" t="s">
         <v>419</v>
       </c>
       <c r="E127" s="3">
-        <v>1372</v>
+        <v>2883</v>
       </c>
       <c r="F127" s="3">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="G127" s="3">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="H127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -6148,19 +6148,19 @@
         <v>421</v>
       </c>
       <c r="C128" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D128" t="s">
         <v>422</v>
       </c>
       <c r="E128" s="3">
-        <v>8644</v>
+        <v>69498</v>
       </c>
       <c r="F128" s="3">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G128" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H128" s="3">
         <v>1</v>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L128" t="s">
         <v>16</v>
@@ -6183,19 +6183,19 @@
         <v>424</v>
       </c>
       <c r="C129" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D129" t="s">
         <v>425</v>
       </c>
       <c r="E129" s="3">
-        <v>1237</v>
+        <v>74953</v>
       </c>
       <c r="F129" s="3">
-        <v>51</v>
+        <v>1016</v>
       </c>
       <c r="G129" s="3">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H129" s="3">
         <v>1</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="L129" t="s">
         <v>16</v>
@@ -6218,19 +6218,19 @@
         <v>427</v>
       </c>
       <c r="C130" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
         <v>428</v>
       </c>
       <c r="E130" s="3">
-        <v>4640</v>
+        <v>511312</v>
       </c>
       <c r="F130" s="3">
-        <v>0</v>
+        <v>15167</v>
       </c>
       <c r="G130" s="3">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="H130" s="3">
         <v>1</v>
@@ -6239,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L130" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6253,16 +6253,16 @@
         <v>430</v>
       </c>
       <c r="C131" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="D131" t="s">
         <v>431</v>
       </c>
       <c r="E131" s="3">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F131" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
@@ -6288,19 +6288,19 @@
         <v>433</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="D132" t="s">
         <v>434</v>
       </c>
       <c r="E132" s="3">
-        <v>4183126</v>
+        <v>46</v>
       </c>
       <c r="F132" s="3">
-        <v>49430</v>
+        <v>0</v>
       </c>
       <c r="G132" s="3">
-        <v>5701</v>
+        <v>0</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -6309,10 +6309,10 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>373</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6323,19 +6323,19 @@
         <v>436</v>
       </c>
       <c r="C133" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
         <v>437</v>
       </c>
       <c r="E133" s="3">
-        <v>617</v>
+        <v>222595</v>
       </c>
       <c r="F133" s="3">
-        <v>0</v>
+        <v>9022</v>
       </c>
       <c r="G133" s="3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H133" s="3">
         <v>1</v>
@@ -6344,10 +6344,10 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L133" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6358,16 +6358,16 @@
         <v>439</v>
       </c>
       <c r="C134" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="D134" t="s">
         <v>440</v>
       </c>
       <c r="E134" s="3">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="F134" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
@@ -6393,31 +6393,31 @@
         <v>442</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D135" t="s">
         <v>443</v>
       </c>
       <c r="E135" s="3">
-        <v>511312</v>
+        <v>1372</v>
       </c>
       <c r="F135" s="3">
-        <v>15167</v>
+        <v>172</v>
       </c>
       <c r="G135" s="3">
-        <v>402</v>
+        <v>83</v>
       </c>
       <c r="H135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>373</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B21">
         <v>57</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B30">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -464,6 +464,15 @@
     <t>2019-12-05T08:00:05.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
   </si>
   <si>
@@ -473,15 +482,6 @@
     <t>2019-12-18T21:49:46.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
   </si>
   <si>
@@ -776,6 +776,18 @@
     <t>2019-12-12T20:47:48.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
   </si>
   <si>
@@ -785,18 +797,6 @@
     <t>2019-12-17T16:58:46.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
   </si>
   <si>
@@ -926,6 +926,18 @@
     <t>2019-12-16T17:24:22.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
   </si>
   <si>
@@ -935,18 +947,6 @@
     <t>2019-12-11T11:48:28.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
   </si>
   <si>
@@ -959,6 +959,18 @@
     <t>2018-02-12T11:51:48.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
@@ -980,16 +992,37 @@
     <t>2019-12-17T16:27:09.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
@@ -1004,37 +1037,253 @@
     <t>2017-05-12T12:03:56.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
+  </si>
+  <si>
+    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
+  </si>
+  <si>
+    <t>2019-12-11T21:32:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
@@ -1046,76 +1295,49 @@
     <t>2017-02-20T13:34:13.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
@@ -1125,228 +1347,6 @@
   </si>
   <si>
     <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
-  </si>
-  <si>
-    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
-  </si>
-  <si>
-    <t>2019-12-11T21:32:12.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -3208,7 +3208,7 @@
         <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
         <v>151</v>
@@ -3217,10 +3217,10 @@
         <v>691</v>
       </c>
       <c r="F44" s="3">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="G44" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3243,7 +3243,7 @@
         <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
         <v>154</v>
@@ -3252,10 +3252,10 @@
         <v>691</v>
       </c>
       <c r="F45" s="3">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -4328,16 +4328,16 @@
         <v>254</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="D76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E76" s="3">
         <v>52</v>
       </c>
       <c r="F76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
@@ -4357,13 +4357,13 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C77" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
         <v>259</v>
@@ -4372,7 +4372,7 @@
         <v>52</v>
       </c>
       <c r="F77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="3">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
@@ -4888,13 +4888,13 @@
         <v>304</v>
       </c>
       <c r="C92" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="D92" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E92" s="3">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -4917,19 +4917,19 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B93" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="D93" t="s">
         <v>309</v>
       </c>
       <c r="E93" s="3">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -4993,20 +4993,20 @@
         <v>315</v>
       </c>
       <c r="C95" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D95" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E95" s="3">
+        <v>1921</v>
+      </c>
+      <c r="F95" s="3">
+        <v>64</v>
+      </c>
+      <c r="G95" s="3">
         <v>2</v>
       </c>
-      <c r="F95" s="3">
-        <v>0</v>
-      </c>
-      <c r="G95" s="3">
-        <v>0</v>
-      </c>
       <c r="H95" s="3">
         <v>0</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -5022,13 +5022,13 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B96" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D96" t="s">
         <v>320</v>
@@ -5069,13 +5069,13 @@
         <v>324</v>
       </c>
       <c r="E97" s="3">
-        <v>1921</v>
+        <v>2</v>
       </c>
       <c r="F97" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G97" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
@@ -5098,19 +5098,19 @@
         <v>326</v>
       </c>
       <c r="C98" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" t="s">
         <v>327</v>
       </c>
-      <c r="D98" t="s">
-        <v>328</v>
-      </c>
       <c r="E98" s="3">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F98" s="3">
         <v>6</v>
       </c>
       <c r="G98" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -5127,25 +5127,25 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B99" t="s">
         <v>329</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>330</v>
-      </c>
-      <c r="C99" t="s">
-        <v>196</v>
       </c>
       <c r="D99" t="s">
         <v>331</v>
       </c>
       <c r="E99" s="3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="F99" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -5209,13 +5209,13 @@
         <v>339</v>
       </c>
       <c r="E101" s="3">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F101" s="3">
+        <v>6</v>
+      </c>
+      <c r="G101" s="3">
         <v>2</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5238,13 +5238,13 @@
         <v>341</v>
       </c>
       <c r="C102" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D102" t="s">
         <v>342</v>
       </c>
       <c r="E102" s="3">
-        <v>844</v>
+        <v>87</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5273,28 +5273,28 @@
         <v>344</v>
       </c>
       <c r="C103" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D103" t="s">
         <v>345</v>
       </c>
       <c r="E103" s="3">
-        <v>3080</v>
+        <v>1372</v>
       </c>
       <c r="F103" s="3">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="G103" s="3">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="H103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
@@ -5314,10 +5314,10 @@
         <v>348</v>
       </c>
       <c r="E104" s="3">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" s="3">
         <v>0</v>
@@ -5343,13 +5343,13 @@
         <v>350</v>
       </c>
       <c r="C105" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D105" t="s">
         <v>351</v>
       </c>
       <c r="E105" s="3">
-        <v>2053</v>
+        <v>8644</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -5378,13 +5378,13 @@
         <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>323</v>
       </c>
       <c r="D106" t="s">
         <v>354</v>
       </c>
       <c r="E106" s="3">
-        <v>8644</v>
+        <v>1</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5419,10 +5419,10 @@
         <v>357</v>
       </c>
       <c r="E107" s="3">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="3">
         <v>0</v>
@@ -5448,19 +5448,19 @@
         <v>359</v>
       </c>
       <c r="C108" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="D108" t="s">
         <v>360</v>
       </c>
       <c r="E108" s="3">
-        <v>239</v>
+        <v>18665</v>
       </c>
       <c r="F108" s="3">
-        <v>2</v>
+        <v>659</v>
       </c>
       <c r="G108" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H108" s="3">
         <v>1</v>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L108" t="s">
         <v>16</v>
@@ -5483,19 +5483,19 @@
         <v>362</v>
       </c>
       <c r="C109" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D109" t="s">
         <v>363</v>
       </c>
       <c r="E109" s="3">
-        <v>1237</v>
+        <v>2883</v>
       </c>
       <c r="F109" s="3">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G109" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H109" s="3">
         <v>1</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L109" t="s">
         <v>16</v>
@@ -5518,19 +5518,19 @@
         <v>365</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="D110" t="s">
         <v>366</v>
       </c>
       <c r="E110" s="3">
-        <v>74</v>
+        <v>74953</v>
       </c>
       <c r="F110" s="3">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="G110" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H110" s="3">
         <v>1</v>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L110" t="s">
         <v>16</v>
@@ -5553,19 +5553,19 @@
         <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
         <v>369</v>
       </c>
       <c r="E111" s="3">
-        <v>4759</v>
+        <v>222595</v>
       </c>
       <c r="F111" s="3">
-        <v>129</v>
+        <v>9022</v>
       </c>
       <c r="G111" s="3">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
@@ -5574,33 +5574,33 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="L111" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B112" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="D112" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E112" s="3">
-        <v>472979</v>
+        <v>88</v>
       </c>
       <c r="F112" s="3">
-        <v>20185</v>
+        <v>3</v>
       </c>
       <c r="G112" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H112" s="3">
         <v>1</v>
@@ -5609,10 +5609,10 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>373</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5623,28 +5623,28 @@
         <v>375</v>
       </c>
       <c r="C113" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" t="s">
         <v>376</v>
       </c>
-      <c r="D113" t="s">
-        <v>377</v>
-      </c>
       <c r="E113" s="3">
+        <v>1237</v>
+      </c>
+      <c r="F113" s="3">
+        <v>51</v>
+      </c>
+      <c r="G113" s="3">
         <v>3</v>
       </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-      <c r="G113" s="3">
-        <v>0</v>
-      </c>
       <c r="H113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L113" t="s">
         <v>16</v>
@@ -5652,22 +5652,22 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B114" t="s">
         <v>378</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
+        <v>255</v>
+      </c>
+      <c r="D114" t="s">
         <v>379</v>
       </c>
-      <c r="C114" t="s">
-        <v>334</v>
-      </c>
-      <c r="D114" t="s">
-        <v>380</v>
-      </c>
       <c r="E114" s="3">
-        <v>41</v>
+        <v>617</v>
       </c>
       <c r="F114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" s="3">
         <v>0</v>
@@ -5687,25 +5687,25 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B115" t="s">
         <v>381</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" t="s">
         <v>382</v>
       </c>
-      <c r="C115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" t="s">
-        <v>383</v>
-      </c>
       <c r="E115" s="3">
-        <v>566966</v>
+        <v>23164</v>
       </c>
       <c r="F115" s="3">
-        <v>18782</v>
+        <v>162</v>
       </c>
       <c r="G115" s="3">
-        <v>416</v>
+        <v>8</v>
       </c>
       <c r="H115" s="3">
         <v>1</v>
@@ -5714,68 +5714,68 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>298</v>
+        <v>4</v>
       </c>
       <c r="L115" t="s">
-        <v>373</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B116" t="s">
         <v>384</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
         <v>385</v>
       </c>
-      <c r="C116" t="s">
-        <v>319</v>
-      </c>
-      <c r="D116" t="s">
-        <v>386</v>
-      </c>
       <c r="E116" s="3">
-        <v>1</v>
+        <v>511312</v>
       </c>
       <c r="F116" s="3">
-        <v>0</v>
+        <v>15167</v>
       </c>
       <c r="G116" s="3">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="H116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L116" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B117" t="s">
         <v>387</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>277</v>
+      </c>
+      <c r="D117" t="s">
         <v>388</v>
       </c>
-      <c r="C117" t="s">
-        <v>86</v>
-      </c>
-      <c r="D117" t="s">
-        <v>389</v>
-      </c>
       <c r="E117" s="3">
-        <v>25592</v>
+        <v>74</v>
       </c>
       <c r="F117" s="3">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G117" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H117" s="3">
         <v>1</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L117" t="s">
         <v>16</v>
@@ -5792,34 +5792,34 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B118" t="s">
         <v>390</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>391</v>
-      </c>
-      <c r="C118" t="s">
-        <v>54</v>
       </c>
       <c r="D118" t="s">
         <v>392</v>
       </c>
       <c r="E118" s="3">
-        <v>23164</v>
+        <v>3</v>
       </c>
       <c r="F118" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G118" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L118" t="s">
         <v>16</v>
@@ -5833,13 +5833,13 @@
         <v>394</v>
       </c>
       <c r="C119" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D119" t="s">
         <v>395</v>
       </c>
       <c r="E119" s="3">
-        <v>428</v>
+        <v>4640</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>397</v>
       </c>
       <c r="C120" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D120" t="s">
         <v>398</v>
       </c>
       <c r="E120" s="3">
-        <v>617</v>
+        <v>428</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -5903,19 +5903,19 @@
         <v>400</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D121" t="s">
         <v>401</v>
       </c>
       <c r="E121" s="3">
-        <v>24890</v>
+        <v>2053</v>
       </c>
       <c r="F121" s="3">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="G121" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H121" s="3">
         <v>1</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L121" t="s">
         <v>16</v>
@@ -5938,19 +5938,19 @@
         <v>403</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="D122" t="s">
         <v>404</v>
       </c>
       <c r="E122" s="3">
-        <v>18665</v>
+        <v>25592</v>
       </c>
       <c r="F122" s="3">
-        <v>659</v>
+        <v>221</v>
       </c>
       <c r="G122" s="3">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H122" s="3">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L122" t="s">
         <v>16</v>
@@ -5973,19 +5973,19 @@
         <v>406</v>
       </c>
       <c r="C123" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D123" t="s">
         <v>407</v>
       </c>
       <c r="E123" s="3">
-        <v>2078</v>
+        <v>3080</v>
       </c>
       <c r="F123" s="3">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G123" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H123" s="3">
         <v>1</v>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="L123" t="s">
         <v>16</v>
@@ -6008,19 +6008,19 @@
         <v>409</v>
       </c>
       <c r="C124" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="D124" t="s">
         <v>410</v>
       </c>
       <c r="E124" s="3">
-        <v>8968</v>
+        <v>69498</v>
       </c>
       <c r="F124" s="3">
-        <v>117</v>
+        <v>1189</v>
       </c>
       <c r="G124" s="3">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -6043,19 +6043,19 @@
         <v>412</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="D125" t="s">
         <v>413</v>
       </c>
       <c r="E125" s="3">
-        <v>4183126</v>
+        <v>24890</v>
       </c>
       <c r="F125" s="3">
-        <v>49430</v>
+        <v>1321</v>
       </c>
       <c r="G125" s="3">
-        <v>5701</v>
+        <v>34</v>
       </c>
       <c r="H125" s="3">
         <v>1</v>
@@ -6064,10 +6064,10 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>1196</v>
+        <v>154</v>
       </c>
       <c r="L125" t="s">
-        <v>373</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6078,16 +6078,16 @@
         <v>415</v>
       </c>
       <c r="C126" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D126" t="s">
         <v>416</v>
       </c>
       <c r="E126" s="3">
-        <v>4640</v>
+        <v>239</v>
       </c>
       <c r="F126" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G126" s="3">
         <v>0</v>
@@ -6113,19 +6113,19 @@
         <v>418</v>
       </c>
       <c r="C127" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
         <v>419</v>
       </c>
       <c r="E127" s="3">
-        <v>2883</v>
+        <v>472979</v>
       </c>
       <c r="F127" s="3">
-        <v>42</v>
+        <v>20185</v>
       </c>
       <c r="G127" s="3">
-        <v>6</v>
+        <v>515</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -6134,10 +6134,10 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="L127" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6148,19 +6148,19 @@
         <v>421</v>
       </c>
       <c r="C128" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="D128" t="s">
         <v>422</v>
       </c>
       <c r="E128" s="3">
-        <v>69498</v>
+        <v>41</v>
       </c>
       <c r="F128" s="3">
-        <v>1189</v>
+        <v>1</v>
       </c>
       <c r="G128" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H128" s="3">
         <v>1</v>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="L128" t="s">
         <v>16</v>
@@ -6183,19 +6183,19 @@
         <v>424</v>
       </c>
       <c r="C129" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="D129" t="s">
         <v>425</v>
       </c>
       <c r="E129" s="3">
-        <v>74953</v>
+        <v>844</v>
       </c>
       <c r="F129" s="3">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="G129" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H129" s="3">
         <v>1</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="L129" t="s">
         <v>16</v>
@@ -6224,13 +6224,13 @@
         <v>428</v>
       </c>
       <c r="E130" s="3">
-        <v>511312</v>
+        <v>4183126</v>
       </c>
       <c r="F130" s="3">
-        <v>15167</v>
+        <v>49430</v>
       </c>
       <c r="G130" s="3">
-        <v>402</v>
+        <v>5701</v>
       </c>
       <c r="H130" s="3">
         <v>1</v>
@@ -6239,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>201</v>
+        <v>1196</v>
       </c>
       <c r="L130" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6253,19 +6253,19 @@
         <v>430</v>
       </c>
       <c r="C131" t="s">
-        <v>327</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
         <v>431</v>
       </c>
       <c r="E131" s="3">
-        <v>88</v>
+        <v>566966</v>
       </c>
       <c r="F131" s="3">
-        <v>3</v>
+        <v>18782</v>
       </c>
       <c r="G131" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -6274,10 +6274,10 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L131" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6288,19 +6288,19 @@
         <v>433</v>
       </c>
       <c r="C132" t="s">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="D132" t="s">
         <v>434</v>
       </c>
       <c r="E132" s="3">
-        <v>46</v>
+        <v>8968</v>
       </c>
       <c r="F132" s="3">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G132" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L132" t="s">
         <v>16</v>
@@ -6323,19 +6323,19 @@
         <v>436</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D133" t="s">
         <v>437</v>
       </c>
       <c r="E133" s="3">
-        <v>222595</v>
+        <v>2078</v>
       </c>
       <c r="F133" s="3">
-        <v>9022</v>
+        <v>44</v>
       </c>
       <c r="G133" s="3">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="H133" s="3">
         <v>1</v>
@@ -6344,10 +6344,10 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="L133" t="s">
-        <v>373</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6358,13 +6358,13 @@
         <v>439</v>
       </c>
       <c r="C134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D134" t="s">
         <v>440</v>
       </c>
       <c r="E134" s="3">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -6393,28 +6393,28 @@
         <v>442</v>
       </c>
       <c r="C135" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D135" t="s">
         <v>443</v>
       </c>
       <c r="E135" s="3">
-        <v>1372</v>
+        <v>4759</v>
       </c>
       <c r="F135" s="3">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="G135" s="3">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="H135" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L135" t="s">
         <v>16</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B21">
         <v>57</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B30">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-v.xlsx
+++ b/app/assets/data/info/evo-france-info-month-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="373">
   <si>
     <t>URL</t>
   </si>
@@ -122,6 +122,69 @@
     <t>2019-04-06T13:45:00.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
   </si>
   <si>
@@ -131,27 +194,6 @@
     <t>2019-12-11T20:00:22.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
   </si>
   <si>
@@ -161,48 +203,6 @@
     <t>2019-12-09T17:00:07.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
   </si>
   <si>
@@ -230,6 +230,279 @@
     <t>2019-12-17T17:19:32.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
   </si>
   <si>
@@ -239,202 +512,400 @@
     <t>2019-12-12T15:30:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
@@ -446,178 +917,193 @@
     <t>2019-12-12T15:14:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
-  </si>
-  <si>
-    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
-  </si>
-  <si>
-    <t>Fred Bes</t>
-  </si>
-  <si>
-    <t>2019-12-20T19:28:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
-  </si>
-  <si>
-    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-13T22:06:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
-  </si>
-  <si>
-    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-24T19:30:22.000Z</t>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
@@ -629,573 +1115,6 @@
     <t>2019-12-12T15:15:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
-  </si>
-  <si>
-    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
-  </si>
-  <si>
-    <t>2019-12-28T08:24:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>Daniel Dupont</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
-  </si>
-  <si>
-    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T18:41:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
-  </si>
-  <si>
-    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
-  </si>
-  <si>
-    <t>2019-12-11T21:32:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
   </si>
   <si>
@@ -1203,141 +1122,6 @@
   </si>
   <si>
     <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
@@ -1707,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1989,25 +1773,25 @@
         <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>106303</v>
+        <v>23702</v>
       </c>
       <c r="F9" s="3">
-        <v>4496</v>
+        <v>3315</v>
       </c>
       <c r="G9" s="3">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>647</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2018,19 +1802,19 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>23702</v>
+        <v>13867</v>
       </c>
       <c r="F10" s="3">
-        <v>3315</v>
+        <v>934</v>
       </c>
       <c r="G10" s="3">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -2039,42 +1823,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
-        <v>13867</v>
+        <v>13154</v>
       </c>
       <c r="F11" s="3">
-        <v>934</v>
+        <v>1256</v>
       </c>
       <c r="G11" s="3">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -2082,34 +1866,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3">
-        <v>113046</v>
+        <v>9999</v>
       </c>
       <c r="F12" s="3">
-        <v>8422</v>
+        <v>357</v>
       </c>
       <c r="G12" s="3">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -2117,25 +1901,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3">
-        <v>13154</v>
+        <v>7772</v>
       </c>
       <c r="F13" s="3">
-        <v>1256</v>
+        <v>239</v>
       </c>
       <c r="G13" s="3">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -2144,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -2152,25 +1936,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>9999</v>
+        <v>5880</v>
       </c>
       <c r="F14" s="3">
-        <v>357</v>
+        <v>594</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -2179,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -2193,19 +1977,19 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>7772</v>
+        <v>106303</v>
       </c>
       <c r="F15" s="3">
-        <v>239</v>
+        <v>4496</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -2214,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16</v>
+        <v>1697</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -2228,19 +2012,19 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>5880</v>
+        <v>113046</v>
       </c>
       <c r="F16" s="3">
-        <v>594</v>
+        <v>8422</v>
       </c>
       <c r="G16" s="3">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -2249,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -2263,7 +2047,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
@@ -2298,7 +2082,7 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
@@ -2333,7 +2117,7 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
@@ -2368,28 +2152,28 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>4358</v>
+        <v>3484</v>
       </c>
       <c r="F20" s="3">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G20" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -2424,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -2438,28 +2222,28 @@
         <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>3484</v>
+        <v>3021</v>
       </c>
       <c r="F22" s="3">
-        <v>224</v>
+        <v>580</v>
       </c>
       <c r="G22" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -2473,19 +2257,19 @@
         <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3">
-        <v>3021</v>
+        <v>2959</v>
       </c>
       <c r="F23" s="3">
-        <v>580</v>
+        <v>38</v>
       </c>
       <c r="G23" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -2494,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -2502,25 +2286,25 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>87</v>
       </c>
       <c r="E24" s="3">
-        <v>2959</v>
+        <v>2848</v>
       </c>
       <c r="F24" s="3">
-        <v>38</v>
+        <v>523</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -2529,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -2543,19 +2327,19 @@
         <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="3">
-        <v>2848</v>
+        <v>2352</v>
       </c>
       <c r="F25" s="3">
-        <v>523</v>
+        <v>89</v>
       </c>
       <c r="G25" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -2564,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -2578,19 +2362,19 @@
         <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="3">
-        <v>2352</v>
+        <v>1803</v>
       </c>
       <c r="F26" s="3">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -2599,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -2607,25 +2391,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E27" s="3">
-        <v>7431</v>
+        <v>1663</v>
       </c>
       <c r="F27" s="3">
-        <v>661</v>
+        <v>218</v>
       </c>
       <c r="G27" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -2634,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -2642,25 +2426,25 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28" s="3">
-        <v>1803</v>
+        <v>1593</v>
       </c>
       <c r="F28" s="3">
-        <v>69</v>
+        <v>331</v>
       </c>
       <c r="G28" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -2669,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -2677,25 +2461,25 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
         <v>104</v>
       </c>
       <c r="E29" s="3">
-        <v>1663</v>
+        <v>1556</v>
       </c>
       <c r="F29" s="3">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="G29" s="3">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2704,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -2718,19 +2502,19 @@
         <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
         <v>107</v>
       </c>
       <c r="E30" s="3">
-        <v>1593</v>
+        <v>1517</v>
       </c>
       <c r="F30" s="3">
-        <v>331</v>
+        <v>162</v>
       </c>
       <c r="G30" s="3">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -2739,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -2753,19 +2537,19 @@
         <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3">
-        <v>1556</v>
+        <v>7431</v>
       </c>
       <c r="F31" s="3">
-        <v>100</v>
+        <v>661</v>
       </c>
       <c r="G31" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -2774,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -2794,13 +2578,13 @@
         <v>114</v>
       </c>
       <c r="E32" s="3">
-        <v>1542</v>
+        <v>1386</v>
       </c>
       <c r="F32" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2809,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -2823,19 +2607,19 @@
         <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="3">
-        <v>1517</v>
+        <v>1330</v>
       </c>
       <c r="F33" s="3">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="G33" s="3">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -2844,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -2858,19 +2642,19 @@
         <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34" s="3">
-        <v>11977</v>
+        <v>1274</v>
       </c>
       <c r="F34" s="3">
-        <v>324</v>
+        <v>128</v>
       </c>
       <c r="G34" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -2879,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -2887,25 +2671,25 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E35" s="3">
-        <v>1386</v>
+        <v>1254</v>
       </c>
       <c r="F35" s="3">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="G35" s="3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -2914,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -2922,25 +2706,25 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E36" s="3">
-        <v>1330</v>
+        <v>1185</v>
       </c>
       <c r="F36" s="3">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -2949,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -2957,25 +2741,25 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="3">
-        <v>1274</v>
+        <v>1084</v>
       </c>
       <c r="F37" s="3">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -2984,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -2998,19 +2782,19 @@
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>1254</v>
+        <v>995</v>
       </c>
       <c r="F38" s="3">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G38" s="3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -3019,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -3033,19 +2817,19 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
         <v>136</v>
       </c>
       <c r="E39" s="3">
-        <v>1185</v>
+        <v>691</v>
       </c>
       <c r="F39" s="3">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="G39" s="3">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -3054,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -3068,19 +2852,19 @@
         <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
         <v>139</v>
       </c>
       <c r="E40" s="3">
-        <v>1084</v>
+        <v>691</v>
       </c>
       <c r="F40" s="3">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="G40" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -3089,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -3103,19 +2887,19 @@
         <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
         <v>142</v>
       </c>
       <c r="E41" s="3">
-        <v>1080</v>
+        <v>653</v>
       </c>
       <c r="F41" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G41" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -3124,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -3138,19 +2922,19 @@
         <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
         <v>145</v>
       </c>
       <c r="E42" s="3">
-        <v>995</v>
+        <v>641</v>
       </c>
       <c r="F42" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G42" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3159,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3173,19 +2957,19 @@
         <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E43" s="3">
-        <v>12342</v>
+        <v>619</v>
       </c>
       <c r="F43" s="3">
-        <v>330</v>
+        <v>29</v>
       </c>
       <c r="G43" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3194,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -3202,25 +2986,25 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E44" s="3">
-        <v>691</v>
+        <v>578</v>
       </c>
       <c r="F44" s="3">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3229,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3237,25 +3021,25 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E45" s="3">
-        <v>691</v>
+        <v>1542</v>
       </c>
       <c r="F45" s="3">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="G45" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3264,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -3272,25 +3056,25 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E46" s="3">
-        <v>653</v>
+        <v>12342</v>
       </c>
       <c r="F46" s="3">
-        <v>102</v>
+        <v>330</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3299,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -3307,25 +3091,25 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E47" s="3">
-        <v>644</v>
+        <v>11977</v>
       </c>
       <c r="F47" s="3">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="G47" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3334,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -3342,25 +3126,25 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E48" s="3">
-        <v>641</v>
+        <v>4358</v>
       </c>
       <c r="F48" s="3">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3369,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -3377,25 +3161,25 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
         <v>167</v>
       </c>
       <c r="E49" s="3">
-        <v>619</v>
+        <v>357</v>
       </c>
       <c r="F49" s="3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3404,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
@@ -3418,19 +3202,19 @@
         <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
         <v>170</v>
       </c>
       <c r="E50" s="3">
-        <v>578</v>
+        <v>346</v>
       </c>
       <c r="F50" s="3">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3453,19 +3237,19 @@
         <v>172</v>
       </c>
       <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s">
         <v>173</v>
       </c>
-      <c r="D51" t="s">
-        <v>174</v>
-      </c>
       <c r="E51" s="3">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="F51" s="3">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3474,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
@@ -3482,25 +3266,25 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s">
         <v>175</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>176</v>
-      </c>
-      <c r="C52" t="s">
-        <v>113</v>
       </c>
       <c r="D52" t="s">
         <v>177</v>
       </c>
       <c r="E52" s="3">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="F52" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3509,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
@@ -3523,16 +3307,16 @@
         <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E53" s="3">
-        <v>346</v>
+        <v>226</v>
       </c>
       <c r="F53" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -3544,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -3552,25 +3336,25 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E54" s="3">
-        <v>322</v>
+        <v>175</v>
       </c>
       <c r="F54" s="3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G54" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3579,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -3587,34 +3371,34 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E55" s="3">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="F55" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -3622,25 +3406,25 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E56" s="3">
-        <v>285</v>
+        <v>2165</v>
       </c>
       <c r="F56" s="3">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="G56" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -3649,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -3657,16 +3441,16 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E57" s="3">
         <v>1493</v>
@@ -3692,19 +3476,19 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E58" s="3">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="F58" s="3">
         <v>1</v>
@@ -3727,25 +3511,25 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E59" s="3">
-        <v>222</v>
+        <v>4711</v>
       </c>
       <c r="F59" s="3">
-        <v>30</v>
+        <v>387</v>
       </c>
       <c r="G59" s="3">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3754,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
@@ -3762,25 +3546,25 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E60" s="3">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="F60" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -3789,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
@@ -3797,22 +3581,22 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="D61" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E61" s="3">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="F61" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3824,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
@@ -3832,34 +3616,34 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E62" s="3">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="F62" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -3867,25 +3651,25 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D63" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E63" s="3">
-        <v>2165</v>
+        <v>32</v>
       </c>
       <c r="F63" s="3">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -3894,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
@@ -3902,25 +3686,25 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E64" s="3">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="F64" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -3929,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
@@ -3937,28 +3721,28 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E65" s="3">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="F65" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
       </c>
       <c r="H65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3972,22 +3756,22 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E66" s="3">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="F66" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -3999,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -4007,25 +3791,25 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B67" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C67" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E67" s="3">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F67" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -4034,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
@@ -4042,22 +3826,22 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E68" s="3">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="F68" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -4069,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -4077,22 +3861,22 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E69" s="3">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="F69" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -4104,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
@@ -4112,22 +3896,22 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E70" s="3">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F70" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4147,22 +3931,22 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E71" s="3">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="F71" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G71" s="3">
         <v>1</v>
@@ -4182,25 +3966,25 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E72" s="3">
-        <v>4711</v>
+        <v>656</v>
       </c>
       <c r="F72" s="3">
-        <v>387</v>
+        <v>30</v>
       </c>
       <c r="G72" s="3">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4209,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
@@ -4217,25 +4001,25 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B73" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C73" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E73" s="3">
-        <v>61</v>
+        <v>1921</v>
       </c>
       <c r="F73" s="3">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="G73" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
@@ -4244,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
@@ -4252,25 +4036,25 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="D74" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E74" s="3">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F74" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4279,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
@@ -4287,22 +4071,22 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C75" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="D75" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E75" s="3">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="F75" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
@@ -4322,25 +4106,25 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D76" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E76" s="3">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -4357,22 +4141,22 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="D77" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E77" s="3">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="3">
         <v>0</v>
@@ -4384,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L77" t="s">
         <v>16</v>
@@ -4392,22 +4176,22 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B78" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="D78" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E78" s="3">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="F78" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G78" s="3">
         <v>0</v>
@@ -4419,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
@@ -4427,19 +4211,19 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B79" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C79" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="D79" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E79" s="3">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -4462,69 +4246,69 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E80" s="3">
-        <v>32</v>
+        <v>222595</v>
       </c>
       <c r="F80" s="3">
-        <v>0</v>
+        <v>9022</v>
       </c>
       <c r="G80" s="3">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="H80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="L80" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E81" s="3">
-        <v>30</v>
+        <v>18665</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G81" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
@@ -4532,22 +4316,22 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E82" s="3">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
@@ -4559,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
@@ -4567,22 +4351,22 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B83" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E83" s="3">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4602,34 +4386,34 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B84" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C84" t="s">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E84" s="3">
-        <v>96</v>
+        <v>8968</v>
       </c>
       <c r="F84" s="3">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G84" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -4637,69 +4421,69 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E85" s="3">
-        <v>17</v>
+        <v>472979</v>
       </c>
       <c r="F85" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G85" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L85" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B86" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="D86" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E86" s="3">
-        <v>17</v>
+        <v>74953</v>
       </c>
       <c r="F86" s="3">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="G86" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
@@ -4707,34 +4491,34 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="D87" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E87" s="3">
-        <v>11</v>
+        <v>2883</v>
       </c>
       <c r="F87" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G87" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L87" t="s">
         <v>16</v>
@@ -4742,25 +4526,25 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C88" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="D88" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E88" s="3">
-        <v>21</v>
+        <v>1080</v>
       </c>
       <c r="F88" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G88" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -4769,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L88" t="s">
         <v>16</v>
@@ -4777,34 +4561,34 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B89" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="D89" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E89" s="3">
-        <v>732</v>
+        <v>41</v>
       </c>
       <c r="F89" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G89" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
@@ -4812,19 +4596,19 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E90" s="3">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -4833,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4847,34 +4631,34 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B91" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="D91" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E91" s="3">
-        <v>6</v>
+        <v>25592</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
@@ -4882,34 +4666,34 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B92" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C92" t="s">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E92" s="3">
-        <v>5</v>
+        <v>24890</v>
       </c>
       <c r="F92" s="3">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="G92" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
@@ -4917,34 +4701,34 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B93" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C93" t="s">
-        <v>255</v>
+        <v>93</v>
       </c>
       <c r="D93" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E93" s="3">
-        <v>42</v>
+        <v>2078</v>
       </c>
       <c r="F93" s="3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G93" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H93" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
@@ -4952,25 +4736,25 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B94" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C94" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E94" s="3">
-        <v>656</v>
+        <v>42</v>
       </c>
       <c r="F94" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4979,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
@@ -4987,34 +4771,34 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B95" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="D95" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E95" s="3">
-        <v>1921</v>
+        <v>3080</v>
       </c>
       <c r="F95" s="3">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G95" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H95" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -5022,54 +4806,54 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C96" t="s">
-        <v>305</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E96" s="3">
-        <v>2</v>
+        <v>566966</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>18782</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L96" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B97" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C97" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
       <c r="D97" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E97" s="3">
-        <v>2</v>
+        <v>2053</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -5078,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5092,28 +4876,28 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B98" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E98" s="3">
-        <v>43</v>
+        <v>617</v>
       </c>
       <c r="F98" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G98" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5127,28 +4911,28 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E99" s="3">
-        <v>110</v>
+        <v>844</v>
       </c>
       <c r="F99" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
       </c>
       <c r="H99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5162,19 +4946,19 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C100" t="s">
-        <v>334</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
         <v>335</v>
       </c>
       <c r="E100" s="3">
-        <v>9</v>
+        <v>8644</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5183,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5203,28 +4987,28 @@
         <v>337</v>
       </c>
       <c r="C101" t="s">
+        <v>93</v>
+      </c>
+      <c r="D101" t="s">
         <v>338</v>
       </c>
-      <c r="D101" t="s">
-        <v>339</v>
-      </c>
       <c r="E101" s="3">
-        <v>94</v>
+        <v>1237</v>
       </c>
       <c r="F101" s="3">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G101" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
@@ -5232,19 +5016,19 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B102" t="s">
         <v>340</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
+        <v>254</v>
+      </c>
+      <c r="D102" t="s">
         <v>341</v>
       </c>
-      <c r="C102" t="s">
-        <v>255</v>
-      </c>
-      <c r="D102" t="s">
-        <v>342</v>
-      </c>
       <c r="E102" s="3">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5253,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -5267,25 +5051,25 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B103" t="s">
         <v>343</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103" t="s">
         <v>344</v>
       </c>
-      <c r="C103" t="s">
-        <v>103</v>
-      </c>
-      <c r="D103" t="s">
-        <v>345</v>
-      </c>
       <c r="E103" s="3">
-        <v>1372</v>
+        <v>43</v>
       </c>
       <c r="F103" s="3">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="G103" s="3">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5302,25 +5086,25 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B104" t="s">
         <v>346</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" t="s">
         <v>347</v>
       </c>
-      <c r="C104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D104" t="s">
-        <v>348</v>
-      </c>
       <c r="E104" s="3">
-        <v>95</v>
+        <v>23164</v>
       </c>
       <c r="F104" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G104" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H104" s="3">
         <v>1</v>
@@ -5329,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
@@ -5337,19 +5121,19 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B105" t="s">
         <v>349</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" t="s">
         <v>350</v>
       </c>
-      <c r="C105" t="s">
-        <v>255</v>
-      </c>
-      <c r="D105" t="s">
-        <v>351</v>
-      </c>
       <c r="E105" s="3">
-        <v>8644</v>
+        <v>428</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -5372,28 +5156,28 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B106" t="s">
         <v>352</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>258</v>
+      </c>
+      <c r="D106" t="s">
         <v>353</v>
       </c>
-      <c r="C106" t="s">
-        <v>323</v>
-      </c>
-      <c r="D106" t="s">
-        <v>354</v>
-      </c>
       <c r="E106" s="3">
-        <v>1</v>
+        <v>88</